--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,24 @@
     <t>['76', '90+3']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['54', '70']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['15', '23', '85']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['43', '53']</t>
   </si>
   <si>
@@ -724,9 +742,6 @@
     <t>['33', '90+3']</t>
   </si>
   <si>
-    <t>['18']</t>
-  </si>
-  <si>
     <t>['23', '72']</t>
   </si>
   <si>
@@ -761,6 +776,9 @@
   </si>
   <si>
     <t>['8', '35']</t>
+  </si>
+  <si>
+    <t>['61', '69']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK124"/>
+  <dimension ref="A1:BK132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1453,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT2">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1557,7 +1575,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1748,7 +1766,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1939,7 +1957,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2029,7 +2047,7 @@
         <v>1.71</v>
       </c>
       <c r="AT5">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2130,7 +2148,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2512,7 +2530,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2703,7 +2721,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2793,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2981,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT10">
         <v>2</v>
@@ -3363,10 +3381,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3467,7 +3485,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3554,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT13">
         <v>1.5</v>
@@ -3658,7 +3676,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -3748,7 +3766,7 @@
         <v>2.67</v>
       </c>
       <c r="AT14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3849,7 +3867,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3939,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="AT15">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4231,7 +4249,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4318,10 +4336,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT17">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4422,7 +4440,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4509,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT18">
         <v>0.67</v>
@@ -4613,7 +4631,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4804,7 +4822,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4891,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT20">
         <v>1.83</v>
@@ -5082,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT21">
         <v>0.86</v>
@@ -5186,7 +5204,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5273,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT22">
         <v>1.5</v>
@@ -5377,7 +5395,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5568,7 +5586,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5759,7 +5777,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6040,7 +6058,7 @@
         <v>1.5</v>
       </c>
       <c r="AT26">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU26">
         <v>0.87</v>
@@ -6141,7 +6159,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6231,7 +6249,7 @@
         <v>1.29</v>
       </c>
       <c r="AT27">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU27">
         <v>1.63</v>
@@ -6332,7 +6350,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6523,7 +6541,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6610,10 +6628,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT29">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.89</v>
@@ -6714,7 +6732,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6905,7 +6923,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6995,7 +7013,7 @@
         <v>0.17</v>
       </c>
       <c r="AT31">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU31">
         <v>1.08</v>
@@ -7183,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -7287,7 +7305,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7565,7 +7583,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT34">
         <v>0.67</v>
@@ -7756,10 +7774,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT35">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU35">
         <v>1.19</v>
@@ -7860,7 +7878,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7947,10 +7965,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT36">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8051,7 +8069,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8242,7 +8260,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8329,10 +8347,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT38">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -8815,7 +8833,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>9</v>
@@ -8902,10 +8920,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT41">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU41">
         <v>1.62</v>
@@ -9096,7 +9114,7 @@
         <v>1.29</v>
       </c>
       <c r="AT42">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>1.85</v>
@@ -9197,7 +9215,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9388,7 +9406,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9475,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT44">
         <v>0.86</v>
@@ -9579,7 +9597,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9770,7 +9788,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9860,7 +9878,7 @@
         <v>2</v>
       </c>
       <c r="AT46">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU46">
         <v>1.88</v>
@@ -10051,7 +10069,7 @@
         <v>1.86</v>
       </c>
       <c r="AT47">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU47">
         <v>1.98</v>
@@ -10152,7 +10170,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10343,7 +10361,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10430,7 +10448,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10534,7 +10552,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10725,7 +10743,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10812,7 +10830,7 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT51">
         <v>1.83</v>
@@ -11003,10 +11021,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT52">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU52">
         <v>1.89</v>
@@ -11107,7 +11125,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -11194,7 +11212,7 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT53">
         <v>2.71</v>
@@ -11298,7 +11316,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11388,7 +11406,7 @@
         <v>1.29</v>
       </c>
       <c r="AT54">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU54">
         <v>1.65</v>
@@ -11489,7 +11507,7 @@
         <v>87</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11767,7 +11785,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -12253,7 +12271,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12340,7 +12358,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT59">
         <v>1.5</v>
@@ -12444,7 +12462,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12722,7 +12740,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT61">
         <v>0.67</v>
@@ -13208,7 +13226,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13298,7 +13316,7 @@
         <v>1.86</v>
       </c>
       <c r="AT64">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU64">
         <v>2.14</v>
@@ -13489,7 +13507,7 @@
         <v>0.57</v>
       </c>
       <c r="AT65">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU65">
         <v>1.41</v>
@@ -13871,7 +13889,7 @@
         <v>0.17</v>
       </c>
       <c r="AT67">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU67">
         <v>1.29</v>
@@ -13972,7 +13990,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14062,7 +14080,7 @@
         <v>0.57</v>
       </c>
       <c r="AT68">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU68">
         <v>1.52</v>
@@ -14163,7 +14181,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14250,7 +14268,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT69">
         <v>0.43</v>
@@ -14441,10 +14459,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT70">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU70">
         <v>2.14</v>
@@ -14545,7 +14563,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -14632,7 +14650,7 @@
         <v>0.5</v>
       </c>
       <c r="AS71">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT71">
         <v>0.67</v>
@@ -14736,7 +14754,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14823,7 +14841,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT72">
         <v>2</v>
@@ -14927,7 +14945,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15118,7 +15136,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15309,7 +15327,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15500,7 +15518,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15691,7 +15709,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15781,7 +15799,7 @@
         <v>0.83</v>
       </c>
       <c r="AT77">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU77">
         <v>1.48</v>
@@ -15882,7 +15900,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>11</v>
@@ -16160,10 +16178,10 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT79">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.49</v>
@@ -16351,7 +16369,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT80">
         <v>1.5</v>
@@ -16455,7 +16473,7 @@
         <v>87</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16542,7 +16560,7 @@
         <v>3</v>
       </c>
       <c r="AS81">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT81">
         <v>2.71</v>
@@ -16646,7 +16664,7 @@
         <v>87</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16837,7 +16855,7 @@
         <v>94</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -17028,7 +17046,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17118,7 +17136,7 @@
         <v>2.67</v>
       </c>
       <c r="AT84">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU84">
         <v>2.31</v>
@@ -17219,7 +17237,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -17306,10 +17324,10 @@
         <v>1.75</v>
       </c>
       <c r="AS85">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT85">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU85">
         <v>1.8</v>
@@ -17410,7 +17428,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17497,7 +17515,7 @@
         <v>0.75</v>
       </c>
       <c r="AS86">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17601,7 +17619,7 @@
         <v>104</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17691,7 +17709,7 @@
         <v>0.17</v>
       </c>
       <c r="AT87">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU87">
         <v>1.29</v>
@@ -17792,7 +17810,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17882,7 +17900,7 @@
         <v>1.71</v>
       </c>
       <c r="AT88">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU88">
         <v>1.53</v>
@@ -17983,7 +18001,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>10</v>
@@ -18070,7 +18088,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -18174,7 +18192,7 @@
         <v>146</v>
       </c>
       <c r="P90" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -18261,7 +18279,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT90">
         <v>0.43</v>
@@ -18643,7 +18661,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT92">
         <v>0.67</v>
@@ -18747,7 +18765,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q93">
         <v>11</v>
@@ -18837,7 +18855,7 @@
         <v>1.86</v>
       </c>
       <c r="AT93">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU93">
         <v>2.04</v>
@@ -19129,7 +19147,7 @@
         <v>87</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19320,7 +19338,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19407,7 +19425,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT96">
         <v>2</v>
@@ -19511,7 +19529,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19601,7 +19619,7 @@
         <v>1.5</v>
       </c>
       <c r="AT97">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU97">
         <v>1.19</v>
@@ -19702,7 +19720,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19893,7 +19911,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20171,7 +20189,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT100">
         <v>0.43</v>
@@ -20466,7 +20484,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20556,7 +20574,7 @@
         <v>0.57</v>
       </c>
       <c r="AT102">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU102">
         <v>1.38</v>
@@ -20744,7 +20762,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -20938,7 +20956,7 @@
         <v>3</v>
       </c>
       <c r="AT104">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU104">
         <v>1.94</v>
@@ -21039,7 +21057,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21129,7 +21147,7 @@
         <v>1.71</v>
       </c>
       <c r="AT105">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU105">
         <v>1.52</v>
@@ -21230,7 +21248,7 @@
         <v>158</v>
       </c>
       <c r="P106" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21317,7 +21335,7 @@
         <v>0.8</v>
       </c>
       <c r="AS106">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
         <v>1</v>
@@ -21421,7 +21439,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21508,7 +21526,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT107">
         <v>0.67</v>
@@ -21612,7 +21630,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21699,10 +21717,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT108">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU108">
         <v>1.88</v>
@@ -21890,10 +21908,10 @@
         <v>1.4</v>
       </c>
       <c r="AS109">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT109">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU109">
         <v>1.48</v>
@@ -22081,10 +22099,10 @@
         <v>1.4</v>
       </c>
       <c r="AS110">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT110">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU110">
         <v>1.38</v>
@@ -22376,7 +22394,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22567,7 +22585,7 @@
         <v>104</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22758,7 +22776,7 @@
         <v>87</v>
       </c>
       <c r="P114" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22949,7 +22967,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23140,7 +23158,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23230,7 +23248,7 @@
         <v>1</v>
       </c>
       <c r="AT116">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU116">
         <v>1.59</v>
@@ -23331,7 +23349,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23418,7 +23436,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT117">
         <v>2</v>
@@ -23522,7 +23540,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23713,7 +23731,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24095,7 +24113,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24477,7 +24495,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24668,7 +24686,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -24810,6 +24828,1534 @@
       </c>
       <c r="BK124">
         <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2468040</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44864.375</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>80</v>
+      </c>
+      <c r="H125" t="s">
+        <v>79</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>173</v>
+      </c>
+      <c r="P125" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>5</v>
+      </c>
+      <c r="S125">
+        <v>10</v>
+      </c>
+      <c r="T125">
+        <v>3.4</v>
+      </c>
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
+        <v>3.6</v>
+      </c>
+      <c r="W125">
+        <v>1.53</v>
+      </c>
+      <c r="X125">
+        <v>2.38</v>
+      </c>
+      <c r="Y125">
+        <v>3.5</v>
+      </c>
+      <c r="Z125">
+        <v>1.29</v>
+      </c>
+      <c r="AA125">
+        <v>11</v>
+      </c>
+      <c r="AB125">
+        <v>1.05</v>
+      </c>
+      <c r="AC125">
+        <v>2.6</v>
+      </c>
+      <c r="AD125">
+        <v>3.25</v>
+      </c>
+      <c r="AE125">
+        <v>2.75</v>
+      </c>
+      <c r="AF125">
+        <v>1.08</v>
+      </c>
+      <c r="AG125">
+        <v>8.5</v>
+      </c>
+      <c r="AH125">
+        <v>1.47</v>
+      </c>
+      <c r="AI125">
+        <v>2.75</v>
+      </c>
+      <c r="AJ125">
+        <v>2.3</v>
+      </c>
+      <c r="AK125">
+        <v>1.66</v>
+      </c>
+      <c r="AL125">
+        <v>2</v>
+      </c>
+      <c r="AM125">
+        <v>1.75</v>
+      </c>
+      <c r="AN125">
+        <v>1.4</v>
+      </c>
+      <c r="AO125">
+        <v>1.35</v>
+      </c>
+      <c r="AP125">
+        <v>1.5</v>
+      </c>
+      <c r="AQ125">
+        <v>1</v>
+      </c>
+      <c r="AR125">
+        <v>1.17</v>
+      </c>
+      <c r="AS125">
+        <v>1.29</v>
+      </c>
+      <c r="AT125">
+        <v>1</v>
+      </c>
+      <c r="AU125">
+        <v>1.47</v>
+      </c>
+      <c r="AV125">
+        <v>1.32</v>
+      </c>
+      <c r="AW125">
+        <v>2.79</v>
+      </c>
+      <c r="AX125">
+        <v>1.97</v>
+      </c>
+      <c r="AY125">
+        <v>7.2</v>
+      </c>
+      <c r="AZ125">
+        <v>2.27</v>
+      </c>
+      <c r="BA125">
+        <v>1.53</v>
+      </c>
+      <c r="BB125">
+        <v>1.95</v>
+      </c>
+      <c r="BC125">
+        <v>2.62</v>
+      </c>
+      <c r="BD125">
+        <v>3.56</v>
+      </c>
+      <c r="BE125">
+        <v>5.35</v>
+      </c>
+      <c r="BF125">
+        <v>6</v>
+      </c>
+      <c r="BG125">
+        <v>2</v>
+      </c>
+      <c r="BH125">
+        <v>14</v>
+      </c>
+      <c r="BI125">
+        <v>4</v>
+      </c>
+      <c r="BJ125">
+        <v>20</v>
+      </c>
+      <c r="BK125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2468048</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>83</v>
+      </c>
+      <c r="H126" t="s">
+        <v>78</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126" t="s">
+        <v>87</v>
+      </c>
+      <c r="P126" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q126">
+        <v>5</v>
+      </c>
+      <c r="R126">
+        <v>5</v>
+      </c>
+      <c r="S126">
+        <v>10</v>
+      </c>
+      <c r="T126">
+        <v>3.2</v>
+      </c>
+      <c r="U126">
+        <v>2.1</v>
+      </c>
+      <c r="V126">
+        <v>3.25</v>
+      </c>
+      <c r="W126">
+        <v>1.4</v>
+      </c>
+      <c r="X126">
+        <v>2.75</v>
+      </c>
+      <c r="Y126">
+        <v>3</v>
+      </c>
+      <c r="Z126">
+        <v>1.36</v>
+      </c>
+      <c r="AA126">
+        <v>8</v>
+      </c>
+      <c r="AB126">
+        <v>1.08</v>
+      </c>
+      <c r="AC126">
+        <v>2.4</v>
+      </c>
+      <c r="AD126">
+        <v>3.5</v>
+      </c>
+      <c r="AE126">
+        <v>2.8</v>
+      </c>
+      <c r="AF126">
+        <v>1.05</v>
+      </c>
+      <c r="AG126">
+        <v>11</v>
+      </c>
+      <c r="AH126">
+        <v>1.32</v>
+      </c>
+      <c r="AI126">
+        <v>3.4</v>
+      </c>
+      <c r="AJ126">
+        <v>1.94</v>
+      </c>
+      <c r="AK126">
+        <v>1.91</v>
+      </c>
+      <c r="AL126">
+        <v>1.75</v>
+      </c>
+      <c r="AM126">
+        <v>2</v>
+      </c>
+      <c r="AN126">
+        <v>1.43</v>
+      </c>
+      <c r="AO126">
+        <v>1.31</v>
+      </c>
+      <c r="AP126">
+        <v>1.51</v>
+      </c>
+      <c r="AQ126">
+        <v>0.4</v>
+      </c>
+      <c r="AR126">
+        <v>1</v>
+      </c>
+      <c r="AS126">
+        <v>0.5</v>
+      </c>
+      <c r="AT126">
+        <v>1</v>
+      </c>
+      <c r="AU126">
+        <v>1.56</v>
+      </c>
+      <c r="AV126">
+        <v>1.36</v>
+      </c>
+      <c r="AW126">
+        <v>2.92</v>
+      </c>
+      <c r="AX126">
+        <v>1.69</v>
+      </c>
+      <c r="AY126">
+        <v>7.8</v>
+      </c>
+      <c r="AZ126">
+        <v>2.72</v>
+      </c>
+      <c r="BA126">
+        <v>1.26</v>
+      </c>
+      <c r="BB126">
+        <v>1.5</v>
+      </c>
+      <c r="BC126">
+        <v>1.9</v>
+      </c>
+      <c r="BD126">
+        <v>2.45</v>
+      </c>
+      <c r="BE126">
+        <v>3.34</v>
+      </c>
+      <c r="BF126">
+        <v>7</v>
+      </c>
+      <c r="BG126">
+        <v>4</v>
+      </c>
+      <c r="BH126">
+        <v>7</v>
+      </c>
+      <c r="BI126">
+        <v>7</v>
+      </c>
+      <c r="BJ126">
+        <v>14</v>
+      </c>
+      <c r="BK126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2468041</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>76</v>
+      </c>
+      <c r="H127" t="s">
+        <v>70</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>174</v>
+      </c>
+      <c r="P127" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q127">
+        <v>7</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>7</v>
+      </c>
+      <c r="T127">
+        <v>1.83</v>
+      </c>
+      <c r="U127">
+        <v>2.63</v>
+      </c>
+      <c r="V127">
+        <v>6.5</v>
+      </c>
+      <c r="W127">
+        <v>1.25</v>
+      </c>
+      <c r="X127">
+        <v>3.75</v>
+      </c>
+      <c r="Y127">
+        <v>2.2</v>
+      </c>
+      <c r="Z127">
+        <v>1.62</v>
+      </c>
+      <c r="AA127">
+        <v>5</v>
+      </c>
+      <c r="AB127">
+        <v>1.17</v>
+      </c>
+      <c r="AC127">
+        <v>1.37</v>
+      </c>
+      <c r="AD127">
+        <v>5.25</v>
+      </c>
+      <c r="AE127">
+        <v>7.5</v>
+      </c>
+      <c r="AF127">
+        <v>1.01</v>
+      </c>
+      <c r="AG127">
+        <v>21</v>
+      </c>
+      <c r="AH127">
+        <v>1.15</v>
+      </c>
+      <c r="AI127">
+        <v>5.5</v>
+      </c>
+      <c r="AJ127">
+        <v>1.53</v>
+      </c>
+      <c r="AK127">
+        <v>2.45</v>
+      </c>
+      <c r="AL127">
+        <v>1.75</v>
+      </c>
+      <c r="AM127">
+        <v>2</v>
+      </c>
+      <c r="AN127">
+        <v>1.09</v>
+      </c>
+      <c r="AO127">
+        <v>1.17</v>
+      </c>
+      <c r="AP127">
+        <v>2.95</v>
+      </c>
+      <c r="AQ127">
+        <v>1.33</v>
+      </c>
+      <c r="AR127">
+        <v>0.8</v>
+      </c>
+      <c r="AS127">
+        <v>1.57</v>
+      </c>
+      <c r="AT127">
+        <v>0.67</v>
+      </c>
+      <c r="AU127">
+        <v>1.32</v>
+      </c>
+      <c r="AV127">
+        <v>1.37</v>
+      </c>
+      <c r="AW127">
+        <v>2.69</v>
+      </c>
+      <c r="AX127">
+        <v>1.23</v>
+      </c>
+      <c r="AY127">
+        <v>10.25</v>
+      </c>
+      <c r="AZ127">
+        <v>5.7</v>
+      </c>
+      <c r="BA127">
+        <v>1.28</v>
+      </c>
+      <c r="BB127">
+        <v>1.54</v>
+      </c>
+      <c r="BC127">
+        <v>1.95</v>
+      </c>
+      <c r="BD127">
+        <v>2.56</v>
+      </c>
+      <c r="BE127">
+        <v>3.48</v>
+      </c>
+      <c r="BF127">
+        <v>5</v>
+      </c>
+      <c r="BG127">
+        <v>5</v>
+      </c>
+      <c r="BH127">
+        <v>4</v>
+      </c>
+      <c r="BI127">
+        <v>5</v>
+      </c>
+      <c r="BJ127">
+        <v>9</v>
+      </c>
+      <c r="BK127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2468043</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>75</v>
+      </c>
+      <c r="H128" t="s">
+        <v>67</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>175</v>
+      </c>
+      <c r="P128" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q128">
+        <v>2</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>4</v>
+      </c>
+      <c r="T128">
+        <v>2.6</v>
+      </c>
+      <c r="U128">
+        <v>2.25</v>
+      </c>
+      <c r="V128">
+        <v>4</v>
+      </c>
+      <c r="W128">
+        <v>1.36</v>
+      </c>
+      <c r="X128">
+        <v>3</v>
+      </c>
+      <c r="Y128">
+        <v>2.63</v>
+      </c>
+      <c r="Z128">
+        <v>1.44</v>
+      </c>
+      <c r="AA128">
+        <v>7</v>
+      </c>
+      <c r="AB128">
+        <v>1.1</v>
+      </c>
+      <c r="AC128">
+        <v>1.95</v>
+      </c>
+      <c r="AD128">
+        <v>3.8</v>
+      </c>
+      <c r="AE128">
+        <v>3.6</v>
+      </c>
+      <c r="AF128">
+        <v>1.03</v>
+      </c>
+      <c r="AG128">
+        <v>13</v>
+      </c>
+      <c r="AH128">
+        <v>1.28</v>
+      </c>
+      <c r="AI128">
+        <v>3.75</v>
+      </c>
+      <c r="AJ128">
+        <v>1.82</v>
+      </c>
+      <c r="AK128">
+        <v>2.05</v>
+      </c>
+      <c r="AL128">
+        <v>1.67</v>
+      </c>
+      <c r="AM128">
+        <v>2.1</v>
+      </c>
+      <c r="AN128">
+        <v>1.29</v>
+      </c>
+      <c r="AO128">
+        <v>1.29</v>
+      </c>
+      <c r="AP128">
+        <v>1.75</v>
+      </c>
+      <c r="AQ128">
+        <v>1.6</v>
+      </c>
+      <c r="AR128">
+        <v>1.33</v>
+      </c>
+      <c r="AS128">
+        <v>1.5</v>
+      </c>
+      <c r="AT128">
+        <v>1.29</v>
+      </c>
+      <c r="AU128">
+        <v>1.57</v>
+      </c>
+      <c r="AV128">
+        <v>1.26</v>
+      </c>
+      <c r="AW128">
+        <v>2.83</v>
+      </c>
+      <c r="AX128">
+        <v>1.63</v>
+      </c>
+      <c r="AY128">
+        <v>7.9</v>
+      </c>
+      <c r="AZ128">
+        <v>2.88</v>
+      </c>
+      <c r="BA128">
+        <v>1.26</v>
+      </c>
+      <c r="BB128">
+        <v>1.51</v>
+      </c>
+      <c r="BC128">
+        <v>1.9</v>
+      </c>
+      <c r="BD128">
+        <v>2.47</v>
+      </c>
+      <c r="BE128">
+        <v>3.34</v>
+      </c>
+      <c r="BF128">
+        <v>4</v>
+      </c>
+      <c r="BG128">
+        <v>5</v>
+      </c>
+      <c r="BH128">
+        <v>11</v>
+      </c>
+      <c r="BI128">
+        <v>4</v>
+      </c>
+      <c r="BJ128">
+        <v>15</v>
+      </c>
+      <c r="BK128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2468049</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>73</v>
+      </c>
+      <c r="H129" t="s">
+        <v>69</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>3</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>176</v>
+      </c>
+      <c r="P129" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q129">
+        <v>3</v>
+      </c>
+      <c r="R129">
+        <v>4</v>
+      </c>
+      <c r="S129">
+        <v>7</v>
+      </c>
+      <c r="T129">
+        <v>1.83</v>
+      </c>
+      <c r="U129">
+        <v>2.6</v>
+      </c>
+      <c r="V129">
+        <v>6.5</v>
+      </c>
+      <c r="W129">
+        <v>1.29</v>
+      </c>
+      <c r="X129">
+        <v>3.5</v>
+      </c>
+      <c r="Y129">
+        <v>2.25</v>
+      </c>
+      <c r="Z129">
+        <v>1.57</v>
+      </c>
+      <c r="AA129">
+        <v>5.5</v>
+      </c>
+      <c r="AB129">
+        <v>1.14</v>
+      </c>
+      <c r="AC129">
+        <v>1.4</v>
+      </c>
+      <c r="AD129">
+        <v>5.2</v>
+      </c>
+      <c r="AE129">
+        <v>7</v>
+      </c>
+      <c r="AF129">
+        <v>1.02</v>
+      </c>
+      <c r="AG129">
+        <v>19</v>
+      </c>
+      <c r="AH129">
+        <v>1.18</v>
+      </c>
+      <c r="AI129">
+        <v>5</v>
+      </c>
+      <c r="AJ129">
+        <v>1.6</v>
+      </c>
+      <c r="AK129">
+        <v>2.3</v>
+      </c>
+      <c r="AL129">
+        <v>1.8</v>
+      </c>
+      <c r="AM129">
+        <v>1.95</v>
+      </c>
+      <c r="AN129">
+        <v>1.09</v>
+      </c>
+      <c r="AO129">
+        <v>1.16</v>
+      </c>
+      <c r="AP129">
+        <v>2.95</v>
+      </c>
+      <c r="AQ129">
+        <v>2.5</v>
+      </c>
+      <c r="AR129">
+        <v>0.6</v>
+      </c>
+      <c r="AS129">
+        <v>2.57</v>
+      </c>
+      <c r="AT129">
+        <v>0.5</v>
+      </c>
+      <c r="AU129">
+        <v>1.91</v>
+      </c>
+      <c r="AV129">
+        <v>1.37</v>
+      </c>
+      <c r="AW129">
+        <v>3.28</v>
+      </c>
+      <c r="AX129">
+        <v>1.2</v>
+      </c>
+      <c r="AY129">
+        <v>11.25</v>
+      </c>
+      <c r="AZ129">
+        <v>6.2</v>
+      </c>
+      <c r="BA129">
+        <v>1.21</v>
+      </c>
+      <c r="BB129">
+        <v>1.42</v>
+      </c>
+      <c r="BC129">
+        <v>1.76</v>
+      </c>
+      <c r="BD129">
+        <v>2.22</v>
+      </c>
+      <c r="BE129">
+        <v>2.93</v>
+      </c>
+      <c r="BF129">
+        <v>5</v>
+      </c>
+      <c r="BG129">
+        <v>3</v>
+      </c>
+      <c r="BH129">
+        <v>11</v>
+      </c>
+      <c r="BI129">
+        <v>6</v>
+      </c>
+      <c r="BJ129">
+        <v>16</v>
+      </c>
+      <c r="BK129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2468042</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44864.54513888889</v>
+      </c>
+      <c r="F130">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>84</v>
+      </c>
+      <c r="H130" t="s">
+        <v>82</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>177</v>
+      </c>
+      <c r="P130" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q130">
+        <v>8</v>
+      </c>
+      <c r="R130">
+        <v>3</v>
+      </c>
+      <c r="S130">
+        <v>11</v>
+      </c>
+      <c r="T130">
+        <v>3.2</v>
+      </c>
+      <c r="U130">
+        <v>2.1</v>
+      </c>
+      <c r="V130">
+        <v>3.5</v>
+      </c>
+      <c r="W130">
+        <v>1.44</v>
+      </c>
+      <c r="X130">
+        <v>2.63</v>
+      </c>
+      <c r="Y130">
+        <v>3.25</v>
+      </c>
+      <c r="Z130">
+        <v>1.33</v>
+      </c>
+      <c r="AA130">
+        <v>9</v>
+      </c>
+      <c r="AB130">
+        <v>1.07</v>
+      </c>
+      <c r="AC130">
+        <v>2.71</v>
+      </c>
+      <c r="AD130">
+        <v>3.15</v>
+      </c>
+      <c r="AE130">
+        <v>2.42</v>
+      </c>
+      <c r="AF130">
+        <v>1.06</v>
+      </c>
+      <c r="AG130">
+        <v>10</v>
+      </c>
+      <c r="AH130">
+        <v>1.36</v>
+      </c>
+      <c r="AI130">
+        <v>3.2</v>
+      </c>
+      <c r="AJ130">
+        <v>2.05</v>
+      </c>
+      <c r="AK130">
+        <v>1.85</v>
+      </c>
+      <c r="AL130">
+        <v>1.8</v>
+      </c>
+      <c r="AM130">
+        <v>1.95</v>
+      </c>
+      <c r="AN130">
+        <v>1.39</v>
+      </c>
+      <c r="AO130">
+        <v>1.32</v>
+      </c>
+      <c r="AP130">
+        <v>1.53</v>
+      </c>
+      <c r="AQ130">
+        <v>2.6</v>
+      </c>
+      <c r="AR130">
+        <v>1.33</v>
+      </c>
+      <c r="AS130">
+        <v>2.17</v>
+      </c>
+      <c r="AT130">
+        <v>1.57</v>
+      </c>
+      <c r="AU130">
+        <v>1.62</v>
+      </c>
+      <c r="AV130">
+        <v>1.19</v>
+      </c>
+      <c r="AW130">
+        <v>2.81</v>
+      </c>
+      <c r="AX130">
+        <v>2.08</v>
+      </c>
+      <c r="AY130">
+        <v>7.5</v>
+      </c>
+      <c r="AZ130">
+        <v>2.11</v>
+      </c>
+      <c r="BA130">
+        <v>1.28</v>
+      </c>
+      <c r="BB130">
+        <v>1.55</v>
+      </c>
+      <c r="BC130">
+        <v>1.98</v>
+      </c>
+      <c r="BD130">
+        <v>2.56</v>
+      </c>
+      <c r="BE130">
+        <v>3.48</v>
+      </c>
+      <c r="BF130">
+        <v>8</v>
+      </c>
+      <c r="BG130">
+        <v>8</v>
+      </c>
+      <c r="BH130">
+        <v>8</v>
+      </c>
+      <c r="BI130">
+        <v>10</v>
+      </c>
+      <c r="BJ130">
+        <v>16</v>
+      </c>
+      <c r="BK130">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2468044</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44864.69791666666</v>
+      </c>
+      <c r="F131">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>65</v>
+      </c>
+      <c r="H131" t="s">
+        <v>72</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>178</v>
+      </c>
+      <c r="P131" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q131">
+        <v>3</v>
+      </c>
+      <c r="R131">
+        <v>6</v>
+      </c>
+      <c r="S131">
+        <v>9</v>
+      </c>
+      <c r="T131">
+        <v>2.6</v>
+      </c>
+      <c r="U131">
+        <v>2.38</v>
+      </c>
+      <c r="V131">
+        <v>3.6</v>
+      </c>
+      <c r="W131">
+        <v>1.29</v>
+      </c>
+      <c r="X131">
+        <v>3.5</v>
+      </c>
+      <c r="Y131">
+        <v>2.38</v>
+      </c>
+      <c r="Z131">
+        <v>1.53</v>
+      </c>
+      <c r="AA131">
+        <v>5.5</v>
+      </c>
+      <c r="AB131">
+        <v>1.14</v>
+      </c>
+      <c r="AC131">
+        <v>2.08</v>
+      </c>
+      <c r="AD131">
+        <v>3.45</v>
+      </c>
+      <c r="AE131">
+        <v>3.05</v>
+      </c>
+      <c r="AF131">
+        <v>1.02</v>
+      </c>
+      <c r="AG131">
+        <v>19</v>
+      </c>
+      <c r="AH131">
+        <v>1.2</v>
+      </c>
+      <c r="AI131">
+        <v>4.5</v>
+      </c>
+      <c r="AJ131">
+        <v>1.56</v>
+      </c>
+      <c r="AK131">
+        <v>2.33</v>
+      </c>
+      <c r="AL131">
+        <v>1.53</v>
+      </c>
+      <c r="AM131">
+        <v>2.38</v>
+      </c>
+      <c r="AN131">
+        <v>1.31</v>
+      </c>
+      <c r="AO131">
+        <v>1.27</v>
+      </c>
+      <c r="AP131">
+        <v>1.73</v>
+      </c>
+      <c r="AQ131">
+        <v>2.17</v>
+      </c>
+      <c r="AR131">
+        <v>1.67</v>
+      </c>
+      <c r="AS131">
+        <v>2.29</v>
+      </c>
+      <c r="AT131">
+        <v>1.43</v>
+      </c>
+      <c r="AU131">
+        <v>2.07</v>
+      </c>
+      <c r="AV131">
+        <v>1.75</v>
+      </c>
+      <c r="AW131">
+        <v>3.82</v>
+      </c>
+      <c r="AX131">
+        <v>1.7</v>
+      </c>
+      <c r="AY131">
+        <v>7.9</v>
+      </c>
+      <c r="AZ131">
+        <v>2.69</v>
+      </c>
+      <c r="BA131">
+        <v>1.26</v>
+      </c>
+      <c r="BB131">
+        <v>1.51</v>
+      </c>
+      <c r="BC131">
+        <v>1.9</v>
+      </c>
+      <c r="BD131">
+        <v>2.47</v>
+      </c>
+      <c r="BE131">
+        <v>3.34</v>
+      </c>
+      <c r="BF131">
+        <v>4</v>
+      </c>
+      <c r="BG131">
+        <v>7</v>
+      </c>
+      <c r="BH131">
+        <v>3</v>
+      </c>
+      <c r="BI131">
+        <v>9</v>
+      </c>
+      <c r="BJ131">
+        <v>7</v>
+      </c>
+      <c r="BK131">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2468059</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44869.70833333334</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>81</v>
+      </c>
+      <c r="H132" t="s">
+        <v>80</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>93</v>
+      </c>
+      <c r="P132" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q132">
+        <v>10</v>
+      </c>
+      <c r="R132">
+        <v>5</v>
+      </c>
+      <c r="S132">
+        <v>15</v>
+      </c>
+      <c r="T132">
+        <v>2.6</v>
+      </c>
+      <c r="U132">
+        <v>2.2</v>
+      </c>
+      <c r="V132">
+        <v>4.33</v>
+      </c>
+      <c r="W132">
+        <v>1.4</v>
+      </c>
+      <c r="X132">
+        <v>2.75</v>
+      </c>
+      <c r="Y132">
+        <v>2.75</v>
+      </c>
+      <c r="Z132">
+        <v>1.4</v>
+      </c>
+      <c r="AA132">
+        <v>8</v>
+      </c>
+      <c r="AB132">
+        <v>1.08</v>
+      </c>
+      <c r="AC132">
+        <v>2</v>
+      </c>
+      <c r="AD132">
+        <v>3.15</v>
+      </c>
+      <c r="AE132">
+        <v>4.1</v>
+      </c>
+      <c r="AF132">
+        <v>1.01</v>
+      </c>
+      <c r="AG132">
+        <v>9.6</v>
+      </c>
+      <c r="AH132">
+        <v>1.26</v>
+      </c>
+      <c r="AI132">
+        <v>3.54</v>
+      </c>
+      <c r="AJ132">
+        <v>1.88</v>
+      </c>
+      <c r="AK132">
+        <v>1.88</v>
+      </c>
+      <c r="AL132">
+        <v>1.75</v>
+      </c>
+      <c r="AM132">
+        <v>2</v>
+      </c>
+      <c r="AN132">
+        <v>1.24</v>
+      </c>
+      <c r="AO132">
+        <v>1.28</v>
+      </c>
+      <c r="AP132">
+        <v>1.98</v>
+      </c>
+      <c r="AQ132">
+        <v>1.17</v>
+      </c>
+      <c r="AR132">
+        <v>0.5</v>
+      </c>
+      <c r="AS132">
+        <v>1.14</v>
+      </c>
+      <c r="AT132">
+        <v>0.57</v>
+      </c>
+      <c r="AU132">
+        <v>1.81</v>
+      </c>
+      <c r="AV132">
+        <v>1.21</v>
+      </c>
+      <c r="AW132">
+        <v>3.02</v>
+      </c>
+      <c r="AX132">
+        <v>1.53</v>
+      </c>
+      <c r="AY132">
+        <v>8.1</v>
+      </c>
+      <c r="AZ132">
+        <v>3.22</v>
+      </c>
+      <c r="BA132">
+        <v>1.32</v>
+      </c>
+      <c r="BB132">
+        <v>1.61</v>
+      </c>
+      <c r="BC132">
+        <v>2.07</v>
+      </c>
+      <c r="BD132">
+        <v>2.73</v>
+      </c>
+      <c r="BE132">
+        <v>3.74</v>
+      </c>
+      <c r="BF132">
+        <v>6</v>
+      </c>
+      <c r="BG132">
+        <v>3</v>
+      </c>
+      <c r="BH132">
+        <v>16</v>
+      </c>
+      <c r="BI132">
+        <v>13</v>
+      </c>
+      <c r="BJ132">
+        <v>22</v>
+      </c>
+      <c r="BK132">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,45 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['33', '34', '40', '45+3']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['60', '68']</t>
+  </si>
+  <si>
+    <t>['25', '58']</t>
+  </si>
+  <si>
+    <t>['11', '51', '57', '81', '84']</t>
+  </si>
+  <si>
+    <t>['55', '77']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['70', '89']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['45', '72']</t>
+  </si>
+  <si>
     <t>['43', '53']</t>
   </si>
   <si>
@@ -616,12 +655,6 @@
     <t>['17', '43', '66']</t>
   </si>
   <si>
-    <t>['90+1']</t>
-  </si>
-  <si>
-    <t>['62']</t>
-  </si>
-  <si>
     <t>['10', '37', '42']</t>
   </si>
   <si>
@@ -683,9 +716,6 @@
   </si>
   <si>
     <t>['23', '54', '83']</t>
-  </si>
-  <si>
-    <t>['43']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -779,6 +809,33 @@
   </si>
   <si>
     <t>['61', '69']</t>
+  </si>
+  <si>
+    <t>['6', '17']</t>
+  </si>
+  <si>
+    <t>['21', '51']</t>
+  </si>
+  <si>
+    <t>['9', '81']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['46', '60']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['57', '66']</t>
+  </si>
+  <si>
+    <t>['35', '83', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK132"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT2">
         <v>1</v>
@@ -1575,7 +1632,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1662,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT3">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1766,7 +1823,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1853,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT4">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1957,7 +2014,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2044,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2148,7 +2205,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2235,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT6">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2426,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT7">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2530,7 +2587,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2620,7 +2677,7 @@
         <v>3</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2721,7 +2778,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2811,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="AT9">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2999,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3190,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3381,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT12">
         <v>1.43</v>
@@ -3485,7 +3542,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3572,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT13">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3676,7 +3733,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -3763,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT14">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3867,7 +3924,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3954,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT15">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4145,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT16">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4249,7 +4306,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4339,7 +4396,7 @@
         <v>1.29</v>
       </c>
       <c r="AT17">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4440,7 +4497,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4530,7 +4587,7 @@
         <v>1.14</v>
       </c>
       <c r="AT18">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4631,7 +4688,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4718,10 +4775,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4822,7 +4879,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4909,10 +4966,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT20">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5100,10 +5157,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT21">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU21">
         <v>1.29</v>
@@ -5204,7 +5261,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5291,10 +5348,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT22">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU22">
         <v>1.35</v>
@@ -5395,7 +5452,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5482,10 +5539,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT23">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -5586,7 +5643,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5673,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5777,7 +5834,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5864,10 +5921,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU25">
         <v>1.98</v>
@@ -6055,10 +6112,10 @@
         <v>1</v>
       </c>
       <c r="AS26">
+        <v>1.43</v>
+      </c>
+      <c r="AT26">
         <v>1.5</v>
-      </c>
-      <c r="AT26">
-        <v>1.57</v>
       </c>
       <c r="AU26">
         <v>0.87</v>
@@ -6159,7 +6216,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6246,10 +6303,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT27">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU27">
         <v>1.63</v>
@@ -6350,7 +6407,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6437,10 +6494,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU28">
         <v>1.13</v>
@@ -6541,7 +6598,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6628,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT29">
         <v>1</v>
@@ -6732,7 +6789,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6822,7 +6879,7 @@
         <v>2</v>
       </c>
       <c r="AT30">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU30">
         <v>1.87</v>
@@ -6923,7 +6980,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7010,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT31">
         <v>1.43</v>
@@ -7204,7 +7261,7 @@
         <v>1.29</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU32">
         <v>1.58</v>
@@ -7305,7 +7362,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7395,7 +7452,7 @@
         <v>3</v>
       </c>
       <c r="AT33">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU33">
         <v>1.79</v>
@@ -7583,10 +7640,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT34">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU34">
         <v>1</v>
@@ -7777,7 +7834,7 @@
         <v>1.14</v>
       </c>
       <c r="AT35">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU35">
         <v>1.19</v>
@@ -7878,7 +7935,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7965,10 +8022,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT36">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8069,7 +8126,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8156,10 +8213,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT37">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU37">
         <v>1.4</v>
@@ -8260,7 +8317,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8347,10 +8404,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT38">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -8538,10 +8595,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT39">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU39">
         <v>1.44</v>
@@ -8729,10 +8786,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT40">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU40">
         <v>3.14</v>
@@ -8833,7 +8890,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="Q41">
         <v>9</v>
@@ -8920,10 +8977,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT41">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU41">
         <v>1.62</v>
@@ -9111,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -9215,7 +9272,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9302,10 +9359,10 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT43">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU43">
         <v>1.58</v>
@@ -9406,7 +9463,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9493,10 +9550,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT44">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU44">
         <v>1.44</v>
@@ -9597,7 +9654,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9684,7 +9741,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -9788,7 +9845,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9878,7 +9935,7 @@
         <v>2</v>
       </c>
       <c r="AT46">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU46">
         <v>1.88</v>
@@ -10066,10 +10123,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT47">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU47">
         <v>1.98</v>
@@ -10170,7 +10227,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10260,7 +10317,7 @@
         <v>3</v>
       </c>
       <c r="AT48">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU48">
         <v>1.81</v>
@@ -10361,7 +10418,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10448,10 +10505,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU49">
         <v>2.03</v>
@@ -10552,7 +10609,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10639,10 +10696,10 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT50">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU50">
         <v>1.44</v>
@@ -10743,7 +10800,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10833,7 +10890,7 @@
         <v>1.29</v>
       </c>
       <c r="AT51">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU51">
         <v>1.36</v>
@@ -11021,10 +11078,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT52">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU52">
         <v>1.89</v>
@@ -11125,7 +11182,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -11212,10 +11269,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT53">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU53">
         <v>1.62</v>
@@ -11316,7 +11373,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11403,7 +11460,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT54">
         <v>1.43</v>
@@ -11507,7 +11564,7 @@
         <v>87</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11594,10 +11651,10 @@
         <v>1.33</v>
       </c>
       <c r="AS55">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT55">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU55">
         <v>0.97</v>
@@ -11785,10 +11842,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU56">
         <v>1.53</v>
@@ -11976,10 +12033,10 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT57">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU57">
         <v>1.31</v>
@@ -12167,10 +12224,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT58">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU58">
         <v>0.92</v>
@@ -12271,7 +12328,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12361,7 +12418,7 @@
         <v>1.14</v>
       </c>
       <c r="AT59">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU59">
         <v>2.18</v>
@@ -12462,7 +12519,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12549,10 +12606,10 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT60">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU60">
         <v>1.49</v>
@@ -12740,10 +12797,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT61">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU61">
         <v>2.44</v>
@@ -12934,7 +12991,7 @@
         <v>3</v>
       </c>
       <c r="AT62">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU62">
         <v>1.89</v>
@@ -13122,10 +13179,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU63">
         <v>2.57</v>
@@ -13226,7 +13283,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13313,7 +13370,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT64">
         <v>1.43</v>
@@ -13504,10 +13561,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT65">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU65">
         <v>1.41</v>
@@ -13695,7 +13752,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT66">
         <v>1</v>
@@ -13886,10 +13943,10 @@
         <v>1.33</v>
       </c>
       <c r="AS67">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT67">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU67">
         <v>1.29</v>
@@ -13990,7 +14047,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14077,10 +14134,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
+        <v>0.5</v>
+      </c>
+      <c r="AT68">
         <v>0.57</v>
-      </c>
-      <c r="AT68">
-        <v>0.5</v>
       </c>
       <c r="AU68">
         <v>1.52</v>
@@ -14181,7 +14238,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14268,10 +14325,10 @@
         <v>0.67</v>
       </c>
       <c r="AS69">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT69">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU69">
         <v>1.92</v>
@@ -14459,10 +14516,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT70">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU70">
         <v>2.14</v>
@@ -14563,7 +14620,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -14650,10 +14707,10 @@
         <v>0.5</v>
       </c>
       <c r="AS71">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT71">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU71">
         <v>1.43</v>
@@ -14754,7 +14811,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14844,7 +14901,7 @@
         <v>1.29</v>
       </c>
       <c r="AT72">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU72">
         <v>1.34</v>
@@ -14945,7 +15002,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15032,10 +15089,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU73">
         <v>1.43</v>
@@ -15136,7 +15193,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15226,7 +15283,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU74">
         <v>2.06</v>
@@ -15327,7 +15384,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15414,10 +15471,10 @@
         <v>2.33</v>
       </c>
       <c r="AS75">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT75">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU75">
         <v>1.46</v>
@@ -15518,7 +15575,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15605,10 +15662,10 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT76">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU76">
         <v>1.06</v>
@@ -15709,7 +15766,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15796,10 +15853,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT77">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU77">
         <v>1.48</v>
@@ -15900,7 +15957,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>11</v>
@@ -15987,10 +16044,10 @@
         <v>0.67</v>
       </c>
       <c r="AS78">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT78">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU78">
         <v>2.05</v>
@@ -16178,7 +16235,7 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT79">
         <v>1</v>
@@ -16369,10 +16426,10 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT80">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU80">
         <v>1.43</v>
@@ -16473,7 +16530,7 @@
         <v>87</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16560,10 +16617,10 @@
         <v>3</v>
       </c>
       <c r="AS81">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT81">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU81">
         <v>2.16</v>
@@ -16664,7 +16721,7 @@
         <v>87</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16751,10 +16808,10 @@
         <v>2.33</v>
       </c>
       <c r="AS82">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT82">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU82">
         <v>1.5</v>
@@ -16855,7 +16912,7 @@
         <v>94</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -16942,10 +16999,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT83">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU83">
         <v>1.41</v>
@@ -17046,7 +17103,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17133,10 +17190,10 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT84">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU84">
         <v>2.31</v>
@@ -17237,7 +17294,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -17324,7 +17381,7 @@
         <v>1.75</v>
       </c>
       <c r="AS85">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT85">
         <v>1.43</v>
@@ -17428,7 +17485,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17518,7 +17575,7 @@
         <v>1.29</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU86">
         <v>1.52</v>
@@ -17619,7 +17676,7 @@
         <v>104</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17706,10 +17763,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT87">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU87">
         <v>1.29</v>
@@ -17810,7 +17867,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17897,10 +17954,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT88">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU88">
         <v>1.53</v>
@@ -18001,7 +18058,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>10</v>
@@ -18192,7 +18249,7 @@
         <v>146</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -18279,10 +18336,10 @@
         <v>0.5</v>
       </c>
       <c r="AS90">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT90">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU90">
         <v>1.36</v>
@@ -18473,7 +18530,7 @@
         <v>3</v>
       </c>
       <c r="AT91">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU91">
         <v>1.81</v>
@@ -18661,10 +18718,10 @@
         <v>0.75</v>
       </c>
       <c r="AS92">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT92">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU92">
         <v>2.04</v>
@@ -18765,7 +18822,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>11</v>
@@ -18852,7 +18909,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT93">
         <v>1</v>
@@ -19043,10 +19100,10 @@
         <v>3</v>
       </c>
       <c r="AS94">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT94">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU94">
         <v>1.39</v>
@@ -19147,7 +19204,7 @@
         <v>87</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19234,10 +19291,10 @@
         <v>2.5</v>
       </c>
       <c r="AS95">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT95">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU95">
         <v>1.4</v>
@@ -19338,7 +19395,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19425,10 +19482,10 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT96">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU96">
         <v>1.47</v>
@@ -19529,7 +19586,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19616,10 +19673,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT97">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU97">
         <v>1.19</v>
@@ -19720,7 +19777,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19807,10 +19864,10 @@
         <v>1.2</v>
       </c>
       <c r="AS98">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT98">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU98">
         <v>1.56</v>
@@ -19911,7 +19968,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -19998,10 +20055,10 @@
         <v>0.5</v>
       </c>
       <c r="AS99">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT99">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU99">
         <v>1.52</v>
@@ -20189,10 +20246,10 @@
         <v>0.4</v>
       </c>
       <c r="AS100">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT100">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU100">
         <v>2.02</v>
@@ -20383,7 +20440,7 @@
         <v>2</v>
       </c>
       <c r="AT101">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU101">
         <v>1.87</v>
@@ -20484,7 +20541,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20571,7 +20628,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT102">
         <v>1.43</v>
@@ -20762,7 +20819,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -20956,7 +21013,7 @@
         <v>3</v>
       </c>
       <c r="AT104">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU104">
         <v>1.94</v>
@@ -21057,7 +21114,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21144,10 +21201,10 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT105">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU105">
         <v>1.52</v>
@@ -21335,10 +21392,10 @@
         <v>0.8</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT106">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU106">
         <v>1.45</v>
@@ -21439,7 +21496,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21526,10 +21583,10 @@
         <v>0.25</v>
       </c>
       <c r="AS107">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT107">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU107">
         <v>1.98</v>
@@ -21630,7 +21687,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21911,7 +21968,7 @@
         <v>1.29</v>
       </c>
       <c r="AT109">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU109">
         <v>1.48</v>
@@ -22099,10 +22156,10 @@
         <v>1.4</v>
       </c>
       <c r="AS110">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT110">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU110">
         <v>1.38</v>
@@ -22290,10 +22347,10 @@
         <v>2.5</v>
       </c>
       <c r="AS111">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT111">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU111">
         <v>2.1</v>
@@ -22394,7 +22451,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22481,10 +22538,10 @@
         <v>2.67</v>
       </c>
       <c r="AS112">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT112">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU112">
         <v>1.3</v>
@@ -22585,7 +22642,7 @@
         <v>104</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22672,10 +22729,10 @@
         <v>0.2</v>
       </c>
       <c r="AS113">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT113">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU113">
         <v>1.39</v>
@@ -22776,7 +22833,7 @@
         <v>87</v>
       </c>
       <c r="P114" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22863,10 +22920,10 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT114">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU114">
         <v>1.96</v>
@@ -22967,7 +23024,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23054,10 +23111,10 @@
         <v>1.2</v>
       </c>
       <c r="AS115">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT115">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU115">
         <v>1.56</v>
@@ -23158,7 +23215,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23245,10 +23302,10 @@
         <v>0.6</v>
       </c>
       <c r="AS116">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT116">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU116">
         <v>1.59</v>
@@ -23349,7 +23406,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23439,7 +23496,7 @@
         <v>1.14</v>
       </c>
       <c r="AT117">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU117">
         <v>1.81</v>
@@ -23540,7 +23597,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23627,10 +23684,10 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU118">
         <v>1.58</v>
@@ -23731,7 +23788,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -23818,10 +23875,10 @@
         <v>0.67</v>
       </c>
       <c r="AS119">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU119">
         <v>1.3</v>
@@ -24009,10 +24066,10 @@
         <v>0.33</v>
       </c>
       <c r="AS120">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT120">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU120">
         <v>1.61</v>
@@ -24113,7 +24170,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24203,7 +24260,7 @@
         <v>2</v>
       </c>
       <c r="AT121">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU121">
         <v>1.81</v>
@@ -24394,7 +24451,7 @@
         <v>3</v>
       </c>
       <c r="AT122">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU122">
         <v>1.97</v>
@@ -24495,7 +24552,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24582,10 +24639,10 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT123">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU123">
         <v>2.18</v>
@@ -24686,7 +24743,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -24773,10 +24830,10 @@
         <v>2</v>
       </c>
       <c r="AS124">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT124">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU124">
         <v>1.3</v>
@@ -25155,7 +25212,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT126">
         <v>1</v>
@@ -25346,10 +25403,10 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT127">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU127">
         <v>1.32</v>
@@ -25537,10 +25594,10 @@
         <v>1.33</v>
       </c>
       <c r="AS128">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT128">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU128">
         <v>1.57</v>
@@ -25728,10 +25785,10 @@
         <v>0.6</v>
       </c>
       <c r="AS129">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT129">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU129">
         <v>1.91</v>
@@ -25832,7 +25889,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -25919,10 +25976,10 @@
         <v>1.33</v>
       </c>
       <c r="AS130">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT130">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU130">
         <v>1.62</v>
@@ -26110,7 +26167,7 @@
         <v>1.67</v>
       </c>
       <c r="AS131">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT131">
         <v>1.43</v>
@@ -26214,7 +26271,7 @@
         <v>93</v>
       </c>
       <c r="P132" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -26304,7 +26361,7 @@
         <v>1.14</v>
       </c>
       <c r="AT132">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU132">
         <v>1.81</v>
@@ -26356,6 +26413,3635 @@
       </c>
       <c r="BK132">
         <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2468050</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44870.54166666666</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>79</v>
+      </c>
+      <c r="H133" t="s">
+        <v>66</v>
+      </c>
+      <c r="I133">
+        <v>4</v>
+      </c>
+      <c r="J133">
+        <v>2</v>
+      </c>
+      <c r="K133">
+        <v>6</v>
+      </c>
+      <c r="L133">
+        <v>4</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>6</v>
+      </c>
+      <c r="O133" t="s">
+        <v>179</v>
+      </c>
+      <c r="P133" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q133">
+        <v>4</v>
+      </c>
+      <c r="R133">
+        <v>3</v>
+      </c>
+      <c r="S133">
+        <v>7</v>
+      </c>
+      <c r="T133">
+        <v>3.5</v>
+      </c>
+      <c r="U133">
+        <v>2</v>
+      </c>
+      <c r="V133">
+        <v>3.4</v>
+      </c>
+      <c r="W133">
+        <v>1.5</v>
+      </c>
+      <c r="X133">
+        <v>2.5</v>
+      </c>
+      <c r="Y133">
+        <v>3.5</v>
+      </c>
+      <c r="Z133">
+        <v>1.29</v>
+      </c>
+      <c r="AA133">
+        <v>10</v>
+      </c>
+      <c r="AB133">
+        <v>1.06</v>
+      </c>
+      <c r="AC133">
+        <v>2.55</v>
+      </c>
+      <c r="AD133">
+        <v>3.15</v>
+      </c>
+      <c r="AE133">
+        <v>2.8</v>
+      </c>
+      <c r="AF133">
+        <v>1.08</v>
+      </c>
+      <c r="AG133">
+        <v>8.5</v>
+      </c>
+      <c r="AH133">
+        <v>1.44</v>
+      </c>
+      <c r="AI133">
+        <v>2.8</v>
+      </c>
+      <c r="AJ133">
+        <v>2.3</v>
+      </c>
+      <c r="AK133">
+        <v>1.6</v>
+      </c>
+      <c r="AL133">
+        <v>1.95</v>
+      </c>
+      <c r="AM133">
+        <v>1.8</v>
+      </c>
+      <c r="AN133">
+        <v>1.47</v>
+      </c>
+      <c r="AO133">
+        <v>1.35</v>
+      </c>
+      <c r="AP133">
+        <v>1.43</v>
+      </c>
+      <c r="AQ133">
+        <v>0.17</v>
+      </c>
+      <c r="AR133">
+        <v>1</v>
+      </c>
+      <c r="AS133">
+        <v>0.57</v>
+      </c>
+      <c r="AT133">
+        <v>0.86</v>
+      </c>
+      <c r="AU133">
+        <v>1.28</v>
+      </c>
+      <c r="AV133">
+        <v>1.55</v>
+      </c>
+      <c r="AW133">
+        <v>2.83</v>
+      </c>
+      <c r="AX133">
+        <v>1.99</v>
+      </c>
+      <c r="AY133">
+        <v>7.2</v>
+      </c>
+      <c r="AZ133">
+        <v>2.24</v>
+      </c>
+      <c r="BA133">
+        <v>1.44</v>
+      </c>
+      <c r="BB133">
+        <v>1.81</v>
+      </c>
+      <c r="BC133">
+        <v>2.38</v>
+      </c>
+      <c r="BD133">
+        <v>3.2</v>
+      </c>
+      <c r="BE133">
+        <v>4.64</v>
+      </c>
+      <c r="BF133">
+        <v>8</v>
+      </c>
+      <c r="BG133">
+        <v>6</v>
+      </c>
+      <c r="BH133">
+        <v>7</v>
+      </c>
+      <c r="BI133">
+        <v>4</v>
+      </c>
+      <c r="BJ133">
+        <v>15</v>
+      </c>
+      <c r="BK133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2468051</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44870.70833333334</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>70</v>
+      </c>
+      <c r="H134" t="s">
+        <v>71</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>180</v>
+      </c>
+      <c r="P134" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q134">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>4</v>
+      </c>
+      <c r="S134">
+        <v>7</v>
+      </c>
+      <c r="T134">
+        <v>4.75</v>
+      </c>
+      <c r="U134">
+        <v>2.3</v>
+      </c>
+      <c r="V134">
+        <v>2.25</v>
+      </c>
+      <c r="W134">
+        <v>1.33</v>
+      </c>
+      <c r="X134">
+        <v>3.25</v>
+      </c>
+      <c r="Y134">
+        <v>2.63</v>
+      </c>
+      <c r="Z134">
+        <v>1.44</v>
+      </c>
+      <c r="AA134">
+        <v>6.5</v>
+      </c>
+      <c r="AB134">
+        <v>1.11</v>
+      </c>
+      <c r="AC134">
+        <v>4.32</v>
+      </c>
+      <c r="AD134">
+        <v>3.9</v>
+      </c>
+      <c r="AE134">
+        <v>1.77</v>
+      </c>
+      <c r="AF134">
+        <v>1.03</v>
+      </c>
+      <c r="AG134">
+        <v>15</v>
+      </c>
+      <c r="AH134">
+        <v>1.24</v>
+      </c>
+      <c r="AI134">
+        <v>4.2</v>
+      </c>
+      <c r="AJ134">
+        <v>1.73</v>
+      </c>
+      <c r="AK134">
+        <v>2.12</v>
+      </c>
+      <c r="AL134">
+        <v>1.7</v>
+      </c>
+      <c r="AM134">
+        <v>2.05</v>
+      </c>
+      <c r="AN134">
+        <v>2.05</v>
+      </c>
+      <c r="AO134">
+        <v>1.25</v>
+      </c>
+      <c r="AP134">
+        <v>1.21</v>
+      </c>
+      <c r="AQ134">
+        <v>0.57</v>
+      </c>
+      <c r="AR134">
+        <v>1.5</v>
+      </c>
+      <c r="AS134">
+        <v>0.5</v>
+      </c>
+      <c r="AT134">
+        <v>1.71</v>
+      </c>
+      <c r="AU134">
+        <v>1.47</v>
+      </c>
+      <c r="AV134">
+        <v>1.49</v>
+      </c>
+      <c r="AW134">
+        <v>2.96</v>
+      </c>
+      <c r="AX134">
+        <v>3.22</v>
+      </c>
+      <c r="AY134">
+        <v>8.1</v>
+      </c>
+      <c r="AZ134">
+        <v>1.53</v>
+      </c>
+      <c r="BA134">
+        <v>1.31</v>
+      </c>
+      <c r="BB134">
+        <v>1.59</v>
+      </c>
+      <c r="BC134">
+        <v>2.04</v>
+      </c>
+      <c r="BD134">
+        <v>2.69</v>
+      </c>
+      <c r="BE134">
+        <v>3.64</v>
+      </c>
+      <c r="BF134">
+        <v>4</v>
+      </c>
+      <c r="BG134">
+        <v>6</v>
+      </c>
+      <c r="BH134">
+        <v>3</v>
+      </c>
+      <c r="BI134">
+        <v>8</v>
+      </c>
+      <c r="BJ134">
+        <v>7</v>
+      </c>
+      <c r="BK134">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2468053</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44871.375</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>84</v>
+      </c>
+      <c r="H135" t="s">
+        <v>77</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>163</v>
+      </c>
+      <c r="P135" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q135">
+        <v>5</v>
+      </c>
+      <c r="R135">
+        <v>8</v>
+      </c>
+      <c r="S135">
+        <v>13</v>
+      </c>
+      <c r="T135">
+        <v>7.5</v>
+      </c>
+      <c r="U135">
+        <v>2.88</v>
+      </c>
+      <c r="V135">
+        <v>1.73</v>
+      </c>
+      <c r="W135">
+        <v>1.22</v>
+      </c>
+      <c r="X135">
+        <v>4</v>
+      </c>
+      <c r="Y135">
+        <v>2</v>
+      </c>
+      <c r="Z135">
+        <v>1.73</v>
+      </c>
+      <c r="AA135">
+        <v>4.33</v>
+      </c>
+      <c r="AB135">
+        <v>1.2</v>
+      </c>
+      <c r="AC135">
+        <v>8.33</v>
+      </c>
+      <c r="AD135">
+        <v>5.54</v>
+      </c>
+      <c r="AE135">
+        <v>1.3</v>
+      </c>
+      <c r="AF135">
+        <v>1.01</v>
+      </c>
+      <c r="AG135">
+        <v>26</v>
+      </c>
+      <c r="AH135">
+        <v>1.1</v>
+      </c>
+      <c r="AI135">
+        <v>6.3</v>
+      </c>
+      <c r="AJ135">
+        <v>1.45</v>
+      </c>
+      <c r="AK135">
+        <v>2.7</v>
+      </c>
+      <c r="AL135">
+        <v>1.75</v>
+      </c>
+      <c r="AM135">
+        <v>2</v>
+      </c>
+      <c r="AN135">
+        <v>3.5</v>
+      </c>
+      <c r="AO135">
+        <v>1.13</v>
+      </c>
+      <c r="AP135">
+        <v>1.07</v>
+      </c>
+      <c r="AQ135">
+        <v>2.17</v>
+      </c>
+      <c r="AR135">
+        <v>2.71</v>
+      </c>
+      <c r="AS135">
+        <v>1.86</v>
+      </c>
+      <c r="AT135">
+        <v>2.75</v>
+      </c>
+      <c r="AU135">
+        <v>1.67</v>
+      </c>
+      <c r="AV135">
+        <v>2.15</v>
+      </c>
+      <c r="AW135">
+        <v>3.82</v>
+      </c>
+      <c r="AX135">
+        <v>5.8</v>
+      </c>
+      <c r="AY135">
+        <v>10.5</v>
+      </c>
+      <c r="AZ135">
+        <v>1.22</v>
+      </c>
+      <c r="BA135">
+        <v>1.29</v>
+      </c>
+      <c r="BB135">
+        <v>1.63</v>
+      </c>
+      <c r="BC135">
+        <v>2</v>
+      </c>
+      <c r="BD135">
+        <v>2.5</v>
+      </c>
+      <c r="BE135">
+        <v>3.56</v>
+      </c>
+      <c r="BF135">
+        <v>3</v>
+      </c>
+      <c r="BG135">
+        <v>9</v>
+      </c>
+      <c r="BH135">
+        <v>5</v>
+      </c>
+      <c r="BI135">
+        <v>8</v>
+      </c>
+      <c r="BJ135">
+        <v>8</v>
+      </c>
+      <c r="BK135">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2468052</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>67</v>
+      </c>
+      <c r="H136" t="s">
+        <v>69</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>181</v>
+      </c>
+      <c r="P136" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q136">
+        <v>5</v>
+      </c>
+      <c r="R136">
+        <v>1</v>
+      </c>
+      <c r="S136">
+        <v>6</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>2.25</v>
+      </c>
+      <c r="V136">
+        <v>3.4</v>
+      </c>
+      <c r="W136">
+        <v>1.33</v>
+      </c>
+      <c r="X136">
+        <v>3.25</v>
+      </c>
+      <c r="Y136">
+        <v>2.63</v>
+      </c>
+      <c r="Z136">
+        <v>1.44</v>
+      </c>
+      <c r="AA136">
+        <v>6.5</v>
+      </c>
+      <c r="AB136">
+        <v>1.11</v>
+      </c>
+      <c r="AC136">
+        <v>2.29</v>
+      </c>
+      <c r="AD136">
+        <v>3.51</v>
+      </c>
+      <c r="AE136">
+        <v>2.89</v>
+      </c>
+      <c r="AF136">
+        <v>1.06</v>
+      </c>
+      <c r="AG136">
+        <v>8.5</v>
+      </c>
+      <c r="AH136">
+        <v>1.22</v>
+      </c>
+      <c r="AI136">
+        <v>4</v>
+      </c>
+      <c r="AJ136">
+        <v>1.7</v>
+      </c>
+      <c r="AK136">
+        <v>2.1</v>
+      </c>
+      <c r="AL136">
+        <v>1.62</v>
+      </c>
+      <c r="AM136">
+        <v>2.2</v>
+      </c>
+      <c r="AN136">
+        <v>1.41</v>
+      </c>
+      <c r="AO136">
+        <v>1.28</v>
+      </c>
+      <c r="AP136">
+        <v>1.57</v>
+      </c>
+      <c r="AQ136">
+        <v>1.5</v>
+      </c>
+      <c r="AR136">
+        <v>0.5</v>
+      </c>
+      <c r="AS136">
+        <v>1.43</v>
+      </c>
+      <c r="AT136">
+        <v>0.57</v>
+      </c>
+      <c r="AU136">
+        <v>1.38</v>
+      </c>
+      <c r="AV136">
+        <v>1.31</v>
+      </c>
+      <c r="AW136">
+        <v>2.69</v>
+      </c>
+      <c r="AX136">
+        <v>1.83</v>
+      </c>
+      <c r="AY136">
+        <v>7.5</v>
+      </c>
+      <c r="AZ136">
+        <v>2.45</v>
+      </c>
+      <c r="BA136">
+        <v>1.36</v>
+      </c>
+      <c r="BB136">
+        <v>1.72</v>
+      </c>
+      <c r="BC136">
+        <v>2.14</v>
+      </c>
+      <c r="BD136">
+        <v>2.79</v>
+      </c>
+      <c r="BE136">
+        <v>4.05</v>
+      </c>
+      <c r="BF136">
+        <v>6</v>
+      </c>
+      <c r="BG136">
+        <v>4</v>
+      </c>
+      <c r="BH136">
+        <v>7</v>
+      </c>
+      <c r="BI136">
+        <v>4</v>
+      </c>
+      <c r="BJ136">
+        <v>13</v>
+      </c>
+      <c r="BK136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2468055</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>82</v>
+      </c>
+      <c r="H137" t="s">
+        <v>83</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>109</v>
+      </c>
+      <c r="P137" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q137">
+        <v>2</v>
+      </c>
+      <c r="R137">
+        <v>6</v>
+      </c>
+      <c r="S137">
+        <v>8</v>
+      </c>
+      <c r="T137">
+        <v>2.4</v>
+      </c>
+      <c r="U137">
+        <v>2.2</v>
+      </c>
+      <c r="V137">
+        <v>4.75</v>
+      </c>
+      <c r="W137">
+        <v>1.4</v>
+      </c>
+      <c r="X137">
+        <v>2.75</v>
+      </c>
+      <c r="Y137">
+        <v>2.75</v>
+      </c>
+      <c r="Z137">
+        <v>1.4</v>
+      </c>
+      <c r="AA137">
+        <v>8</v>
+      </c>
+      <c r="AB137">
+        <v>1.08</v>
+      </c>
+      <c r="AC137">
+        <v>1.78</v>
+      </c>
+      <c r="AD137">
+        <v>3.71</v>
+      </c>
+      <c r="AE137">
+        <v>4.22</v>
+      </c>
+      <c r="AF137">
+        <v>1.04</v>
+      </c>
+      <c r="AG137">
+        <v>9.5</v>
+      </c>
+      <c r="AH137">
+        <v>1.27</v>
+      </c>
+      <c r="AI137">
+        <v>3.6</v>
+      </c>
+      <c r="AJ137">
+        <v>1.86</v>
+      </c>
+      <c r="AK137">
+        <v>1.88</v>
+      </c>
+      <c r="AL137">
+        <v>1.8</v>
+      </c>
+      <c r="AM137">
+        <v>1.95</v>
+      </c>
+      <c r="AN137">
+        <v>1.22</v>
+      </c>
+      <c r="AO137">
+        <v>1.27</v>
+      </c>
+      <c r="AP137">
+        <v>1.93</v>
+      </c>
+      <c r="AQ137">
+        <v>0.83</v>
+      </c>
+      <c r="AR137">
+        <v>1</v>
+      </c>
+      <c r="AS137">
+        <v>1.14</v>
+      </c>
+      <c r="AT137">
+        <v>0.88</v>
+      </c>
+      <c r="AU137">
+        <v>1.63</v>
+      </c>
+      <c r="AV137">
+        <v>1.43</v>
+      </c>
+      <c r="AW137">
+        <v>3.06</v>
+      </c>
+      <c r="AX137">
+        <v>1.54</v>
+      </c>
+      <c r="AY137">
+        <v>8.1</v>
+      </c>
+      <c r="AZ137">
+        <v>3.18</v>
+      </c>
+      <c r="BA137">
+        <v>1.27</v>
+      </c>
+      <c r="BB137">
+        <v>1.63</v>
+      </c>
+      <c r="BC137">
+        <v>2.01</v>
+      </c>
+      <c r="BD137">
+        <v>2.51</v>
+      </c>
+      <c r="BE137">
+        <v>3.42</v>
+      </c>
+      <c r="BF137">
+        <v>11</v>
+      </c>
+      <c r="BG137">
+        <v>3</v>
+      </c>
+      <c r="BH137">
+        <v>5</v>
+      </c>
+      <c r="BI137">
+        <v>10</v>
+      </c>
+      <c r="BJ137">
+        <v>16</v>
+      </c>
+      <c r="BK137">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2468057</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s">
+        <v>75</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>147</v>
+      </c>
+      <c r="P138" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q138">
+        <v>10</v>
+      </c>
+      <c r="R138">
+        <v>4</v>
+      </c>
+      <c r="S138">
+        <v>14</v>
+      </c>
+      <c r="T138">
+        <v>2.63</v>
+      </c>
+      <c r="U138">
+        <v>2.2</v>
+      </c>
+      <c r="V138">
+        <v>4</v>
+      </c>
+      <c r="W138">
+        <v>1.4</v>
+      </c>
+      <c r="X138">
+        <v>2.75</v>
+      </c>
+      <c r="Y138">
+        <v>2.75</v>
+      </c>
+      <c r="Z138">
+        <v>1.4</v>
+      </c>
+      <c r="AA138">
+        <v>8</v>
+      </c>
+      <c r="AB138">
+        <v>1.08</v>
+      </c>
+      <c r="AC138">
+        <v>2.12</v>
+      </c>
+      <c r="AD138">
+        <v>3.44</v>
+      </c>
+      <c r="AE138">
+        <v>3.26</v>
+      </c>
+      <c r="AF138">
+        <v>1.06</v>
+      </c>
+      <c r="AG138">
+        <v>8</v>
+      </c>
+      <c r="AH138">
+        <v>1.27</v>
+      </c>
+      <c r="AI138">
+        <v>3.6</v>
+      </c>
+      <c r="AJ138">
+        <v>1.93</v>
+      </c>
+      <c r="AK138">
+        <v>1.81</v>
+      </c>
+      <c r="AL138">
+        <v>1.8</v>
+      </c>
+      <c r="AM138">
+        <v>1.95</v>
+      </c>
+      <c r="AN138">
+        <v>1.29</v>
+      </c>
+      <c r="AO138">
+        <v>1.3</v>
+      </c>
+      <c r="AP138">
+        <v>1.72</v>
+      </c>
+      <c r="AQ138">
+        <v>1</v>
+      </c>
+      <c r="AR138">
+        <v>0.43</v>
+      </c>
+      <c r="AS138">
+        <v>1.29</v>
+      </c>
+      <c r="AT138">
+        <v>0.38</v>
+      </c>
+      <c r="AU138">
+        <v>1.74</v>
+      </c>
+      <c r="AV138">
+        <v>1.42</v>
+      </c>
+      <c r="AW138">
+        <v>3.16</v>
+      </c>
+      <c r="AX138">
+        <v>1.81</v>
+      </c>
+      <c r="AY138">
+        <v>7.8</v>
+      </c>
+      <c r="AZ138">
+        <v>2.46</v>
+      </c>
+      <c r="BA138">
+        <v>1.22</v>
+      </c>
+      <c r="BB138">
+        <v>1.52</v>
+      </c>
+      <c r="BC138">
+        <v>1.84</v>
+      </c>
+      <c r="BD138">
+        <v>2.26</v>
+      </c>
+      <c r="BE138">
+        <v>3.04</v>
+      </c>
+      <c r="BF138">
+        <v>11</v>
+      </c>
+      <c r="BG138">
+        <v>5</v>
+      </c>
+      <c r="BH138">
+        <v>13</v>
+      </c>
+      <c r="BI138">
+        <v>11</v>
+      </c>
+      <c r="BJ138">
+        <v>24</v>
+      </c>
+      <c r="BK138">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2468058</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>68</v>
+      </c>
+      <c r="H139" t="s">
+        <v>76</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>87</v>
+      </c>
+      <c r="P139" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q139">
+        <v>7</v>
+      </c>
+      <c r="R139">
+        <v>6</v>
+      </c>
+      <c r="S139">
+        <v>13</v>
+      </c>
+      <c r="T139">
+        <v>3.5</v>
+      </c>
+      <c r="U139">
+        <v>2.4</v>
+      </c>
+      <c r="V139">
+        <v>2.63</v>
+      </c>
+      <c r="W139">
+        <v>1.29</v>
+      </c>
+      <c r="X139">
+        <v>3.5</v>
+      </c>
+      <c r="Y139">
+        <v>2.25</v>
+      </c>
+      <c r="Z139">
+        <v>1.57</v>
+      </c>
+      <c r="AA139">
+        <v>5.5</v>
+      </c>
+      <c r="AB139">
+        <v>1.14</v>
+      </c>
+      <c r="AC139">
+        <v>3.27</v>
+      </c>
+      <c r="AD139">
+        <v>3.78</v>
+      </c>
+      <c r="AE139">
+        <v>2.01</v>
+      </c>
+      <c r="AF139">
+        <v>1.01</v>
+      </c>
+      <c r="AG139">
+        <v>13</v>
+      </c>
+      <c r="AH139">
+        <v>1.15</v>
+      </c>
+      <c r="AI139">
+        <v>5</v>
+      </c>
+      <c r="AJ139">
+        <v>1.6</v>
+      </c>
+      <c r="AK139">
+        <v>2.3</v>
+      </c>
+      <c r="AL139">
+        <v>1.5</v>
+      </c>
+      <c r="AM139">
+        <v>2.5</v>
+      </c>
+      <c r="AN139">
+        <v>1.72</v>
+      </c>
+      <c r="AO139">
+        <v>1.27</v>
+      </c>
+      <c r="AP139">
+        <v>1.33</v>
+      </c>
+      <c r="AQ139">
+        <v>1.71</v>
+      </c>
+      <c r="AR139">
+        <v>2.17</v>
+      </c>
+      <c r="AS139">
+        <v>1.5</v>
+      </c>
+      <c r="AT139">
+        <v>2.29</v>
+      </c>
+      <c r="AU139">
+        <v>1.67</v>
+      </c>
+      <c r="AV139">
+        <v>1.9</v>
+      </c>
+      <c r="AW139">
+        <v>3.57</v>
+      </c>
+      <c r="AX139">
+        <v>2.46</v>
+      </c>
+      <c r="AY139">
+        <v>7.8</v>
+      </c>
+      <c r="AZ139">
+        <v>1.81</v>
+      </c>
+      <c r="BA139">
+        <v>1.24</v>
+      </c>
+      <c r="BB139">
+        <v>1.56</v>
+      </c>
+      <c r="BC139">
+        <v>1.91</v>
+      </c>
+      <c r="BD139">
+        <v>2.36</v>
+      </c>
+      <c r="BE139">
+        <v>3.18</v>
+      </c>
+      <c r="BF139">
+        <v>6</v>
+      </c>
+      <c r="BG139">
+        <v>11</v>
+      </c>
+      <c r="BH139">
+        <v>6</v>
+      </c>
+      <c r="BI139">
+        <v>13</v>
+      </c>
+      <c r="BJ139">
+        <v>12</v>
+      </c>
+      <c r="BK139">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2468054</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44871.54513888889</v>
+      </c>
+      <c r="F140">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>72</v>
+      </c>
+      <c r="H140" t="s">
+        <v>73</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>182</v>
+      </c>
+      <c r="P140" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q140">
+        <v>6</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>8</v>
+      </c>
+      <c r="T140">
+        <v>3</v>
+      </c>
+      <c r="U140">
+        <v>2.25</v>
+      </c>
+      <c r="V140">
+        <v>3.25</v>
+      </c>
+      <c r="W140">
+        <v>1.33</v>
+      </c>
+      <c r="X140">
+        <v>3.25</v>
+      </c>
+      <c r="Y140">
+        <v>2.63</v>
+      </c>
+      <c r="Z140">
+        <v>1.44</v>
+      </c>
+      <c r="AA140">
+        <v>6.5</v>
+      </c>
+      <c r="AB140">
+        <v>1.11</v>
+      </c>
+      <c r="AC140">
+        <v>2.3</v>
+      </c>
+      <c r="AD140">
+        <v>3.6</v>
+      </c>
+      <c r="AE140">
+        <v>2.95</v>
+      </c>
+      <c r="AF140">
+        <v>1.03</v>
+      </c>
+      <c r="AG140">
+        <v>11</v>
+      </c>
+      <c r="AH140">
+        <v>1.22</v>
+      </c>
+      <c r="AI140">
+        <v>4</v>
+      </c>
+      <c r="AJ140">
+        <v>1.7</v>
+      </c>
+      <c r="AK140">
+        <v>2.15</v>
+      </c>
+      <c r="AL140">
+        <v>1.62</v>
+      </c>
+      <c r="AM140">
+        <v>2.2</v>
+      </c>
+      <c r="AN140">
+        <v>1.46</v>
+      </c>
+      <c r="AO140">
+        <v>1.29</v>
+      </c>
+      <c r="AP140">
+        <v>1.51</v>
+      </c>
+      <c r="AQ140">
+        <v>2</v>
+      </c>
+      <c r="AR140">
+        <v>1.5</v>
+      </c>
+      <c r="AS140">
+        <v>2</v>
+      </c>
+      <c r="AT140">
+        <v>1.43</v>
+      </c>
+      <c r="AU140">
+        <v>1.86</v>
+      </c>
+      <c r="AV140">
+        <v>2.03</v>
+      </c>
+      <c r="AW140">
+        <v>3.89</v>
+      </c>
+      <c r="AX140">
+        <v>1.97</v>
+      </c>
+      <c r="AY140">
+        <v>7.6</v>
+      </c>
+      <c r="AZ140">
+        <v>2.23</v>
+      </c>
+      <c r="BA140">
+        <v>1.25</v>
+      </c>
+      <c r="BB140">
+        <v>1.58</v>
+      </c>
+      <c r="BC140">
+        <v>1.93</v>
+      </c>
+      <c r="BD140">
+        <v>2.4</v>
+      </c>
+      <c r="BE140">
+        <v>3.28</v>
+      </c>
+      <c r="BF140">
+        <v>8</v>
+      </c>
+      <c r="BG140">
+        <v>3</v>
+      </c>
+      <c r="BH140">
+        <v>12</v>
+      </c>
+      <c r="BI140">
+        <v>1</v>
+      </c>
+      <c r="BJ140">
+        <v>20</v>
+      </c>
+      <c r="BK140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2468056</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44871.69791666666</v>
+      </c>
+      <c r="F141">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>74</v>
+      </c>
+      <c r="H141" t="s">
+        <v>65</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>183</v>
+      </c>
+      <c r="P141" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q141">
+        <v>6</v>
+      </c>
+      <c r="R141">
+        <v>4</v>
+      </c>
+      <c r="S141">
+        <v>10</v>
+      </c>
+      <c r="T141">
+        <v>2.75</v>
+      </c>
+      <c r="U141">
+        <v>2.3</v>
+      </c>
+      <c r="V141">
+        <v>3.5</v>
+      </c>
+      <c r="W141">
+        <v>1.33</v>
+      </c>
+      <c r="X141">
+        <v>3.25</v>
+      </c>
+      <c r="Y141">
+        <v>2.5</v>
+      </c>
+      <c r="Z141">
+        <v>1.5</v>
+      </c>
+      <c r="AA141">
+        <v>6.5</v>
+      </c>
+      <c r="AB141">
+        <v>1.11</v>
+      </c>
+      <c r="AC141">
+        <v>2.21</v>
+      </c>
+      <c r="AD141">
+        <v>3.6</v>
+      </c>
+      <c r="AE141">
+        <v>3.1</v>
+      </c>
+      <c r="AF141">
+        <v>1.02</v>
+      </c>
+      <c r="AG141">
+        <v>12</v>
+      </c>
+      <c r="AH141">
+        <v>1.2</v>
+      </c>
+      <c r="AI141">
+        <v>4.3</v>
+      </c>
+      <c r="AJ141">
+        <v>1.78</v>
+      </c>
+      <c r="AK141">
+        <v>2.05</v>
+      </c>
+      <c r="AL141">
+        <v>1.62</v>
+      </c>
+      <c r="AM141">
+        <v>2.2</v>
+      </c>
+      <c r="AN141">
+        <v>1.36</v>
+      </c>
+      <c r="AO141">
+        <v>1.29</v>
+      </c>
+      <c r="AP141">
+        <v>1.7</v>
+      </c>
+      <c r="AQ141">
+        <v>1.86</v>
+      </c>
+      <c r="AR141">
+        <v>0.67</v>
+      </c>
+      <c r="AS141">
+        <v>2</v>
+      </c>
+      <c r="AT141">
+        <v>0.57</v>
+      </c>
+      <c r="AU141">
+        <v>1.93</v>
+      </c>
+      <c r="AV141">
+        <v>1.84</v>
+      </c>
+      <c r="AW141">
+        <v>3.77</v>
+      </c>
+      <c r="AX141">
+        <v>1.66</v>
+      </c>
+      <c r="AY141">
+        <v>7.9</v>
+      </c>
+      <c r="AZ141">
+        <v>2.79</v>
+      </c>
+      <c r="BA141">
+        <v>1.26</v>
+      </c>
+      <c r="BB141">
+        <v>1.6</v>
+      </c>
+      <c r="BC141">
+        <v>1.96</v>
+      </c>
+      <c r="BD141">
+        <v>2.43</v>
+      </c>
+      <c r="BE141">
+        <v>3.34</v>
+      </c>
+      <c r="BF141">
+        <v>4</v>
+      </c>
+      <c r="BG141">
+        <v>5</v>
+      </c>
+      <c r="BH141">
+        <v>4</v>
+      </c>
+      <c r="BI141">
+        <v>7</v>
+      </c>
+      <c r="BJ141">
+        <v>8</v>
+      </c>
+      <c r="BK141">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2468064</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44876.70833333334</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>65</v>
+      </c>
+      <c r="H142" t="s">
+        <v>82</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>167</v>
+      </c>
+      <c r="P142" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q142">
+        <v>3</v>
+      </c>
+      <c r="R142">
+        <v>4</v>
+      </c>
+      <c r="S142">
+        <v>7</v>
+      </c>
+      <c r="T142">
+        <v>2.3</v>
+      </c>
+      <c r="U142">
+        <v>2.3</v>
+      </c>
+      <c r="V142">
+        <v>4.75</v>
+      </c>
+      <c r="W142">
+        <v>1.33</v>
+      </c>
+      <c r="X142">
+        <v>3.25</v>
+      </c>
+      <c r="Y142">
+        <v>2.63</v>
+      </c>
+      <c r="Z142">
+        <v>1.44</v>
+      </c>
+      <c r="AA142">
+        <v>6.5</v>
+      </c>
+      <c r="AB142">
+        <v>1.11</v>
+      </c>
+      <c r="AC142">
+        <v>1.62</v>
+      </c>
+      <c r="AD142">
+        <v>4.25</v>
+      </c>
+      <c r="AE142">
+        <v>5.05</v>
+      </c>
+      <c r="AF142">
+        <v>1.03</v>
+      </c>
+      <c r="AG142">
+        <v>13</v>
+      </c>
+      <c r="AH142">
+        <v>1.24</v>
+      </c>
+      <c r="AI142">
+        <v>4.2</v>
+      </c>
+      <c r="AJ142">
+        <v>1.66</v>
+      </c>
+      <c r="AK142">
+        <v>2.09</v>
+      </c>
+      <c r="AL142">
+        <v>1.75</v>
+      </c>
+      <c r="AM142">
+        <v>2</v>
+      </c>
+      <c r="AN142">
+        <v>1.19</v>
+      </c>
+      <c r="AO142">
+        <v>1.26</v>
+      </c>
+      <c r="AP142">
+        <v>2.05</v>
+      </c>
+      <c r="AQ142">
+        <v>2.29</v>
+      </c>
+      <c r="AR142">
+        <v>1.57</v>
+      </c>
+      <c r="AS142">
+        <v>2.13</v>
+      </c>
+      <c r="AT142">
+        <v>1.5</v>
+      </c>
+      <c r="AU142">
+        <v>1.92</v>
+      </c>
+      <c r="AV142">
+        <v>1.31</v>
+      </c>
+      <c r="AW142">
+        <v>3.23</v>
+      </c>
+      <c r="AX142">
+        <v>1.61</v>
+      </c>
+      <c r="AY142">
+        <v>8.1</v>
+      </c>
+      <c r="AZ142">
+        <v>2.92</v>
+      </c>
+      <c r="BA142">
+        <v>1.3</v>
+      </c>
+      <c r="BB142">
+        <v>1.57</v>
+      </c>
+      <c r="BC142">
+        <v>1.98</v>
+      </c>
+      <c r="BD142">
+        <v>2.59</v>
+      </c>
+      <c r="BE142">
+        <v>3.48</v>
+      </c>
+      <c r="BF142">
+        <v>3</v>
+      </c>
+      <c r="BG142">
+        <v>6</v>
+      </c>
+      <c r="BH142">
+        <v>7</v>
+      </c>
+      <c r="BI142">
+        <v>8</v>
+      </c>
+      <c r="BJ142">
+        <v>10</v>
+      </c>
+      <c r="BK142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2468066</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44877.54166666666</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>71</v>
+      </c>
+      <c r="H143" t="s">
+        <v>67</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>184</v>
+      </c>
+      <c r="P143" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q143">
+        <v>5</v>
+      </c>
+      <c r="R143">
+        <v>3</v>
+      </c>
+      <c r="S143">
+        <v>8</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
+        <v>2.4</v>
+      </c>
+      <c r="V143">
+        <v>6.5</v>
+      </c>
+      <c r="W143">
+        <v>1.33</v>
+      </c>
+      <c r="X143">
+        <v>3.25</v>
+      </c>
+      <c r="Y143">
+        <v>2.5</v>
+      </c>
+      <c r="Z143">
+        <v>1.5</v>
+      </c>
+      <c r="AA143">
+        <v>6.5</v>
+      </c>
+      <c r="AB143">
+        <v>1.11</v>
+      </c>
+      <c r="AC143">
+        <v>1.5</v>
+      </c>
+      <c r="AD143">
+        <v>4.48</v>
+      </c>
+      <c r="AE143">
+        <v>6.15</v>
+      </c>
+      <c r="AF143">
+        <v>1.02</v>
+      </c>
+      <c r="AG143">
+        <v>12</v>
+      </c>
+      <c r="AH143">
+        <v>1.18</v>
+      </c>
+      <c r="AI143">
+        <v>4.5</v>
+      </c>
+      <c r="AJ143">
+        <v>1.61</v>
+      </c>
+      <c r="AK143">
+        <v>2.15</v>
+      </c>
+      <c r="AL143">
+        <v>1.91</v>
+      </c>
+      <c r="AM143">
+        <v>1.91</v>
+      </c>
+      <c r="AN143">
+        <v>1.06</v>
+      </c>
+      <c r="AO143">
+        <v>1.2</v>
+      </c>
+      <c r="AP143">
+        <v>2.85</v>
+      </c>
+      <c r="AQ143">
+        <v>3</v>
+      </c>
+      <c r="AR143">
+        <v>1.29</v>
+      </c>
+      <c r="AS143">
+        <v>3</v>
+      </c>
+      <c r="AT143">
+        <v>1.13</v>
+      </c>
+      <c r="AU143">
+        <v>1.94</v>
+      </c>
+      <c r="AV143">
+        <v>1.26</v>
+      </c>
+      <c r="AW143">
+        <v>3.2</v>
+      </c>
+      <c r="AX143">
+        <v>1.36</v>
+      </c>
+      <c r="AY143">
+        <v>9</v>
+      </c>
+      <c r="AZ143">
+        <v>4.14</v>
+      </c>
+      <c r="BA143">
+        <v>1.31</v>
+      </c>
+      <c r="BB143">
+        <v>1.59</v>
+      </c>
+      <c r="BC143">
+        <v>1.97</v>
+      </c>
+      <c r="BD143">
+        <v>2.62</v>
+      </c>
+      <c r="BE143">
+        <v>3.48</v>
+      </c>
+      <c r="BF143">
+        <v>5</v>
+      </c>
+      <c r="BG143">
+        <v>5</v>
+      </c>
+      <c r="BH143">
+        <v>12</v>
+      </c>
+      <c r="BI143">
+        <v>3</v>
+      </c>
+      <c r="BJ143">
+        <v>17</v>
+      </c>
+      <c r="BK143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2468069</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44877.70833333334</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>73</v>
+      </c>
+      <c r="H144" t="s">
+        <v>68</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>185</v>
+      </c>
+      <c r="P144" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q144">
+        <v>4</v>
+      </c>
+      <c r="R144">
+        <v>4</v>
+      </c>
+      <c r="S144">
+        <v>8</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
+        <v>2.5</v>
+      </c>
+      <c r="V144">
+        <v>5.5</v>
+      </c>
+      <c r="W144">
+        <v>1.29</v>
+      </c>
+      <c r="X144">
+        <v>3.5</v>
+      </c>
+      <c r="Y144">
+        <v>2.38</v>
+      </c>
+      <c r="Z144">
+        <v>1.53</v>
+      </c>
+      <c r="AA144">
+        <v>5.5</v>
+      </c>
+      <c r="AB144">
+        <v>1.14</v>
+      </c>
+      <c r="AC144">
+        <v>1.53</v>
+      </c>
+      <c r="AD144">
+        <v>4.2</v>
+      </c>
+      <c r="AE144">
+        <v>6</v>
+      </c>
+      <c r="AF144">
+        <v>1.01</v>
+      </c>
+      <c r="AG144">
+        <v>13</v>
+      </c>
+      <c r="AH144">
+        <v>1.17</v>
+      </c>
+      <c r="AI144">
+        <v>4.7</v>
+      </c>
+      <c r="AJ144">
+        <v>1.62</v>
+      </c>
+      <c r="AK144">
+        <v>2.3</v>
+      </c>
+      <c r="AL144">
+        <v>1.75</v>
+      </c>
+      <c r="AM144">
+        <v>2</v>
+      </c>
+      <c r="AN144">
+        <v>1.1</v>
+      </c>
+      <c r="AO144">
+        <v>1.2</v>
+      </c>
+      <c r="AP144">
+        <v>2.6</v>
+      </c>
+      <c r="AQ144">
+        <v>2.57</v>
+      </c>
+      <c r="AR144">
+        <v>0.67</v>
+      </c>
+      <c r="AS144">
+        <v>2.63</v>
+      </c>
+      <c r="AT144">
+        <v>0.57</v>
+      </c>
+      <c r="AU144">
+        <v>1.89</v>
+      </c>
+      <c r="AV144">
+        <v>1.33</v>
+      </c>
+      <c r="AW144">
+        <v>3.22</v>
+      </c>
+      <c r="AX144">
+        <v>1.58</v>
+      </c>
+      <c r="AY144">
+        <v>8.5</v>
+      </c>
+      <c r="AZ144">
+        <v>2.97</v>
+      </c>
+      <c r="BA144">
+        <v>1.2</v>
+      </c>
+      <c r="BB144">
+        <v>1.41</v>
+      </c>
+      <c r="BC144">
+        <v>1.72</v>
+      </c>
+      <c r="BD144">
+        <v>2.15</v>
+      </c>
+      <c r="BE144">
+        <v>2.79</v>
+      </c>
+      <c r="BF144">
+        <v>8</v>
+      </c>
+      <c r="BG144">
+        <v>6</v>
+      </c>
+      <c r="BH144">
+        <v>9</v>
+      </c>
+      <c r="BI144">
+        <v>6</v>
+      </c>
+      <c r="BJ144">
+        <v>17</v>
+      </c>
+      <c r="BK144">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2468065</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44878.375</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>77</v>
+      </c>
+      <c r="H145" t="s">
+        <v>80</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>5</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145" t="s">
+        <v>186</v>
+      </c>
+      <c r="P145" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q145">
+        <v>3</v>
+      </c>
+      <c r="R145">
+        <v>7</v>
+      </c>
+      <c r="S145">
+        <v>10</v>
+      </c>
+      <c r="T145">
+        <v>1.4</v>
+      </c>
+      <c r="U145">
+        <v>3.5</v>
+      </c>
+      <c r="V145">
+        <v>13</v>
+      </c>
+      <c r="W145">
+        <v>1.17</v>
+      </c>
+      <c r="X145">
+        <v>5</v>
+      </c>
+      <c r="Y145">
+        <v>1.8</v>
+      </c>
+      <c r="Z145">
+        <v>1.91</v>
+      </c>
+      <c r="AA145">
+        <v>3.5</v>
+      </c>
+      <c r="AB145">
+        <v>1.29</v>
+      </c>
+      <c r="AC145">
+        <v>1.08</v>
+      </c>
+      <c r="AD145">
+        <v>10</v>
+      </c>
+      <c r="AE145">
+        <v>23</v>
+      </c>
+      <c r="AF145">
+        <v>1</v>
+      </c>
+      <c r="AG145">
+        <v>36</v>
+      </c>
+      <c r="AH145">
+        <v>1.07</v>
+      </c>
+      <c r="AI145">
+        <v>9</v>
+      </c>
+      <c r="AJ145">
+        <v>1.21</v>
+      </c>
+      <c r="AK145">
+        <v>3.75</v>
+      </c>
+      <c r="AL145">
+        <v>2.05</v>
+      </c>
+      <c r="AM145">
+        <v>1.7</v>
+      </c>
+      <c r="AN145">
+        <v>1.01</v>
+      </c>
+      <c r="AO145">
+        <v>1.05</v>
+      </c>
+      <c r="AP145">
+        <v>6.75</v>
+      </c>
+      <c r="AQ145">
+        <v>2.67</v>
+      </c>
+      <c r="AR145">
+        <v>0.57</v>
+      </c>
+      <c r="AS145">
+        <v>2.71</v>
+      </c>
+      <c r="AT145">
+        <v>0.5</v>
+      </c>
+      <c r="AU145">
+        <v>2.27</v>
+      </c>
+      <c r="AV145">
+        <v>1.26</v>
+      </c>
+      <c r="AW145">
+        <v>3.53</v>
+      </c>
+      <c r="AX145">
+        <v>1.21</v>
+      </c>
+      <c r="AY145">
+        <v>10.5</v>
+      </c>
+      <c r="AZ145">
+        <v>6</v>
+      </c>
+      <c r="BA145">
+        <v>1.25</v>
+      </c>
+      <c r="BB145">
+        <v>1.48</v>
+      </c>
+      <c r="BC145">
+        <v>1.83</v>
+      </c>
+      <c r="BD145">
+        <v>2.32</v>
+      </c>
+      <c r="BE145">
+        <v>3.04</v>
+      </c>
+      <c r="BF145">
+        <v>7</v>
+      </c>
+      <c r="BG145">
+        <v>4</v>
+      </c>
+      <c r="BH145">
+        <v>5</v>
+      </c>
+      <c r="BI145">
+        <v>7</v>
+      </c>
+      <c r="BJ145">
+        <v>12</v>
+      </c>
+      <c r="BK145">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2468068</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>83</v>
+      </c>
+      <c r="H146" t="s">
+        <v>81</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>187</v>
+      </c>
+      <c r="P146" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q146">
+        <v>5</v>
+      </c>
+      <c r="R146">
+        <v>5</v>
+      </c>
+      <c r="S146">
+        <v>10</v>
+      </c>
+      <c r="T146">
+        <v>2.63</v>
+      </c>
+      <c r="U146">
+        <v>2.25</v>
+      </c>
+      <c r="V146">
+        <v>3.75</v>
+      </c>
+      <c r="W146">
+        <v>1.33</v>
+      </c>
+      <c r="X146">
+        <v>3.25</v>
+      </c>
+      <c r="Y146">
+        <v>2.63</v>
+      </c>
+      <c r="Z146">
+        <v>1.44</v>
+      </c>
+      <c r="AA146">
+        <v>7</v>
+      </c>
+      <c r="AB146">
+        <v>1.1</v>
+      </c>
+      <c r="AC146">
+        <v>2.04</v>
+      </c>
+      <c r="AD146">
+        <v>3.5</v>
+      </c>
+      <c r="AE146">
+        <v>3.2</v>
+      </c>
+      <c r="AF146">
+        <v>1.04</v>
+      </c>
+      <c r="AG146">
+        <v>13</v>
+      </c>
+      <c r="AH146">
+        <v>1.26</v>
+      </c>
+      <c r="AI146">
+        <v>4</v>
+      </c>
+      <c r="AJ146">
+        <v>1.77</v>
+      </c>
+      <c r="AK146">
+        <v>1.9</v>
+      </c>
+      <c r="AL146">
+        <v>1.67</v>
+      </c>
+      <c r="AM146">
+        <v>2.1</v>
+      </c>
+      <c r="AN146">
+        <v>1.27</v>
+      </c>
+      <c r="AO146">
+        <v>1.3</v>
+      </c>
+      <c r="AP146">
+        <v>1.75</v>
+      </c>
+      <c r="AQ146">
+        <v>0.5</v>
+      </c>
+      <c r="AR146">
+        <v>0.86</v>
+      </c>
+      <c r="AS146">
+        <v>0.86</v>
+      </c>
+      <c r="AT146">
+        <v>0.75</v>
+      </c>
+      <c r="AU146">
+        <v>1.6</v>
+      </c>
+      <c r="AV146">
+        <v>1.58</v>
+      </c>
+      <c r="AW146">
+        <v>3.18</v>
+      </c>
+      <c r="AX146">
+        <v>1.69</v>
+      </c>
+      <c r="AY146">
+        <v>7.3</v>
+      </c>
+      <c r="AZ146">
+        <v>2.79</v>
+      </c>
+      <c r="BA146">
+        <v>1.27</v>
+      </c>
+      <c r="BB146">
+        <v>1.53</v>
+      </c>
+      <c r="BC146">
+        <v>1.93</v>
+      </c>
+      <c r="BD146">
+        <v>2.5</v>
+      </c>
+      <c r="BE146">
+        <v>3.34</v>
+      </c>
+      <c r="BF146">
+        <v>7</v>
+      </c>
+      <c r="BG146">
+        <v>4</v>
+      </c>
+      <c r="BH146">
+        <v>10</v>
+      </c>
+      <c r="BI146">
+        <v>8</v>
+      </c>
+      <c r="BJ146">
+        <v>17</v>
+      </c>
+      <c r="BK146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2468062</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>72</v>
+      </c>
+      <c r="H147" t="s">
+        <v>70</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>188</v>
+      </c>
+      <c r="P147" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q147">
+        <v>2</v>
+      </c>
+      <c r="R147">
+        <v>6</v>
+      </c>
+      <c r="S147">
+        <v>8</v>
+      </c>
+      <c r="T147">
+        <v>1.8</v>
+      </c>
+      <c r="U147">
+        <v>2.6</v>
+      </c>
+      <c r="V147">
+        <v>7.5</v>
+      </c>
+      <c r="W147">
+        <v>1.29</v>
+      </c>
+      <c r="X147">
+        <v>3.5</v>
+      </c>
+      <c r="Y147">
+        <v>2.38</v>
+      </c>
+      <c r="Z147">
+        <v>1.53</v>
+      </c>
+      <c r="AA147">
+        <v>5.5</v>
+      </c>
+      <c r="AB147">
+        <v>1.14</v>
+      </c>
+      <c r="AC147">
+        <v>1.33</v>
+      </c>
+      <c r="AD147">
+        <v>4.95</v>
+      </c>
+      <c r="AE147">
+        <v>7.45</v>
+      </c>
+      <c r="AF147">
+        <v>1.03</v>
+      </c>
+      <c r="AG147">
+        <v>17</v>
+      </c>
+      <c r="AH147">
+        <v>1.2</v>
+      </c>
+      <c r="AI147">
+        <v>4.5</v>
+      </c>
+      <c r="AJ147">
+        <v>1.59</v>
+      </c>
+      <c r="AK147">
+        <v>2.17</v>
+      </c>
+      <c r="AL147">
+        <v>1.95</v>
+      </c>
+      <c r="AM147">
+        <v>1.8</v>
+      </c>
+      <c r="AN147">
+        <v>1.07</v>
+      </c>
+      <c r="AO147">
+        <v>1.17</v>
+      </c>
+      <c r="AP147">
+        <v>3.1</v>
+      </c>
+      <c r="AQ147">
+        <v>1.86</v>
+      </c>
+      <c r="AR147">
+        <v>0.67</v>
+      </c>
+      <c r="AS147">
+        <v>2</v>
+      </c>
+      <c r="AT147">
+        <v>0.57</v>
+      </c>
+      <c r="AU147">
+        <v>1.92</v>
+      </c>
+      <c r="AV147">
+        <v>1.34</v>
+      </c>
+      <c r="AW147">
+        <v>3.26</v>
+      </c>
+      <c r="AX147">
+        <v>1.31</v>
+      </c>
+      <c r="AY147">
+        <v>9.4</v>
+      </c>
+      <c r="AZ147">
+        <v>4.6</v>
+      </c>
+      <c r="BA147">
+        <v>1.28</v>
+      </c>
+      <c r="BB147">
+        <v>1.53</v>
+      </c>
+      <c r="BC147">
+        <v>1.92</v>
+      </c>
+      <c r="BD147">
+        <v>2.47</v>
+      </c>
+      <c r="BE147">
+        <v>3.28</v>
+      </c>
+      <c r="BF147">
+        <v>5</v>
+      </c>
+      <c r="BG147">
+        <v>3</v>
+      </c>
+      <c r="BH147">
+        <v>5</v>
+      </c>
+      <c r="BI147">
+        <v>7</v>
+      </c>
+      <c r="BJ147">
+        <v>10</v>
+      </c>
+      <c r="BK147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2468061</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F148">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>75</v>
+      </c>
+      <c r="H148" t="s">
+        <v>79</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
+      <c r="O148" t="s">
+        <v>189</v>
+      </c>
+      <c r="P148" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q148">
+        <v>9</v>
+      </c>
+      <c r="R148">
+        <v>6</v>
+      </c>
+      <c r="S148">
+        <v>15</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
+        <v>2.05</v>
+      </c>
+      <c r="V148">
+        <v>4.5</v>
+      </c>
+      <c r="W148">
+        <v>1.5</v>
+      </c>
+      <c r="X148">
+        <v>2.5</v>
+      </c>
+      <c r="Y148">
+        <v>3.4</v>
+      </c>
+      <c r="Z148">
+        <v>1.3</v>
+      </c>
+      <c r="AA148">
+        <v>10</v>
+      </c>
+      <c r="AB148">
+        <v>1.06</v>
+      </c>
+      <c r="AC148">
+        <v>1.95</v>
+      </c>
+      <c r="AD148">
+        <v>3.3</v>
+      </c>
+      <c r="AE148">
+        <v>3.65</v>
+      </c>
+      <c r="AF148">
+        <v>1.08</v>
+      </c>
+      <c r="AG148">
+        <v>8.5</v>
+      </c>
+      <c r="AH148">
+        <v>1.42</v>
+      </c>
+      <c r="AI148">
+        <v>2.9</v>
+      </c>
+      <c r="AJ148">
+        <v>2.07</v>
+      </c>
+      <c r="AK148">
+        <v>1.65</v>
+      </c>
+      <c r="AL148">
+        <v>2</v>
+      </c>
+      <c r="AM148">
+        <v>1.75</v>
+      </c>
+      <c r="AN148">
+        <v>1.26</v>
+      </c>
+      <c r="AO148">
+        <v>1.33</v>
+      </c>
+      <c r="AP148">
+        <v>1.73</v>
+      </c>
+      <c r="AQ148">
+        <v>1.5</v>
+      </c>
+      <c r="AR148">
+        <v>1</v>
+      </c>
+      <c r="AS148">
+        <v>1.43</v>
+      </c>
+      <c r="AT148">
+        <v>1</v>
+      </c>
+      <c r="AU148">
+        <v>1.6</v>
+      </c>
+      <c r="AV148">
+        <v>1.26</v>
+      </c>
+      <c r="AW148">
+        <v>2.86</v>
+      </c>
+      <c r="AX148">
+        <v>1.7</v>
+      </c>
+      <c r="AY148">
+        <v>7.8</v>
+      </c>
+      <c r="AZ148">
+        <v>2.7</v>
+      </c>
+      <c r="BA148">
+        <v>1.34</v>
+      </c>
+      <c r="BB148">
+        <v>1.65</v>
+      </c>
+      <c r="BC148">
+        <v>2.1</v>
+      </c>
+      <c r="BD148">
+        <v>2.77</v>
+      </c>
+      <c r="BE148">
+        <v>3.74</v>
+      </c>
+      <c r="BF148">
+        <v>6</v>
+      </c>
+      <c r="BG148">
+        <v>6</v>
+      </c>
+      <c r="BH148">
+        <v>10</v>
+      </c>
+      <c r="BI148">
+        <v>9</v>
+      </c>
+      <c r="BJ148">
+        <v>16</v>
+      </c>
+      <c r="BK148">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2468063</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F149">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>69</v>
+      </c>
+      <c r="H149" t="s">
+        <v>78</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>190</v>
+      </c>
+      <c r="P149" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q149">
+        <v>11</v>
+      </c>
+      <c r="R149">
+        <v>7</v>
+      </c>
+      <c r="S149">
+        <v>18</v>
+      </c>
+      <c r="T149">
+        <v>3.1</v>
+      </c>
+      <c r="U149">
+        <v>2.2</v>
+      </c>
+      <c r="V149">
+        <v>3.25</v>
+      </c>
+      <c r="W149">
+        <v>1.36</v>
+      </c>
+      <c r="X149">
+        <v>3</v>
+      </c>
+      <c r="Y149">
+        <v>2.63</v>
+      </c>
+      <c r="Z149">
+        <v>1.44</v>
+      </c>
+      <c r="AA149">
+        <v>7</v>
+      </c>
+      <c r="AB149">
+        <v>1.1</v>
+      </c>
+      <c r="AC149">
+        <v>2.43</v>
+      </c>
+      <c r="AD149">
+        <v>3.4</v>
+      </c>
+      <c r="AE149">
+        <v>2.62</v>
+      </c>
+      <c r="AF149">
+        <v>1.04</v>
+      </c>
+      <c r="AG149">
+        <v>13</v>
+      </c>
+      <c r="AH149">
+        <v>1.28</v>
+      </c>
+      <c r="AI149">
+        <v>3.75</v>
+      </c>
+      <c r="AJ149">
+        <v>1.73</v>
+      </c>
+      <c r="AK149">
+        <v>1.96</v>
+      </c>
+      <c r="AL149">
+        <v>1.62</v>
+      </c>
+      <c r="AM149">
+        <v>2.2</v>
+      </c>
+      <c r="AN149">
+        <v>1.43</v>
+      </c>
+      <c r="AO149">
+        <v>1.3</v>
+      </c>
+      <c r="AP149">
+        <v>1.52</v>
+      </c>
+      <c r="AQ149">
+        <v>1.29</v>
+      </c>
+      <c r="AR149">
+        <v>1</v>
+      </c>
+      <c r="AS149">
+        <v>1.25</v>
+      </c>
+      <c r="AT149">
+        <v>1</v>
+      </c>
+      <c r="AU149">
+        <v>1.37</v>
+      </c>
+      <c r="AV149">
+        <v>1.35</v>
+      </c>
+      <c r="AW149">
+        <v>2.72</v>
+      </c>
+      <c r="AX149">
+        <v>1.92</v>
+      </c>
+      <c r="AY149">
+        <v>7.1</v>
+      </c>
+      <c r="AZ149">
+        <v>2.35</v>
+      </c>
+      <c r="BA149">
+        <v>1.24</v>
+      </c>
+      <c r="BB149">
+        <v>1.48</v>
+      </c>
+      <c r="BC149">
+        <v>1.85</v>
+      </c>
+      <c r="BD149">
+        <v>2.38</v>
+      </c>
+      <c r="BE149">
+        <v>3.18</v>
+      </c>
+      <c r="BF149">
+        <v>9</v>
+      </c>
+      <c r="BG149">
+        <v>7</v>
+      </c>
+      <c r="BH149">
+        <v>9</v>
+      </c>
+      <c r="BI149">
+        <v>11</v>
+      </c>
+      <c r="BJ149">
+        <v>18</v>
+      </c>
+      <c r="BK149">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2468067</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44878.54513888889</v>
+      </c>
+      <c r="F150">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>66</v>
+      </c>
+      <c r="H150" t="s">
+        <v>84</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>180</v>
+      </c>
+      <c r="P150" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q150">
+        <v>4</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>6</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>2.25</v>
+      </c>
+      <c r="V150">
+        <v>3.75</v>
+      </c>
+      <c r="W150">
+        <v>1.36</v>
+      </c>
+      <c r="X150">
+        <v>3</v>
+      </c>
+      <c r="Y150">
+        <v>2.63</v>
+      </c>
+      <c r="Z150">
+        <v>1.44</v>
+      </c>
+      <c r="AA150">
+        <v>7</v>
+      </c>
+      <c r="AB150">
+        <v>1.1</v>
+      </c>
+      <c r="AC150">
+        <v>2.14</v>
+      </c>
+      <c r="AD150">
+        <v>3.7</v>
+      </c>
+      <c r="AE150">
+        <v>3.58</v>
+      </c>
+      <c r="AF150">
+        <v>1.04</v>
+      </c>
+      <c r="AG150">
+        <v>12</v>
+      </c>
+      <c r="AH150">
+        <v>1.28</v>
+      </c>
+      <c r="AI150">
+        <v>3.75</v>
+      </c>
+      <c r="AJ150">
+        <v>1.9</v>
+      </c>
+      <c r="AK150">
+        <v>1.9</v>
+      </c>
+      <c r="AL150">
+        <v>1.67</v>
+      </c>
+      <c r="AM150">
+        <v>2.1</v>
+      </c>
+      <c r="AN150">
+        <v>1.33</v>
+      </c>
+      <c r="AO150">
+        <v>1.3</v>
+      </c>
+      <c r="AP150">
+        <v>1.67</v>
+      </c>
+      <c r="AQ150">
+        <v>0.57</v>
+      </c>
+      <c r="AR150">
+        <v>2</v>
+      </c>
+      <c r="AS150">
+        <v>0.63</v>
+      </c>
+      <c r="AT150">
+        <v>1.88</v>
+      </c>
+      <c r="AU150">
+        <v>1.33</v>
+      </c>
+      <c r="AV150">
+        <v>1.47</v>
+      </c>
+      <c r="AW150">
+        <v>2.8</v>
+      </c>
+      <c r="AX150">
+        <v>1.78</v>
+      </c>
+      <c r="AY150">
+        <v>7.1</v>
+      </c>
+      <c r="AZ150">
+        <v>2.6</v>
+      </c>
+      <c r="BA150">
+        <v>1.29</v>
+      </c>
+      <c r="BB150">
+        <v>1.56</v>
+      </c>
+      <c r="BC150">
+        <v>1.99</v>
+      </c>
+      <c r="BD150">
+        <v>2.61</v>
+      </c>
+      <c r="BE150">
+        <v>3.56</v>
+      </c>
+      <c r="BF150">
+        <v>5</v>
+      </c>
+      <c r="BG150">
+        <v>3</v>
+      </c>
+      <c r="BH150">
+        <v>16</v>
+      </c>
+      <c r="BI150">
+        <v>5</v>
+      </c>
+      <c r="BJ150">
+        <v>21</v>
+      </c>
+      <c r="BK150">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2468060</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44878.69791666666</v>
+      </c>
+      <c r="F151">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>76</v>
+      </c>
+      <c r="H151" t="s">
+        <v>74</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+      <c r="N151">
+        <v>5</v>
+      </c>
+      <c r="O151" t="s">
+        <v>191</v>
+      </c>
+      <c r="P151" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q151">
+        <v>5</v>
+      </c>
+      <c r="R151">
+        <v>4</v>
+      </c>
+      <c r="S151">
+        <v>9</v>
+      </c>
+      <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
+        <v>2.3</v>
+      </c>
+      <c r="V151">
+        <v>3.5</v>
+      </c>
+      <c r="W151">
+        <v>1.33</v>
+      </c>
+      <c r="X151">
+        <v>3.25</v>
+      </c>
+      <c r="Y151">
+        <v>2.5</v>
+      </c>
+      <c r="Z151">
+        <v>1.5</v>
+      </c>
+      <c r="AA151">
+        <v>6.5</v>
+      </c>
+      <c r="AB151">
+        <v>1.11</v>
+      </c>
+      <c r="AC151">
+        <v>2.25</v>
+      </c>
+      <c r="AD151">
+        <v>3.72</v>
+      </c>
+      <c r="AE151">
+        <v>3.28</v>
+      </c>
+      <c r="AF151">
+        <v>1.03</v>
+      </c>
+      <c r="AG151">
+        <v>15</v>
+      </c>
+      <c r="AH151">
+        <v>1.22</v>
+      </c>
+      <c r="AI151">
+        <v>4.33</v>
+      </c>
+      <c r="AJ151">
+        <v>1.64</v>
+      </c>
+      <c r="AK151">
+        <v>2.08</v>
+      </c>
+      <c r="AL151">
+        <v>1.57</v>
+      </c>
+      <c r="AM151">
+        <v>2.25</v>
+      </c>
+      <c r="AN151">
+        <v>1.35</v>
+      </c>
+      <c r="AO151">
+        <v>1.29</v>
+      </c>
+      <c r="AP151">
+        <v>1.66</v>
+      </c>
+      <c r="AQ151">
+        <v>1.57</v>
+      </c>
+      <c r="AR151">
+        <v>1.83</v>
+      </c>
+      <c r="AS151">
+        <v>1.38</v>
+      </c>
+      <c r="AT151">
+        <v>2</v>
+      </c>
+      <c r="AU151">
+        <v>1.31</v>
+      </c>
+      <c r="AV151">
+        <v>1.63</v>
+      </c>
+      <c r="AW151">
+        <v>2.94</v>
+      </c>
+      <c r="AX151">
+        <v>1.99</v>
+      </c>
+      <c r="AY151">
+        <v>7</v>
+      </c>
+      <c r="AZ151">
+        <v>2.26</v>
+      </c>
+      <c r="BA151">
+        <v>1.26</v>
+      </c>
+      <c r="BB151">
+        <v>1.52</v>
+      </c>
+      <c r="BC151">
+        <v>1.91</v>
+      </c>
+      <c r="BD151">
+        <v>2.47</v>
+      </c>
+      <c r="BE151">
+        <v>3.34</v>
+      </c>
+      <c r="BF151">
+        <v>9</v>
+      </c>
+      <c r="BG151">
+        <v>4</v>
+      </c>
+      <c r="BH151">
+        <v>3</v>
+      </c>
+      <c r="BI151">
+        <v>5</v>
+      </c>
+      <c r="BJ151">
+        <v>12</v>
+      </c>
+      <c r="BK151">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.63</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT4" t="n">
         <v>2.75</v>
@@ -1918,7 +1918,7 @@
         <v>0.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.43</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT14" t="n">
         <v>0.57</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT15" t="n">
         <v>0.57</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT18" t="n">
         <v>1.71</v>
@@ -4354,7 +4354,7 @@
         <v>1.14</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT20" t="n">
         <v>2</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT26" t="n">
         <v>1.5</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU31" t="n">
         <v>1.08</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU32" t="n">
         <v>1.58</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.19</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT38" t="n">
         <v>0.57</v>
@@ -8414,7 +8414,7 @@
         <v>1.29</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU39" t="n">
         <v>1.44</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU40" t="n">
         <v>3.14</v>
@@ -9429,7 +9429,7 @@
         <v>0.63</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU44" t="n">
         <v>1.58</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT51" t="n">
         <v>2</v>
@@ -11053,7 +11053,7 @@
         <v>2.13</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU52" t="n">
         <v>1.89</v>
@@ -11459,7 +11459,7 @@
         <v>1.25</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU54" t="n">
         <v>1.65</v>
@@ -11659,7 +11659,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT55" t="n">
         <v>1.88</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT56" t="n">
         <v>0.57</v>
@@ -12268,10 +12268,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT59" t="n">
         <v>1.43</v>
@@ -12677,7 +12677,7 @@
         <v>1.14</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU60" t="n">
         <v>1.49</v>
@@ -12880,7 +12880,7 @@
         <v>1.86</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU61" t="n">
         <v>2.44</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT63" t="n">
         <v>0.88</v>
@@ -13489,7 +13489,7 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU64" t="n">
         <v>2.14</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT68" t="n">
         <v>1.5</v>
@@ -14504,7 +14504,7 @@
         <v>1.86</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU69" t="n">
         <v>1.92</v>
@@ -14910,7 +14910,7 @@
         <v>1.38</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU71" t="n">
         <v>1.43</v>
@@ -15110,7 +15110,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT72" t="n">
         <v>1.88</v>
@@ -15316,7 +15316,7 @@
         <v>1.25</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU73" t="n">
         <v>1.43</v>
@@ -15722,7 +15722,7 @@
         <v>1.29</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT77" t="n">
         <v>0.75</v>
@@ -16331,7 +16331,7 @@
         <v>1.14</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU78" t="n">
         <v>1.48</v>
@@ -17546,7 +17546,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT84" t="n">
         <v>1.5</v>
@@ -17752,7 +17752,7 @@
         <v>1.86</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU85" t="n">
         <v>1.8</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT87" t="n">
         <v>1.13</v>
@@ -18358,7 +18358,7 @@
         <v>0.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT88" t="n">
         <v>0.88</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT89" t="n">
         <v>1</v>
@@ -18767,7 +18767,7 @@
         <v>1.38</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -18970,7 +18970,7 @@
         <v>3</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU91" t="n">
         <v>1.81</v>
@@ -19782,7 +19782,7 @@
         <v>1.25</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU95" t="n">
         <v>1.4</v>
@@ -19982,7 +19982,7 @@
         <v>2</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT96" t="n">
         <v>1.88</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT97" t="n">
         <v>0.5</v>
@@ -20391,7 +20391,7 @@
         <v>0.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU98" t="n">
         <v>1.52</v>
@@ -20797,7 +20797,7 @@
         <v>2.63</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU100" t="n">
         <v>2.02</v>
@@ -21203,7 +21203,7 @@
         <v>0.63</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -21812,7 +21812,7 @@
         <v>1.5</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU105" t="n">
         <v>1.52</v>
@@ -22012,7 +22012,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT106" t="n">
         <v>1.5</v>
@@ -22218,7 +22218,7 @@
         <v>2.63</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU107" t="n">
         <v>1.98</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -23027,7 +23027,7 @@
         <v>2.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT111" t="n">
         <v>2</v>
@@ -23230,7 +23230,7 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT112" t="n">
         <v>2.75</v>
@@ -23436,7 +23436,7 @@
         <v>1.25</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU113" t="n">
         <v>1.39</v>
@@ -24245,7 +24245,7 @@
         <v>0.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT117" t="n">
         <v>0.88</v>
@@ -24448,7 +24448,7 @@
         <v>2.17</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT118" t="n">
         <v>1.88</v>
@@ -24654,7 +24654,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU119" t="n">
         <v>1.58</v>
@@ -24857,7 +24857,7 @@
         <v>1.14</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU120" t="n">
         <v>1.61</v>
@@ -25060,7 +25060,7 @@
         <v>2</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU121" t="n">
         <v>1.81</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT123" t="n">
         <v>0.75</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -26075,7 +26075,7 @@
         <v>1.38</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU126" t="n">
         <v>1.32</v>
@@ -26681,7 +26681,7 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT129" t="n">
         <v>1</v>
@@ -27090,7 +27090,7 @@
         <v>2.13</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU131" t="n">
         <v>2.07</v>
@@ -27290,7 +27290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT132" t="n">
         <v>0.5</v>
@@ -27493,10 +27493,10 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU133" t="n">
         <v>1.28</v>
@@ -28102,7 +28102,7 @@
         <v>0.5</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT136" t="n">
         <v>0.57</v>
@@ -28511,7 +28511,7 @@
         <v>1.29</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU138" t="n">
         <v>1.74</v>
@@ -28714,7 +28714,7 @@
         <v>1.5</v>
       </c>
       <c r="AT139" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU139" t="n">
         <v>1.67</v>
@@ -29120,7 +29120,7 @@
         <v>2</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU141" t="n">
         <v>1.93</v>
@@ -29929,7 +29929,7 @@
         <v>0.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT145" t="n">
         <v>0.5</v>
@@ -30132,7 +30132,7 @@
         <v>0.86</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT146" t="n">
         <v>0.75</v>
@@ -30338,7 +30338,7 @@
         <v>2</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU147" t="n">
         <v>1.92</v>
@@ -31202,6 +31202,1224 @@
       </c>
       <c r="BK151" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2468070</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>44923.45833333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>16</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>3</v>
+      </c>
+      <c r="R152" t="n">
+        <v>5</v>
+      </c>
+      <c r="S152" t="n">
+        <v>8</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V152" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2468079</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44923.45833333334</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>4</v>
+      </c>
+      <c r="R153" t="n">
+        <v>4</v>
+      </c>
+      <c r="S153" t="n">
+        <v>8</v>
+      </c>
+      <c r="T153" t="n">
+        <v>3</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2468071</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44923.54166666666</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>3</v>
+      </c>
+      <c r="N154" t="n">
+        <v>5</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['30', '68']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['45+3', '58', '85']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>1</v>
+      </c>
+      <c r="R154" t="n">
+        <v>3</v>
+      </c>
+      <c r="S154" t="n">
+        <v>4</v>
+      </c>
+      <c r="T154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2468072</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44923.625</v>
+      </c>
+      <c r="F155" t="n">
+        <v>16</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>2</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['68', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>3</v>
+      </c>
+      <c r="R155" t="n">
+        <v>3</v>
+      </c>
+      <c r="S155" t="n">
+        <v>6</v>
+      </c>
+      <c r="T155" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X155" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2468077</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44923.70833333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>3</v>
+      </c>
+      <c r="K156" t="n">
+        <v>4</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>4</v>
+      </c>
+      <c r="N156" t="n">
+        <v>6</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['29', '72']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['21', '32', '35', '49']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>6</v>
+      </c>
+      <c r="R156" t="n">
+        <v>6</v>
+      </c>
+      <c r="S156" t="n">
+        <v>12</v>
+      </c>
+      <c r="T156" t="n">
+        <v>4</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2468076</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44923.70833333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>3</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['14', '90+6']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>8</v>
+      </c>
+      <c r="R157" t="n">
+        <v>3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>11</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V157" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X157" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK157"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
         <v>1.38</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
         <v>1.13</v>
@@ -7196,7 +7196,7 @@
         <v>3</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>1.79</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT36" t="n">
         <v>1.13</v>
@@ -8211,7 +8211,7 @@
         <v>0.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU38" t="n">
         <v>2</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT39" t="n">
         <v>0.88</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT57" t="n">
         <v>1.71</v>
@@ -12474,7 +12474,7 @@
         <v>1.13</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU59" t="n">
         <v>2.18</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT61" t="n">
         <v>0.88</v>
@@ -14098,7 +14098,7 @@
         <v>0.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU67" t="n">
         <v>1.52</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT69" t="n">
         <v>0.44</v>
@@ -15719,7 +15719,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT75" t="n">
         <v>2.38</v>
@@ -16534,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU79" t="n">
         <v>2.05</v>
@@ -17346,7 +17346,7 @@
         <v>0.63</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU83" t="n">
         <v>1.41</v>
@@ -17749,7 +17749,7 @@
         <v>1.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT85" t="n">
         <v>1.63</v>
@@ -17955,7 +17955,7 @@
         <v>1.5</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU86" t="n">
         <v>1.53</v>
@@ -19576,7 +19576,7 @@
         <v>3</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT94" t="n">
         <v>2.75</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT103" t="n">
         <v>1</v>
@@ -21609,7 +21609,7 @@
         <v>3</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU104" t="n">
         <v>1.94</v>
@@ -23842,7 +23842,7 @@
         <v>0.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU115" t="n">
         <v>1.56</v>
@@ -24042,7 +24042,7 @@
         <v>0.6</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT116" t="n">
         <v>0.5</v>
@@ -26278,7 +26278,7 @@
         <v>2.63</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU127" t="n">
         <v>1.91</v>
@@ -26884,7 +26884,7 @@
         <v>1.33</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT130" t="n">
         <v>1.5</v>
@@ -27899,7 +27899,7 @@
         <v>2.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT135" t="n">
         <v>2.75</v>
@@ -28105,7 +28105,7 @@
         <v>1.25</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU136" t="n">
         <v>1.38</v>
@@ -28508,7 +28508,7 @@
         <v>0.43</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT138" t="n">
         <v>0.44</v>
@@ -28917,7 +28917,7 @@
         <v>2</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU140" t="n">
         <v>1.86</v>
@@ -32420,6 +32420,412 @@
       </c>
       <c r="BK157" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2468073</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44924.54166666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>16</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['3', '22']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>5</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2</v>
+      </c>
+      <c r="S158" t="n">
+        <v>7</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V158" t="n">
+        <v>4</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2468078</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44924.625</v>
+      </c>
+      <c r="F159" t="n">
+        <v>16</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>2</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>3</v>
+      </c>
+      <c r="L159" t="n">
+        <v>3</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>4</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['6', '22', '84']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>2</v>
+      </c>
+      <c r="R159" t="n">
+        <v>4</v>
+      </c>
+      <c r="S159" t="n">
+        <v>6</v>
+      </c>
+      <c r="T159" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK159"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>1.13</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0.88</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT19" t="n">
         <v>0.75</v>
@@ -4963,7 +4963,7 @@
         <v>1.38</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU22" t="n">
         <v>1.35</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT23" t="n">
         <v>0.44</v>
@@ -7399,7 +7399,7 @@
         <v>1.43</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT37" t="n">
         <v>2</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT50" t="n">
         <v>1.13</v>
@@ -11865,7 +11865,7 @@
         <v>1.25</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU56" t="n">
         <v>0.92</v>
@@ -12068,7 +12068,7 @@
         <v>1.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU57" t="n">
         <v>1.31</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT60" t="n">
         <v>2.38</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT64" t="n">
         <v>1.63</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU74" t="n">
         <v>2.06</v>
@@ -16328,7 +16328,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT78" t="n">
         <v>0.5</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT79" t="n">
         <v>1.25</v>
@@ -16737,7 +16737,7 @@
         <v>1.43</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU80" t="n">
         <v>1.43</v>
@@ -19173,7 +19173,7 @@
         <v>2.13</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU92" t="n">
         <v>2.04</v>
@@ -19373,7 +19373,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -20591,7 +20591,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT99" t="n">
         <v>0.75</v>
@@ -21000,7 +21000,7 @@
         <v>2</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU101" t="n">
         <v>1.87</v>
@@ -23636,10 +23636,10 @@
         <v>1.2</v>
       </c>
       <c r="AS114" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU114" t="n">
         <v>1.96</v>
@@ -24854,7 +24854,7 @@
         <v>0.33</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT120" t="n">
         <v>0.44</v>
@@ -25263,7 +25263,7 @@
         <v>3</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU122" t="n">
         <v>1.97</v>
@@ -27699,7 +27699,7 @@
         <v>0.5</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT137" t="n">
         <v>0.88</v>
@@ -29117,7 +29117,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT141" t="n">
         <v>0.88</v>
@@ -29729,7 +29729,7 @@
         <v>2.63</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU144" t="n">
         <v>1.89</v>
@@ -32687,13 +32687,13 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R159" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S159" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T159" t="n">
         <v>3.6</v>
@@ -32810,22 +32810,428 @@
         <v>3</v>
       </c>
       <c r="BF159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2468074</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44924.70833333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>16</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
         <v>4</v>
       </c>
-      <c r="BG159" t="n">
+      <c r="R160" t="n">
+        <v>6</v>
+      </c>
+      <c r="S160" t="n">
+        <v>10</v>
+      </c>
+      <c r="T160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2468075</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44924.70833333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
         <v>2</v>
       </c>
-      <c r="BH159" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
         <v>2</v>
       </c>
-      <c r="BI159" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ159" t="n">
+      <c r="L161" t="n">
         <v>6</v>
       </c>
-      <c r="BK159" t="n">
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>7</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['13', '41', '51', '62', '80', '82']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>1</v>
+      </c>
+      <c r="R161" t="n">
+        <v>6</v>
+      </c>
+      <c r="S161" t="n">
+        <v>7</v>
+      </c>
+      <c r="T161" t="n">
+        <v>2</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V161" t="n">
+        <v>6</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X161" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI161" t="n">
         <v>5</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.13</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT5" t="n">
         <v>1.5</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT7" t="n">
         <v>0.44</v>
@@ -2324,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.63</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT12" t="n">
         <v>1.63</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT13" t="n">
         <v>1.25</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT22" t="n">
         <v>1.63</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU25" t="n">
         <v>1.13</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU27" t="n">
         <v>1.98</v>
@@ -6181,7 +6181,7 @@
         <v>1.25</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU28" t="n">
         <v>1.63</v>
@@ -6384,7 +6384,7 @@
         <v>2.63</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU29" t="n">
         <v>1.89</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT34" t="n">
         <v>0.5</v>
@@ -8820,7 +8820,7 @@
         <v>2.13</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU41" t="n">
         <v>1.62</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT42" t="n">
         <v>0.75</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>1.25</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -9835,7 +9835,7 @@
         <v>2.63</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU46" t="n">
         <v>2.03</v>
@@ -10038,7 +10038,7 @@
         <v>3</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT48" t="n">
         <v>2.75</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT53" t="n">
         <v>2.75</v>
@@ -11662,7 +11662,7 @@
         <v>0.88</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU55" t="n">
         <v>0.97</v>
@@ -13286,7 +13286,7 @@
         <v>2.75</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU63" t="n">
         <v>2.57</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT67" t="n">
         <v>0.88</v>
@@ -14707,7 +14707,7 @@
         <v>2.63</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU70" t="n">
         <v>2.14</v>
@@ -14907,7 +14907,7 @@
         <v>0.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT71" t="n">
         <v>0.88</v>
@@ -15113,7 +15113,7 @@
         <v>1.13</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -15925,7 +15925,7 @@
         <v>0.75</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU76" t="n">
         <v>1.49</v>
@@ -16734,7 +16734,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT80" t="n">
         <v>1.63</v>
@@ -17140,7 +17140,7 @@
         <v>2.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT82" t="n">
         <v>2</v>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT86" t="n">
         <v>0.88</v>
@@ -18361,7 +18361,7 @@
         <v>1.13</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU88" t="n">
         <v>1.52</v>
@@ -18764,7 +18764,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT90" t="n">
         <v>0.44</v>
@@ -19376,7 +19376,7 @@
         <v>2.11</v>
       </c>
       <c r="AT93" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU93" t="n">
         <v>2.04</v>
@@ -19985,7 +19985,7 @@
         <v>0.75</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU96" t="n">
         <v>1.47</v>
@@ -20188,7 +20188,7 @@
         <v>1.25</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU97" t="n">
         <v>1.19</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT98" t="n">
         <v>0.75</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT105" t="n">
         <v>0.5</v>
@@ -22421,7 +22421,7 @@
         <v>1.13</v>
       </c>
       <c r="AT108" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22621,10 +22621,10 @@
         <v>0.8</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU109" t="n">
         <v>1.45</v>
@@ -22824,7 +22824,7 @@
         <v>1.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT110" t="n">
         <v>1.13</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT115" t="n">
         <v>1.25</v>
@@ -24045,7 +24045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU116" t="n">
         <v>1.59</v>
@@ -24248,7 +24248,7 @@
         <v>1.25</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU117" t="n">
         <v>1.3</v>
@@ -24451,7 +24451,7 @@
         <v>1.13</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU118" t="n">
         <v>1.81</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT119" t="n">
         <v>0.75</v>
@@ -25872,7 +25872,7 @@
         <v>1.13</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26072,7 +26072,7 @@
         <v>0.8</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT126" t="n">
         <v>0.5</v>
@@ -26478,7 +26478,7 @@
         <v>1.33</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT128" t="n">
         <v>1.13</v>
@@ -27293,7 +27293,7 @@
         <v>1.13</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU132" t="n">
         <v>1.81</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT134" t="n">
         <v>1.63</v>
@@ -28308,7 +28308,7 @@
         <v>1.13</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU137" t="n">
         <v>1.63</v>
@@ -28711,7 +28711,7 @@
         <v>2.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT139" t="n">
         <v>2.38</v>
@@ -29932,7 +29932,7 @@
         <v>2.75</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU145" t="n">
         <v>2.27</v>
@@ -30538,10 +30538,10 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT148" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU148" t="n">
         <v>1.6</v>
@@ -30947,7 +30947,7 @@
         <v>0.63</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU150" t="n">
         <v>1.33</v>
@@ -31147,7 +31147,7 @@
         <v>1.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT151" t="n">
         <v>2</v>
@@ -33232,6 +33232,818 @@
       </c>
       <c r="BK161" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2468080</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44927.45833333334</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>7</v>
+      </c>
+      <c r="R162" t="n">
+        <v>5</v>
+      </c>
+      <c r="S162" t="n">
+        <v>12</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V162" t="n">
+        <v>6</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2468081</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44927.45833333334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>3</v>
+      </c>
+      <c r="R163" t="n">
+        <v>7</v>
+      </c>
+      <c r="S163" t="n">
+        <v>10</v>
+      </c>
+      <c r="T163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V163" t="n">
+        <v>4</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2468086</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44927.45833333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>17</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>2</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>2</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['46', '62']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>5</v>
+      </c>
+      <c r="R164" t="n">
+        <v>2</v>
+      </c>
+      <c r="S164" t="n">
+        <v>7</v>
+      </c>
+      <c r="T164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V164" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2468120</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44927.45833333334</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>3</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['79', '88']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>7</v>
+      </c>
+      <c r="R165" t="n">
+        <v>7</v>
+      </c>
+      <c r="S165" t="n">
+        <v>14</v>
+      </c>
+      <c r="T165" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK165"/>
+  <dimension ref="A1:BK167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT2" t="n">
         <v>0.89</v>
@@ -1309,7 +1309,7 @@
         <v>1.25</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AU30" t="n">
         <v>1.87</v>
@@ -7805,7 +7805,7 @@
         <v>1.63</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT41" t="n">
         <v>0.44</v>
@@ -10241,7 +10241,7 @@
         <v>1.67</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AU48" t="n">
         <v>1.44</v>
@@ -10647,7 +10647,7 @@
         <v>2.11</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU50" t="n">
         <v>1.98</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT52" t="n">
         <v>0.5</v>
@@ -11256,7 +11256,7 @@
         <v>1.63</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AU53" t="n">
         <v>1.62</v>
@@ -13692,7 +13692,7 @@
         <v>0.63</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU65" t="n">
         <v>1.41</v>
@@ -16937,10 +16937,10 @@
         <v>3</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AU81" t="n">
         <v>2.16</v>
@@ -18158,7 +18158,7 @@
         <v>0.88</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -19170,7 +19170,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT92" t="n">
         <v>0.5</v>
@@ -19579,7 +19579,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AU94" t="n">
         <v>1.39</v>
@@ -22827,7 +22827,7 @@
         <v>1.56</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU110" t="n">
         <v>1.38</v>
@@ -23233,7 +23233,7 @@
         <v>0.88</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -26481,7 +26481,7 @@
         <v>1.63</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU128" t="n">
         <v>1.57</v>
@@ -27087,7 +27087,7 @@
         <v>1.67</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT131" t="n">
         <v>1.63</v>
@@ -27902,7 +27902,7 @@
         <v>1.63</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -29320,7 +29320,7 @@
         <v>1.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT142" t="n">
         <v>1.5</v>
@@ -29526,7 +29526,7 @@
         <v>3</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU143" t="n">
         <v>1.94</v>
@@ -34044,6 +34044,412 @@
       </c>
       <c r="BK165" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2468083</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44927.54166666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>17</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>7</v>
+      </c>
+      <c r="R166" t="n">
+        <v>4</v>
+      </c>
+      <c r="S166" t="n">
+        <v>11</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V166" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2468084</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44927.69791666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>17</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>2</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>3</v>
+      </c>
+      <c r="L167" t="n">
+        <v>3</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>4</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['5', '28', '47']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>3</v>
+      </c>
+      <c r="R167" t="n">
+        <v>7</v>
+      </c>
+      <c r="S167" t="n">
+        <v>10</v>
+      </c>
+      <c r="T167" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X167" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK167"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT3" t="n">
         <v>2.38</v>
@@ -1512,7 +1512,7 @@
         <v>1.67</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT6" t="n">
         <v>0.44</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT10" t="n">
         <v>2</v>
@@ -4557,7 +4557,7 @@
         <v>0.75</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.89</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>1.29</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>1.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU26" t="n">
         <v>0.87</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT28" t="n">
         <v>0.44</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT29" t="n">
         <v>0.89</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT30" t="n">
         <v>2.44</v>
@@ -8008,7 +8008,7 @@
         <v>1.13</v>
       </c>
       <c r="AT37" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU37" t="n">
         <v>1.4</v>
@@ -9023,7 +9023,7 @@
         <v>1.56</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU42" t="n">
         <v>1.44</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT44" t="n">
         <v>0.44</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT45" t="n">
         <v>0.89</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT46" t="n">
         <v>0.78</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU49" t="n">
         <v>1.88</v>
@@ -10850,7 +10850,7 @@
         <v>1.13</v>
       </c>
       <c r="AT51" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU51" t="n">
         <v>1.36</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT54" t="n">
         <v>1.63</v>
@@ -13083,7 +13083,7 @@
         <v>3</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.89</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT65" t="n">
         <v>1.33</v>
@@ -14301,7 +14301,7 @@
         <v>0.88</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU68" t="n">
         <v>1.29</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT70" t="n">
         <v>0.44</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT73" t="n">
         <v>0.75</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT74" t="n">
         <v>0.5</v>
@@ -16128,7 +16128,7 @@
         <v>1.25</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU77" t="n">
         <v>1.06</v>
@@ -17143,7 +17143,7 @@
         <v>0.44</v>
       </c>
       <c r="AT82" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU82" t="n">
         <v>1.5</v>
@@ -17343,7 +17343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT83" t="n">
         <v>1.25</v>
@@ -17549,7 +17549,7 @@
         <v>2.75</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU84" t="n">
         <v>2.31</v>
@@ -19779,7 +19779,7 @@
         <v>2.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT95" t="n">
         <v>2.38</v>
@@ -20594,7 +20594,7 @@
         <v>1.13</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.56</v>
@@ -20794,7 +20794,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT100" t="n">
         <v>0.44</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT101" t="n">
         <v>1.63</v>
@@ -21200,7 +21200,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT102" t="n">
         <v>1.63</v>
@@ -22015,7 +22015,7 @@
         <v>1.13</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU106" t="n">
         <v>1.48</v>
@@ -22215,7 +22215,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT107" t="n">
         <v>0.88</v>
@@ -23030,7 +23030,7 @@
         <v>2.75</v>
       </c>
       <c r="AT111" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU111" t="n">
         <v>2.1</v>
@@ -23433,7 +23433,7 @@
         <v>0.2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT113" t="n">
         <v>0.88</v>
@@ -25057,7 +25057,7 @@
         <v>2.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT121" t="n">
         <v>2.38</v>
@@ -25466,7 +25466,7 @@
         <v>2.75</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU123" t="n">
         <v>2.18</v>
@@ -25666,10 +25666,10 @@
         <v>2</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT124" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU124" t="n">
         <v>1.3</v>
@@ -26275,7 +26275,7 @@
         <v>0.6</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT127" t="n">
         <v>0.88</v>
@@ -26887,7 +26887,7 @@
         <v>1.63</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU130" t="n">
         <v>1.62</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT140" t="n">
         <v>1.25</v>
@@ -29323,7 +29323,7 @@
         <v>1.89</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU142" t="n">
         <v>1.92</v>
@@ -29726,7 +29726,7 @@
         <v>0.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT144" t="n">
         <v>0.5</v>
@@ -30135,7 +30135,7 @@
         <v>0.75</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU146" t="n">
         <v>1.6</v>
@@ -30335,7 +30335,7 @@
         <v>0.67</v>
       </c>
       <c r="AS147" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT147" t="n">
         <v>0.5</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT149" t="n">
         <v>1</v>
@@ -30944,7 +30944,7 @@
         <v>2</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT150" t="n">
         <v>2</v>
@@ -31150,7 +31150,7 @@
         <v>1.56</v>
       </c>
       <c r="AT151" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU151" t="n">
         <v>1.31</v>
@@ -34450,6 +34450,818 @@
       </c>
       <c r="BK167" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2468122</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44928.45833333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>17</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2</v>
+      </c>
+      <c r="K168" t="n">
+        <v>3</v>
+      </c>
+      <c r="L168" t="n">
+        <v>2</v>
+      </c>
+      <c r="M168" t="n">
+        <v>3</v>
+      </c>
+      <c r="N168" t="n">
+        <v>5</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['41', '54']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['16', '20', '78']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>3</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1</v>
+      </c>
+      <c r="S168" t="n">
+        <v>4</v>
+      </c>
+      <c r="T168" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V168" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2468082</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44928.54166666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>17</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="n">
+        <v>2</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>5</v>
+      </c>
+      <c r="R169" t="n">
+        <v>1</v>
+      </c>
+      <c r="S169" t="n">
+        <v>6</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V169" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X169" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2468121</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44928.625</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2</v>
+      </c>
+      <c r="N170" t="n">
+        <v>3</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['47', '61']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>5</v>
+      </c>
+      <c r="R170" t="n">
+        <v>7</v>
+      </c>
+      <c r="S170" t="n">
+        <v>12</v>
+      </c>
+      <c r="T170" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V170" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X170" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2468085</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44928.70833333334</v>
+      </c>
+      <c r="F171" t="n">
+        <v>17</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2</v>
+      </c>
+      <c r="L171" t="n">
+        <v>2</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['5', '89']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>5</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2</v>
+      </c>
+      <c r="S171" t="n">
+        <v>7</v>
+      </c>
+      <c r="T171" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V171" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X171" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT4" t="n">
         <v>2.44</v>
@@ -2730,7 +2730,7 @@
         <v>2.11</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.56</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT19" t="n">
         <v>0.75</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.56</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU22" t="n">
         <v>1.35</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU24" t="n">
         <v>1.77</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT26" t="n">
         <v>1.33</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU31" t="n">
         <v>1.08</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
         <v>0.75</v>
@@ -7196,7 +7196,7 @@
         <v>3</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU33" t="n">
         <v>1.79</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU34" t="n">
         <v>1</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU35" t="n">
         <v>1.19</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT36" t="n">
         <v>1.33</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU37" t="n">
         <v>1.4</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU38" t="n">
         <v>2</v>
@@ -8414,7 +8414,7 @@
         <v>1.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU39" t="n">
         <v>1.44</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU40" t="n">
         <v>3.14</v>
@@ -9226,7 +9226,7 @@
         <v>0.44</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU43" t="n">
         <v>1.59</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT44" t="n">
         <v>0.44</v>
@@ -10847,10 +10847,10 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU51" t="n">
         <v>1.36</v>
@@ -11053,7 +11053,7 @@
         <v>1.89</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU52" t="n">
         <v>1.89</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT53" t="n">
         <v>2.44</v>
@@ -11459,7 +11459,7 @@
         <v>1.11</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU54" t="n">
         <v>1.65</v>
@@ -11659,7 +11659,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT55" t="n">
         <v>2</v>
@@ -11862,10 +11862,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU56" t="n">
         <v>0.92</v>
@@ -12068,7 +12068,7 @@
         <v>1.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU57" t="n">
         <v>1.31</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT58" t="n">
         <v>0.75</v>
@@ -12471,10 +12471,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU59" t="n">
         <v>2.18</v>
@@ -12674,10 +12674,10 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU60" t="n">
         <v>1.49</v>
@@ -12877,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU61" t="n">
         <v>2.44</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT63" t="n">
         <v>0.78</v>
@@ -13489,7 +13489,7 @@
         <v>2.11</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU64" t="n">
         <v>2.14</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT65" t="n">
         <v>1.33</v>
@@ -13895,7 +13895,7 @@
         <v>1.67</v>
       </c>
       <c r="AT66" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU66" t="n">
         <v>1.56</v>
@@ -14098,7 +14098,7 @@
         <v>0.44</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU67" t="n">
         <v>1.52</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT68" t="n">
         <v>1.33</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT69" t="n">
         <v>0.44</v>
@@ -14910,7 +14910,7 @@
         <v>1.56</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU71" t="n">
         <v>1.43</v>
@@ -15110,7 +15110,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT72" t="n">
         <v>2</v>
@@ -15519,7 +15519,7 @@
         <v>1.89</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU74" t="n">
         <v>2.06</v>
@@ -15722,7 +15722,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT76" t="n">
         <v>0.89</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16328,10 +16328,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU78" t="n">
         <v>1.48</v>
@@ -16534,7 +16534,7 @@
         <v>2.11</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU79" t="n">
         <v>2.05</v>
@@ -16734,10 +16734,10 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU80" t="n">
         <v>1.43</v>
@@ -17143,7 +17143,7 @@
         <v>0.44</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU82" t="n">
         <v>1.5</v>
@@ -17343,10 +17343,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU83" t="n">
         <v>1.41</v>
@@ -17546,7 +17546,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT84" t="n">
         <v>1.33</v>
@@ -17749,10 +17749,10 @@
         <v>1.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU85" t="n">
         <v>1.8</v>
@@ -17955,7 +17955,7 @@
         <v>1.67</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU86" t="n">
         <v>1.53</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT87" t="n">
         <v>1.33</v>
@@ -18358,7 +18358,7 @@
         <v>0.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT88" t="n">
         <v>0.78</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.73</v>
@@ -18970,7 +18970,7 @@
         <v>3</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU91" t="n">
         <v>1.81</v>
@@ -19173,7 +19173,7 @@
         <v>1.89</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU92" t="n">
         <v>2.04</v>
@@ -19782,7 +19782,7 @@
         <v>1.11</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU95" t="n">
         <v>1.4</v>
@@ -19982,7 +19982,7 @@
         <v>2</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT96" t="n">
         <v>2</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT97" t="n">
         <v>0.44</v>
@@ -20591,7 +20591,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT99" t="n">
         <v>1</v>
@@ -21000,7 +21000,7 @@
         <v>1.89</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU101" t="n">
         <v>1.87</v>
@@ -21200,10 +21200,10 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -21403,10 +21403,10 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT103" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU103" t="n">
         <v>1.64</v>
@@ -21609,7 +21609,7 @@
         <v>3</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU104" t="n">
         <v>1.94</v>
@@ -21812,7 +21812,7 @@
         <v>1.67</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU105" t="n">
         <v>1.52</v>
@@ -22012,7 +22012,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT106" t="n">
         <v>1.33</v>
@@ -22218,7 +22218,7 @@
         <v>2.67</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU107" t="n">
         <v>1.98</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT108" t="n">
         <v>0.89</v>
@@ -22621,7 +22621,7 @@
         <v>0.8</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT109" t="n">
         <v>0.78</v>
@@ -23027,10 +23027,10 @@
         <v>2.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU111" t="n">
         <v>2.1</v>
@@ -23230,7 +23230,7 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT112" t="n">
         <v>2.44</v>
@@ -23436,7 +23436,7 @@
         <v>1.11</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU113" t="n">
         <v>1.39</v>
@@ -23639,7 +23639,7 @@
         <v>2.11</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU114" t="n">
         <v>1.96</v>
@@ -23842,7 +23842,7 @@
         <v>0.44</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU115" t="n">
         <v>1.56</v>
@@ -24245,7 +24245,7 @@
         <v>0.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT117" t="n">
         <v>0.78</v>
@@ -24448,7 +24448,7 @@
         <v>2.17</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT118" t="n">
         <v>2</v>
@@ -24854,7 +24854,7 @@
         <v>0.33</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT120" t="n">
         <v>0.44</v>
@@ -25060,7 +25060,7 @@
         <v>1.89</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU121" t="n">
         <v>1.81</v>
@@ -25263,7 +25263,7 @@
         <v>3</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU122" t="n">
         <v>1.97</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -25666,10 +25666,10 @@
         <v>2</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU124" t="n">
         <v>1.3</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT125" t="n">
         <v>0.89</v>
@@ -26075,7 +26075,7 @@
         <v>1.56</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU126" t="n">
         <v>1.32</v>
@@ -26278,7 +26278,7 @@
         <v>2.67</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU127" t="n">
         <v>1.91</v>
@@ -26478,7 +26478,7 @@
         <v>1.33</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT128" t="n">
         <v>1.33</v>
@@ -26681,10 +26681,10 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT129" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU129" t="n">
         <v>1.56</v>
@@ -26884,7 +26884,7 @@
         <v>1.33</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT130" t="n">
         <v>1.33</v>
@@ -27090,7 +27090,7 @@
         <v>1.89</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU131" t="n">
         <v>2.07</v>
@@ -27290,7 +27290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT132" t="n">
         <v>0.44</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT133" t="n">
         <v>0.75</v>
@@ -27699,7 +27699,7 @@
         <v>0.44</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -27899,7 +27899,7 @@
         <v>2.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT135" t="n">
         <v>2.44</v>
@@ -28102,10 +28102,10 @@
         <v>0.5</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU136" t="n">
         <v>1.38</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT137" t="n">
         <v>0.78</v>
@@ -28714,7 +28714,7 @@
         <v>1.67</v>
       </c>
       <c r="AT139" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU139" t="n">
         <v>1.67</v>
@@ -28917,7 +28917,7 @@
         <v>1.89</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU140" t="n">
         <v>1.86</v>
@@ -29120,7 +29120,7 @@
         <v>2.11</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU141" t="n">
         <v>1.93</v>
@@ -29729,7 +29729,7 @@
         <v>2.67</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU144" t="n">
         <v>1.89</v>
@@ -29929,7 +29929,7 @@
         <v>0.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT145" t="n">
         <v>0.44</v>
@@ -30132,7 +30132,7 @@
         <v>0.86</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT146" t="n">
         <v>1</v>
@@ -30338,7 +30338,7 @@
         <v>1.89</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU147" t="n">
         <v>1.92</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT148" t="n">
         <v>0.89</v>
@@ -30744,7 +30744,7 @@
         <v>1.11</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU149" t="n">
         <v>1.37</v>
@@ -30944,7 +30944,7 @@
         <v>2</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT150" t="n">
         <v>2</v>
@@ -31150,7 +31150,7 @@
         <v>1.56</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU151" t="n">
         <v>1.31</v>
@@ -31350,10 +31350,10 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU152" t="n">
         <v>1.36</v>
@@ -31553,7 +31553,7 @@
         <v>0.38</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT153" t="n">
         <v>0.44</v>
@@ -31756,10 +31756,10 @@
         <v>2.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU154" t="n">
         <v>1.53</v>
@@ -31959,10 +31959,10 @@
         <v>1.43</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU155" t="n">
         <v>1.41</v>
@@ -32162,10 +32162,10 @@
         <v>0.57</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU156" t="n">
         <v>1.65</v>
@@ -32365,7 +32365,7 @@
         <v>0.86</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT157" t="n">
         <v>0.75</v>
@@ -32568,10 +32568,10 @@
         <v>0.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU158" t="n">
         <v>1.59</v>
@@ -32774,7 +32774,7 @@
         <v>1.5</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU159" t="n">
         <v>1.91</v>
@@ -32974,10 +32974,10 @@
         <v>1.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU160" t="n">
         <v>1.7</v>
@@ -33180,7 +33180,7 @@
         <v>2.11</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU161" t="n">
         <v>1.84</v>
@@ -33583,7 +33583,7 @@
         <v>0.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT163" t="n">
         <v>0.44</v>
@@ -34598,7 +34598,7 @@
         <v>0.75</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT168" t="n">
         <v>1</v>
@@ -34804,7 +34804,7 @@
         <v>1.89</v>
       </c>
       <c r="AT169" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU169" t="n">
         <v>1.84</v>
@@ -35007,7 +35007,7 @@
         <v>1.11</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU170" t="n">
         <v>1.48</v>
@@ -35262,6 +35262,2036 @@
       </c>
       <c r="BK171" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2468090</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44937.625</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>2</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2</v>
+      </c>
+      <c r="S172" t="n">
+        <v>4</v>
+      </c>
+      <c r="T172" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2468091</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>44937.625</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3</v>
+      </c>
+      <c r="K173" t="n">
+        <v>3</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>5</v>
+      </c>
+      <c r="N173" t="n">
+        <v>5</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['4', '33', '41', '75', '88']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>7</v>
+      </c>
+      <c r="R173" t="n">
+        <v>4</v>
+      </c>
+      <c r="S173" t="n">
+        <v>11</v>
+      </c>
+      <c r="T173" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X173" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2468092</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>44937.625</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>2</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="n">
+        <v>3</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['31', '90+5']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>4</v>
+      </c>
+      <c r="R174" t="n">
+        <v>1</v>
+      </c>
+      <c r="S174" t="n">
+        <v>5</v>
+      </c>
+      <c r="T174" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X174" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2468094</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>44937.625</v>
+      </c>
+      <c r="F175" t="n">
+        <v>18</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>6</v>
+      </c>
+      <c r="R175" t="n">
+        <v>1</v>
+      </c>
+      <c r="S175" t="n">
+        <v>7</v>
+      </c>
+      <c r="T175" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V175" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X175" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2468098</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>44937.625</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="n">
+        <v>8</v>
+      </c>
+      <c r="S176" t="n">
+        <v>8</v>
+      </c>
+      <c r="T176" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X176" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2468093</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>44937.70833333334</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>2</v>
+      </c>
+      <c r="M177" t="n">
+        <v>2</v>
+      </c>
+      <c r="N177" t="n">
+        <v>4</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['75', '77']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['61', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>3</v>
+      </c>
+      <c r="R177" t="n">
+        <v>4</v>
+      </c>
+      <c r="S177" t="n">
+        <v>7</v>
+      </c>
+      <c r="T177" t="n">
+        <v>4</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2468095</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>44937.70833333334</v>
+      </c>
+      <c r="F178" t="n">
+        <v>18</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>2</v>
+      </c>
+      <c r="L178" t="n">
+        <v>6</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="n">
+        <v>7</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['15', '35', '56', '75', '82', '85']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>3</v>
+      </c>
+      <c r="R178" t="n">
+        <v>4</v>
+      </c>
+      <c r="S178" t="n">
+        <v>7</v>
+      </c>
+      <c r="T178" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V178" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2468096</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>44937.70833333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>18</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>2</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['5', '72']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>5</v>
+      </c>
+      <c r="R179" t="n">
+        <v>1</v>
+      </c>
+      <c r="S179" t="n">
+        <v>6</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U179" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V179" t="n">
+        <v>12</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X179" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2468097</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>44937.70833333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>18</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>2</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2</v>
+      </c>
+      <c r="K180" t="n">
+        <v>4</v>
+      </c>
+      <c r="L180" t="n">
+        <v>2</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2</v>
+      </c>
+      <c r="N180" t="n">
+        <v>4</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['13', '16']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['11', '33']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>3</v>
+      </c>
+      <c r="R180" t="n">
+        <v>4</v>
+      </c>
+      <c r="S180" t="n">
+        <v>7</v>
+      </c>
+      <c r="T180" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V180" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2468099</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>44937.70833333334</v>
+      </c>
+      <c r="F181" t="n">
+        <v>18</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>2</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['10', '46']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>4</v>
+      </c>
+      <c r="R181" t="n">
+        <v>7</v>
+      </c>
+      <c r="S181" t="n">
+        <v>11</v>
+      </c>
+      <c r="T181" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT2" t="n">
         <v>0.89</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.11</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT11" t="n">
         <v>1.2</v>
@@ -4354,7 +4354,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU21" t="n">
         <v>1.29</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT23" t="n">
         <v>0.44</v>
@@ -5572,7 +5572,7 @@
         <v>1.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU25" t="n">
         <v>1.13</v>
@@ -6181,7 +6181,7 @@
         <v>1.11</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU28" t="n">
         <v>1.63</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>2.44</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.58</v>
@@ -8817,10 +8817,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU41" t="n">
         <v>1.62</v>
@@ -9023,7 +9023,7 @@
         <v>1.56</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU42" t="n">
         <v>1.44</v>
@@ -10038,7 +10038,7 @@
         <v>3</v>
       </c>
       <c r="AT47" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
         <v>1.33</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT50" t="n">
         <v>1.33</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT52" t="n">
         <v>0.44</v>
@@ -11662,7 +11662,7 @@
         <v>0.78</v>
       </c>
       <c r="AT55" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU55" t="n">
         <v>0.97</v>
@@ -12271,7 +12271,7 @@
         <v>0.78</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -13083,7 +13083,7 @@
         <v>3</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU62" t="n">
         <v>1.89</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT64" t="n">
         <v>1.56</v>
@@ -14707,7 +14707,7 @@
         <v>2.67</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU70" t="n">
         <v>2.14</v>
@@ -15113,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="AT72" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -15316,7 +15316,7 @@
         <v>1.11</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.43</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
         <v>0.78</v>
@@ -16128,7 +16128,7 @@
         <v>1.44</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU77" t="n">
         <v>1.06</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT79" t="n">
         <v>1.11</v>
@@ -16937,7 +16937,7 @@
         <v>3</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT81" t="n">
         <v>2.44</v>
@@ -19170,7 +19170,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT92" t="n">
         <v>0.78</v>
@@ -19373,7 +19373,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT93" t="n">
         <v>0.89</v>
@@ -19985,7 +19985,7 @@
         <v>0.78</v>
       </c>
       <c r="AT96" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU96" t="n">
         <v>1.47</v>
@@ -20188,7 +20188,7 @@
         <v>1.44</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU97" t="n">
         <v>1.19</v>
@@ -20391,7 +20391,7 @@
         <v>0.44</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.52</v>
@@ -20594,7 +20594,7 @@
         <v>1.33</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU99" t="n">
         <v>1.56</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT101" t="n">
         <v>1.56</v>
@@ -23636,7 +23636,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT114" t="n">
         <v>1.56</v>
@@ -24045,7 +24045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU116" t="n">
         <v>1.59</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU118" t="n">
         <v>1.81</v>
@@ -24654,7 +24654,7 @@
         <v>1.67</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>1.58</v>
@@ -25057,7 +25057,7 @@
         <v>2.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT121" t="n">
         <v>2.22</v>
@@ -25466,7 +25466,7 @@
         <v>2.78</v>
       </c>
       <c r="AT123" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU123" t="n">
         <v>2.18</v>
@@ -27087,7 +27087,7 @@
         <v>1.67</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT131" t="n">
         <v>1.56</v>
@@ -27293,7 +27293,7 @@
         <v>1</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU132" t="n">
         <v>1.81</v>
@@ -27496,7 +27496,7 @@
         <v>0.78</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU133" t="n">
         <v>1.28</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT140" t="n">
         <v>1.11</v>
@@ -29117,7 +29117,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT141" t="n">
         <v>0.89</v>
@@ -29320,7 +29320,7 @@
         <v>1.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT142" t="n">
         <v>1.33</v>
@@ -29932,7 +29932,7 @@
         <v>2.78</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU145" t="n">
         <v>2.27</v>
@@ -30135,7 +30135,7 @@
         <v>0.78</v>
       </c>
       <c r="AT146" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU146" t="n">
         <v>1.6</v>
@@ -30335,7 +30335,7 @@
         <v>0.67</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT147" t="n">
         <v>0.44</v>
@@ -30947,7 +30947,7 @@
         <v>0.6</v>
       </c>
       <c r="AT150" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU150" t="n">
         <v>1.33</v>
@@ -32368,7 +32368,7 @@
         <v>2.78</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU157" t="n">
         <v>2.18</v>
@@ -33177,7 +33177,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT161" t="n">
         <v>0.78</v>
@@ -33586,7 +33586,7 @@
         <v>1.56</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33992,7 +33992,7 @@
         <v>0.44</v>
       </c>
       <c r="AT165" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU165" t="n">
         <v>1.4</v>
@@ -34192,7 +34192,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT166" t="n">
         <v>1.33</v>
@@ -34601,7 +34601,7 @@
         <v>0.6</v>
       </c>
       <c r="AT168" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU168" t="n">
         <v>1.45</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT169" t="n">
         <v>1.2</v>
@@ -37292,6 +37292,818 @@
       </c>
       <c r="BK181" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2468106</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>44940.54166666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>9</v>
+      </c>
+      <c r="R182" t="n">
+        <v>2</v>
+      </c>
+      <c r="S182" t="n">
+        <v>11</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2468105</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>44940.625</v>
+      </c>
+      <c r="F183" t="n">
+        <v>19</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="n">
+        <v>2</v>
+      </c>
+      <c r="L183" t="n">
+        <v>3</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="n">
+        <v>4</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['38', '53', '59']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>6</v>
+      </c>
+      <c r="R183" t="n">
+        <v>3</v>
+      </c>
+      <c r="S183" t="n">
+        <v>9</v>
+      </c>
+      <c r="T183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V183" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2468104</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>44940.70833333334</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>2</v>
+      </c>
+      <c r="K184" t="n">
+        <v>3</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2</v>
+      </c>
+      <c r="N184" t="n">
+        <v>3</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['29', '32']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>14</v>
+      </c>
+      <c r="R184" t="n">
+        <v>2</v>
+      </c>
+      <c r="S184" t="n">
+        <v>16</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V184" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X184" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>23</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>31</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2468102</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>44941.375</v>
+      </c>
+      <c r="F185" t="n">
+        <v>19</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>2</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2</v>
+      </c>
+      <c r="L185" t="n">
+        <v>5</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>6</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['16', '45+2', '47', '75', '88']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>7</v>
+      </c>
+      <c r="R185" t="n">
+        <v>2</v>
+      </c>
+      <c r="S185" t="n">
+        <v>9</v>
+      </c>
+      <c r="T185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V185" t="n">
+        <v>6</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X185" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK185"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.7</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.44</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>0.9</v>
@@ -2324,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT10" t="n">
         <v>1.8</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT13" t="n">
         <v>1.11</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT16" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>1.33</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT22" t="n">
         <v>1.56</v>
@@ -5166,7 +5166,7 @@
         <v>2.2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT25" t="n">
         <v>1.8</v>
@@ -5775,7 +5775,7 @@
         <v>1.44</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU26" t="n">
         <v>0.87</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU27" t="n">
         <v>1.98</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
         <v>0.4</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU29" t="n">
         <v>1.89</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.87</v>
@@ -7805,7 +7805,7 @@
         <v>1.56</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT39" t="n">
         <v>0.89</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT42" t="n">
         <v>0.9</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT43" t="n">
         <v>1.2</v>
@@ -9429,7 +9429,7 @@
         <v>0.6</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU44" t="n">
         <v>1.58</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU46" t="n">
         <v>2.03</v>
@@ -10238,10 +10238,10 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU48" t="n">
         <v>1.44</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU49" t="n">
         <v>1.88</v>
@@ -10647,7 +10647,7 @@
         <v>2.2</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.98</v>
@@ -11256,7 +11256,7 @@
         <v>1.56</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU53" t="n">
         <v>1.62</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT54" t="n">
         <v>1.56</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT57" t="n">
         <v>1.56</v>
@@ -13286,7 +13286,7 @@
         <v>2.78</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU63" t="n">
         <v>2.57</v>
@@ -13692,7 +13692,7 @@
         <v>0.6</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU65" t="n">
         <v>1.41</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT66" t="n">
         <v>1.2</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT67" t="n">
         <v>0.78</v>
@@ -14301,7 +14301,7 @@
         <v>0.78</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU68" t="n">
         <v>1.29</v>
@@ -14504,7 +14504,7 @@
         <v>1.56</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU69" t="n">
         <v>1.92</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT70" t="n">
         <v>0.4</v>
@@ -14907,7 +14907,7 @@
         <v>0.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT71" t="n">
         <v>0.89</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -15719,7 +15719,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT75" t="n">
         <v>2.22</v>
@@ -15925,7 +15925,7 @@
         <v>0.78</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU76" t="n">
         <v>1.49</v>
@@ -16940,7 +16940,7 @@
         <v>1.7</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU81" t="n">
         <v>2.16</v>
@@ -17140,7 +17140,7 @@
         <v>2.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT82" t="n">
         <v>2.22</v>
@@ -17549,7 +17549,7 @@
         <v>2.78</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU84" t="n">
         <v>2.31</v>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT86" t="n">
         <v>0.78</v>
@@ -18158,7 +18158,7 @@
         <v>0.78</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -18361,7 +18361,7 @@
         <v>1</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU88" t="n">
         <v>1.52</v>
@@ -18764,10 +18764,10 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -19376,7 +19376,7 @@
         <v>2.2</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU93" t="n">
         <v>2.04</v>
@@ -19576,10 +19576,10 @@
         <v>3</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU94" t="n">
         <v>1.39</v>
@@ -19779,7 +19779,7 @@
         <v>2.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT95" t="n">
         <v>2.22</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT98" t="n">
         <v>1</v>
@@ -20794,10 +20794,10 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU100" t="n">
         <v>2.02</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT105" t="n">
         <v>0.44</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU106" t="n">
         <v>1.48</v>
@@ -22215,7 +22215,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT107" t="n">
         <v>0.89</v>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22624,7 +22624,7 @@
         <v>1.56</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU109" t="n">
         <v>1.45</v>
@@ -22824,10 +22824,10 @@
         <v>1.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU110" t="n">
         <v>1.38</v>
@@ -23233,7 +23233,7 @@
         <v>0.78</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -23433,7 +23433,7 @@
         <v>0.2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT113" t="n">
         <v>0.89</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT115" t="n">
         <v>1.11</v>
@@ -24042,7 +24042,7 @@
         <v>0.6</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT116" t="n">
         <v>0.4</v>
@@ -24248,7 +24248,7 @@
         <v>1.44</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU117" t="n">
         <v>1.3</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -24857,7 +24857,7 @@
         <v>1.33</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU120" t="n">
         <v>1.61</v>
@@ -25872,7 +25872,7 @@
         <v>1</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26072,7 +26072,7 @@
         <v>0.8</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT126" t="n">
         <v>0.44</v>
@@ -26275,7 +26275,7 @@
         <v>0.6</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT127" t="n">
         <v>0.78</v>
@@ -26481,7 +26481,7 @@
         <v>1.56</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU128" t="n">
         <v>1.57</v>
@@ -26887,7 +26887,7 @@
         <v>1.56</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU130" t="n">
         <v>1.62</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT134" t="n">
         <v>1.56</v>
@@ -27902,7 +27902,7 @@
         <v>1.56</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28308,7 +28308,7 @@
         <v>1.33</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU137" t="n">
         <v>1.63</v>
@@ -28508,10 +28508,10 @@
         <v>0.43</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU138" t="n">
         <v>1.74</v>
@@ -28711,7 +28711,7 @@
         <v>2.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT139" t="n">
         <v>2.22</v>
@@ -29323,7 +29323,7 @@
         <v>1.7</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU142" t="n">
         <v>1.92</v>
@@ -29526,7 +29526,7 @@
         <v>3</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU143" t="n">
         <v>1.94</v>
@@ -29726,7 +29726,7 @@
         <v>0.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT144" t="n">
         <v>0.78</v>
@@ -30541,7 +30541,7 @@
         <v>1.56</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU148" t="n">
         <v>1.6</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT149" t="n">
         <v>1.2</v>
@@ -31147,7 +31147,7 @@
         <v>1.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT151" t="n">
         <v>2.22</v>
@@ -31556,7 +31556,7 @@
         <v>1</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU153" t="n">
         <v>1.86</v>
@@ -32771,7 +32771,7 @@
         <v>1.43</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT159" t="n">
         <v>1.11</v>
@@ -33380,10 +33380,10 @@
         <v>0.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU162" t="n">
         <v>1.35</v>
@@ -33786,10 +33786,10 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU164" t="n">
         <v>1.65</v>
@@ -33989,7 +33989,7 @@
         <v>1.88</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT165" t="n">
         <v>1.8</v>
@@ -34195,7 +34195,7 @@
         <v>1.7</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU166" t="n">
         <v>1.84</v>
@@ -34398,7 +34398,7 @@
         <v>3</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU167" t="n">
         <v>1.94</v>
@@ -35004,7 +35004,7 @@
         <v>2</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT170" t="n">
         <v>2.22</v>
@@ -35207,10 +35207,10 @@
         <v>1.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU171" t="n">
         <v>1.9</v>
@@ -38088,21 +38088,1239 @@
         <v>3.2</v>
       </c>
       <c r="BF185" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI185" t="n">
         <v>8</v>
       </c>
-      <c r="BG185" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH185" t="n">
+      <c r="BJ185" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2468108</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>44941.45833333334</v>
+      </c>
+      <c r="F186" t="n">
+        <v>19</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>5</v>
+      </c>
+      <c r="R186" t="n">
+        <v>3</v>
+      </c>
+      <c r="S186" t="n">
+        <v>8</v>
+      </c>
+      <c r="T186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2468109</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>44941.45833333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
         <v>2</v>
       </c>
-      <c r="BI185" t="n">
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>10</v>
+      </c>
+      <c r="R187" t="n">
+        <v>5</v>
+      </c>
+      <c r="S187" t="n">
+        <v>15</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V187" t="n">
+        <v>4</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA187" t="n">
         <v>7</v>
       </c>
-      <c r="BJ185" t="n">
+      <c r="AB187" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI187" t="n">
         <v>10</v>
       </c>
-      <c r="BK185" t="n">
+      <c r="BJ187" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2468101</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>44941.45833333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" t="n">
+        <v>3</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['40', '47']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>3</v>
+      </c>
+      <c r="R188" t="n">
+        <v>1</v>
+      </c>
+      <c r="S188" t="n">
+        <v>4</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2468103</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>44941.45833333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>19</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>3</v>
+      </c>
+      <c r="N189" t="n">
+        <v>3</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['45+13', '81', '84']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>3</v>
+      </c>
+      <c r="R189" t="n">
+        <v>5</v>
+      </c>
+      <c r="S189" t="n">
+        <v>8</v>
+      </c>
+      <c r="T189" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X189" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2468100</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>44941.54513888889</v>
+      </c>
+      <c r="F190" t="n">
+        <v>19</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>5</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>6</v>
+      </c>
+      <c r="L190" t="n">
+        <v>7</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>8</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['2', '6', '21', '28', '35', '63', '89']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>3</v>
+      </c>
+      <c r="R190" t="n">
+        <v>3</v>
+      </c>
+      <c r="S190" t="n">
+        <v>6</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V190" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2468107</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>44941.69791666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>4</v>
+      </c>
+      <c r="R191" t="n">
+        <v>5</v>
+      </c>
+      <c r="S191" t="n">
+        <v>9</v>
+      </c>
+      <c r="T191" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X191" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK191" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK191"/>
+  <dimension ref="A1:BK194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.6</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT11" t="n">
         <v>1.2</v>
@@ -3136,7 +3136,7 @@
         <v>1.7</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0.78</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.7</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.35</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT23" t="n">
         <v>0.7</v>
@@ -7196,7 +7196,7 @@
         <v>3</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>1.79</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT36" t="n">
         <v>1.5</v>
@@ -8617,7 +8617,7 @@
         <v>2.78</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU40" t="n">
         <v>3.14</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT50" t="n">
         <v>1.5</v>
@@ -12068,7 +12068,7 @@
         <v>1.44</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU57" t="n">
         <v>1.31</v>
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>2.18</v>
@@ -12677,7 +12677,7 @@
         <v>1.33</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.49</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT61" t="n">
         <v>0.89</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT64" t="n">
         <v>1.56</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT69" t="n">
         <v>0.7</v>
@@ -15722,7 +15722,7 @@
         <v>1.44</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -16531,10 +16531,10 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
         <v>2.05</v>
@@ -16737,7 +16737,7 @@
         <v>1.56</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.43</v>
@@ -17346,7 +17346,7 @@
         <v>0.6</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.41</v>
@@ -17749,7 +17749,7 @@
         <v>1.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT85" t="n">
         <v>1.56</v>
@@ -19373,7 +19373,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT93" t="n">
         <v>0.8</v>
@@ -19782,7 +19782,7 @@
         <v>1</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU95" t="n">
         <v>1.4</v>
@@ -21000,7 +21000,7 @@
         <v>2</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU101" t="n">
         <v>1.87</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT103" t="n">
         <v>1.2</v>
@@ -23636,10 +23636,10 @@
         <v>1.2</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU114" t="n">
         <v>1.96</v>
@@ -23842,7 +23842,7 @@
         <v>0.4</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.56</v>
@@ -25060,7 +25060,7 @@
         <v>2</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU121" t="n">
         <v>1.81</v>
@@ -26884,7 +26884,7 @@
         <v>1.33</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT130" t="n">
         <v>1.3</v>
@@ -27699,7 +27699,7 @@
         <v>0.4</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -27899,7 +27899,7 @@
         <v>2.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT135" t="n">
         <v>2.2</v>
@@ -28714,7 +28714,7 @@
         <v>1.6</v>
       </c>
       <c r="AT139" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU139" t="n">
         <v>1.67</v>
@@ -28917,7 +28917,7 @@
         <v>2</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU140" t="n">
         <v>1.86</v>
@@ -29117,7 +29117,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT141" t="n">
         <v>0.89</v>
@@ -31759,7 +31759,7 @@
         <v>1</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU154" t="n">
         <v>1.53</v>
@@ -32568,7 +32568,7 @@
         <v>0.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT158" t="n">
         <v>0.78</v>
@@ -32774,7 +32774,7 @@
         <v>1.44</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU159" t="n">
         <v>1.91</v>
@@ -32977,7 +32977,7 @@
         <v>1.33</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU160" t="n">
         <v>1.7</v>
@@ -33177,7 +33177,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT161" t="n">
         <v>0.78</v>
@@ -35819,7 +35819,7 @@
         <v>1.44</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU174" t="n">
         <v>1.39</v>
@@ -36425,10 +36425,10 @@
         <v>2.38</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU177" t="n">
         <v>1.59</v>
@@ -37037,7 +37037,7 @@
         <v>0.6</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU180" t="n">
         <v>1.54</v>
@@ -37643,7 +37643,7 @@
         <v>2</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT183" t="n">
         <v>1.8</v>
@@ -39322,6 +39322,615 @@
       </c>
       <c r="BK191" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2468113</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>44953.70833333334</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>2</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>2</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>3</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['13', '31']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>2</v>
+      </c>
+      <c r="R192" t="n">
+        <v>10</v>
+      </c>
+      <c r="S192" t="n">
+        <v>12</v>
+      </c>
+      <c r="T192" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X192" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2468119</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>44954.54166666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>2</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>3</v>
+      </c>
+      <c r="R193" t="n">
+        <v>11</v>
+      </c>
+      <c r="S193" t="n">
+        <v>14</v>
+      </c>
+      <c r="T193" t="n">
+        <v>5</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X193" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>20</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2468115</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>44954.70833333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>2</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>6</v>
+      </c>
+      <c r="R194" t="n">
+        <v>3</v>
+      </c>
+      <c r="S194" t="n">
+        <v>9</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X194" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK194"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT3" t="n">
         <v>2.1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT4" t="n">
         <v>2.2</v>
@@ -1918,7 +1918,7 @@
         <v>0.4</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.56</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.78</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT18" t="n">
         <v>1.5</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>2.22</v>
@@ -5166,7 +5166,7 @@
         <v>2.09</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT24" t="n">
         <v>1.2</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT26" t="n">
         <v>1.3</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU31" t="n">
         <v>1.08</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>1.56</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU35" t="n">
         <v>1.19</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT37" t="n">
         <v>2.22</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>2</v>
@@ -8414,7 +8414,7 @@
         <v>1.44</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.44</v>
@@ -9426,10 +9426,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU44" t="n">
         <v>1.58</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT51" t="n">
         <v>2.22</v>
@@ -11053,7 +11053,7 @@
         <v>1.7</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU52" t="n">
         <v>1.89</v>
@@ -11459,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.65</v>
@@ -11659,7 +11659,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT55" t="n">
         <v>1.8</v>
@@ -11862,10 +11862,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>0.92</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT60" t="n">
         <v>2.1</v>
@@ -12880,7 +12880,7 @@
         <v>1.7</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU61" t="n">
         <v>2.44</v>
@@ -13489,7 +13489,7 @@
         <v>2.09</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU64" t="n">
         <v>2.14</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT65" t="n">
         <v>1.5</v>
@@ -14098,7 +14098,7 @@
         <v>0.4</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.52</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT68" t="n">
         <v>1.3</v>
@@ -14504,7 +14504,7 @@
         <v>1.7</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU69" t="n">
         <v>1.92</v>
@@ -14910,7 +14910,7 @@
         <v>1.7</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.43</v>
@@ -15110,7 +15110,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT72" t="n">
         <v>1.8</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU74" t="n">
         <v>2.06</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT76" t="n">
         <v>0.8</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT77" t="n">
         <v>0.9</v>
@@ -16328,10 +16328,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU78" t="n">
         <v>1.48</v>
@@ -17343,7 +17343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17752,7 +17752,7 @@
         <v>1.7</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU85" t="n">
         <v>1.8</v>
@@ -17955,7 +17955,7 @@
         <v>1.6</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.53</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT87" t="n">
         <v>1.5</v>
@@ -18358,7 +18358,7 @@
         <v>0.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT88" t="n">
         <v>0.8</v>
@@ -18767,7 +18767,7 @@
         <v>1.7</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -18970,7 +18970,7 @@
         <v>3</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.81</v>
@@ -19173,7 +19173,7 @@
         <v>1.7</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU92" t="n">
         <v>2.04</v>
@@ -19982,7 +19982,7 @@
         <v>2</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT96" t="n">
         <v>1.8</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT97" t="n">
         <v>0.4</v>
@@ -20591,7 +20591,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT99" t="n">
         <v>0.9</v>
@@ -20797,7 +20797,7 @@
         <v>2.7</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU100" t="n">
         <v>2.02</v>
@@ -21200,10 +21200,10 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -21609,7 +21609,7 @@
         <v>3</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU104" t="n">
         <v>1.94</v>
@@ -21812,7 +21812,7 @@
         <v>1.6</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU105" t="n">
         <v>1.52</v>
@@ -22012,7 +22012,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT106" t="n">
         <v>1.3</v>
@@ -22218,7 +22218,7 @@
         <v>2.7</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU107" t="n">
         <v>1.98</v>
@@ -23230,7 +23230,7 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT112" t="n">
         <v>2.2</v>
@@ -23436,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.39</v>
@@ -24245,7 +24245,7 @@
         <v>0.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT117" t="n">
         <v>0.8</v>
@@ -24854,10 +24854,10 @@
         <v>0.33</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU120" t="n">
         <v>1.61</v>
@@ -25263,7 +25263,7 @@
         <v>3</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU122" t="n">
         <v>1.97</v>
@@ -25666,7 +25666,7 @@
         <v>2</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT124" t="n">
         <v>2.22</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT125" t="n">
         <v>0.8</v>
@@ -26075,7 +26075,7 @@
         <v>1.7</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU126" t="n">
         <v>1.32</v>
@@ -26278,7 +26278,7 @@
         <v>2.7</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU127" t="n">
         <v>1.91</v>
@@ -26681,7 +26681,7 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT129" t="n">
         <v>1.2</v>
@@ -27090,7 +27090,7 @@
         <v>1.7</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU131" t="n">
         <v>2.07</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT133" t="n">
         <v>1</v>
@@ -28102,10 +28102,10 @@
         <v>0.5</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU136" t="n">
         <v>1.38</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT137" t="n">
         <v>0.8</v>
@@ -28511,7 +28511,7 @@
         <v>1.44</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU138" t="n">
         <v>1.74</v>
@@ -29120,7 +29120,7 @@
         <v>2.09</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU141" t="n">
         <v>1.93</v>
@@ -29729,7 +29729,7 @@
         <v>2.7</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU144" t="n">
         <v>1.89</v>
@@ -30132,7 +30132,7 @@
         <v>0.86</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT146" t="n">
         <v>0.9</v>
@@ -30338,7 +30338,7 @@
         <v>2</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU147" t="n">
         <v>1.92</v>
@@ -30944,7 +30944,7 @@
         <v>2</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT150" t="n">
         <v>1.8</v>
@@ -31350,10 +31350,10 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU152" t="n">
         <v>1.36</v>
@@ -31556,7 +31556,7 @@
         <v>1</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU153" t="n">
         <v>1.86</v>
@@ -31756,7 +31756,7 @@
         <v>2.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT154" t="n">
         <v>2.1</v>
@@ -31959,10 +31959,10 @@
         <v>1.43</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU155" t="n">
         <v>1.41</v>
@@ -32162,10 +32162,10 @@
         <v>0.57</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU156" t="n">
         <v>1.65</v>
@@ -32571,7 +32571,7 @@
         <v>1.7</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU158" t="n">
         <v>1.59</v>
@@ -32974,7 +32974,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT160" t="n">
         <v>1.5</v>
@@ -33180,7 +33180,7 @@
         <v>2.09</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU161" t="n">
         <v>1.84</v>
@@ -34598,7 +34598,7 @@
         <v>0.75</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT168" t="n">
         <v>0.9</v>
@@ -35410,7 +35410,7 @@
         <v>1</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT172" t="n">
         <v>1.2</v>
@@ -35613,10 +35613,10 @@
         <v>0.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU173" t="n">
         <v>1.54</v>
@@ -35816,7 +35816,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT174" t="n">
         <v>1</v>
@@ -36022,7 +36022,7 @@
         <v>1.56</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU175" t="n">
         <v>1.57</v>
@@ -36222,10 +36222,10 @@
         <v>1.63</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU176" t="n">
         <v>1.67</v>
@@ -36628,10 +36628,10 @@
         <v>0.88</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU178" t="n">
         <v>1.66</v>
@@ -36834,7 +36834,7 @@
         <v>2.78</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU179" t="n">
         <v>2.13</v>
@@ -37034,7 +37034,7 @@
         <v>1.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT180" t="n">
         <v>1.5</v>
@@ -38864,7 +38864,7 @@
         <v>1</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU189" t="n">
         <v>1.43</v>
@@ -39931,6 +39931,1224 @@
       </c>
       <c r="BK194" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2468114</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>44955.375</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>5</v>
+      </c>
+      <c r="R195" t="n">
+        <v>7</v>
+      </c>
+      <c r="S195" t="n">
+        <v>12</v>
+      </c>
+      <c r="T195" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2468111</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>44955.45833333334</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>2</v>
+      </c>
+      <c r="N196" t="n">
+        <v>2</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['62', '80']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>5</v>
+      </c>
+      <c r="R196" t="n">
+        <v>3</v>
+      </c>
+      <c r="S196" t="n">
+        <v>8</v>
+      </c>
+      <c r="T196" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2468117</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>44955.45833333334</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="n">
+        <v>2</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>2</v>
+      </c>
+      <c r="N197" t="n">
+        <v>3</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['25', '51']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>4</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2</v>
+      </c>
+      <c r="S197" t="n">
+        <v>6</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2468118</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>44955.45833333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>2</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>2</v>
+      </c>
+      <c r="L198" t="n">
+        <v>4</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>4</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['14', '34', '59', '84']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>4</v>
+      </c>
+      <c r="R198" t="n">
+        <v>5</v>
+      </c>
+      <c r="S198" t="n">
+        <v>9</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V198" t="n">
+        <v>4</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2468112</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>44955.45833333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>9</v>
+      </c>
+      <c r="R199" t="n">
+        <v>1</v>
+      </c>
+      <c r="S199" t="n">
+        <v>10</v>
+      </c>
+      <c r="T199" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V199" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2468110</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>44955.54513888889</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['20', '71']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>5</v>
+      </c>
+      <c r="R200" t="n">
+        <v>1</v>
+      </c>
+      <c r="S200" t="n">
+        <v>6</v>
+      </c>
+      <c r="T200" t="n">
+        <v>5</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>2.09</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>0.55</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU24" t="n">
         <v>1.77</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT40" t="n">
         <v>2.1</v>
@@ -9226,7 +9226,7 @@
         <v>0.4</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU43" t="n">
         <v>1.59</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT63" t="n">
         <v>0.8</v>
@@ -13895,7 +13895,7 @@
         <v>1.6</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU66" t="n">
         <v>1.56</v>
@@ -17546,7 +17546,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT84" t="n">
         <v>1.3</v>
@@ -18564,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU89" t="n">
         <v>1.73</v>
@@ -21406,7 +21406,7 @@
         <v>1.7</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU103" t="n">
         <v>1.64</v>
@@ -23027,7 +23027,7 @@
         <v>2.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT111" t="n">
         <v>2.22</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT123" t="n">
         <v>0.9</v>
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU129" t="n">
         <v>1.56</v>
@@ -29929,7 +29929,7 @@
         <v>0.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT145" t="n">
         <v>0.4</v>
@@ -30744,7 +30744,7 @@
         <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU149" t="n">
         <v>1.37</v>
@@ -32365,7 +32365,7 @@
         <v>0.86</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT157" t="n">
         <v>1</v>
@@ -34804,7 +34804,7 @@
         <v>2</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU169" t="n">
         <v>1.84</v>
@@ -35413,7 +35413,7 @@
         <v>0.7</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU172" t="n">
         <v>1.35</v>
@@ -36831,7 +36831,7 @@
         <v>0.5</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT179" t="n">
         <v>0.4</v>
@@ -41133,22 +41133,225 @@
         <v>3.55</v>
       </c>
       <c r="BF200" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BG200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2468116</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>44955.69791666666</v>
+      </c>
+      <c r="F201" t="n">
+        <v>20</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
         <v>2</v>
       </c>
-      <c r="BH200" t="n">
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>3</v>
+      </c>
+      <c r="R201" t="n">
+        <v>3</v>
+      </c>
+      <c r="S201" t="n">
+        <v>6</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V201" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X201" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP201" t="n">
         <v>4</v>
       </c>
-      <c r="BI200" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ200" t="n">
-        <v>14</v>
-      </c>
-      <c r="BK200" t="n">
-        <v>5</v>
+      <c r="AQ201" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT7" t="n">
         <v>0.73</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT12" t="n">
         <v>1.4</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU21" t="n">
         <v>1.29</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT22" t="n">
         <v>1.5</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU25" t="n">
         <v>1.13</v>
@@ -5775,7 +5775,7 @@
         <v>1.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU26" t="n">
         <v>0.87</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU27" t="n">
         <v>1.98</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU28" t="n">
         <v>1.63</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>1.89</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU30" t="n">
         <v>1.87</v>
@@ -6993,7 +6993,7 @@
         <v>0.9</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU32" t="n">
         <v>1.58</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7805,7 +7805,7 @@
         <v>1.7</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>1.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU37" t="n">
         <v>1.4</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT39" t="n">
         <v>1.1</v>
@@ -8817,10 +8817,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU41" t="n">
         <v>1.62</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU42" t="n">
         <v>1.44</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT43" t="n">
         <v>1.18</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU46" t="n">
         <v>2.03</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10238,10 +10238,10 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU48" t="n">
         <v>1.44</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU49" t="n">
         <v>1.88</v>
@@ -10647,7 +10647,7 @@
         <v>2.09</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU50" t="n">
         <v>1.98</v>
@@ -10850,7 +10850,7 @@
         <v>0.9</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU51" t="n">
         <v>1.36</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT52" t="n">
         <v>0.4</v>
@@ -11253,10 +11253,10 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU53" t="n">
         <v>1.62</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT54" t="n">
         <v>1.4</v>
@@ -11662,7 +11662,7 @@
         <v>0.7</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU55" t="n">
         <v>0.97</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT57" t="n">
         <v>1.5</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU62" t="n">
         <v>1.89</v>
@@ -13286,7 +13286,7 @@
         <v>2.6</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU63" t="n">
         <v>2.57</v>
@@ -13692,7 +13692,7 @@
         <v>0.55</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU65" t="n">
         <v>1.41</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT66" t="n">
         <v>1.18</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         <v>0.7</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU68" t="n">
         <v>1.29</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU70" t="n">
         <v>2.14</v>
@@ -14907,7 +14907,7 @@
         <v>0.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT71" t="n">
         <v>1.1</v>
@@ -15113,7 +15113,7 @@
         <v>0.9</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -15313,10 +15313,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU73" t="n">
         <v>1.43</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT74" t="n">
         <v>1</v>
@@ -15719,7 +15719,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT75" t="n">
         <v>2.1</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.49</v>
@@ -16128,7 +16128,7 @@
         <v>1.4</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU77" t="n">
         <v>1.06</v>
@@ -16734,7 +16734,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -16937,10 +16937,10 @@
         <v>3</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU81" t="n">
         <v>2.16</v>
@@ -17140,10 +17140,10 @@
         <v>2.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU82" t="n">
         <v>1.5</v>
@@ -17549,7 +17549,7 @@
         <v>2.6</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU84" t="n">
         <v>2.31</v>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT86" t="n">
         <v>1</v>
@@ -18158,7 +18158,7 @@
         <v>0.7</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -18361,7 +18361,7 @@
         <v>0.9</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU88" t="n">
         <v>1.52</v>
@@ -18764,7 +18764,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT90" t="n">
         <v>0.73</v>
@@ -18967,7 +18967,7 @@
         <v>0.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="AT91" t="n">
         <v>1.1</v>
@@ -19170,7 +19170,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT92" t="n">
         <v>1</v>
@@ -19376,7 +19376,7 @@
         <v>2.09</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>2.04</v>
@@ -19576,10 +19576,10 @@
         <v>3</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU94" t="n">
         <v>1.39</v>
@@ -19779,7 +19779,7 @@
         <v>2.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT95" t="n">
         <v>2.1</v>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU96" t="n">
         <v>1.47</v>
@@ -20188,7 +20188,7 @@
         <v>1.4</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU97" t="n">
         <v>1.19</v>
@@ -20388,10 +20388,10 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU98" t="n">
         <v>1.52</v>
@@ -20594,7 +20594,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU99" t="n">
         <v>1.56</v>
@@ -20794,7 +20794,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT100" t="n">
         <v>0.73</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT101" t="n">
         <v>1.5</v>
@@ -21606,7 +21606,7 @@
         <v>0.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="AT104" t="n">
         <v>1</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT105" t="n">
         <v>0.4</v>
@@ -22015,7 +22015,7 @@
         <v>0.9</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU106" t="n">
         <v>1.48</v>
@@ -22215,7 +22215,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT107" t="n">
         <v>1.1</v>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22621,10 +22621,10 @@
         <v>0.8</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU109" t="n">
         <v>1.45</v>
@@ -22824,10 +22824,10 @@
         <v>1.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU110" t="n">
         <v>1.38</v>
@@ -23030,7 +23030,7 @@
         <v>2.6</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU111" t="n">
         <v>2.1</v>
@@ -23233,7 +23233,7 @@
         <v>0.7</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -23433,7 +23433,7 @@
         <v>0.2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT113" t="n">
         <v>1.1</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT115" t="n">
         <v>1</v>
@@ -24042,10 +24042,10 @@
         <v>0.6</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU116" t="n">
         <v>1.59</v>
@@ -24248,7 +24248,7 @@
         <v>1.4</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU117" t="n">
         <v>1.3</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU118" t="n">
         <v>1.81</v>
@@ -24651,10 +24651,10 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT119" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU119" t="n">
         <v>1.58</v>
@@ -25057,7 +25057,7 @@
         <v>2.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT121" t="n">
         <v>2.1</v>
@@ -25260,7 +25260,7 @@
         <v>0.8</v>
       </c>
       <c r="AS122" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -25466,7 +25466,7 @@
         <v>2.6</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU123" t="n">
         <v>2.18</v>
@@ -25669,7 +25669,7 @@
         <v>0.55</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU124" t="n">
         <v>1.3</v>
@@ -25872,7 +25872,7 @@
         <v>0.9</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26072,7 +26072,7 @@
         <v>0.8</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT126" t="n">
         <v>0.4</v>
@@ -26275,7 +26275,7 @@
         <v>0.6</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT127" t="n">
         <v>1</v>
@@ -26478,10 +26478,10 @@
         <v>1.33</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU128" t="n">
         <v>1.57</v>
@@ -26887,7 +26887,7 @@
         <v>1.7</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU130" t="n">
         <v>1.62</v>
@@ -27087,7 +27087,7 @@
         <v>1.67</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT131" t="n">
         <v>1.4</v>
@@ -27293,7 +27293,7 @@
         <v>1</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU132" t="n">
         <v>1.81</v>
@@ -27496,7 +27496,7 @@
         <v>0.7</v>
       </c>
       <c r="AT133" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU133" t="n">
         <v>1.28</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT134" t="n">
         <v>1.5</v>
@@ -27902,7 +27902,7 @@
         <v>1.7</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28308,7 +28308,7 @@
         <v>1.5</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU137" t="n">
         <v>1.63</v>
@@ -28508,7 +28508,7 @@
         <v>0.43</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT138" t="n">
         <v>0.73</v>
@@ -28711,7 +28711,7 @@
         <v>2.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT139" t="n">
         <v>2.1</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT140" t="n">
         <v>1</v>
@@ -29320,10 +29320,10 @@
         <v>1.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU142" t="n">
         <v>1.92</v>
@@ -29523,10 +29523,10 @@
         <v>1.29</v>
       </c>
       <c r="AS143" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU143" t="n">
         <v>1.94</v>
@@ -29726,7 +29726,7 @@
         <v>0.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT144" t="n">
         <v>1</v>
@@ -29932,7 +29932,7 @@
         <v>2.6</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU145" t="n">
         <v>2.27</v>
@@ -30135,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU146" t="n">
         <v>1.6</v>
@@ -30335,7 +30335,7 @@
         <v>0.67</v>
       </c>
       <c r="AS147" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT147" t="n">
         <v>0.4</v>
@@ -30538,10 +30538,10 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.6</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT149" t="n">
         <v>1.18</v>
@@ -30947,7 +30947,7 @@
         <v>0.55</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU150" t="n">
         <v>1.33</v>
@@ -31147,10 +31147,10 @@
         <v>1.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU151" t="n">
         <v>1.31</v>
@@ -32368,7 +32368,7 @@
         <v>2.6</v>
       </c>
       <c r="AT157" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU157" t="n">
         <v>2.18</v>
@@ -32771,7 +32771,7 @@
         <v>1.43</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT159" t="n">
         <v>1</v>
@@ -33380,10 +33380,10 @@
         <v>0.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU162" t="n">
         <v>1.35</v>
@@ -33583,10 +33583,10 @@
         <v>0.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33786,10 +33786,10 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU164" t="n">
         <v>1.65</v>
@@ -33989,10 +33989,10 @@
         <v>1.88</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU165" t="n">
         <v>1.4</v>
@@ -34192,10 +34192,10 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU166" t="n">
         <v>1.84</v>
@@ -34395,10 +34395,10 @@
         <v>2.75</v>
       </c>
       <c r="AS167" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU167" t="n">
         <v>1.94</v>
@@ -34601,7 +34601,7 @@
         <v>0.55</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU168" t="n">
         <v>1.45</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT169" t="n">
         <v>1.18</v>
@@ -35004,10 +35004,10 @@
         <v>2</v>
       </c>
       <c r="AS170" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU170" t="n">
         <v>1.48</v>
@@ -35207,10 +35207,10 @@
         <v>1.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU171" t="n">
         <v>1.9</v>
@@ -36019,7 +36019,7 @@
         <v>0.88</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT175" t="n">
         <v>1.1</v>
@@ -37240,7 +37240,7 @@
         <v>1</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU181" t="n">
         <v>1.76</v>
@@ -37440,10 +37440,10 @@
         <v>0.44</v>
       </c>
       <c r="AS182" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU182" t="n">
         <v>1.86</v>
@@ -37646,7 +37646,7 @@
         <v>2.09</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU183" t="n">
         <v>1.86</v>
@@ -37846,10 +37846,10 @@
         <v>0.75</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT184" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU184" t="n">
         <v>1.8</v>
@@ -38049,10 +38049,10 @@
         <v>1</v>
       </c>
       <c r="AS185" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU185" t="n">
         <v>1.83</v>
@@ -38252,10 +38252,10 @@
         <v>1.33</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU186" t="n">
         <v>1.86</v>
@@ -38455,10 +38455,10 @@
         <v>0.78</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU187" t="n">
         <v>1.66</v>
@@ -38658,10 +38658,10 @@
         <v>1.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU188" t="n">
         <v>1.47</v>
@@ -38861,7 +38861,7 @@
         <v>0.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT189" t="n">
         <v>0.73</v>
@@ -39064,10 +39064,10 @@
         <v>0.89</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU190" t="n">
         <v>1.4</v>
@@ -39267,10 +39267,10 @@
         <v>2.44</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU191" t="n">
         <v>1.95</v>
@@ -41352,6 +41352,2036 @@
       </c>
       <c r="BK201" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2468124</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>44958.625</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2</v>
+      </c>
+      <c r="N202" t="n">
+        <v>3</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['65', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>2</v>
+      </c>
+      <c r="R202" t="n">
+        <v>6</v>
+      </c>
+      <c r="S202" t="n">
+        <v>8</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2</v>
+      </c>
+      <c r="V202" t="n">
+        <v>4</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2468089</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>44958.625</v>
+      </c>
+      <c r="F203" t="n">
+        <v>21</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>2</v>
+      </c>
+      <c r="K203" t="n">
+        <v>3</v>
+      </c>
+      <c r="L203" t="n">
+        <v>4</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2</v>
+      </c>
+      <c r="N203" t="n">
+        <v>6</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['44', '51', '61', '64']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['10', '35']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>5</v>
+      </c>
+      <c r="R203" t="n">
+        <v>7</v>
+      </c>
+      <c r="S203" t="n">
+        <v>12</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>32</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2468129</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>44958.625</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>2</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="n">
+        <v>3</v>
+      </c>
+      <c r="L204" t="n">
+        <v>4</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>5</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['16', '36', '55', '88']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>8</v>
+      </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
+      <c r="S204" t="n">
+        <v>8</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V204" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2468087</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>44958.625</v>
+      </c>
+      <c r="F205" t="n">
+        <v>21</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>2</v>
+      </c>
+      <c r="N205" t="n">
+        <v>2</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['57', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>5</v>
+      </c>
+      <c r="R205" t="n">
+        <v>7</v>
+      </c>
+      <c r="S205" t="n">
+        <v>12</v>
+      </c>
+      <c r="T205" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X205" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2468125</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>44958.625</v>
+      </c>
+      <c r="F206" t="n">
+        <v>21</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>8</v>
+      </c>
+      <c r="R206" t="n">
+        <v>3</v>
+      </c>
+      <c r="S206" t="n">
+        <v>11</v>
+      </c>
+      <c r="T206" t="n">
+        <v>2</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V206" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X206" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2468127</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>44958.70833333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>21</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>5</v>
+      </c>
+      <c r="R207" t="n">
+        <v>3</v>
+      </c>
+      <c r="S207" t="n">
+        <v>8</v>
+      </c>
+      <c r="T207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V207" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2468128</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>44958.70833333334</v>
+      </c>
+      <c r="F208" t="n">
+        <v>21</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>2</v>
+      </c>
+      <c r="L208" t="n">
+        <v>3</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>3</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['3', '21', '51']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>4</v>
+      </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
+      <c r="S208" t="n">
+        <v>4</v>
+      </c>
+      <c r="T208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V208" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X208" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2468123</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>44958.70833333334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>21</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>2</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2</v>
+      </c>
+      <c r="L209" t="n">
+        <v>3</v>
+      </c>
+      <c r="M209" t="n">
+        <v>2</v>
+      </c>
+      <c r="N209" t="n">
+        <v>5</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['11', '30', '82']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['68', '84']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>5</v>
+      </c>
+      <c r="R209" t="n">
+        <v>4</v>
+      </c>
+      <c r="S209" t="n">
+        <v>9</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V209" t="n">
+        <v>7</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X209" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2468126</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>44958.70833333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>21</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>3</v>
+      </c>
+      <c r="N210" t="n">
+        <v>4</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['55', '72', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>1</v>
+      </c>
+      <c r="R210" t="n">
+        <v>3</v>
+      </c>
+      <c r="S210" t="n">
+        <v>4</v>
+      </c>
+      <c r="T210" t="n">
+        <v>7</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V210" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X210" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2468088</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>44958.70833333334</v>
+      </c>
+      <c r="F211" t="n">
+        <v>21</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>15</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2</v>
+      </c>
+      <c r="S211" t="n">
+        <v>17</v>
+      </c>
+      <c r="T211" t="n">
+        <v>2</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V211" t="n">
+        <v>6</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>28</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK211"/>
+  <dimension ref="A1:BK212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -7399,7 +7399,7 @@
         <v>1.4</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU34" t="n">
         <v>1</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT40" t="n">
         <v>2.1</v>
@@ -11865,7 +11865,7 @@
         <v>1.4</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU56" t="n">
         <v>0.92</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT63" t="n">
         <v>0.82</v>
@@ -15519,7 +15519,7 @@
         <v>1.91</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU74" t="n">
         <v>2.06</v>
@@ -17546,7 +17546,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT84" t="n">
         <v>1.45</v>
@@ -19173,7 +19173,7 @@
         <v>1.64</v>
       </c>
       <c r="AT92" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU92" t="n">
         <v>2.04</v>
@@ -23027,7 +23027,7 @@
         <v>2.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT111" t="n">
         <v>2.3</v>
@@ -25263,7 +25263,7 @@
         <v>2.73</v>
       </c>
       <c r="AT122" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU122" t="n">
         <v>1.97</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT123" t="n">
         <v>0.82</v>
@@ -29729,7 +29729,7 @@
         <v>2.73</v>
       </c>
       <c r="AT144" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU144" t="n">
         <v>1.89</v>
@@ -29929,7 +29929,7 @@
         <v>0.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT145" t="n">
         <v>0.36</v>
@@ -32365,7 +32365,7 @@
         <v>0.86</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT157" t="n">
         <v>0.9</v>
@@ -33180,7 +33180,7 @@
         <v>2.09</v>
       </c>
       <c r="AT161" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU161" t="n">
         <v>1.84</v>
@@ -35616,7 +35616,7 @@
         <v>0.9</v>
       </c>
       <c r="AT173" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU173" t="n">
         <v>1.54</v>
@@ -36831,7 +36831,7 @@
         <v>0.5</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT179" t="n">
         <v>0.4</v>
@@ -40488,7 +40488,7 @@
         <v>0.55</v>
       </c>
       <c r="AT197" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU197" t="n">
         <v>1.52</v>
@@ -41297,7 +41297,7 @@
         <v>1.2</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT201" t="n">
         <v>1.18</v>
@@ -43382,6 +43382,209 @@
       </c>
       <c r="BK211" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2468135</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>44961.54166666666</v>
+      </c>
+      <c r="F212" t="n">
+        <v>22</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="n">
+        <v>2</v>
+      </c>
+      <c r="L212" t="n">
+        <v>2</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>3</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['38', '58']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>6</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2</v>
+      </c>
+      <c r="S212" t="n">
+        <v>8</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U212" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="V212" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X212" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK212"/>
+  <dimension ref="A1:BK221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT4" t="n">
         <v>2.27</v>
@@ -1512,7 +1512,7 @@
         <v>1.73</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.36</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AT10" t="n">
         <v>1.64</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.4</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.64</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT15" t="n">
         <v>0.91</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.82</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU22" t="n">
         <v>1.35</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU24" t="n">
         <v>1.77</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU26" t="n">
         <v>0.87</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU31" t="n">
         <v>1.08</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT32" t="n">
         <v>0.9</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU35" t="n">
         <v>1.19</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT36" t="n">
         <v>1.45</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU38" t="n">
         <v>2</v>
@@ -8414,7 +8414,7 @@
         <v>1.6</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU39" t="n">
         <v>1.44</v>
@@ -8617,7 +8617,7 @@
         <v>2.64</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU40" t="n">
         <v>3.14</v>
@@ -9226,7 +9226,7 @@
         <v>0.36</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU43" t="n">
         <v>1.59</v>
@@ -9426,10 +9426,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU44" t="n">
         <v>1.58</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AT46" t="n">
         <v>0.82</v>
@@ -10444,7 +10444,7 @@
         <v>1.91</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU49" t="n">
         <v>1.88</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT50" t="n">
         <v>1.45</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT51" t="n">
         <v>2.3</v>
@@ -11053,7 +11053,7 @@
         <v>1.64</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU52" t="n">
         <v>1.89</v>
@@ -11459,7 +11459,7 @@
         <v>0.91</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU54" t="n">
         <v>1.65</v>
@@ -11659,7 +11659,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT55" t="n">
         <v>1.64</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT56" t="n">
         <v>0.91</v>
@@ -12068,7 +12068,7 @@
         <v>1.6</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU57" t="n">
         <v>1.31</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -12677,7 +12677,7 @@
         <v>1.5</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU60" t="n">
         <v>1.49</v>
@@ -12877,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU61" t="n">
         <v>2.44</v>
@@ -13486,10 +13486,10 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU64" t="n">
         <v>2.14</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT65" t="n">
         <v>1.45</v>
@@ -13895,7 +13895,7 @@
         <v>1.73</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU66" t="n">
         <v>1.56</v>
@@ -14098,7 +14098,7 @@
         <v>0.36</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU67" t="n">
         <v>1.52</v>
@@ -14298,10 +14298,10 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU68" t="n">
         <v>1.29</v>
@@ -14501,10 +14501,10 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU69" t="n">
         <v>1.92</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AT70" t="n">
         <v>0.36</v>
@@ -14910,7 +14910,7 @@
         <v>1.82</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU71" t="n">
         <v>1.43</v>
@@ -15110,7 +15110,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT72" t="n">
         <v>1.64</v>
@@ -15722,7 +15722,7 @@
         <v>1.6</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT77" t="n">
         <v>0.82</v>
@@ -16331,7 +16331,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU78" t="n">
         <v>1.48</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -16737,7 +16737,7 @@
         <v>1.4</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU80" t="n">
         <v>1.43</v>
@@ -17343,7 +17343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17549,7 +17549,7 @@
         <v>2.64</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU84" t="n">
         <v>2.31</v>
@@ -17749,10 +17749,10 @@
         <v>1.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU85" t="n">
         <v>1.8</v>
@@ -17955,7 +17955,7 @@
         <v>1.73</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU86" t="n">
         <v>1.53</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT87" t="n">
         <v>1.45</v>
@@ -18358,7 +18358,7 @@
         <v>0.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT88" t="n">
         <v>0.82</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU89" t="n">
         <v>1.73</v>
@@ -18767,7 +18767,7 @@
         <v>1.82</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -18970,7 +18970,7 @@
         <v>2.73</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU91" t="n">
         <v>1.81</v>
@@ -19373,7 +19373,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -19782,7 +19782,7 @@
         <v>0.91</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU95" t="n">
         <v>1.4</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT97" t="n">
         <v>0.36</v>
@@ -20794,10 +20794,10 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU100" t="n">
         <v>2.02</v>
@@ -21000,7 +21000,7 @@
         <v>1.91</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU101" t="n">
         <v>1.87</v>
@@ -21200,10 +21200,10 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -21403,10 +21403,10 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU103" t="n">
         <v>1.64</v>
@@ -21609,7 +21609,7 @@
         <v>2.73</v>
       </c>
       <c r="AT104" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU104" t="n">
         <v>1.94</v>
@@ -21812,7 +21812,7 @@
         <v>1.73</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU105" t="n">
         <v>1.52</v>
@@ -22012,10 +22012,10 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU106" t="n">
         <v>1.48</v>
@@ -22215,10 +22215,10 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU107" t="n">
         <v>1.98</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -23230,7 +23230,7 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT112" t="n">
         <v>2.27</v>
@@ -23436,7 +23436,7 @@
         <v>0.91</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU113" t="n">
         <v>1.39</v>
@@ -23636,10 +23636,10 @@
         <v>1.2</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU114" t="n">
         <v>1.96</v>
@@ -24245,7 +24245,7 @@
         <v>0.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT117" t="n">
         <v>0.82</v>
@@ -24448,7 +24448,7 @@
         <v>2.17</v>
       </c>
       <c r="AS118" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT118" t="n">
         <v>1.64</v>
@@ -24857,7 +24857,7 @@
         <v>1.5</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU120" t="n">
         <v>1.61</v>
@@ -25060,7 +25060,7 @@
         <v>1.91</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU121" t="n">
         <v>1.81</v>
@@ -25666,7 +25666,7 @@
         <v>2</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT124" t="n">
         <v>2.3</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -26075,7 +26075,7 @@
         <v>1.82</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU126" t="n">
         <v>1.32</v>
@@ -26275,10 +26275,10 @@
         <v>0.6</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AT127" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU127" t="n">
         <v>1.91</v>
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU129" t="n">
         <v>1.56</v>
@@ -26884,10 +26884,10 @@
         <v>1.33</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU130" t="n">
         <v>1.62</v>
@@ -27090,7 +27090,7 @@
         <v>1.64</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU131" t="n">
         <v>2.07</v>
@@ -27290,7 +27290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT132" t="n">
         <v>0.36</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT133" t="n">
         <v>0.9</v>
@@ -27699,7 +27699,7 @@
         <v>0.36</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -27899,7 +27899,7 @@
         <v>2.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT135" t="n">
         <v>2.27</v>
@@ -28102,10 +28102,10 @@
         <v>0.5</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT136" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU136" t="n">
         <v>1.38</v>
@@ -28511,7 +28511,7 @@
         <v>1.6</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU138" t="n">
         <v>1.74</v>
@@ -28714,7 +28714,7 @@
         <v>1.73</v>
       </c>
       <c r="AT139" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU139" t="n">
         <v>1.67</v>
@@ -29117,10 +29117,10 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU141" t="n">
         <v>1.93</v>
@@ -29323,7 +29323,7 @@
         <v>1.64</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU142" t="n">
         <v>1.92</v>
@@ -29726,7 +29726,7 @@
         <v>0.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AT144" t="n">
         <v>0.91</v>
@@ -30338,7 +30338,7 @@
         <v>1.91</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU147" t="n">
         <v>1.92</v>
@@ -30744,7 +30744,7 @@
         <v>0.91</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU149" t="n">
         <v>1.37</v>
@@ -30944,7 +30944,7 @@
         <v>2</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT150" t="n">
         <v>1.64</v>
@@ -31350,10 +31350,10 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU152" t="n">
         <v>1.36</v>
@@ -31553,10 +31553,10 @@
         <v>0.38</v>
       </c>
       <c r="AS153" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU153" t="n">
         <v>1.86</v>
@@ -31756,10 +31756,10 @@
         <v>2.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU154" t="n">
         <v>1.53</v>
@@ -31959,10 +31959,10 @@
         <v>1.43</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU155" t="n">
         <v>1.41</v>
@@ -32165,7 +32165,7 @@
         <v>1</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU156" t="n">
         <v>1.65</v>
@@ -32568,10 +32568,10 @@
         <v>0.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT158" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU158" t="n">
         <v>1.59</v>
@@ -32977,7 +32977,7 @@
         <v>1.5</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU160" t="n">
         <v>1.7</v>
@@ -33177,7 +33177,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT161" t="n">
         <v>0.91</v>
@@ -34598,7 +34598,7 @@
         <v>0.75</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT168" t="n">
         <v>0.82</v>
@@ -34804,7 +34804,7 @@
         <v>1.91</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU169" t="n">
         <v>1.84</v>
@@ -35207,10 +35207,10 @@
         <v>1.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU171" t="n">
         <v>1.9</v>
@@ -35410,10 +35410,10 @@
         <v>1</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU172" t="n">
         <v>1.35</v>
@@ -35613,7 +35613,7 @@
         <v>0.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT173" t="n">
         <v>0.91</v>
@@ -35816,7 +35816,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT174" t="n">
         <v>1</v>
@@ -36022,7 +36022,7 @@
         <v>1.4</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU175" t="n">
         <v>1.57</v>
@@ -36225,7 +36225,7 @@
         <v>1</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU176" t="n">
         <v>1.67</v>
@@ -36425,10 +36425,10 @@
         <v>2.38</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU177" t="n">
         <v>1.59</v>
@@ -36631,7 +36631,7 @@
         <v>1.5</v>
       </c>
       <c r="AT178" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU178" t="n">
         <v>1.66</v>
@@ -36834,7 +36834,7 @@
         <v>2.64</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU179" t="n">
         <v>2.13</v>
@@ -37034,10 +37034,10 @@
         <v>1.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU180" t="n">
         <v>1.54</v>
@@ -37237,7 +37237,7 @@
         <v>2.13</v>
       </c>
       <c r="AS181" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT181" t="n">
         <v>2.3</v>
@@ -37643,7 +37643,7 @@
         <v>2</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT183" t="n">
         <v>1.64</v>
@@ -38255,7 +38255,7 @@
         <v>1.6</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU186" t="n">
         <v>1.86</v>
@@ -38864,7 +38864,7 @@
         <v>0.91</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU189" t="n">
         <v>1.43</v>
@@ -39267,7 +39267,7 @@
         <v>2.44</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AT191" t="n">
         <v>2.27</v>
@@ -39470,7 +39470,7 @@
         <v>1.11</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT192" t="n">
         <v>1</v>
@@ -39673,10 +39673,10 @@
         <v>1.56</v>
       </c>
       <c r="AS193" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU193" t="n">
         <v>1.64</v>
@@ -39876,10 +39876,10 @@
         <v>2.22</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT194" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU194" t="n">
         <v>1.89</v>
@@ -40082,7 +40082,7 @@
         <v>1.5</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU195" t="n">
         <v>1.72</v>
@@ -40282,10 +40282,10 @@
         <v>0.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT196" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU196" t="n">
         <v>1.6</v>
@@ -40485,7 +40485,7 @@
         <v>0.78</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT197" t="n">
         <v>0.91</v>
@@ -40691,7 +40691,7 @@
         <v>1</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU198" t="n">
         <v>1.54</v>
@@ -40891,10 +40891,10 @@
         <v>0.7</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU199" t="n">
         <v>1.35</v>
@@ -41094,10 +41094,10 @@
         <v>0.89</v>
       </c>
       <c r="AS200" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU200" t="n">
         <v>1.36</v>
@@ -41300,7 +41300,7 @@
         <v>2.64</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU201" t="n">
         <v>2.08</v>
@@ -42518,7 +42518,7 @@
         <v>2.73</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU207" t="n">
         <v>1.84</v>
@@ -42718,7 +42718,7 @@
         <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AT208" t="n">
         <v>0.9</v>
@@ -43585,6 +43585,1833 @@
       </c>
       <c r="BK212" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2468139</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>44961.625</v>
+      </c>
+      <c r="F213" t="n">
+        <v>22</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="n">
+        <v>3</v>
+      </c>
+      <c r="N213" t="n">
+        <v>4</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['43', '59', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>5</v>
+      </c>
+      <c r="R213" t="n">
+        <v>6</v>
+      </c>
+      <c r="S213" t="n">
+        <v>11</v>
+      </c>
+      <c r="T213" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X213" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2468138</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>44961.70833333334</v>
+      </c>
+      <c r="F214" t="n">
+        <v>22</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="n">
+        <v>3</v>
+      </c>
+      <c r="N214" t="n">
+        <v>4</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['59', '85', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>2</v>
+      </c>
+      <c r="R214" t="n">
+        <v>1</v>
+      </c>
+      <c r="S214" t="n">
+        <v>3</v>
+      </c>
+      <c r="T214" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V214" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X214" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2468132</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>44962.375</v>
+      </c>
+      <c r="F215" t="n">
+        <v>22</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>2</v>
+      </c>
+      <c r="K215" t="n">
+        <v>2</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>2</v>
+      </c>
+      <c r="N215" t="n">
+        <v>2</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['3', '13']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>2</v>
+      </c>
+      <c r="R215" t="n">
+        <v>4</v>
+      </c>
+      <c r="S215" t="n">
+        <v>6</v>
+      </c>
+      <c r="T215" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X215" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2468133</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>44962.45833333334</v>
+      </c>
+      <c r="F216" t="n">
+        <v>22</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>8</v>
+      </c>
+      <c r="R216" t="n">
+        <v>6</v>
+      </c>
+      <c r="S216" t="n">
+        <v>14</v>
+      </c>
+      <c r="T216" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V216" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X216" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2468130</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>44962.45833333334</v>
+      </c>
+      <c r="F217" t="n">
+        <v>22</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>2</v>
+      </c>
+      <c r="N217" t="n">
+        <v>2</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['64', '89']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>2</v>
+      </c>
+      <c r="R217" t="n">
+        <v>1</v>
+      </c>
+      <c r="S217" t="n">
+        <v>3</v>
+      </c>
+      <c r="T217" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V217" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2468136</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>44962.45833333334</v>
+      </c>
+      <c r="F218" t="n">
+        <v>22</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>2</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>2</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['1', '45']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>4</v>
+      </c>
+      <c r="R218" t="n">
+        <v>7</v>
+      </c>
+      <c r="S218" t="n">
+        <v>11</v>
+      </c>
+      <c r="T218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V218" t="n">
+        <v>4</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2468131</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>44962.45833333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>22</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>4</v>
+      </c>
+      <c r="R219" t="n">
+        <v>5</v>
+      </c>
+      <c r="S219" t="n">
+        <v>9</v>
+      </c>
+      <c r="T219" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2468137</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>44962.54513888889</v>
+      </c>
+      <c r="F220" t="n">
+        <v>22</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>2</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>11</v>
+      </c>
+      <c r="R220" t="n">
+        <v>5</v>
+      </c>
+      <c r="S220" t="n">
+        <v>16</v>
+      </c>
+      <c r="T220" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V220" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X220" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2468134</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>44962.69791666666</v>
+      </c>
+      <c r="F221" t="n">
+        <v>22</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>2</v>
+      </c>
+      <c r="K221" t="n">
+        <v>2</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>3</v>
+      </c>
+      <c r="N221" t="n">
+        <v>4</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['38', '44', '85']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>9</v>
+      </c>
+      <c r="R221" t="n">
+        <v>1</v>
+      </c>
+      <c r="S221" t="n">
+        <v>10</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V221" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="344">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,27 @@
     <t>['60']</t>
   </si>
   <si>
+    <t>['3', '69', '90']</t>
+  </si>
+  <si>
+    <t>['4', '18', '45+2']</t>
+  </si>
+  <si>
+    <t>['27', '28', '37']</t>
+  </si>
+  <si>
+    <t>['10', '44', '50', '82']</t>
+  </si>
+  <si>
+    <t>['23', '28']</t>
+  </si>
+  <si>
+    <t>['4', '17', '54']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
     <t>['43', '53']</t>
   </si>
   <si>
@@ -940,9 +961,6 @@
     <t>['45+1']</t>
   </si>
   <si>
-    <t>['66']</t>
-  </si>
-  <si>
     <t>['79', '88']</t>
   </si>
   <si>
@@ -1022,6 +1040,12 @@
   </si>
   <si>
     <t>['38', '44', '85']</t>
+  </si>
+  <si>
+    <t>['44', '81']</t>
+  </si>
+  <si>
+    <t>['22']</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK221"/>
+  <dimension ref="A1:BK230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1717,7 +1741,7 @@
         <v>1.64</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1818,7 +1842,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2009,7 +2033,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2096,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT4">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2200,7 +2224,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2287,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT5">
         <v>1.58</v>
@@ -2391,7 +2415,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2478,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT6">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2669,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AT7">
         <v>0.92</v>
@@ -2773,7 +2797,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2860,10 +2884,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT8">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2964,7 +2988,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3054,7 +3078,7 @@
         <v>2.73</v>
       </c>
       <c r="AT9">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3245,7 +3269,7 @@
         <v>2.5</v>
       </c>
       <c r="AT10">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3624,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT12">
         <v>1.55</v>
@@ -3815,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3919,7 +3943,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -4110,7 +4134,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4301,7 +4325,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4388,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT16">
         <v>1.45</v>
@@ -4492,7 +4516,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4874,7 +4898,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4961,10 +4985,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT19">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5065,7 +5089,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5155,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="AT20">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5346,7 +5370,7 @@
         <v>1.64</v>
       </c>
       <c r="AT21">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU21">
         <v>1.29</v>
@@ -5447,7 +5471,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5534,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT22">
         <v>1.45</v>
@@ -5638,7 +5662,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5829,7 +5853,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6020,7 +6044,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6107,10 +6131,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT25">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU25">
         <v>1.13</v>
@@ -6298,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT26">
         <v>1.58</v>
@@ -6402,7 +6426,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6489,10 +6513,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AT27">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU27">
         <v>1.98</v>
@@ -6593,7 +6617,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6680,10 +6704,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT28">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU28">
         <v>1.63</v>
@@ -6784,7 +6808,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6874,7 +6898,7 @@
         <v>2.5</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU29">
         <v>1.89</v>
@@ -6975,7 +6999,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7062,10 +7086,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT30">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU30">
         <v>1.87</v>
@@ -7166,7 +7190,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7447,7 +7471,7 @@
         <v>0.91</v>
       </c>
       <c r="AT32">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU32">
         <v>1.58</v>
@@ -7638,7 +7662,7 @@
         <v>2.73</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU33">
         <v>1.79</v>
@@ -7826,7 +7850,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT34">
         <v>0.91</v>
@@ -8312,7 +8336,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8399,10 +8423,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT37">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU37">
         <v>1.4</v>
@@ -8503,7 +8527,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8781,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT39">
         <v>1.27</v>
@@ -9166,7 +9190,7 @@
         <v>1.64</v>
       </c>
       <c r="AT41">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU41">
         <v>1.62</v>
@@ -9267,7 +9291,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9354,10 +9378,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT42">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU42">
         <v>1.44</v>
@@ -9458,7 +9482,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9545,7 +9569,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AT43">
         <v>1.17</v>
@@ -9649,7 +9673,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9927,10 +9951,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU45">
         <v>1.85</v>
@@ -10031,7 +10055,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10121,7 +10145,7 @@
         <v>2.5</v>
       </c>
       <c r="AT46">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU46">
         <v>2.03</v>
@@ -10222,7 +10246,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10312,7 +10336,7 @@
         <v>2.73</v>
       </c>
       <c r="AT47">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU47">
         <v>1.81</v>
@@ -10413,7 +10437,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10500,10 +10524,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT48">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU48">
         <v>1.44</v>
@@ -10604,7 +10628,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10691,7 +10715,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT49">
         <v>1.58</v>
@@ -10986,7 +11010,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11076,7 +11100,7 @@
         <v>0.91</v>
       </c>
       <c r="AT51">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU51">
         <v>1.36</v>
@@ -11368,7 +11392,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -11455,10 +11479,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT53">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU53">
         <v>1.62</v>
@@ -11559,7 +11583,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11646,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT54">
         <v>1.55</v>
@@ -11840,7 +11864,7 @@
         <v>0.64</v>
       </c>
       <c r="AT55">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU55">
         <v>0.97</v>
@@ -12028,7 +12052,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT56">
         <v>0.91</v>
@@ -12219,7 +12243,7 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT57">
         <v>1.45</v>
@@ -12413,7 +12437,7 @@
         <v>1</v>
       </c>
       <c r="AT58">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU58">
         <v>1.53</v>
@@ -12514,7 +12538,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12604,7 +12628,7 @@
         <v>0.91</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU59">
         <v>2.18</v>
@@ -12705,7 +12729,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12792,7 +12816,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT60">
         <v>2.18</v>
@@ -13177,7 +13201,7 @@
         <v>2.73</v>
       </c>
       <c r="AT62">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU62">
         <v>1.89</v>
@@ -13368,7 +13392,7 @@
         <v>2.64</v>
       </c>
       <c r="AT63">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU63">
         <v>2.57</v>
@@ -13469,7 +13493,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13938,7 +13962,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT66">
         <v>1.17</v>
@@ -14042,7 +14066,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14129,7 +14153,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AT67">
         <v>0.91</v>
@@ -14424,7 +14448,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14705,7 +14729,7 @@
         <v>2.5</v>
       </c>
       <c r="AT70">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU70">
         <v>2.14</v>
@@ -14806,7 +14830,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -14893,7 +14917,7 @@
         <v>0.5</v>
       </c>
       <c r="AS71">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT71">
         <v>1.27</v>
@@ -14997,7 +15021,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15087,7 +15111,7 @@
         <v>0.91</v>
       </c>
       <c r="AT72">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU72">
         <v>1.34</v>
@@ -15188,7 +15212,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15275,10 +15299,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT73">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU73">
         <v>1.43</v>
@@ -15379,7 +15403,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15466,7 +15490,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>0.91</v>
@@ -15570,7 +15594,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15657,7 +15681,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT75">
         <v>2.18</v>
@@ -15851,7 +15875,7 @@
         <v>1</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU76">
         <v>1.49</v>
@@ -15952,7 +15976,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16039,10 +16063,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT77">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU77">
         <v>1.06</v>
@@ -16230,7 +16254,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT78">
         <v>0.45</v>
@@ -16334,7 +16358,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16424,7 +16448,7 @@
         <v>1.92</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU79">
         <v>2.05</v>
@@ -16612,7 +16636,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT80">
         <v>1.45</v>
@@ -16716,7 +16740,7 @@
         <v>87</v>
       </c>
       <c r="P81" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16806,7 +16830,7 @@
         <v>1.64</v>
       </c>
       <c r="AT81">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU81">
         <v>2.16</v>
@@ -16907,7 +16931,7 @@
         <v>87</v>
       </c>
       <c r="P82" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16994,10 +17018,10 @@
         <v>2.33</v>
       </c>
       <c r="AS82">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AT82">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU82">
         <v>1.5</v>
@@ -17098,7 +17122,7 @@
         <v>94</v>
       </c>
       <c r="P83" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -17188,7 +17212,7 @@
         <v>0.75</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU83">
         <v>1.41</v>
@@ -17480,7 +17504,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -17671,7 +17695,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17758,7 +17782,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT86">
         <v>0.91</v>
@@ -17862,7 +17886,7 @@
         <v>106</v>
       </c>
       <c r="P87" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18053,7 +18077,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -18143,7 +18167,7 @@
         <v>0.91</v>
       </c>
       <c r="AT88">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU88">
         <v>1.52</v>
@@ -18244,7 +18268,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q89">
         <v>10</v>
@@ -18435,7 +18459,7 @@
         <v>146</v>
       </c>
       <c r="P90" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -18522,7 +18546,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT90">
         <v>0.92</v>
@@ -19008,7 +19032,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q93">
         <v>11</v>
@@ -19098,7 +19122,7 @@
         <v>1.92</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU93">
         <v>2.04</v>
@@ -19286,10 +19310,10 @@
         <v>3</v>
       </c>
       <c r="AS94">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT94">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU94">
         <v>1.39</v>
@@ -19390,7 +19414,7 @@
         <v>87</v>
       </c>
       <c r="P95" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19477,7 +19501,7 @@
         <v>2.5</v>
       </c>
       <c r="AS95">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT95">
         <v>2.18</v>
@@ -19581,7 +19605,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19671,7 +19695,7 @@
         <v>1</v>
       </c>
       <c r="AT96">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU96">
         <v>1.47</v>
@@ -19772,7 +19796,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19859,10 +19883,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT97">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU97">
         <v>1.19</v>
@@ -19963,7 +19987,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20050,10 +20074,10 @@
         <v>0.5</v>
       </c>
       <c r="AS98">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AT98">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU98">
         <v>1.52</v>
@@ -20154,7 +20178,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20241,10 +20265,10 @@
         <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT99">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU99">
         <v>1.56</v>
@@ -20623,7 +20647,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT101">
         <v>1.45</v>
@@ -20727,7 +20751,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21300,7 +21324,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21387,7 +21411,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT105">
         <v>0.45</v>
@@ -21682,7 +21706,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21873,7 +21897,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21963,7 +21987,7 @@
         <v>0.91</v>
       </c>
       <c r="AT108">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU108">
         <v>1.88</v>
@@ -22151,10 +22175,10 @@
         <v>0.8</v>
       </c>
       <c r="AS109">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT109">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU109">
         <v>1.45</v>
@@ -22342,7 +22366,7 @@
         <v>1.4</v>
       </c>
       <c r="AS110">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT110">
         <v>1.45</v>
@@ -22536,7 +22560,7 @@
         <v>2.64</v>
       </c>
       <c r="AT111">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU111">
         <v>2.1</v>
@@ -22637,7 +22661,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22727,7 +22751,7 @@
         <v>0.64</v>
       </c>
       <c r="AT112">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU112">
         <v>1.3</v>
@@ -22828,7 +22852,7 @@
         <v>106</v>
       </c>
       <c r="P113" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22915,7 +22939,7 @@
         <v>0.2</v>
       </c>
       <c r="AS113">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT113">
         <v>1.27</v>
@@ -23019,7 +23043,7 @@
         <v>87</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23210,7 +23234,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23297,10 +23321,10 @@
         <v>1.2</v>
       </c>
       <c r="AS115">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AT115">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU115">
         <v>1.56</v>
@@ -23401,7 +23425,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23488,10 +23512,10 @@
         <v>0.6</v>
       </c>
       <c r="AS116">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT116">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU116">
         <v>1.59</v>
@@ -23592,7 +23616,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23679,10 +23703,10 @@
         <v>0.67</v>
       </c>
       <c r="AS117">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT117">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU117">
         <v>1.3</v>
@@ -23783,7 +23807,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23873,7 +23897,7 @@
         <v>0.91</v>
       </c>
       <c r="AT118">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU118">
         <v>1.81</v>
@@ -23974,7 +23998,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24061,10 +24085,10 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT119">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU119">
         <v>1.58</v>
@@ -24252,7 +24276,7 @@
         <v>0.33</v>
       </c>
       <c r="AS120">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT120">
         <v>0.92</v>
@@ -24356,7 +24380,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24443,7 +24467,7 @@
         <v>2.6</v>
       </c>
       <c r="AS121">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT121">
         <v>2.18</v>
@@ -24738,7 +24762,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24828,7 +24852,7 @@
         <v>2.64</v>
       </c>
       <c r="AT123">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU123">
         <v>2.18</v>
@@ -24929,7 +24953,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25019,7 +25043,7 @@
         <v>0.75</v>
       </c>
       <c r="AT124">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU124">
         <v>1.3</v>
@@ -25210,7 +25234,7 @@
         <v>0.91</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU125">
         <v>1.47</v>
@@ -25398,7 +25422,7 @@
         <v>0.8</v>
       </c>
       <c r="AS126">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT126">
         <v>0.45</v>
@@ -25780,7 +25804,7 @@
         <v>1.33</v>
       </c>
       <c r="AS128">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT128">
         <v>1.45</v>
@@ -26075,7 +26099,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26547,7 +26571,7 @@
         <v>0.91</v>
       </c>
       <c r="AT132">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU132">
         <v>1.81</v>
@@ -26648,7 +26672,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26738,7 +26762,7 @@
         <v>0.64</v>
       </c>
       <c r="AT133">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU133">
         <v>1.28</v>
@@ -26839,7 +26863,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26926,7 +26950,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AT134">
         <v>1.45</v>
@@ -27030,7 +27054,7 @@
         <v>163</v>
       </c>
       <c r="P135" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27120,7 +27144,7 @@
         <v>1.64</v>
       </c>
       <c r="AT135">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU135">
         <v>1.67</v>
@@ -27308,7 +27332,7 @@
         <v>0.5</v>
       </c>
       <c r="AS136">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT136">
         <v>0.91</v>
@@ -27499,10 +27523,10 @@
         <v>1</v>
       </c>
       <c r="AS137">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT137">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU137">
         <v>1.63</v>
@@ -27690,7 +27714,7 @@
         <v>0.43</v>
       </c>
       <c r="AS138">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT138">
         <v>0.92</v>
@@ -27794,7 +27818,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27881,7 +27905,7 @@
         <v>2.17</v>
       </c>
       <c r="AS139">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT139">
         <v>2.18</v>
@@ -27985,7 +28009,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28072,10 +28096,10 @@
         <v>1.5</v>
       </c>
       <c r="AS140">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT140">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU140">
         <v>1.86</v>
@@ -28367,7 +28391,7 @@
         <v>165</v>
       </c>
       <c r="P142" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28749,7 +28773,7 @@
         <v>185</v>
       </c>
       <c r="P144" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -29030,7 +29054,7 @@
         <v>2.64</v>
       </c>
       <c r="AT145">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU145">
         <v>2.27</v>
@@ -29221,7 +29245,7 @@
         <v>1</v>
       </c>
       <c r="AT146">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU146">
         <v>1.6</v>
@@ -29409,7 +29433,7 @@
         <v>0.67</v>
       </c>
       <c r="AS147">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT147">
         <v>0.45</v>
@@ -29513,7 +29537,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29600,10 +29624,10 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT148">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU148">
         <v>1.6</v>
@@ -29791,7 +29815,7 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT149">
         <v>1.17</v>
@@ -29895,7 +29919,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29985,7 +30009,7 @@
         <v>0.75</v>
       </c>
       <c r="AT150">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU150">
         <v>1.33</v>
@@ -30086,7 +30110,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30173,10 +30197,10 @@
         <v>1.83</v>
       </c>
       <c r="AS151">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT151">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU151">
         <v>1.31</v>
@@ -30659,7 +30683,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30850,7 +30874,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30937,7 +30961,7 @@
         <v>1.43</v>
       </c>
       <c r="AS155">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT155">
         <v>1.55</v>
@@ -31041,7 +31065,7 @@
         <v>117</v>
       </c>
       <c r="P156" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31322,7 +31346,7 @@
         <v>2.64</v>
       </c>
       <c r="AT157">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU157">
         <v>2.18</v>
@@ -31423,7 +31447,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31614,7 +31638,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31701,10 +31725,10 @@
         <v>1.43</v>
       </c>
       <c r="AS159">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT159">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU159">
         <v>1.91</v>
@@ -31892,7 +31916,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT160">
         <v>1.45</v>
@@ -31996,7 +32020,7 @@
         <v>196</v>
       </c>
       <c r="P161" t="s">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="Q161">
         <v>1</v>
@@ -32274,10 +32298,10 @@
         <v>0.88</v>
       </c>
       <c r="AS162">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT162">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU162">
         <v>1.35</v>
@@ -32465,10 +32489,10 @@
         <v>0.5</v>
       </c>
       <c r="AS163">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT163">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU163">
         <v>1.62</v>
@@ -32656,10 +32680,10 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT164">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU164">
         <v>1.65</v>
@@ -32760,7 +32784,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32847,10 +32871,10 @@
         <v>1.88</v>
       </c>
       <c r="AS165">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AT165">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU165">
         <v>1.4</v>
@@ -33232,7 +33256,7 @@
         <v>2.73</v>
       </c>
       <c r="AT167">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU167">
         <v>1.94</v>
@@ -33333,7 +33357,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33423,7 +33447,7 @@
         <v>0.75</v>
       </c>
       <c r="AT168">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU168">
         <v>1.45</v>
@@ -33524,7 +33548,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33611,7 +33635,7 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT169">
         <v>1.17</v>
@@ -33715,7 +33739,7 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33802,10 +33826,10 @@
         <v>2</v>
       </c>
       <c r="AS170">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT170">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU170">
         <v>1.48</v>
@@ -33906,7 +33930,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34288,7 +34312,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -34566,10 +34590,10 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT174">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU174">
         <v>1.39</v>
@@ -34757,7 +34781,7 @@
         <v>0.88</v>
       </c>
       <c r="AS175">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT175">
         <v>1.27</v>
@@ -35052,7 +35076,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35330,7 +35354,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT178">
         <v>0.91</v>
@@ -35625,7 +35649,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -35816,7 +35840,7 @@
         <v>87</v>
       </c>
       <c r="P181" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -35906,7 +35930,7 @@
         <v>0.91</v>
       </c>
       <c r="AT181">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU181">
         <v>1.76</v>
@@ -36097,7 +36121,7 @@
         <v>2.73</v>
       </c>
       <c r="AT182">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU182">
         <v>1.86</v>
@@ -36288,7 +36312,7 @@
         <v>1.92</v>
       </c>
       <c r="AT183">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU183">
         <v>1.86</v>
@@ -36389,7 +36413,7 @@
         <v>162</v>
       </c>
       <c r="P184" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q184">
         <v>14</v>
@@ -36479,7 +36503,7 @@
         <v>1.64</v>
       </c>
       <c r="AT184">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU184">
         <v>1.8</v>
@@ -36667,10 +36691,10 @@
         <v>1</v>
       </c>
       <c r="AS185">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT185">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU185">
         <v>1.83</v>
@@ -36858,7 +36882,7 @@
         <v>1.33</v>
       </c>
       <c r="AS186">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT186">
         <v>1.58</v>
@@ -37049,10 +37073,10 @@
         <v>0.78</v>
       </c>
       <c r="AS187">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT187">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU187">
         <v>1.66</v>
@@ -37153,7 +37177,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -37240,7 +37264,7 @@
         <v>1.33</v>
       </c>
       <c r="AS188">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AT188">
         <v>1.45</v>
@@ -37344,7 +37368,7 @@
         <v>87</v>
       </c>
       <c r="P189" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37431,7 +37455,7 @@
         <v>0.44</v>
       </c>
       <c r="AS189">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT189">
         <v>0.92</v>
@@ -37535,7 +37559,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37622,10 +37646,10 @@
         <v>0.89</v>
       </c>
       <c r="AS190">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT190">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU190">
         <v>1.4</v>
@@ -37816,7 +37840,7 @@
         <v>2.5</v>
       </c>
       <c r="AT191">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU191">
         <v>1.95</v>
@@ -38007,7 +38031,7 @@
         <v>1.64</v>
       </c>
       <c r="AT192">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU192">
         <v>1.58</v>
@@ -38108,7 +38132,7 @@
         <v>136</v>
       </c>
       <c r="P193" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -38577,7 +38601,7 @@
         <v>1.56</v>
       </c>
       <c r="AS195">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT195">
         <v>1.55</v>
@@ -38681,7 +38705,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38872,7 +38896,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39341,7 +39365,7 @@
         <v>0.7</v>
       </c>
       <c r="AS199">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT199">
         <v>0.92</v>
@@ -39445,7 +39469,7 @@
         <v>87</v>
       </c>
       <c r="P200" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39636,7 +39660,7 @@
         <v>217</v>
       </c>
       <c r="P201" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39827,7 +39851,7 @@
         <v>218</v>
       </c>
       <c r="P202" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -39914,10 +39938,10 @@
         <v>0.8</v>
       </c>
       <c r="AS202">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AT202">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU202">
         <v>1.42</v>
@@ -40018,7 +40042,7 @@
         <v>219</v>
       </c>
       <c r="P203" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40105,10 +40129,10 @@
         <v>1.8</v>
       </c>
       <c r="AS203">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT203">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU203">
         <v>1.82</v>
@@ -40209,7 +40233,7 @@
         <v>220</v>
       </c>
       <c r="P204" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q204">
         <v>8</v>
@@ -40296,10 +40320,10 @@
         <v>0.9</v>
       </c>
       <c r="AS204">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT204">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU204">
         <v>1.72</v>
@@ -40400,7 +40424,7 @@
         <v>87</v>
       </c>
       <c r="P205" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q205">
         <v>5</v>
@@ -40487,10 +40511,10 @@
         <v>2.22</v>
       </c>
       <c r="AS205">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT205">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU205">
         <v>1.56</v>
@@ -40678,7 +40702,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT206">
         <v>1.45</v>
@@ -40782,7 +40806,7 @@
         <v>87</v>
       </c>
       <c r="P207" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41063,7 +41087,7 @@
         <v>2.5</v>
       </c>
       <c r="AT208">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU208">
         <v>1.89</v>
@@ -41164,7 +41188,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41251,10 +41275,10 @@
         <v>0.4</v>
       </c>
       <c r="AS209">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT209">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU209">
         <v>1.42</v>
@@ -41355,7 +41379,7 @@
         <v>165</v>
       </c>
       <c r="P210" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q210">
         <v>1</v>
@@ -41442,10 +41466,10 @@
         <v>2.2</v>
       </c>
       <c r="AS210">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT210">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU210">
         <v>1.44</v>
@@ -41636,7 +41660,7 @@
         <v>1.64</v>
       </c>
       <c r="AT211">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU211">
         <v>1.94</v>
@@ -41928,7 +41952,7 @@
         <v>181</v>
       </c>
       <c r="P213" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -42119,7 +42143,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q214">
         <v>2</v>
@@ -42310,7 +42334,7 @@
         <v>87</v>
       </c>
       <c r="P215" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42397,7 +42421,7 @@
         <v>2.1</v>
       </c>
       <c r="AS215">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT215">
         <v>2.18</v>
@@ -42692,7 +42716,7 @@
         <v>87</v>
       </c>
       <c r="P217" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q217">
         <v>2</v>
@@ -43265,7 +43289,7 @@
         <v>109</v>
       </c>
       <c r="P220" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q220">
         <v>11</v>
@@ -43456,7 +43480,7 @@
         <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q221">
         <v>9</v>
@@ -43598,6 +43622,1725 @@
       </c>
       <c r="BK221">
         <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2468146</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44967.70833333334</v>
+      </c>
+      <c r="F222">
+        <v>23</v>
+      </c>
+      <c r="G222" t="s">
+        <v>82</v>
+      </c>
+      <c r="H222" t="s">
+        <v>81</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>3</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
+      <c r="O222" t="s">
+        <v>227</v>
+      </c>
+      <c r="P222" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q222">
+        <v>5</v>
+      </c>
+      <c r="R222">
+        <v>5</v>
+      </c>
+      <c r="S222">
+        <v>10</v>
+      </c>
+      <c r="T222">
+        <v>2.2</v>
+      </c>
+      <c r="U222">
+        <v>2.1</v>
+      </c>
+      <c r="V222">
+        <v>7</v>
+      </c>
+      <c r="W222">
+        <v>1.5</v>
+      </c>
+      <c r="X222">
+        <v>2.5</v>
+      </c>
+      <c r="Y222">
+        <v>3.4</v>
+      </c>
+      <c r="Z222">
+        <v>1.3</v>
+      </c>
+      <c r="AA222">
+        <v>10</v>
+      </c>
+      <c r="AB222">
+        <v>1.06</v>
+      </c>
+      <c r="AC222">
+        <v>1.6</v>
+      </c>
+      <c r="AD222">
+        <v>3.3</v>
+      </c>
+      <c r="AE222">
+        <v>5</v>
+      </c>
+      <c r="AF222">
+        <v>1.08</v>
+      </c>
+      <c r="AG222">
+        <v>8.5</v>
+      </c>
+      <c r="AH222">
+        <v>1.42</v>
+      </c>
+      <c r="AI222">
+        <v>2.9</v>
+      </c>
+      <c r="AJ222">
+        <v>2.3</v>
+      </c>
+      <c r="AK222">
+        <v>1.53</v>
+      </c>
+      <c r="AL222">
+        <v>2.38</v>
+      </c>
+      <c r="AM222">
+        <v>1.53</v>
+      </c>
+      <c r="AN222">
+        <v>1.12</v>
+      </c>
+      <c r="AO222">
+        <v>1.25</v>
+      </c>
+      <c r="AP222">
+        <v>2.35</v>
+      </c>
+      <c r="AQ222">
+        <v>1.5</v>
+      </c>
+      <c r="AR222">
+        <v>1</v>
+      </c>
+      <c r="AS222">
+        <v>1.64</v>
+      </c>
+      <c r="AT222">
+        <v>0.92</v>
+      </c>
+      <c r="AU222">
+        <v>1.71</v>
+      </c>
+      <c r="AV222">
+        <v>1.17</v>
+      </c>
+      <c r="AW222">
+        <v>2.88</v>
+      </c>
+      <c r="AX222">
+        <v>1.41</v>
+      </c>
+      <c r="AY222">
+        <v>8.5</v>
+      </c>
+      <c r="AZ222">
+        <v>3.6</v>
+      </c>
+      <c r="BA222">
+        <v>1.49</v>
+      </c>
+      <c r="BB222">
+        <v>1.81</v>
+      </c>
+      <c r="BC222">
+        <v>2.28</v>
+      </c>
+      <c r="BD222">
+        <v>3</v>
+      </c>
+      <c r="BE222">
+        <v>4.1</v>
+      </c>
+      <c r="BF222">
+        <v>4</v>
+      </c>
+      <c r="BG222">
+        <v>5</v>
+      </c>
+      <c r="BH222">
+        <v>8</v>
+      </c>
+      <c r="BI222">
+        <v>3</v>
+      </c>
+      <c r="BJ222">
+        <v>12</v>
+      </c>
+      <c r="BK222">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>2468140</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44968.54166666666</v>
+      </c>
+      <c r="F223">
+        <v>23</v>
+      </c>
+      <c r="G223" t="s">
+        <v>76</v>
+      </c>
+      <c r="H223" t="s">
+        <v>77</v>
+      </c>
+      <c r="I223">
+        <v>3</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>4</v>
+      </c>
+      <c r="L223">
+        <v>3</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>4</v>
+      </c>
+      <c r="O223" t="s">
+        <v>228</v>
+      </c>
+      <c r="P223" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q223">
+        <v>3</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>5</v>
+      </c>
+      <c r="T223">
+        <v>3.5</v>
+      </c>
+      <c r="U223">
+        <v>2.3</v>
+      </c>
+      <c r="V223">
+        <v>2.75</v>
+      </c>
+      <c r="W223">
+        <v>1.3</v>
+      </c>
+      <c r="X223">
+        <v>3.4</v>
+      </c>
+      <c r="Y223">
+        <v>2.5</v>
+      </c>
+      <c r="Z223">
+        <v>1.5</v>
+      </c>
+      <c r="AA223">
+        <v>6</v>
+      </c>
+      <c r="AB223">
+        <v>1.13</v>
+      </c>
+      <c r="AC223">
+        <v>2.7</v>
+      </c>
+      <c r="AD223">
+        <v>3.85</v>
+      </c>
+      <c r="AE223">
+        <v>2.1</v>
+      </c>
+      <c r="AF223">
+        <v>1.03</v>
+      </c>
+      <c r="AG223">
+        <v>17</v>
+      </c>
+      <c r="AH223">
+        <v>1.2</v>
+      </c>
+      <c r="AI223">
+        <v>4.5</v>
+      </c>
+      <c r="AJ223">
+        <v>1.73</v>
+      </c>
+      <c r="AK223">
+        <v>2.1</v>
+      </c>
+      <c r="AL223">
+        <v>1.57</v>
+      </c>
+      <c r="AM223">
+        <v>2.25</v>
+      </c>
+      <c r="AN223">
+        <v>1.65</v>
+      </c>
+      <c r="AO223">
+        <v>1.27</v>
+      </c>
+      <c r="AP223">
+        <v>1.37</v>
+      </c>
+      <c r="AQ223">
+        <v>1.82</v>
+      </c>
+      <c r="AR223">
+        <v>2.27</v>
+      </c>
+      <c r="AS223">
+        <v>1.92</v>
+      </c>
+      <c r="AT223">
+        <v>2.08</v>
+      </c>
+      <c r="AU223">
+        <v>1.46</v>
+      </c>
+      <c r="AV223">
+        <v>2.1</v>
+      </c>
+      <c r="AW223">
+        <v>3.56</v>
+      </c>
+      <c r="AX223">
+        <v>2.26</v>
+      </c>
+      <c r="AY223">
+        <v>7.7</v>
+      </c>
+      <c r="AZ223">
+        <v>1.94</v>
+      </c>
+      <c r="BA223">
+        <v>1.3</v>
+      </c>
+      <c r="BB223">
+        <v>1.57</v>
+      </c>
+      <c r="BC223">
+        <v>1.98</v>
+      </c>
+      <c r="BD223">
+        <v>2.59</v>
+      </c>
+      <c r="BE223">
+        <v>3.42</v>
+      </c>
+      <c r="BF223">
+        <v>11</v>
+      </c>
+      <c r="BG223">
+        <v>2</v>
+      </c>
+      <c r="BH223">
+        <v>9</v>
+      </c>
+      <c r="BI223">
+        <v>6</v>
+      </c>
+      <c r="BJ223">
+        <v>20</v>
+      </c>
+      <c r="BK223">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>2468142</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44968.73958333334</v>
+      </c>
+      <c r="F224">
+        <v>23</v>
+      </c>
+      <c r="G224" t="s">
+        <v>67</v>
+      </c>
+      <c r="H224" t="s">
+        <v>74</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224" t="s">
+        <v>87</v>
+      </c>
+      <c r="P224" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q224">
+        <v>3</v>
+      </c>
+      <c r="R224">
+        <v>4</v>
+      </c>
+      <c r="S224">
+        <v>7</v>
+      </c>
+      <c r="T224">
+        <v>5</v>
+      </c>
+      <c r="U224">
+        <v>2.2</v>
+      </c>
+      <c r="V224">
+        <v>2.38</v>
+      </c>
+      <c r="W224">
+        <v>1.4</v>
+      </c>
+      <c r="X224">
+        <v>2.75</v>
+      </c>
+      <c r="Y224">
+        <v>3</v>
+      </c>
+      <c r="Z224">
+        <v>1.36</v>
+      </c>
+      <c r="AA224">
+        <v>8</v>
+      </c>
+      <c r="AB224">
+        <v>1.08</v>
+      </c>
+      <c r="AC224">
+        <v>4.3</v>
+      </c>
+      <c r="AD224">
+        <v>3.8</v>
+      </c>
+      <c r="AE224">
+        <v>1.8</v>
+      </c>
+      <c r="AF224">
+        <v>1.05</v>
+      </c>
+      <c r="AG224">
+        <v>11</v>
+      </c>
+      <c r="AH224">
+        <v>1.33</v>
+      </c>
+      <c r="AI224">
+        <v>3.4</v>
+      </c>
+      <c r="AJ224">
+        <v>2.03</v>
+      </c>
+      <c r="AK224">
+        <v>1.85</v>
+      </c>
+      <c r="AL224">
+        <v>1.91</v>
+      </c>
+      <c r="AM224">
+        <v>1.91</v>
+      </c>
+      <c r="AN224">
+        <v>2.15</v>
+      </c>
+      <c r="AO224">
+        <v>1.24</v>
+      </c>
+      <c r="AP224">
+        <v>1.19</v>
+      </c>
+      <c r="AQ224">
+        <v>1.27</v>
+      </c>
+      <c r="AR224">
+        <v>2.3</v>
+      </c>
+      <c r="AS224">
+        <v>1.17</v>
+      </c>
+      <c r="AT224">
+        <v>2.36</v>
+      </c>
+      <c r="AU224">
+        <v>1.31</v>
+      </c>
+      <c r="AV224">
+        <v>1.63</v>
+      </c>
+      <c r="AW224">
+        <v>2.94</v>
+      </c>
+      <c r="AX224">
+        <v>2.9</v>
+      </c>
+      <c r="AY224">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ224">
+        <v>1.61</v>
+      </c>
+      <c r="BA224">
+        <v>1.37</v>
+      </c>
+      <c r="BB224">
+        <v>1.7</v>
+      </c>
+      <c r="BC224">
+        <v>2.2</v>
+      </c>
+      <c r="BD224">
+        <v>2.94</v>
+      </c>
+      <c r="BE224">
+        <v>4.05</v>
+      </c>
+      <c r="BF224">
+        <v>5</v>
+      </c>
+      <c r="BG224">
+        <v>5</v>
+      </c>
+      <c r="BH224">
+        <v>1</v>
+      </c>
+      <c r="BI224">
+        <v>5</v>
+      </c>
+      <c r="BJ224">
+        <v>6</v>
+      </c>
+      <c r="BK224">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2468149</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44969.375</v>
+      </c>
+      <c r="F225">
+        <v>23</v>
+      </c>
+      <c r="G225" t="s">
+        <v>68</v>
+      </c>
+      <c r="H225" t="s">
+        <v>73</v>
+      </c>
+      <c r="I225">
+        <v>3</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>3</v>
+      </c>
+      <c r="L225">
+        <v>3</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>4</v>
+      </c>
+      <c r="O225" t="s">
+        <v>229</v>
+      </c>
+      <c r="P225" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q225">
+        <v>2</v>
+      </c>
+      <c r="R225">
+        <v>7</v>
+      </c>
+      <c r="S225">
+        <v>9</v>
+      </c>
+      <c r="T225">
+        <v>3.5</v>
+      </c>
+      <c r="U225">
+        <v>2.25</v>
+      </c>
+      <c r="V225">
+        <v>2.88</v>
+      </c>
+      <c r="W225">
+        <v>1.33</v>
+      </c>
+      <c r="X225">
+        <v>3.25</v>
+      </c>
+      <c r="Y225">
+        <v>2.63</v>
+      </c>
+      <c r="Z225">
+        <v>1.44</v>
+      </c>
+      <c r="AA225">
+        <v>6.5</v>
+      </c>
+      <c r="AB225">
+        <v>1.11</v>
+      </c>
+      <c r="AC225">
+        <v>2.98</v>
+      </c>
+      <c r="AD225">
+        <v>3.4</v>
+      </c>
+      <c r="AE225">
+        <v>2.35</v>
+      </c>
+      <c r="AF225">
+        <v>1.05</v>
+      </c>
+      <c r="AG225">
+        <v>10</v>
+      </c>
+      <c r="AH225">
+        <v>1.27</v>
+      </c>
+      <c r="AI225">
+        <v>4.04</v>
+      </c>
+      <c r="AJ225">
+        <v>1.72</v>
+      </c>
+      <c r="AK225">
+        <v>2.05</v>
+      </c>
+      <c r="AL225">
+        <v>1.62</v>
+      </c>
+      <c r="AM225">
+        <v>2.2</v>
+      </c>
+      <c r="AN225">
+        <v>1.61</v>
+      </c>
+      <c r="AO225">
+        <v>1.31</v>
+      </c>
+      <c r="AP225">
+        <v>1.36</v>
+      </c>
+      <c r="AQ225">
+        <v>1.73</v>
+      </c>
+      <c r="AR225">
+        <v>1</v>
+      </c>
+      <c r="AS225">
+        <v>1.83</v>
+      </c>
+      <c r="AT225">
+        <v>0.91</v>
+      </c>
+      <c r="AU225">
+        <v>1.71</v>
+      </c>
+      <c r="AV225">
+        <v>1.85</v>
+      </c>
+      <c r="AW225">
+        <v>3.56</v>
+      </c>
+      <c r="AX225">
+        <v>2.17</v>
+      </c>
+      <c r="AY225">
+        <v>7.8</v>
+      </c>
+      <c r="AZ225">
+        <v>2.01</v>
+      </c>
+      <c r="BA225">
+        <v>1.29</v>
+      </c>
+      <c r="BB225">
+        <v>1.56</v>
+      </c>
+      <c r="BC225">
+        <v>1.97</v>
+      </c>
+      <c r="BD225">
+        <v>2.56</v>
+      </c>
+      <c r="BE225">
+        <v>3.42</v>
+      </c>
+      <c r="BF225">
+        <v>7</v>
+      </c>
+      <c r="BG225">
+        <v>6</v>
+      </c>
+      <c r="BH225">
+        <v>6</v>
+      </c>
+      <c r="BI225">
+        <v>7</v>
+      </c>
+      <c r="BJ225">
+        <v>13</v>
+      </c>
+      <c r="BK225">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>2468148</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44969.45833333334</v>
+      </c>
+      <c r="F226">
+        <v>23</v>
+      </c>
+      <c r="G226" t="s">
+        <v>79</v>
+      </c>
+      <c r="H226" t="s">
+        <v>78</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>2</v>
+      </c>
+      <c r="L226">
+        <v>4</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>4</v>
+      </c>
+      <c r="O226" t="s">
+        <v>230</v>
+      </c>
+      <c r="P226" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q226">
+        <v>5</v>
+      </c>
+      <c r="R226">
+        <v>2</v>
+      </c>
+      <c r="S226">
+        <v>7</v>
+      </c>
+      <c r="T226">
+        <v>2.1</v>
+      </c>
+      <c r="U226">
+        <v>2.38</v>
+      </c>
+      <c r="V226">
+        <v>5.5</v>
+      </c>
+      <c r="W226">
+        <v>1.33</v>
+      </c>
+      <c r="X226">
+        <v>3.25</v>
+      </c>
+      <c r="Y226">
+        <v>2.5</v>
+      </c>
+      <c r="Z226">
+        <v>1.5</v>
+      </c>
+      <c r="AA226">
+        <v>6.5</v>
+      </c>
+      <c r="AB226">
+        <v>1.11</v>
+      </c>
+      <c r="AC226">
+        <v>1.54</v>
+      </c>
+      <c r="AD226">
+        <v>4.3</v>
+      </c>
+      <c r="AE226">
+        <v>5.78</v>
+      </c>
+      <c r="AF226">
+        <v>1.04</v>
+      </c>
+      <c r="AG226">
+        <v>11.5</v>
+      </c>
+      <c r="AH226">
+        <v>1.26</v>
+      </c>
+      <c r="AI226">
+        <v>3.78</v>
+      </c>
+      <c r="AJ226">
+        <v>1.75</v>
+      </c>
+      <c r="AK226">
+        <v>2.01</v>
+      </c>
+      <c r="AL226">
+        <v>1.8</v>
+      </c>
+      <c r="AM226">
+        <v>1.95</v>
+      </c>
+      <c r="AN226">
+        <v>1.13</v>
+      </c>
+      <c r="AO226">
+        <v>1.21</v>
+      </c>
+      <c r="AP226">
+        <v>2.45</v>
+      </c>
+      <c r="AQ226">
+        <v>1.6</v>
+      </c>
+      <c r="AR226">
+        <v>0.82</v>
+      </c>
+      <c r="AS226">
+        <v>1.73</v>
+      </c>
+      <c r="AT226">
+        <v>0.75</v>
+      </c>
+      <c r="AU226">
+        <v>1.96</v>
+      </c>
+      <c r="AV226">
+        <v>1.44</v>
+      </c>
+      <c r="AW226">
+        <v>3.4</v>
+      </c>
+      <c r="AX226">
+        <v>1.49</v>
+      </c>
+      <c r="AY226">
+        <v>8.4</v>
+      </c>
+      <c r="AZ226">
+        <v>3.36</v>
+      </c>
+      <c r="BA226">
+        <v>1.29</v>
+      </c>
+      <c r="BB226">
+        <v>1.56</v>
+      </c>
+      <c r="BC226">
+        <v>1.95</v>
+      </c>
+      <c r="BD226">
+        <v>2.53</v>
+      </c>
+      <c r="BE226">
+        <v>3.34</v>
+      </c>
+      <c r="BF226">
+        <v>12</v>
+      </c>
+      <c r="BG226">
+        <v>3</v>
+      </c>
+      <c r="BH226">
+        <v>9</v>
+      </c>
+      <c r="BI226">
+        <v>5</v>
+      </c>
+      <c r="BJ226">
+        <v>21</v>
+      </c>
+      <c r="BK226">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>2468141</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44969.45833333334</v>
+      </c>
+      <c r="F227">
+        <v>23</v>
+      </c>
+      <c r="G227" t="s">
+        <v>70</v>
+      </c>
+      <c r="H227" t="s">
+        <v>80</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>148</v>
+      </c>
+      <c r="P227" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q227">
+        <v>6</v>
+      </c>
+      <c r="R227">
+        <v>4</v>
+      </c>
+      <c r="S227">
+        <v>10</v>
+      </c>
+      <c r="T227">
+        <v>2.88</v>
+      </c>
+      <c r="U227">
+        <v>2.1</v>
+      </c>
+      <c r="V227">
+        <v>3.75</v>
+      </c>
+      <c r="W227">
+        <v>1.44</v>
+      </c>
+      <c r="X227">
+        <v>2.63</v>
+      </c>
+      <c r="Y227">
+        <v>3.25</v>
+      </c>
+      <c r="Z227">
+        <v>1.33</v>
+      </c>
+      <c r="AA227">
+        <v>9</v>
+      </c>
+      <c r="AB227">
+        <v>1.07</v>
+      </c>
+      <c r="AC227">
+        <v>2.27</v>
+      </c>
+      <c r="AD227">
+        <v>3.35</v>
+      </c>
+      <c r="AE227">
+        <v>3.16</v>
+      </c>
+      <c r="AF227">
+        <v>1.06</v>
+      </c>
+      <c r="AG227">
+        <v>11</v>
+      </c>
+      <c r="AH227">
+        <v>1.36</v>
+      </c>
+      <c r="AI227">
+        <v>3.2</v>
+      </c>
+      <c r="AJ227">
+        <v>2.01</v>
+      </c>
+      <c r="AK227">
+        <v>1.75</v>
+      </c>
+      <c r="AL227">
+        <v>1.91</v>
+      </c>
+      <c r="AM227">
+        <v>1.91</v>
+      </c>
+      <c r="AN227">
+        <v>1.35</v>
+      </c>
+      <c r="AO227">
+        <v>1.31</v>
+      </c>
+      <c r="AP227">
+        <v>1.6</v>
+      </c>
+      <c r="AQ227">
+        <v>0.36</v>
+      </c>
+      <c r="AR227">
+        <v>0.36</v>
+      </c>
+      <c r="AS227">
+        <v>0.42</v>
+      </c>
+      <c r="AT227">
+        <v>0.42</v>
+      </c>
+      <c r="AU227">
+        <v>1.36</v>
+      </c>
+      <c r="AV227">
+        <v>1.28</v>
+      </c>
+      <c r="AW227">
+        <v>2.64</v>
+      </c>
+      <c r="AX227">
+        <v>1.78</v>
+      </c>
+      <c r="AY227">
+        <v>8.1</v>
+      </c>
+      <c r="AZ227">
+        <v>2.49</v>
+      </c>
+      <c r="BA227">
+        <v>1.34</v>
+      </c>
+      <c r="BB227">
+        <v>1.65</v>
+      </c>
+      <c r="BC227">
+        <v>2.12</v>
+      </c>
+      <c r="BD227">
+        <v>2.81</v>
+      </c>
+      <c r="BE227">
+        <v>3.86</v>
+      </c>
+      <c r="BF227">
+        <v>7</v>
+      </c>
+      <c r="BG227">
+        <v>5</v>
+      </c>
+      <c r="BH227">
+        <v>5</v>
+      </c>
+      <c r="BI227">
+        <v>12</v>
+      </c>
+      <c r="BJ227">
+        <v>12</v>
+      </c>
+      <c r="BK227">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>2468144</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44969.45833333334</v>
+      </c>
+      <c r="F228">
+        <v>23</v>
+      </c>
+      <c r="G228" t="s">
+        <v>69</v>
+      </c>
+      <c r="H228" t="s">
+        <v>66</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>2</v>
+      </c>
+      <c r="L228">
+        <v>2</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228" t="s">
+        <v>231</v>
+      </c>
+      <c r="P228" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q228">
+        <v>5</v>
+      </c>
+      <c r="R228">
+        <v>4</v>
+      </c>
+      <c r="S228">
+        <v>9</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>2.38</v>
+      </c>
+      <c r="V228">
+        <v>6.5</v>
+      </c>
+      <c r="W228">
+        <v>1.33</v>
+      </c>
+      <c r="X228">
+        <v>3.25</v>
+      </c>
+      <c r="Y228">
+        <v>2.63</v>
+      </c>
+      <c r="Z228">
+        <v>1.44</v>
+      </c>
+      <c r="AA228">
+        <v>7</v>
+      </c>
+      <c r="AB228">
+        <v>1.1</v>
+      </c>
+      <c r="AC228">
+        <v>1.49</v>
+      </c>
+      <c r="AD228">
+        <v>4.4</v>
+      </c>
+      <c r="AE228">
+        <v>6.39</v>
+      </c>
+      <c r="AF228">
+        <v>1.05</v>
+      </c>
+      <c r="AG228">
+        <v>10.5</v>
+      </c>
+      <c r="AH228">
+        <v>1.27</v>
+      </c>
+      <c r="AI228">
+        <v>4.07</v>
+      </c>
+      <c r="AJ228">
+        <v>1.72</v>
+      </c>
+      <c r="AK228">
+        <v>2.05</v>
+      </c>
+      <c r="AL228">
+        <v>1.95</v>
+      </c>
+      <c r="AM228">
+        <v>1.8</v>
+      </c>
+      <c r="AN228">
+        <v>1.12</v>
+      </c>
+      <c r="AO228">
+        <v>1.21</v>
+      </c>
+      <c r="AP228">
+        <v>2.55</v>
+      </c>
+      <c r="AQ228">
+        <v>1.91</v>
+      </c>
+      <c r="AR228">
+        <v>0.9</v>
+      </c>
+      <c r="AS228">
+        <v>2</v>
+      </c>
+      <c r="AT228">
+        <v>0.82</v>
+      </c>
+      <c r="AU228">
+        <v>1.95</v>
+      </c>
+      <c r="AV228">
+        <v>1.33</v>
+      </c>
+      <c r="AW228">
+        <v>3.28</v>
+      </c>
+      <c r="AX228">
+        <v>1.32</v>
+      </c>
+      <c r="AY228">
+        <v>9.5</v>
+      </c>
+      <c r="AZ228">
+        <v>4.45</v>
+      </c>
+      <c r="BA228">
+        <v>1.32</v>
+      </c>
+      <c r="BB228">
+        <v>1.61</v>
+      </c>
+      <c r="BC228">
+        <v>2.04</v>
+      </c>
+      <c r="BD228">
+        <v>2.69</v>
+      </c>
+      <c r="BE228">
+        <v>3.64</v>
+      </c>
+      <c r="BF228">
+        <v>10</v>
+      </c>
+      <c r="BG228">
+        <v>3</v>
+      </c>
+      <c r="BH228">
+        <v>3</v>
+      </c>
+      <c r="BI228">
+        <v>4</v>
+      </c>
+      <c r="BJ228">
+        <v>13</v>
+      </c>
+      <c r="BK228">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>2468145</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44969.45833333334</v>
+      </c>
+      <c r="F229">
+        <v>23</v>
+      </c>
+      <c r="G229" t="s">
+        <v>71</v>
+      </c>
+      <c r="H229" t="s">
+        <v>83</v>
+      </c>
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>2</v>
+      </c>
+      <c r="L229">
+        <v>3</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>3</v>
+      </c>
+      <c r="O229" t="s">
+        <v>232</v>
+      </c>
+      <c r="P229" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q229">
+        <v>4</v>
+      </c>
+      <c r="R229">
+        <v>3</v>
+      </c>
+      <c r="S229">
+        <v>7</v>
+      </c>
+      <c r="T229">
+        <v>3</v>
+      </c>
+      <c r="U229">
+        <v>2.1</v>
+      </c>
+      <c r="V229">
+        <v>3.6</v>
+      </c>
+      <c r="W229">
+        <v>1.4</v>
+      </c>
+      <c r="X229">
+        <v>2.75</v>
+      </c>
+      <c r="Y229">
+        <v>3</v>
+      </c>
+      <c r="Z229">
+        <v>1.36</v>
+      </c>
+      <c r="AA229">
+        <v>8</v>
+      </c>
+      <c r="AB229">
+        <v>1.08</v>
+      </c>
+      <c r="AC229">
+        <v>2.36</v>
+      </c>
+      <c r="AD229">
+        <v>3.35</v>
+      </c>
+      <c r="AE229">
+        <v>3.01</v>
+      </c>
+      <c r="AF229">
+        <v>1.06</v>
+      </c>
+      <c r="AG229">
+        <v>8.75</v>
+      </c>
+      <c r="AH229">
+        <v>1.31</v>
+      </c>
+      <c r="AI229">
+        <v>3.2</v>
+      </c>
+      <c r="AJ229">
+        <v>1.9</v>
+      </c>
+      <c r="AK229">
+        <v>1.84</v>
+      </c>
+      <c r="AL229">
+        <v>1.75</v>
+      </c>
+      <c r="AM229">
+        <v>2</v>
+      </c>
+      <c r="AN229">
+        <v>1.39</v>
+      </c>
+      <c r="AO229">
+        <v>1.32</v>
+      </c>
+      <c r="AP229">
+        <v>1.55</v>
+      </c>
+      <c r="AQ229">
+        <v>0.91</v>
+      </c>
+      <c r="AR229">
+        <v>0.82</v>
+      </c>
+      <c r="AS229">
+        <v>1.08</v>
+      </c>
+      <c r="AT229">
+        <v>0.75</v>
+      </c>
+      <c r="AU229">
+        <v>1.39</v>
+      </c>
+      <c r="AV229">
+        <v>1.41</v>
+      </c>
+      <c r="AW229">
+        <v>2.8</v>
+      </c>
+      <c r="AX229">
+        <v>1.84</v>
+      </c>
+      <c r="AY229">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ229">
+        <v>2.36</v>
+      </c>
+      <c r="BA229">
+        <v>1.23</v>
+      </c>
+      <c r="BB229">
+        <v>1.46</v>
+      </c>
+      <c r="BC229">
+        <v>1.81</v>
+      </c>
+      <c r="BD229">
+        <v>2.3</v>
+      </c>
+      <c r="BE229">
+        <v>3.04</v>
+      </c>
+      <c r="BF229">
+        <v>10</v>
+      </c>
+      <c r="BG229">
+        <v>2</v>
+      </c>
+      <c r="BH229">
+        <v>8</v>
+      </c>
+      <c r="BI229">
+        <v>8</v>
+      </c>
+      <c r="BJ229">
+        <v>18</v>
+      </c>
+      <c r="BK229">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>2468143</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44969.54513888889</v>
+      </c>
+      <c r="F230">
+        <v>23</v>
+      </c>
+      <c r="G230" t="s">
+        <v>75</v>
+      </c>
+      <c r="H230" t="s">
+        <v>84</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>1</v>
+      </c>
+      <c r="O230" t="s">
+        <v>233</v>
+      </c>
+      <c r="P230" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q230">
+        <v>7</v>
+      </c>
+      <c r="R230">
+        <v>3</v>
+      </c>
+      <c r="S230">
+        <v>10</v>
+      </c>
+      <c r="T230">
+        <v>2.63</v>
+      </c>
+      <c r="U230">
+        <v>2.1</v>
+      </c>
+      <c r="V230">
+        <v>4.33</v>
+      </c>
+      <c r="W230">
+        <v>1.44</v>
+      </c>
+      <c r="X230">
+        <v>2.63</v>
+      </c>
+      <c r="Y230">
+        <v>3</v>
+      </c>
+      <c r="Z230">
+        <v>1.36</v>
+      </c>
+      <c r="AA230">
+        <v>9</v>
+      </c>
+      <c r="AB230">
+        <v>1.07</v>
+      </c>
+      <c r="AC230">
+        <v>1.99</v>
+      </c>
+      <c r="AD230">
+        <v>3.52</v>
+      </c>
+      <c r="AE230">
+        <v>3.74</v>
+      </c>
+      <c r="AF230">
+        <v>1.06</v>
+      </c>
+      <c r="AG230">
+        <v>8.5</v>
+      </c>
+      <c r="AH230">
+        <v>1.35</v>
+      </c>
+      <c r="AI230">
+        <v>3.41</v>
+      </c>
+      <c r="AJ230">
+        <v>2.01</v>
+      </c>
+      <c r="AK230">
+        <v>1.81</v>
+      </c>
+      <c r="AL230">
+        <v>1.91</v>
+      </c>
+      <c r="AM230">
+        <v>1.91</v>
+      </c>
+      <c r="AN230">
+        <v>1.26</v>
+      </c>
+      <c r="AO230">
+        <v>1.3</v>
+      </c>
+      <c r="AP230">
+        <v>1.78</v>
+      </c>
+      <c r="AQ230">
+        <v>1.4</v>
+      </c>
+      <c r="AR230">
+        <v>1.64</v>
+      </c>
+      <c r="AS230">
+        <v>1.55</v>
+      </c>
+      <c r="AT230">
+        <v>1.5</v>
+      </c>
+      <c r="AU230">
+        <v>1.53</v>
+      </c>
+      <c r="AV230">
+        <v>1.41</v>
+      </c>
+      <c r="AW230">
+        <v>2.94</v>
+      </c>
+      <c r="AX230">
+        <v>1.61</v>
+      </c>
+      <c r="AY230">
+        <v>8</v>
+      </c>
+      <c r="AZ230">
+        <v>2.75</v>
+      </c>
+      <c r="BA230">
+        <v>1.29</v>
+      </c>
+      <c r="BB230">
+        <v>1.49</v>
+      </c>
+      <c r="BC230">
+        <v>1.79</v>
+      </c>
+      <c r="BD230">
+        <v>2.23</v>
+      </c>
+      <c r="BE230">
+        <v>2.9</v>
+      </c>
+      <c r="BF230">
+        <v>7</v>
+      </c>
+      <c r="BG230">
+        <v>5</v>
+      </c>
+      <c r="BH230">
+        <v>6</v>
+      </c>
+      <c r="BI230">
+        <v>5</v>
+      </c>
+      <c r="BJ230">
+        <v>13</v>
+      </c>
+      <c r="BK230">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="345">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,9 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['23', '64']</t>
+  </si>
+  <si>
     <t>['43', '53']</t>
   </si>
   <si>
@@ -1407,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK230"/>
+  <dimension ref="A1:BK231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1738,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT2">
         <v>0.92</v>
@@ -1842,7 +1845,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2033,7 +2036,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2224,7 +2227,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2415,7 +2418,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2797,7 +2800,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2988,7 +2991,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3943,7 +3946,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -4134,7 +4137,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4325,7 +4328,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4516,7 +4519,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4797,7 +4800,7 @@
         <v>0.64</v>
       </c>
       <c r="AT18">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4898,7 +4901,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -5089,7 +5092,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5367,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT21">
         <v>0.75</v>
@@ -5471,7 +5474,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5561,7 +5564,7 @@
         <v>1.92</v>
       </c>
       <c r="AT22">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU22">
         <v>1.35</v>
@@ -5662,7 +5665,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5853,7 +5856,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6044,7 +6047,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6426,7 +6429,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6617,7 +6620,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6808,7 +6811,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6999,7 +7002,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7190,7 +7193,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -8336,7 +8339,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8527,7 +8530,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -9187,7 +9190,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT41">
         <v>0.42</v>
@@ -9291,7 +9294,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9482,7 +9485,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9673,7 +9676,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10055,7 +10058,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10246,7 +10249,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10437,7 +10440,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10628,7 +10631,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -11010,7 +11013,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11288,7 +11291,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT52">
         <v>0.45</v>
@@ -11392,7 +11395,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -11583,7 +11586,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12246,7 +12249,7 @@
         <v>1.73</v>
       </c>
       <c r="AT57">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU57">
         <v>1.31</v>
@@ -12538,7 +12541,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12729,7 +12732,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -13493,7 +13496,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14066,7 +14069,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14448,7 +14451,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14830,7 +14833,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -15021,7 +15024,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15212,7 +15215,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15403,7 +15406,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15594,7 +15597,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15976,7 +15979,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16358,7 +16361,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16639,7 +16642,7 @@
         <v>1.55</v>
       </c>
       <c r="AT80">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU80">
         <v>1.43</v>
@@ -16740,7 +16743,7 @@
         <v>87</v>
       </c>
       <c r="P81" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16827,7 +16830,7 @@
         <v>3</v>
       </c>
       <c r="AS81">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT81">
         <v>2.08</v>
@@ -16931,7 +16934,7 @@
         <v>87</v>
       </c>
       <c r="P82" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17122,7 +17125,7 @@
         <v>94</v>
       </c>
       <c r="P83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -17504,7 +17507,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -17695,7 +17698,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17886,7 +17889,7 @@
         <v>106</v>
       </c>
       <c r="P87" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18077,7 +18080,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -18268,7 +18271,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q89">
         <v>10</v>
@@ -18459,7 +18462,7 @@
         <v>146</v>
       </c>
       <c r="P90" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -18928,7 +18931,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT92">
         <v>0.91</v>
@@ -19032,7 +19035,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q93">
         <v>11</v>
@@ -19414,7 +19417,7 @@
         <v>87</v>
       </c>
       <c r="P95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19605,7 +19608,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19796,7 +19799,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19987,7 +19990,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20178,7 +20181,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20650,7 +20653,7 @@
         <v>2</v>
       </c>
       <c r="AT101">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU101">
         <v>1.87</v>
@@ -20751,7 +20754,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21324,7 +21327,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21706,7 +21709,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21897,7 +21900,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -22661,7 +22664,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22852,7 +22855,7 @@
         <v>106</v>
       </c>
       <c r="P113" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -23043,7 +23046,7 @@
         <v>87</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23133,7 +23136,7 @@
         <v>1.92</v>
       </c>
       <c r="AT114">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU114">
         <v>1.96</v>
@@ -23234,7 +23237,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23425,7 +23428,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23616,7 +23619,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23807,7 +23810,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23998,7 +24001,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24380,7 +24383,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24762,7 +24765,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24953,7 +24956,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26099,7 +26102,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26377,7 +26380,7 @@
         <v>1.67</v>
       </c>
       <c r="AS131">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT131">
         <v>1.55</v>
@@ -26672,7 +26675,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26863,7 +26866,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26953,7 +26956,7 @@
         <v>0.42</v>
       </c>
       <c r="AT134">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU134">
         <v>1.47</v>
@@ -27054,7 +27057,7 @@
         <v>163</v>
       </c>
       <c r="P135" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27818,7 +27821,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28009,7 +28012,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28391,7 +28394,7 @@
         <v>165</v>
       </c>
       <c r="P142" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28478,7 +28481,7 @@
         <v>1.57</v>
       </c>
       <c r="AS142">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT142">
         <v>1.58</v>
@@ -28773,7 +28776,7 @@
         <v>185</v>
       </c>
       <c r="P144" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -29537,7 +29540,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29919,7 +29922,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30110,7 +30113,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30683,7 +30686,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30874,7 +30877,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -31065,7 +31068,7 @@
         <v>117</v>
       </c>
       <c r="P156" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31447,7 +31450,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31638,7 +31641,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31919,7 +31922,7 @@
         <v>1.64</v>
       </c>
       <c r="AT160">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU160">
         <v>1.7</v>
@@ -32784,7 +32787,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33062,7 +33065,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT166">
         <v>1.45</v>
@@ -33357,7 +33360,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33548,7 +33551,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33739,7 +33742,7 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33930,7 +33933,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34312,7 +34315,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -35076,7 +35079,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35649,7 +35652,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -35739,7 +35742,7 @@
         <v>0.75</v>
       </c>
       <c r="AT180">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU180">
         <v>1.54</v>
@@ -35840,7 +35843,7 @@
         <v>87</v>
       </c>
       <c r="P181" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -36413,7 +36416,7 @@
         <v>162</v>
       </c>
       <c r="P184" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q184">
         <v>14</v>
@@ -36500,7 +36503,7 @@
         <v>0.75</v>
       </c>
       <c r="AS184">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT184">
         <v>0.82</v>
@@ -37177,7 +37180,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -37368,7 +37371,7 @@
         <v>87</v>
       </c>
       <c r="P189" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37559,7 +37562,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -38132,7 +38135,7 @@
         <v>136</v>
       </c>
       <c r="P193" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -38222,7 +38225,7 @@
         <v>0.91</v>
       </c>
       <c r="AT193">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU193">
         <v>1.64</v>
@@ -38705,7 +38708,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38896,7 +38899,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39469,7 +39472,7 @@
         <v>87</v>
       </c>
       <c r="P200" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39660,7 +39663,7 @@
         <v>217</v>
       </c>
       <c r="P201" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39851,7 +39854,7 @@
         <v>218</v>
       </c>
       <c r="P202" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40042,7 +40045,7 @@
         <v>219</v>
       </c>
       <c r="P203" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40233,7 +40236,7 @@
         <v>220</v>
       </c>
       <c r="P204" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q204">
         <v>8</v>
@@ -40424,7 +40427,7 @@
         <v>87</v>
       </c>
       <c r="P205" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q205">
         <v>5</v>
@@ -40806,7 +40809,7 @@
         <v>87</v>
       </c>
       <c r="P207" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41188,7 +41191,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41379,7 +41382,7 @@
         <v>165</v>
       </c>
       <c r="P210" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q210">
         <v>1</v>
@@ -41657,7 +41660,7 @@
         <v>0.8</v>
       </c>
       <c r="AS211">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT211">
         <v>0.75</v>
@@ -41952,7 +41955,7 @@
         <v>181</v>
       </c>
       <c r="P213" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -42143,7 +42146,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q214">
         <v>2</v>
@@ -42334,7 +42337,7 @@
         <v>87</v>
       </c>
       <c r="P215" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42716,7 +42719,7 @@
         <v>87</v>
       </c>
       <c r="P217" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q217">
         <v>2</v>
@@ -43289,7 +43292,7 @@
         <v>109</v>
       </c>
       <c r="P220" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q220">
         <v>11</v>
@@ -43379,7 +43382,7 @@
         <v>1</v>
       </c>
       <c r="AT220">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU220">
         <v>1.53</v>
@@ -43480,7 +43483,7 @@
         <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q221">
         <v>9</v>
@@ -44053,7 +44056,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -44244,7 +44247,7 @@
         <v>229</v>
       </c>
       <c r="P225" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q225">
         <v>2</v>
@@ -44626,7 +44629,7 @@
         <v>148</v>
       </c>
       <c r="P227" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q227">
         <v>6</v>
@@ -45341,6 +45344,197 @@
       </c>
       <c r="BK230">
         <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>2468147</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44969.69791666666</v>
+      </c>
+      <c r="F231">
+        <v>23</v>
+      </c>
+      <c r="G231" t="s">
+        <v>65</v>
+      </c>
+      <c r="H231" t="s">
+        <v>72</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="L231">
+        <v>2</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231" t="s">
+        <v>234</v>
+      </c>
+      <c r="P231" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q231">
+        <v>2</v>
+      </c>
+      <c r="R231">
+        <v>5</v>
+      </c>
+      <c r="S231">
+        <v>7</v>
+      </c>
+      <c r="T231">
+        <v>3</v>
+      </c>
+      <c r="U231">
+        <v>2.2</v>
+      </c>
+      <c r="V231">
+        <v>3.5</v>
+      </c>
+      <c r="W231">
+        <v>1.36</v>
+      </c>
+      <c r="X231">
+        <v>3</v>
+      </c>
+      <c r="Y231">
+        <v>2.75</v>
+      </c>
+      <c r="Z231">
+        <v>1.4</v>
+      </c>
+      <c r="AA231">
+        <v>7</v>
+      </c>
+      <c r="AB231">
+        <v>1.1</v>
+      </c>
+      <c r="AC231">
+        <v>2.43</v>
+      </c>
+      <c r="AD231">
+        <v>3.48</v>
+      </c>
+      <c r="AE231">
+        <v>2.81</v>
+      </c>
+      <c r="AF231">
+        <v>1.01</v>
+      </c>
+      <c r="AG231">
+        <v>9.5</v>
+      </c>
+      <c r="AH231">
+        <v>1.26</v>
+      </c>
+      <c r="AI231">
+        <v>3.54</v>
+      </c>
+      <c r="AJ231">
+        <v>1.88</v>
+      </c>
+      <c r="AK231">
+        <v>1.92</v>
+      </c>
+      <c r="AL231">
+        <v>1.7</v>
+      </c>
+      <c r="AM231">
+        <v>2.05</v>
+      </c>
+      <c r="AN231">
+        <v>1.42</v>
+      </c>
+      <c r="AO231">
+        <v>1.26</v>
+      </c>
+      <c r="AP231">
+        <v>1.63</v>
+      </c>
+      <c r="AQ231">
+        <v>1.64</v>
+      </c>
+      <c r="AR231">
+        <v>1.45</v>
+      </c>
+      <c r="AS231">
+        <v>1.75</v>
+      </c>
+      <c r="AT231">
+        <v>1.33</v>
+      </c>
+      <c r="AU231">
+        <v>2.05</v>
+      </c>
+      <c r="AV231">
+        <v>1.71</v>
+      </c>
+      <c r="AW231">
+        <v>3.76</v>
+      </c>
+      <c r="AX231">
+        <v>1.84</v>
+      </c>
+      <c r="AY231">
+        <v>7.5</v>
+      </c>
+      <c r="AZ231">
+        <v>2.28</v>
+      </c>
+      <c r="BA231">
+        <v>1.36</v>
+      </c>
+      <c r="BB231">
+        <v>1.61</v>
+      </c>
+      <c r="BC231">
+        <v>1.98</v>
+      </c>
+      <c r="BD231">
+        <v>2.5</v>
+      </c>
+      <c r="BE231">
+        <v>3.4</v>
+      </c>
+      <c r="BF231">
+        <v>7</v>
+      </c>
+      <c r="BG231">
+        <v>5</v>
+      </c>
+      <c r="BH231">
+        <v>6</v>
+      </c>
+      <c r="BI231">
+        <v>10</v>
+      </c>
+      <c r="BJ231">
+        <v>13</v>
+      </c>
+      <c r="BK231">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -721,6 +721,9 @@
     <t>['23', '64']</t>
   </si>
   <si>
+    <t>['51', '53']</t>
+  </si>
+  <si>
     <t>['43', '53']</t>
   </si>
   <si>
@@ -1410,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK231"/>
+  <dimension ref="A1:BK232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1845,7 +1848,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2036,7 +2039,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2227,7 +2230,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2418,7 +2421,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2800,7 +2803,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2991,7 +2994,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3946,7 +3949,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -4137,7 +4140,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4328,7 +4331,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4519,7 +4522,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4606,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT17">
         <v>0.45</v>
@@ -4901,7 +4904,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -5092,7 +5095,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5474,7 +5477,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5665,7 +5668,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5856,7 +5859,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6047,7 +6050,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6429,7 +6432,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6620,7 +6623,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6811,7 +6814,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7002,7 +7005,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7193,7 +7196,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7471,7 +7474,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT32">
         <v>0.82</v>
@@ -8339,7 +8342,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8530,7 +8533,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8811,7 +8814,7 @@
         <v>1.73</v>
       </c>
       <c r="AT39">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU39">
         <v>1.44</v>
@@ -9294,7 +9297,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9485,7 +9488,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9676,7 +9679,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10058,7 +10061,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10249,7 +10252,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10440,7 +10443,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10631,7 +10634,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -11013,7 +11016,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11100,7 +11103,7 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT51">
         <v>2.36</v>
@@ -11395,7 +11398,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -11586,7 +11589,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12541,7 +12544,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12732,7 +12735,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -13013,7 +13016,7 @@
         <v>1.64</v>
       </c>
       <c r="AT61">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU61">
         <v>2.44</v>
@@ -13496,7 +13499,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14069,7 +14072,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14451,7 +14454,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14833,7 +14836,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -14923,7 +14926,7 @@
         <v>1.92</v>
       </c>
       <c r="AT71">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU71">
         <v>1.43</v>
@@ -15024,7 +15027,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15111,7 +15114,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT72">
         <v>1.5</v>
@@ -15215,7 +15218,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15406,7 +15409,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15597,7 +15600,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15979,7 +15982,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16361,7 +16364,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16743,7 +16746,7 @@
         <v>87</v>
       </c>
       <c r="P81" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16934,7 +16937,7 @@
         <v>87</v>
       </c>
       <c r="P82" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17125,7 +17128,7 @@
         <v>94</v>
       </c>
       <c r="P83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -17507,7 +17510,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -17698,7 +17701,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17889,7 +17892,7 @@
         <v>106</v>
       </c>
       <c r="P87" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18080,7 +18083,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -18167,7 +18170,7 @@
         <v>0.75</v>
       </c>
       <c r="AS88">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT88">
         <v>0.75</v>
@@ -18271,7 +18274,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q89">
         <v>10</v>
@@ -18462,7 +18465,7 @@
         <v>146</v>
       </c>
       <c r="P90" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -18743,7 +18746,7 @@
         <v>2.73</v>
       </c>
       <c r="AT91">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU91">
         <v>1.81</v>
@@ -19035,7 +19038,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q93">
         <v>11</v>
@@ -19417,7 +19420,7 @@
         <v>87</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19608,7 +19611,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19799,7 +19802,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19990,7 +19993,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20181,7 +20184,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20754,7 +20757,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21327,7 +21330,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21605,7 +21608,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT106">
         <v>1.58</v>
@@ -21709,7 +21712,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21799,7 +21802,7 @@
         <v>2.5</v>
       </c>
       <c r="AT107">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU107">
         <v>1.98</v>
@@ -21900,7 +21903,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -22664,7 +22667,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22855,7 +22858,7 @@
         <v>106</v>
       </c>
       <c r="P113" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22945,7 +22948,7 @@
         <v>1.08</v>
       </c>
       <c r="AT113">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU113">
         <v>1.39</v>
@@ -23046,7 +23049,7 @@
         <v>87</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23237,7 +23240,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23428,7 +23431,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23619,7 +23622,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23810,7 +23813,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -24001,7 +24004,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24383,7 +24386,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24765,7 +24768,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24956,7 +24959,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25234,7 +25237,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT125">
         <v>0.92</v>
@@ -26102,7 +26105,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26675,7 +26678,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26866,7 +26869,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27057,7 +27060,7 @@
         <v>163</v>
       </c>
       <c r="P135" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27821,7 +27824,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28012,7 +28015,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28293,7 +28296,7 @@
         <v>1.92</v>
       </c>
       <c r="AT141">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU141">
         <v>1.93</v>
@@ -28394,7 +28397,7 @@
         <v>165</v>
       </c>
       <c r="P142" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28776,7 +28779,7 @@
         <v>185</v>
       </c>
       <c r="P144" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -29540,7 +29543,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29922,7 +29925,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30113,7 +30116,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30686,7 +30689,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30773,7 +30776,7 @@
         <v>2.29</v>
       </c>
       <c r="AS154">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT154">
         <v>2.18</v>
@@ -30877,7 +30880,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -31068,7 +31071,7 @@
         <v>117</v>
       </c>
       <c r="P156" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31158,7 +31161,7 @@
         <v>1</v>
       </c>
       <c r="AT156">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU156">
         <v>1.65</v>
@@ -31450,7 +31453,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31641,7 +31644,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -32787,7 +32790,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33360,7 +33363,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33551,7 +33554,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33742,7 +33745,7 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33933,7 +33936,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34315,7 +34318,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -34402,7 +34405,7 @@
         <v>0.5</v>
       </c>
       <c r="AS173">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT173">
         <v>0.91</v>
@@ -34787,7 +34790,7 @@
         <v>1.55</v>
       </c>
       <c r="AT175">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU175">
         <v>1.57</v>
@@ -35079,7 +35082,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35652,7 +35655,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -35843,7 +35846,7 @@
         <v>87</v>
       </c>
       <c r="P181" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -36416,7 +36419,7 @@
         <v>162</v>
       </c>
       <c r="P184" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q184">
         <v>14</v>
@@ -37180,7 +37183,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -37371,7 +37374,7 @@
         <v>87</v>
       </c>
       <c r="P189" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37562,7 +37565,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -38135,7 +38138,7 @@
         <v>136</v>
       </c>
       <c r="P193" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -38708,7 +38711,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38795,7 +38798,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT196">
         <v>0.91</v>
@@ -38899,7 +38902,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39472,7 +39475,7 @@
         <v>87</v>
       </c>
       <c r="P200" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39562,7 +39565,7 @@
         <v>0.64</v>
       </c>
       <c r="AT200">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU200">
         <v>1.36</v>
@@ -39663,7 +39666,7 @@
         <v>217</v>
       </c>
       <c r="P201" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39854,7 +39857,7 @@
         <v>218</v>
       </c>
       <c r="P202" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40045,7 +40048,7 @@
         <v>219</v>
       </c>
       <c r="P203" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40236,7 +40239,7 @@
         <v>220</v>
       </c>
       <c r="P204" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q204">
         <v>8</v>
@@ -40427,7 +40430,7 @@
         <v>87</v>
       </c>
       <c r="P205" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q205">
         <v>5</v>
@@ -40809,7 +40812,7 @@
         <v>87</v>
       </c>
       <c r="P207" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41191,7 +41194,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41382,7 +41385,7 @@
         <v>165</v>
       </c>
       <c r="P210" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q210">
         <v>1</v>
@@ -41955,7 +41958,7 @@
         <v>181</v>
       </c>
       <c r="P213" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -42045,7 +42048,7 @@
         <v>0.91</v>
       </c>
       <c r="AT213">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU213">
         <v>1.55</v>
@@ -42146,7 +42149,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q214">
         <v>2</v>
@@ -42337,7 +42340,7 @@
         <v>87</v>
       </c>
       <c r="P215" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42719,7 +42722,7 @@
         <v>87</v>
       </c>
       <c r="P217" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q217">
         <v>2</v>
@@ -43188,7 +43191,7 @@
         <v>1.18</v>
       </c>
       <c r="AS219">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT219">
         <v>1.17</v>
@@ -43292,7 +43295,7 @@
         <v>109</v>
       </c>
       <c r="P220" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q220">
         <v>11</v>
@@ -43483,7 +43486,7 @@
         <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q221">
         <v>9</v>
@@ -44056,7 +44059,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -44247,7 +44250,7 @@
         <v>229</v>
       </c>
       <c r="P225" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q225">
         <v>2</v>
@@ -44629,7 +44632,7 @@
         <v>148</v>
       </c>
       <c r="P227" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q227">
         <v>6</v>
@@ -45535,6 +45538,197 @@
       </c>
       <c r="BK231">
         <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>2468150</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44974.70833333334</v>
+      </c>
+      <c r="F232">
+        <v>24</v>
+      </c>
+      <c r="G232" t="s">
+        <v>80</v>
+      </c>
+      <c r="H232" t="s">
+        <v>65</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>2</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232">
+        <v>3</v>
+      </c>
+      <c r="O232" t="s">
+        <v>235</v>
+      </c>
+      <c r="P232" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q232">
+        <v>6</v>
+      </c>
+      <c r="R232">
+        <v>4</v>
+      </c>
+      <c r="S232">
+        <v>10</v>
+      </c>
+      <c r="T232">
+        <v>4.75</v>
+      </c>
+      <c r="U232">
+        <v>2.25</v>
+      </c>
+      <c r="V232">
+        <v>2.3</v>
+      </c>
+      <c r="W232">
+        <v>1.36</v>
+      </c>
+      <c r="X232">
+        <v>3</v>
+      </c>
+      <c r="Y232">
+        <v>2.63</v>
+      </c>
+      <c r="Z232">
+        <v>1.44</v>
+      </c>
+      <c r="AA232">
+        <v>7</v>
+      </c>
+      <c r="AB232">
+        <v>1.1</v>
+      </c>
+      <c r="AC232">
+        <v>4.64</v>
+      </c>
+      <c r="AD232">
+        <v>3.96</v>
+      </c>
+      <c r="AE232">
+        <v>1.82</v>
+      </c>
+      <c r="AF232">
+        <v>1.03</v>
+      </c>
+      <c r="AG232">
+        <v>11</v>
+      </c>
+      <c r="AH232">
+        <v>1.25</v>
+      </c>
+      <c r="AI232">
+        <v>3.8</v>
+      </c>
+      <c r="AJ232">
+        <v>1.8</v>
+      </c>
+      <c r="AK232">
+        <v>1.95</v>
+      </c>
+      <c r="AL232">
+        <v>1.8</v>
+      </c>
+      <c r="AM232">
+        <v>1.95</v>
+      </c>
+      <c r="AN232">
+        <v>2.1</v>
+      </c>
+      <c r="AO232">
+        <v>1.28</v>
+      </c>
+      <c r="AP232">
+        <v>1.15</v>
+      </c>
+      <c r="AQ232">
+        <v>0.91</v>
+      </c>
+      <c r="AR232">
+        <v>1.27</v>
+      </c>
+      <c r="AS232">
+        <v>1.08</v>
+      </c>
+      <c r="AT232">
+        <v>1.17</v>
+      </c>
+      <c r="AU232">
+        <v>1.63</v>
+      </c>
+      <c r="AV232">
+        <v>1.7</v>
+      </c>
+      <c r="AW232">
+        <v>3.33</v>
+      </c>
+      <c r="AX232">
+        <v>2.73</v>
+      </c>
+      <c r="AY232">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ232">
+        <v>1.67</v>
+      </c>
+      <c r="BA232">
+        <v>1.3</v>
+      </c>
+      <c r="BB232">
+        <v>1.58</v>
+      </c>
+      <c r="BC232">
+        <v>1.99</v>
+      </c>
+      <c r="BD232">
+        <v>2.61</v>
+      </c>
+      <c r="BE232">
+        <v>3.48</v>
+      </c>
+      <c r="BF232">
+        <v>4</v>
+      </c>
+      <c r="BG232">
+        <v>5</v>
+      </c>
+      <c r="BH232">
+        <v>1</v>
+      </c>
+      <c r="BI232">
+        <v>2</v>
+      </c>
+      <c r="BJ232">
+        <v>5</v>
+      </c>
+      <c r="BK232">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="356">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,24 @@
     <t>['51', '53']</t>
   </si>
   <si>
+    <t>['14', '42']</t>
+  </si>
+  <si>
+    <t>['11', '17', '87', '90+5']</t>
+  </si>
+  <si>
+    <t>['6', '43', '58']</t>
+  </si>
+  <si>
+    <t>['37', '64']</t>
+  </si>
+  <si>
+    <t>['34', '36', '74']</t>
+  </si>
+  <si>
+    <t>['3', '87']</t>
+  </si>
+  <si>
     <t>['43', '53']</t>
   </si>
   <si>
@@ -1052,6 +1070,18 @@
   </si>
   <si>
     <t>['22']</t>
+  </si>
+  <si>
+    <t>['24', '58', '69']</t>
+  </si>
+  <si>
+    <t>['39', '73']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['52', '59', '78']</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK232"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1747,7 +1777,7 @@
         <v>1.75</v>
       </c>
       <c r="AT2">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1848,7 +1878,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1935,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT3">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2039,7 +2069,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2230,7 +2260,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2317,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT5">
         <v>1.58</v>
@@ -2421,7 +2451,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2702,7 +2732,7 @@
         <v>0.42</v>
       </c>
       <c r="AT7">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2803,7 +2833,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2994,7 +3024,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3081,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT9">
         <v>0.75</v>
@@ -3272,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT10">
         <v>1.5</v>
@@ -3466,7 +3496,7 @@
         <v>1.92</v>
       </c>
       <c r="AT11">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3657,7 +3687,7 @@
         <v>1.55</v>
       </c>
       <c r="AT12">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3949,7 +3979,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -4036,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT14">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4140,7 +4170,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4227,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT15">
         <v>0.91</v>
@@ -4331,7 +4361,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4421,7 +4451,7 @@
         <v>1.73</v>
       </c>
       <c r="AT16">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4522,7 +4552,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4612,7 +4642,7 @@
         <v>1.08</v>
       </c>
       <c r="AT17">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4904,7 +4934,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4991,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT19">
         <v>0.82</v>
@@ -5095,7 +5125,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5182,10 +5212,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT20">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5477,7 +5507,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5668,7 +5698,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5758,7 +5788,7 @@
         <v>1.92</v>
       </c>
       <c r="AT23">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -5859,7 +5889,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5946,10 +5976,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT24">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU24">
         <v>1.77</v>
@@ -6050,7 +6080,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6137,7 +6167,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT25">
         <v>1.5</v>
@@ -6432,7 +6462,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6623,7 +6653,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6814,7 +6844,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6901,10 +6931,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT29">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU29">
         <v>1.89</v>
@@ -7005,7 +7035,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7196,7 +7226,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7286,7 +7316,7 @@
         <v>0.64</v>
       </c>
       <c r="AT31">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU31">
         <v>1.08</v>
@@ -7665,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT33">
         <v>0.91</v>
@@ -8047,10 +8077,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT35">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU35">
         <v>1.19</v>
@@ -8238,10 +8268,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT36">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8342,7 +8372,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8429,10 +8459,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT37">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU37">
         <v>1.4</v>
@@ -8533,7 +8563,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8620,10 +8650,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT38">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -9002,10 +9032,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT40">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU40">
         <v>3.14</v>
@@ -9297,7 +9327,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9488,7 +9518,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9578,7 +9608,7 @@
         <v>0.42</v>
       </c>
       <c r="AT43">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU43">
         <v>1.59</v>
@@ -9679,7 +9709,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9766,10 +9796,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT44">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU44">
         <v>1.58</v>
@@ -9960,7 +9990,7 @@
         <v>1.08</v>
       </c>
       <c r="AT45">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU45">
         <v>1.85</v>
@@ -10061,7 +10091,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10148,7 +10178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT46">
         <v>0.75</v>
@@ -10252,7 +10282,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10339,7 +10369,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT47">
         <v>1.5</v>
@@ -10443,7 +10473,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10530,7 +10560,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT48">
         <v>2.08</v>
@@ -10634,7 +10664,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10915,7 +10945,7 @@
         <v>1.92</v>
       </c>
       <c r="AT50">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>1.98</v>
@@ -11016,7 +11046,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11106,7 +11136,7 @@
         <v>1.08</v>
       </c>
       <c r="AT51">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU51">
         <v>1.36</v>
@@ -11297,7 +11327,7 @@
         <v>1.75</v>
       </c>
       <c r="AT52">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU52">
         <v>1.89</v>
@@ -11398,7 +11428,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -11589,7 +11619,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11679,7 +11709,7 @@
         <v>1.08</v>
       </c>
       <c r="AT54">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU54">
         <v>1.65</v>
@@ -12440,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT58">
         <v>0.82</v>
@@ -12544,7 +12574,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12631,7 +12661,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT59">
         <v>0.91</v>
@@ -12735,7 +12765,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12822,10 +12852,10 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT60">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU60">
         <v>1.49</v>
@@ -13013,7 +13043,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT61">
         <v>1.17</v>
@@ -13204,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT62">
         <v>0.75</v>
@@ -13395,7 +13425,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT63">
         <v>0.75</v>
@@ -13499,7 +13529,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13589,7 +13619,7 @@
         <v>1.92</v>
       </c>
       <c r="AT64">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU64">
         <v>2.14</v>
@@ -13777,10 +13807,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT65">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU65">
         <v>1.41</v>
@@ -13968,10 +13998,10 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT66">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU66">
         <v>1.56</v>
@@ -14072,7 +14102,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14162,7 +14192,7 @@
         <v>0.42</v>
       </c>
       <c r="AT67">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU67">
         <v>1.52</v>
@@ -14454,7 +14484,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14541,10 +14571,10 @@
         <v>0.67</v>
       </c>
       <c r="AS69">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT69">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU69">
         <v>1.92</v>
@@ -14732,7 +14762,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT70">
         <v>0.42</v>
@@ -14836,7 +14866,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -15027,7 +15057,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15218,7 +15248,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15409,7 +15439,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15600,7 +15630,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15690,7 +15720,7 @@
         <v>1.73</v>
       </c>
       <c r="AT75">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU75">
         <v>1.46</v>
@@ -15878,10 +15908,10 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT76">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU76">
         <v>1.49</v>
@@ -15982,7 +16012,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16260,10 +16290,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT78">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU78">
         <v>1.48</v>
@@ -16364,7 +16394,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16746,7 +16776,7 @@
         <v>87</v>
       </c>
       <c r="P81" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16937,7 +16967,7 @@
         <v>87</v>
       </c>
       <c r="P82" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17027,7 +17057,7 @@
         <v>0.42</v>
       </c>
       <c r="AT82">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU82">
         <v>1.5</v>
@@ -17128,7 +17158,7 @@
         <v>94</v>
       </c>
       <c r="P83" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -17215,7 +17245,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT83">
         <v>0.91</v>
@@ -17406,7 +17436,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT84">
         <v>1.58</v>
@@ -17510,7 +17540,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -17597,10 +17627,10 @@
         <v>1.75</v>
       </c>
       <c r="AS85">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT85">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU85">
         <v>1.8</v>
@@ -17701,7 +17731,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17788,10 +17818,10 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT86">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU86">
         <v>1.53</v>
@@ -17892,7 +17922,7 @@
         <v>106</v>
       </c>
       <c r="P87" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17982,7 +18012,7 @@
         <v>0.64</v>
       </c>
       <c r="AT87">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU87">
         <v>1.29</v>
@@ -18083,7 +18113,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -18274,7 +18304,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q89">
         <v>10</v>
@@ -18361,10 +18391,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT89">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU89">
         <v>1.73</v>
@@ -18465,7 +18495,7 @@
         <v>146</v>
       </c>
       <c r="P90" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -18555,7 +18585,7 @@
         <v>1.92</v>
       </c>
       <c r="AT90">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU90">
         <v>1.36</v>
@@ -18743,7 +18773,7 @@
         <v>0.33</v>
       </c>
       <c r="AS91">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT91">
         <v>1.17</v>
@@ -19038,7 +19068,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q93">
         <v>11</v>
@@ -19128,7 +19158,7 @@
         <v>1.92</v>
       </c>
       <c r="AT93">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU93">
         <v>2.04</v>
@@ -19420,7 +19450,7 @@
         <v>87</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19510,7 +19540,7 @@
         <v>1.08</v>
       </c>
       <c r="AT95">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU95">
         <v>1.4</v>
@@ -19611,7 +19641,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19698,7 +19728,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT96">
         <v>1.5</v>
@@ -19802,7 +19832,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19993,7 +20023,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20184,7 +20214,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20271,7 +20301,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT99">
         <v>0.75</v>
@@ -20462,10 +20492,10 @@
         <v>0.4</v>
       </c>
       <c r="AS100">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT100">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU100">
         <v>2.02</v>
@@ -20757,7 +20787,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20844,10 +20874,10 @@
         <v>1.4</v>
       </c>
       <c r="AS102">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT102">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU102">
         <v>1.38</v>
@@ -21035,10 +21065,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT103">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU103">
         <v>1.64</v>
@@ -21226,10 +21256,10 @@
         <v>0.75</v>
       </c>
       <c r="AS104">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT104">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU104">
         <v>1.94</v>
@@ -21330,7 +21360,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21417,10 +21447,10 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT105">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU105">
         <v>1.52</v>
@@ -21712,7 +21742,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21799,7 +21829,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT107">
         <v>1.17</v>
@@ -21903,7 +21933,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21990,10 +22020,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT108">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU108">
         <v>1.88</v>
@@ -22375,7 +22405,7 @@
         <v>1.92</v>
       </c>
       <c r="AT110">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU110">
         <v>1.38</v>
@@ -22563,10 +22593,10 @@
         <v>2.5</v>
       </c>
       <c r="AS111">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT111">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU111">
         <v>2.1</v>
@@ -22667,7 +22697,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22858,7 +22888,7 @@
         <v>106</v>
       </c>
       <c r="P113" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -23049,7 +23079,7 @@
         <v>87</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23240,7 +23270,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23431,7 +23461,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23622,7 +23652,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23813,7 +23843,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23900,7 +23930,7 @@
         <v>2.17</v>
       </c>
       <c r="AS118">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT118">
         <v>1.5</v>
@@ -24004,7 +24034,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24091,7 +24121,7 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT119">
         <v>0.82</v>
@@ -24282,10 +24312,10 @@
         <v>0.33</v>
       </c>
       <c r="AS120">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT120">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU120">
         <v>1.61</v>
@@ -24386,7 +24416,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24476,7 +24506,7 @@
         <v>2</v>
       </c>
       <c r="AT121">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU121">
         <v>1.81</v>
@@ -24664,7 +24694,7 @@
         <v>0.8</v>
       </c>
       <c r="AS122">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT122">
         <v>0.91</v>
@@ -24768,7 +24798,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24855,7 +24885,7 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT123">
         <v>0.75</v>
@@ -24959,7 +24989,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25046,10 +25076,10 @@
         <v>2</v>
       </c>
       <c r="AS124">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT124">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU124">
         <v>1.3</v>
@@ -25240,7 +25270,7 @@
         <v>1.08</v>
       </c>
       <c r="AT125">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU125">
         <v>1.47</v>
@@ -25431,7 +25461,7 @@
         <v>1.92</v>
       </c>
       <c r="AT126">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU126">
         <v>1.32</v>
@@ -25619,10 +25649,10 @@
         <v>0.6</v>
       </c>
       <c r="AS127">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT127">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU127">
         <v>1.91</v>
@@ -25813,7 +25843,7 @@
         <v>1.55</v>
       </c>
       <c r="AT128">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU128">
         <v>1.57</v>
@@ -26001,10 +26031,10 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT129">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU129">
         <v>1.56</v>
@@ -26105,7 +26135,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26192,7 +26222,7 @@
         <v>1.33</v>
       </c>
       <c r="AS130">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT130">
         <v>1.58</v>
@@ -26386,7 +26416,7 @@
         <v>1.75</v>
       </c>
       <c r="AT131">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU131">
         <v>2.07</v>
@@ -26574,7 +26604,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT132">
         <v>0.42</v>
@@ -26678,7 +26708,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26869,7 +26899,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27060,7 +27090,7 @@
         <v>163</v>
       </c>
       <c r="P135" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27147,7 +27177,7 @@
         <v>2.71</v>
       </c>
       <c r="AS135">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT135">
         <v>2.08</v>
@@ -27341,7 +27371,7 @@
         <v>1.17</v>
       </c>
       <c r="AT136">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU136">
         <v>1.38</v>
@@ -27529,7 +27559,7 @@
         <v>1</v>
       </c>
       <c r="AS137">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT137">
         <v>0.75</v>
@@ -27723,7 +27753,7 @@
         <v>1.73</v>
       </c>
       <c r="AT138">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU138">
         <v>1.74</v>
@@ -27824,7 +27854,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27911,10 +27941,10 @@
         <v>2.17</v>
       </c>
       <c r="AS139">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT139">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU139">
         <v>1.67</v>
@@ -28015,7 +28045,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28397,7 +28427,7 @@
         <v>165</v>
       </c>
       <c r="P142" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28675,10 +28705,10 @@
         <v>1.29</v>
       </c>
       <c r="AS143">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT143">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU143">
         <v>1.94</v>
@@ -28779,7 +28809,7 @@
         <v>185</v>
       </c>
       <c r="P144" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -28866,7 +28896,7 @@
         <v>0.67</v>
       </c>
       <c r="AS144">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT144">
         <v>0.91</v>
@@ -29057,7 +29087,7 @@
         <v>0.57</v>
       </c>
       <c r="AS145">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT145">
         <v>0.42</v>
@@ -29248,7 +29278,7 @@
         <v>0.86</v>
       </c>
       <c r="AS146">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT146">
         <v>0.75</v>
@@ -29442,7 +29472,7 @@
         <v>2</v>
       </c>
       <c r="AT147">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU147">
         <v>1.92</v>
@@ -29543,7 +29573,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29633,7 +29663,7 @@
         <v>1.55</v>
       </c>
       <c r="AT148">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU148">
         <v>1.6</v>
@@ -29824,7 +29854,7 @@
         <v>1.08</v>
       </c>
       <c r="AT149">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU149">
         <v>1.37</v>
@@ -29925,7 +29955,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30012,7 +30042,7 @@
         <v>2</v>
       </c>
       <c r="AS150">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT150">
         <v>1.5</v>
@@ -30116,7 +30146,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30206,7 +30236,7 @@
         <v>1.92</v>
       </c>
       <c r="AT151">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU151">
         <v>1.31</v>
@@ -30397,7 +30427,7 @@
         <v>0.64</v>
       </c>
       <c r="AT152">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU152">
         <v>1.36</v>
@@ -30585,10 +30615,10 @@
         <v>0.38</v>
       </c>
       <c r="AS153">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT153">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU153">
         <v>1.86</v>
@@ -30689,7 +30719,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30779,7 +30809,7 @@
         <v>1.08</v>
       </c>
       <c r="AT154">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU154">
         <v>1.53</v>
@@ -30880,7 +30910,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30970,7 +31000,7 @@
         <v>1.17</v>
       </c>
       <c r="AT155">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU155">
         <v>1.41</v>
@@ -31071,7 +31101,7 @@
         <v>117</v>
       </c>
       <c r="P156" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31158,7 +31188,7 @@
         <v>0.57</v>
       </c>
       <c r="AS156">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT156">
         <v>1.17</v>
@@ -31349,7 +31379,7 @@
         <v>0.86</v>
       </c>
       <c r="AS157">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT157">
         <v>0.82</v>
@@ -31453,7 +31483,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31540,10 +31570,10 @@
         <v>0.57</v>
       </c>
       <c r="AS158">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT158">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU158">
         <v>1.59</v>
@@ -31644,7 +31674,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31922,7 +31952,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT160">
         <v>1.33</v>
@@ -32686,10 +32716,10 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT164">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU164">
         <v>1.65</v>
@@ -32790,7 +32820,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33071,7 +33101,7 @@
         <v>1.75</v>
       </c>
       <c r="AT166">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU166">
         <v>1.84</v>
@@ -33259,7 +33289,7 @@
         <v>2.75</v>
       </c>
       <c r="AS167">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT167">
         <v>2.08</v>
@@ -33363,7 +33393,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33450,7 +33480,7 @@
         <v>0.75</v>
       </c>
       <c r="AS168">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT168">
         <v>0.75</v>
@@ -33554,7 +33584,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33644,7 +33674,7 @@
         <v>2</v>
       </c>
       <c r="AT169">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU169">
         <v>1.84</v>
@@ -33745,7 +33775,7 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33835,7 +33865,7 @@
         <v>1.08</v>
       </c>
       <c r="AT170">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU170">
         <v>1.48</v>
@@ -33936,7 +33966,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34023,7 +34053,7 @@
         <v>1.5</v>
       </c>
       <c r="AS171">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT171">
         <v>1.58</v>
@@ -34217,7 +34247,7 @@
         <v>0.64</v>
       </c>
       <c r="AT172">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU172">
         <v>1.35</v>
@@ -34318,7 +34348,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -34978,10 +35008,10 @@
         <v>1.63</v>
       </c>
       <c r="AS176">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT176">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU176">
         <v>1.67</v>
@@ -35082,7 +35112,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35169,10 +35199,10 @@
         <v>2.38</v>
       </c>
       <c r="AS177">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT177">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU177">
         <v>1.59</v>
@@ -35360,10 +35390,10 @@
         <v>0.88</v>
       </c>
       <c r="AS178">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT178">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU178">
         <v>1.66</v>
@@ -35551,10 +35581,10 @@
         <v>0.5</v>
       </c>
       <c r="AS179">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT179">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU179">
         <v>2.13</v>
@@ -35655,7 +35685,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -35742,7 +35772,7 @@
         <v>1.63</v>
       </c>
       <c r="AS180">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT180">
         <v>1.33</v>
@@ -35846,7 +35876,7 @@
         <v>87</v>
       </c>
       <c r="P181" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -35933,10 +35963,10 @@
         <v>2.13</v>
       </c>
       <c r="AS181">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT181">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU181">
         <v>1.76</v>
@@ -36124,7 +36154,7 @@
         <v>0.44</v>
       </c>
       <c r="AS182">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT182">
         <v>0.42</v>
@@ -36419,7 +36449,7 @@
         <v>162</v>
       </c>
       <c r="P184" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q184">
         <v>14</v>
@@ -37079,7 +37109,7 @@
         <v>0.78</v>
       </c>
       <c r="AS187">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT187">
         <v>0.75</v>
@@ -37183,7 +37213,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -37273,7 +37303,7 @@
         <v>0.42</v>
       </c>
       <c r="AT188">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU188">
         <v>1.47</v>
@@ -37374,7 +37404,7 @@
         <v>87</v>
       </c>
       <c r="P189" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37464,7 +37494,7 @@
         <v>1.08</v>
       </c>
       <c r="AT189">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU189">
         <v>1.43</v>
@@ -37565,7 +37595,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37655,7 +37685,7 @@
         <v>1.92</v>
       </c>
       <c r="AT190">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU190">
         <v>1.4</v>
@@ -37843,7 +37873,7 @@
         <v>2.44</v>
       </c>
       <c r="AS191">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT191">
         <v>2.08</v>
@@ -38034,7 +38064,7 @@
         <v>1.11</v>
       </c>
       <c r="AS192">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT192">
         <v>0.91</v>
@@ -38138,7 +38168,7 @@
         <v>136</v>
       </c>
       <c r="P193" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -38225,7 +38255,7 @@
         <v>1.56</v>
       </c>
       <c r="AS193">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT193">
         <v>1.33</v>
@@ -38419,7 +38449,7 @@
         <v>1.92</v>
       </c>
       <c r="AT194">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU194">
         <v>1.89</v>
@@ -38607,10 +38637,10 @@
         <v>1.56</v>
       </c>
       <c r="AS195">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT195">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU195">
         <v>1.72</v>
@@ -38711,7 +38741,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38801,7 +38831,7 @@
         <v>1.08</v>
       </c>
       <c r="AT196">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU196">
         <v>1.6</v>
@@ -38902,7 +38932,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -38989,7 +39019,7 @@
         <v>0.78</v>
       </c>
       <c r="AS197">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT197">
         <v>0.91</v>
@@ -39180,10 +39210,10 @@
         <v>0.44</v>
       </c>
       <c r="AS198">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT198">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU198">
         <v>1.54</v>
@@ -39374,7 +39404,7 @@
         <v>1.17</v>
       </c>
       <c r="AT199">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU199">
         <v>1.35</v>
@@ -39475,7 +39505,7 @@
         <v>87</v>
       </c>
       <c r="P200" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39666,7 +39696,7 @@
         <v>217</v>
       </c>
       <c r="P201" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39753,10 +39783,10 @@
         <v>1.2</v>
       </c>
       <c r="AS201">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT201">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU201">
         <v>2.08</v>
@@ -39857,7 +39887,7 @@
         <v>218</v>
       </c>
       <c r="P202" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -39947,7 +39977,7 @@
         <v>0.42</v>
       </c>
       <c r="AT202">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU202">
         <v>1.42</v>
@@ -40048,7 +40078,7 @@
         <v>219</v>
       </c>
       <c r="P203" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40239,7 +40269,7 @@
         <v>220</v>
       </c>
       <c r="P204" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q204">
         <v>8</v>
@@ -40326,7 +40356,7 @@
         <v>0.9</v>
       </c>
       <c r="AS204">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT204">
         <v>0.75</v>
@@ -40430,7 +40460,7 @@
         <v>87</v>
       </c>
       <c r="P205" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q205">
         <v>5</v>
@@ -40520,7 +40550,7 @@
         <v>1.55</v>
       </c>
       <c r="AT205">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU205">
         <v>1.56</v>
@@ -40711,7 +40741,7 @@
         <v>2</v>
       </c>
       <c r="AT206">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU206">
         <v>1.89</v>
@@ -40812,7 +40842,7 @@
         <v>87</v>
       </c>
       <c r="P207" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -40899,7 +40929,7 @@
         <v>1.3</v>
       </c>
       <c r="AS207">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT207">
         <v>1.58</v>
@@ -41090,7 +41120,7 @@
         <v>1</v>
       </c>
       <c r="AS208">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT208">
         <v>0.82</v>
@@ -41194,7 +41224,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41385,7 +41415,7 @@
         <v>165</v>
       </c>
       <c r="P210" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q210">
         <v>1</v>
@@ -41854,7 +41884,7 @@
         <v>1</v>
       </c>
       <c r="AS212">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT212">
         <v>0.91</v>
@@ -41958,7 +41988,7 @@
         <v>181</v>
       </c>
       <c r="P213" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -42045,7 +42075,7 @@
         <v>1.1</v>
       </c>
       <c r="AS213">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT213">
         <v>1.17</v>
@@ -42149,7 +42179,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q214">
         <v>2</v>
@@ -42236,10 +42266,10 @@
         <v>1.4</v>
       </c>
       <c r="AS214">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT214">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU214">
         <v>1.81</v>
@@ -42340,7 +42370,7 @@
         <v>87</v>
       </c>
       <c r="P215" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42430,7 +42460,7 @@
         <v>1.17</v>
       </c>
       <c r="AT215">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU215">
         <v>1.33</v>
@@ -42618,10 +42648,10 @@
         <v>0.4</v>
       </c>
       <c r="AS216">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT216">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU216">
         <v>1.52</v>
@@ -42722,7 +42752,7 @@
         <v>87</v>
       </c>
       <c r="P217" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q217">
         <v>2</v>
@@ -42812,7 +42842,7 @@
         <v>0.64</v>
       </c>
       <c r="AT217">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU217">
         <v>1.41</v>
@@ -43000,10 +43030,10 @@
         <v>1</v>
       </c>
       <c r="AS218">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT218">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU218">
         <v>1.5</v>
@@ -43194,7 +43224,7 @@
         <v>1.08</v>
       </c>
       <c r="AT219">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU219">
         <v>1.62</v>
@@ -43295,7 +43325,7 @@
         <v>109</v>
       </c>
       <c r="P220" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q220">
         <v>11</v>
@@ -43382,7 +43412,7 @@
         <v>1.5</v>
       </c>
       <c r="AS220">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT220">
         <v>1.33</v>
@@ -43486,7 +43516,7 @@
         <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q221">
         <v>9</v>
@@ -43764,10 +43794,10 @@
         <v>1</v>
       </c>
       <c r="AS222">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT222">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU222">
         <v>1.71</v>
@@ -44059,7 +44089,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -44149,7 +44179,7 @@
         <v>1.17</v>
       </c>
       <c r="AT224">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU224">
         <v>1.31</v>
@@ -44250,7 +44280,7 @@
         <v>229</v>
       </c>
       <c r="P225" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q225">
         <v>2</v>
@@ -44337,7 +44367,7 @@
         <v>1</v>
       </c>
       <c r="AS225">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT225">
         <v>0.91</v>
@@ -44632,7 +44662,7 @@
         <v>148</v>
       </c>
       <c r="P227" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q227">
         <v>6</v>
@@ -45729,6 +45759,1725 @@
       </c>
       <c r="BK232">
         <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>2468152</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>44975.54166666666</v>
+      </c>
+      <c r="F233">
+        <v>24</v>
+      </c>
+      <c r="G233" t="s">
+        <v>82</v>
+      </c>
+      <c r="H233" t="s">
+        <v>79</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233" t="s">
+        <v>87</v>
+      </c>
+      <c r="P233" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q233">
+        <v>9</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>9</v>
+      </c>
+      <c r="T233">
+        <v>2.75</v>
+      </c>
+      <c r="U233">
+        <v>2.1</v>
+      </c>
+      <c r="V233">
+        <v>4.33</v>
+      </c>
+      <c r="W233">
+        <v>1.44</v>
+      </c>
+      <c r="X233">
+        <v>2.63</v>
+      </c>
+      <c r="Y233">
+        <v>3.25</v>
+      </c>
+      <c r="Z233">
+        <v>1.33</v>
+      </c>
+      <c r="AA233">
+        <v>9</v>
+      </c>
+      <c r="AB233">
+        <v>1.07</v>
+      </c>
+      <c r="AC233">
+        <v>2.08</v>
+      </c>
+      <c r="AD233">
+        <v>3.35</v>
+      </c>
+      <c r="AE233">
+        <v>3.65</v>
+      </c>
+      <c r="AF233">
+        <v>1.07</v>
+      </c>
+      <c r="AG233">
+        <v>10</v>
+      </c>
+      <c r="AH233">
+        <v>1.36</v>
+      </c>
+      <c r="AI233">
+        <v>3.2</v>
+      </c>
+      <c r="AJ233">
+        <v>2.12</v>
+      </c>
+      <c r="AK233">
+        <v>1.72</v>
+      </c>
+      <c r="AL233">
+        <v>1.91</v>
+      </c>
+      <c r="AM233">
+        <v>1.91</v>
+      </c>
+      <c r="AN233">
+        <v>1.28</v>
+      </c>
+      <c r="AO233">
+        <v>1.31</v>
+      </c>
+      <c r="AP233">
+        <v>1.72</v>
+      </c>
+      <c r="AQ233">
+        <v>1.64</v>
+      </c>
+      <c r="AR233">
+        <v>1.17</v>
+      </c>
+      <c r="AS233">
+        <v>1.58</v>
+      </c>
+      <c r="AT233">
+        <v>1.15</v>
+      </c>
+      <c r="AU233">
+        <v>1.66</v>
+      </c>
+      <c r="AV233">
+        <v>1.44</v>
+      </c>
+      <c r="AW233">
+        <v>3.1</v>
+      </c>
+      <c r="AX233">
+        <v>1.85</v>
+      </c>
+      <c r="AY233">
+        <v>8</v>
+      </c>
+      <c r="AZ233">
+        <v>2.38</v>
+      </c>
+      <c r="BA233">
+        <v>1.37</v>
+      </c>
+      <c r="BB233">
+        <v>1.68</v>
+      </c>
+      <c r="BC233">
+        <v>2.11</v>
+      </c>
+      <c r="BD233">
+        <v>2.79</v>
+      </c>
+      <c r="BE233">
+        <v>3.92</v>
+      </c>
+      <c r="BF233">
+        <v>2</v>
+      </c>
+      <c r="BG233">
+        <v>3</v>
+      </c>
+      <c r="BH233">
+        <v>8</v>
+      </c>
+      <c r="BI233">
+        <v>5</v>
+      </c>
+      <c r="BJ233">
+        <v>10</v>
+      </c>
+      <c r="BK233">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>2468155</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>44975.70833333334</v>
+      </c>
+      <c r="F234">
+        <v>24</v>
+      </c>
+      <c r="G234" t="s">
+        <v>66</v>
+      </c>
+      <c r="H234" t="s">
+        <v>70</v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>2</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>3</v>
+      </c>
+      <c r="O234" t="s">
+        <v>236</v>
+      </c>
+      <c r="P234" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q234">
+        <v>4</v>
+      </c>
+      <c r="R234">
+        <v>5</v>
+      </c>
+      <c r="S234">
+        <v>9</v>
+      </c>
+      <c r="T234">
+        <v>2.6</v>
+      </c>
+      <c r="U234">
+        <v>2.1</v>
+      </c>
+      <c r="V234">
+        <v>4.5</v>
+      </c>
+      <c r="W234">
+        <v>1.44</v>
+      </c>
+      <c r="X234">
+        <v>2.63</v>
+      </c>
+      <c r="Y234">
+        <v>3.25</v>
+      </c>
+      <c r="Z234">
+        <v>1.33</v>
+      </c>
+      <c r="AA234">
+        <v>9</v>
+      </c>
+      <c r="AB234">
+        <v>1.07</v>
+      </c>
+      <c r="AC234">
+        <v>1.9</v>
+      </c>
+      <c r="AD234">
+        <v>3.52</v>
+      </c>
+      <c r="AE234">
+        <v>4.08</v>
+      </c>
+      <c r="AF234">
+        <v>1.05</v>
+      </c>
+      <c r="AG234">
+        <v>9</v>
+      </c>
+      <c r="AH234">
+        <v>1.33</v>
+      </c>
+      <c r="AI234">
+        <v>3.2</v>
+      </c>
+      <c r="AJ234">
+        <v>2.1</v>
+      </c>
+      <c r="AK234">
+        <v>1.73</v>
+      </c>
+      <c r="AL234">
+        <v>1.91</v>
+      </c>
+      <c r="AM234">
+        <v>1.91</v>
+      </c>
+      <c r="AN234">
+        <v>1.18</v>
+      </c>
+      <c r="AO234">
+        <v>1.33</v>
+      </c>
+      <c r="AP234">
+        <v>1.9</v>
+      </c>
+      <c r="AQ234">
+        <v>0.75</v>
+      </c>
+      <c r="AR234">
+        <v>0.45</v>
+      </c>
+      <c r="AS234">
+        <v>0.92</v>
+      </c>
+      <c r="AT234">
+        <v>0.42</v>
+      </c>
+      <c r="AU234">
+        <v>1.44</v>
+      </c>
+      <c r="AV234">
+        <v>1.28</v>
+      </c>
+      <c r="AW234">
+        <v>2.72</v>
+      </c>
+      <c r="AX234">
+        <v>1.75</v>
+      </c>
+      <c r="AY234">
+        <v>8</v>
+      </c>
+      <c r="AZ234">
+        <v>2.56</v>
+      </c>
+      <c r="BA234">
+        <v>1.39</v>
+      </c>
+      <c r="BB234">
+        <v>1.71</v>
+      </c>
+      <c r="BC234">
+        <v>2.17</v>
+      </c>
+      <c r="BD234">
+        <v>2.88</v>
+      </c>
+      <c r="BE234">
+        <v>4.05</v>
+      </c>
+      <c r="BF234">
+        <v>6</v>
+      </c>
+      <c r="BG234">
+        <v>4</v>
+      </c>
+      <c r="BH234">
+        <v>7</v>
+      </c>
+      <c r="BI234">
+        <v>5</v>
+      </c>
+      <c r="BJ234">
+        <v>13</v>
+      </c>
+      <c r="BK234">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>2468153</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>44976.375</v>
+      </c>
+      <c r="F235">
+        <v>24</v>
+      </c>
+      <c r="G235" t="s">
+        <v>77</v>
+      </c>
+      <c r="H235" t="s">
+        <v>69</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>3</v>
+      </c>
+      <c r="L235">
+        <v>4</v>
+      </c>
+      <c r="M235">
+        <v>3</v>
+      </c>
+      <c r="N235">
+        <v>7</v>
+      </c>
+      <c r="O235" t="s">
+        <v>237</v>
+      </c>
+      <c r="P235" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q235">
+        <v>3</v>
+      </c>
+      <c r="R235">
+        <v>6</v>
+      </c>
+      <c r="S235">
+        <v>9</v>
+      </c>
+      <c r="T235">
+        <v>2.2</v>
+      </c>
+      <c r="U235">
+        <v>2.4</v>
+      </c>
+      <c r="V235">
+        <v>5</v>
+      </c>
+      <c r="W235">
+        <v>1.3</v>
+      </c>
+      <c r="X235">
+        <v>3.4</v>
+      </c>
+      <c r="Y235">
+        <v>2.5</v>
+      </c>
+      <c r="Z235">
+        <v>1.5</v>
+      </c>
+      <c r="AA235">
+        <v>6</v>
+      </c>
+      <c r="AB235">
+        <v>1.13</v>
+      </c>
+      <c r="AC235">
+        <v>1.74</v>
+      </c>
+      <c r="AD235">
+        <v>4.34</v>
+      </c>
+      <c r="AE235">
+        <v>4.74</v>
+      </c>
+      <c r="AF235">
+        <v>1.03</v>
+      </c>
+      <c r="AG235">
+        <v>15</v>
+      </c>
+      <c r="AH235">
+        <v>1.2</v>
+      </c>
+      <c r="AI235">
+        <v>4.5</v>
+      </c>
+      <c r="AJ235">
+        <v>1.57</v>
+      </c>
+      <c r="AK235">
+        <v>2.3</v>
+      </c>
+      <c r="AL235">
+        <v>1.67</v>
+      </c>
+      <c r="AM235">
+        <v>2.1</v>
+      </c>
+      <c r="AN235">
+        <v>1.18</v>
+      </c>
+      <c r="AO235">
+        <v>1.24</v>
+      </c>
+      <c r="AP235">
+        <v>2.15</v>
+      </c>
+      <c r="AQ235">
+        <v>2.64</v>
+      </c>
+      <c r="AR235">
+        <v>1.55</v>
+      </c>
+      <c r="AS235">
+        <v>2.67</v>
+      </c>
+      <c r="AT235">
+        <v>1.42</v>
+      </c>
+      <c r="AU235">
+        <v>2.08</v>
+      </c>
+      <c r="AV235">
+        <v>1.79</v>
+      </c>
+      <c r="AW235">
+        <v>3.87</v>
+      </c>
+      <c r="AX235">
+        <v>1.6</v>
+      </c>
+      <c r="AY235">
+        <v>7.5</v>
+      </c>
+      <c r="AZ235">
+        <v>2.8</v>
+      </c>
+      <c r="BA235">
+        <v>1.38</v>
+      </c>
+      <c r="BB235">
+        <v>1.64</v>
+      </c>
+      <c r="BC235">
+        <v>2.02</v>
+      </c>
+      <c r="BD235">
+        <v>2.6</v>
+      </c>
+      <c r="BE235">
+        <v>3.45</v>
+      </c>
+      <c r="BF235">
+        <v>11</v>
+      </c>
+      <c r="BG235">
+        <v>8</v>
+      </c>
+      <c r="BH235">
+        <v>1</v>
+      </c>
+      <c r="BI235">
+        <v>6</v>
+      </c>
+      <c r="BJ235">
+        <v>12</v>
+      </c>
+      <c r="BK235">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>2468151</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F236">
+        <v>24</v>
+      </c>
+      <c r="G236" t="s">
+        <v>84</v>
+      </c>
+      <c r="H236" t="s">
+        <v>81</v>
+      </c>
+      <c r="I236">
+        <v>2</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>2</v>
+      </c>
+      <c r="L236">
+        <v>3</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>3</v>
+      </c>
+      <c r="O236" t="s">
+        <v>238</v>
+      </c>
+      <c r="P236" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q236">
+        <v>2</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>4</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
+        <v>2.05</v>
+      </c>
+      <c r="V236">
+        <v>4.5</v>
+      </c>
+      <c r="W236">
+        <v>1.5</v>
+      </c>
+      <c r="X236">
+        <v>2.5</v>
+      </c>
+      <c r="Y236">
+        <v>3.4</v>
+      </c>
+      <c r="Z236">
+        <v>1.3</v>
+      </c>
+      <c r="AA236">
+        <v>10</v>
+      </c>
+      <c r="AB236">
+        <v>1.06</v>
+      </c>
+      <c r="AC236">
+        <v>2.33</v>
+      </c>
+      <c r="AD236">
+        <v>3.46</v>
+      </c>
+      <c r="AE236">
+        <v>3.36</v>
+      </c>
+      <c r="AF236">
+        <v>1.08</v>
+      </c>
+      <c r="AG236">
+        <v>8.5</v>
+      </c>
+      <c r="AH236">
+        <v>1.44</v>
+      </c>
+      <c r="AI236">
+        <v>2.8</v>
+      </c>
+      <c r="AJ236">
+        <v>2.2</v>
+      </c>
+      <c r="AK236">
+        <v>1.6</v>
+      </c>
+      <c r="AL236">
+        <v>2</v>
+      </c>
+      <c r="AM236">
+        <v>1.75</v>
+      </c>
+      <c r="AN236">
+        <v>1.27</v>
+      </c>
+      <c r="AO236">
+        <v>1.33</v>
+      </c>
+      <c r="AP236">
+        <v>1.72</v>
+      </c>
+      <c r="AQ236">
+        <v>1.64</v>
+      </c>
+      <c r="AR236">
+        <v>0.92</v>
+      </c>
+      <c r="AS236">
+        <v>1.75</v>
+      </c>
+      <c r="AT236">
+        <v>0.85</v>
+      </c>
+      <c r="AU236">
+        <v>1.52</v>
+      </c>
+      <c r="AV236">
+        <v>1.17</v>
+      </c>
+      <c r="AW236">
+        <v>2.69</v>
+      </c>
+      <c r="AX236">
+        <v>1.65</v>
+      </c>
+      <c r="AY236">
+        <v>8</v>
+      </c>
+      <c r="AZ236">
+        <v>2.63</v>
+      </c>
+      <c r="BA236">
+        <v>1.4</v>
+      </c>
+      <c r="BB236">
+        <v>1.67</v>
+      </c>
+      <c r="BC236">
+        <v>2.08</v>
+      </c>
+      <c r="BD236">
+        <v>2.7</v>
+      </c>
+      <c r="BE236">
+        <v>3.7</v>
+      </c>
+      <c r="BF236">
+        <v>2</v>
+      </c>
+      <c r="BG236">
+        <v>2</v>
+      </c>
+      <c r="BH236">
+        <v>0</v>
+      </c>
+      <c r="BI236">
+        <v>0</v>
+      </c>
+      <c r="BJ236">
+        <v>2</v>
+      </c>
+      <c r="BK236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>2468156</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F237">
+        <v>24</v>
+      </c>
+      <c r="G237" t="s">
+        <v>83</v>
+      </c>
+      <c r="H237" t="s">
+        <v>76</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>2</v>
+      </c>
+      <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237" t="s">
+        <v>144</v>
+      </c>
+      <c r="P237" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q237">
+        <v>5</v>
+      </c>
+      <c r="R237">
+        <v>5</v>
+      </c>
+      <c r="S237">
+        <v>10</v>
+      </c>
+      <c r="T237">
+        <v>4.5</v>
+      </c>
+      <c r="U237">
+        <v>2.3</v>
+      </c>
+      <c r="V237">
+        <v>2.38</v>
+      </c>
+      <c r="W237">
+        <v>1.33</v>
+      </c>
+      <c r="X237">
+        <v>3.25</v>
+      </c>
+      <c r="Y237">
+        <v>2.63</v>
+      </c>
+      <c r="Z237">
+        <v>1.44</v>
+      </c>
+      <c r="AA237">
+        <v>6.5</v>
+      </c>
+      <c r="AB237">
+        <v>1.11</v>
+      </c>
+      <c r="AC237">
+        <v>4.24</v>
+      </c>
+      <c r="AD237">
+        <v>4.06</v>
+      </c>
+      <c r="AE237">
+        <v>1.87</v>
+      </c>
+      <c r="AF237">
+        <v>1.03</v>
+      </c>
+      <c r="AG237">
+        <v>13</v>
+      </c>
+      <c r="AH237">
+        <v>1.24</v>
+      </c>
+      <c r="AI237">
+        <v>4.2</v>
+      </c>
+      <c r="AJ237">
+        <v>1.67</v>
+      </c>
+      <c r="AK237">
+        <v>2.1</v>
+      </c>
+      <c r="AL237">
+        <v>1.7</v>
+      </c>
+      <c r="AM237">
+        <v>2.05</v>
+      </c>
+      <c r="AN237">
+        <v>1.98</v>
+      </c>
+      <c r="AO237">
+        <v>1.27</v>
+      </c>
+      <c r="AP237">
+        <v>1.21</v>
+      </c>
+      <c r="AQ237">
+        <v>1</v>
+      </c>
+      <c r="AR237">
+        <v>2.18</v>
+      </c>
+      <c r="AS237">
+        <v>0.92</v>
+      </c>
+      <c r="AT237">
+        <v>2.25</v>
+      </c>
+      <c r="AU237">
+        <v>1.54</v>
+      </c>
+      <c r="AV237">
+        <v>1.85</v>
+      </c>
+      <c r="AW237">
+        <v>3.39</v>
+      </c>
+      <c r="AX237">
+        <v>2.63</v>
+      </c>
+      <c r="AY237">
+        <v>7.5</v>
+      </c>
+      <c r="AZ237">
+        <v>1.65</v>
+      </c>
+      <c r="BA237">
+        <v>1.34</v>
+      </c>
+      <c r="BB237">
+        <v>1.57</v>
+      </c>
+      <c r="BC237">
+        <v>1.92</v>
+      </c>
+      <c r="BD237">
+        <v>2.43</v>
+      </c>
+      <c r="BE237">
+        <v>3.2</v>
+      </c>
+      <c r="BF237">
+        <v>2</v>
+      </c>
+      <c r="BG237">
+        <v>2</v>
+      </c>
+      <c r="BH237">
+        <v>2</v>
+      </c>
+      <c r="BI237">
+        <v>1</v>
+      </c>
+      <c r="BJ237">
+        <v>4</v>
+      </c>
+      <c r="BK237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>2468157</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F238">
+        <v>24</v>
+      </c>
+      <c r="G238" t="s">
+        <v>73</v>
+      </c>
+      <c r="H238" t="s">
+        <v>67</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238" t="s">
+        <v>239</v>
+      </c>
+      <c r="P238" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q238">
+        <v>2</v>
+      </c>
+      <c r="R238">
+        <v>7</v>
+      </c>
+      <c r="S238">
+        <v>9</v>
+      </c>
+      <c r="T238">
+        <v>2.2</v>
+      </c>
+      <c r="U238">
+        <v>2.25</v>
+      </c>
+      <c r="V238">
+        <v>6</v>
+      </c>
+      <c r="W238">
+        <v>1.4</v>
+      </c>
+      <c r="X238">
+        <v>2.75</v>
+      </c>
+      <c r="Y238">
+        <v>3</v>
+      </c>
+      <c r="Z238">
+        <v>1.36</v>
+      </c>
+      <c r="AA238">
+        <v>8</v>
+      </c>
+      <c r="AB238">
+        <v>1.08</v>
+      </c>
+      <c r="AC238">
+        <v>1.65</v>
+      </c>
+      <c r="AD238">
+        <v>4.14</v>
+      </c>
+      <c r="AE238">
+        <v>6</v>
+      </c>
+      <c r="AF238">
+        <v>1.06</v>
+      </c>
+      <c r="AG238">
+        <v>8.75</v>
+      </c>
+      <c r="AH238">
+        <v>1.32</v>
+      </c>
+      <c r="AI238">
+        <v>3.1</v>
+      </c>
+      <c r="AJ238">
+        <v>1.95</v>
+      </c>
+      <c r="AK238">
+        <v>1.8</v>
+      </c>
+      <c r="AL238">
+        <v>2</v>
+      </c>
+      <c r="AM238">
+        <v>1.75</v>
+      </c>
+      <c r="AN238">
+        <v>1.14</v>
+      </c>
+      <c r="AO238">
+        <v>1.2</v>
+      </c>
+      <c r="AP238">
+        <v>2.4</v>
+      </c>
+      <c r="AQ238">
+        <v>2.5</v>
+      </c>
+      <c r="AR238">
+        <v>1.45</v>
+      </c>
+      <c r="AS238">
+        <v>2.54</v>
+      </c>
+      <c r="AT238">
+        <v>1.33</v>
+      </c>
+      <c r="AU238">
+        <v>1.78</v>
+      </c>
+      <c r="AV238">
+        <v>1.29</v>
+      </c>
+      <c r="AW238">
+        <v>3.07</v>
+      </c>
+      <c r="AX238">
+        <v>1.44</v>
+      </c>
+      <c r="AY238">
+        <v>8.5</v>
+      </c>
+      <c r="AZ238">
+        <v>3.4</v>
+      </c>
+      <c r="BA238">
+        <v>1.44</v>
+      </c>
+      <c r="BB238">
+        <v>1.71</v>
+      </c>
+      <c r="BC238">
+        <v>2.15</v>
+      </c>
+      <c r="BD238">
+        <v>2.75</v>
+      </c>
+      <c r="BE238">
+        <v>3.8</v>
+      </c>
+      <c r="BF238">
+        <v>3</v>
+      </c>
+      <c r="BG238">
+        <v>4</v>
+      </c>
+      <c r="BH238">
+        <v>3</v>
+      </c>
+      <c r="BI238">
+        <v>1</v>
+      </c>
+      <c r="BJ238">
+        <v>6</v>
+      </c>
+      <c r="BK238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>2468159</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F239">
+        <v>24</v>
+      </c>
+      <c r="G239" t="s">
+        <v>78</v>
+      </c>
+      <c r="H239" t="s">
+        <v>71</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>1</v>
+      </c>
+      <c r="O239" t="s">
+        <v>87</v>
+      </c>
+      <c r="P239" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q239">
+        <v>2</v>
+      </c>
+      <c r="R239">
+        <v>10</v>
+      </c>
+      <c r="S239">
+        <v>12</v>
+      </c>
+      <c r="T239">
+        <v>3.2</v>
+      </c>
+      <c r="U239">
+        <v>2.2</v>
+      </c>
+      <c r="V239">
+        <v>3.25</v>
+      </c>
+      <c r="W239">
+        <v>1.4</v>
+      </c>
+      <c r="X239">
+        <v>2.75</v>
+      </c>
+      <c r="Y239">
+        <v>2.75</v>
+      </c>
+      <c r="Z239">
+        <v>1.4</v>
+      </c>
+      <c r="AA239">
+        <v>8</v>
+      </c>
+      <c r="AB239">
+        <v>1.08</v>
+      </c>
+      <c r="AC239">
+        <v>2.36</v>
+      </c>
+      <c r="AD239">
+        <v>3.56</v>
+      </c>
+      <c r="AE239">
+        <v>3.2</v>
+      </c>
+      <c r="AF239">
+        <v>1.05</v>
+      </c>
+      <c r="AG239">
+        <v>11</v>
+      </c>
+      <c r="AH239">
+        <v>1.3</v>
+      </c>
+      <c r="AI239">
+        <v>3.6</v>
+      </c>
+      <c r="AJ239">
+        <v>1.95</v>
+      </c>
+      <c r="AK239">
+        <v>1.8</v>
+      </c>
+      <c r="AL239">
+        <v>1.7</v>
+      </c>
+      <c r="AM239">
+        <v>2.05</v>
+      </c>
+      <c r="AN239">
+        <v>1.49</v>
+      </c>
+      <c r="AO239">
+        <v>1.32</v>
+      </c>
+      <c r="AP239">
+        <v>1.44</v>
+      </c>
+      <c r="AQ239">
+        <v>0.91</v>
+      </c>
+      <c r="AR239">
+        <v>0.91</v>
+      </c>
+      <c r="AS239">
+        <v>0.83</v>
+      </c>
+      <c r="AT239">
+        <v>1.08</v>
+      </c>
+      <c r="AU239">
+        <v>1.51</v>
+      </c>
+      <c r="AV239">
+        <v>1.25</v>
+      </c>
+      <c r="AW239">
+        <v>2.76</v>
+      </c>
+      <c r="AX239">
+        <v>1.94</v>
+      </c>
+      <c r="AY239">
+        <v>7.5</v>
+      </c>
+      <c r="AZ239">
+        <v>2.14</v>
+      </c>
+      <c r="BA239">
+        <v>1.37</v>
+      </c>
+      <c r="BB239">
+        <v>1.62</v>
+      </c>
+      <c r="BC239">
+        <v>1.98</v>
+      </c>
+      <c r="BD239">
+        <v>2.55</v>
+      </c>
+      <c r="BE239">
+        <v>3.4</v>
+      </c>
+      <c r="BF239">
+        <v>3</v>
+      </c>
+      <c r="BG239">
+        <v>8</v>
+      </c>
+      <c r="BH239">
+        <v>1</v>
+      </c>
+      <c r="BI239">
+        <v>8</v>
+      </c>
+      <c r="BJ239">
+        <v>4</v>
+      </c>
+      <c r="BK239">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>2468154</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44976.54513888889</v>
+      </c>
+      <c r="F240">
+        <v>24</v>
+      </c>
+      <c r="G240" t="s">
+        <v>72</v>
+      </c>
+      <c r="H240" t="s">
+        <v>75</v>
+      </c>
+      <c r="I240">
+        <v>2</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>3</v>
+      </c>
+      <c r="L240">
+        <v>3</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>4</v>
+      </c>
+      <c r="O240" t="s">
+        <v>240</v>
+      </c>
+      <c r="P240" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q240">
+        <v>2</v>
+      </c>
+      <c r="R240">
+        <v>5</v>
+      </c>
+      <c r="S240">
+        <v>7</v>
+      </c>
+      <c r="T240">
+        <v>2.1</v>
+      </c>
+      <c r="U240">
+        <v>2.25</v>
+      </c>
+      <c r="V240">
+        <v>6</v>
+      </c>
+      <c r="W240">
+        <v>1.36</v>
+      </c>
+      <c r="X240">
+        <v>3</v>
+      </c>
+      <c r="Y240">
+        <v>2.75</v>
+      </c>
+      <c r="Z240">
+        <v>1.4</v>
+      </c>
+      <c r="AA240">
+        <v>8</v>
+      </c>
+      <c r="AB240">
+        <v>1.08</v>
+      </c>
+      <c r="AC240">
+        <v>1.62</v>
+      </c>
+      <c r="AD240">
+        <v>3.7</v>
+      </c>
+      <c r="AE240">
+        <v>4.7</v>
+      </c>
+      <c r="AF240">
+        <v>1.04</v>
+      </c>
+      <c r="AG240">
+        <v>12</v>
+      </c>
+      <c r="AH240">
+        <v>1.3</v>
+      </c>
+      <c r="AI240">
+        <v>3.6</v>
+      </c>
+      <c r="AJ240">
+        <v>1.96</v>
+      </c>
+      <c r="AK240">
+        <v>1.9</v>
+      </c>
+      <c r="AL240">
+        <v>1.95</v>
+      </c>
+      <c r="AM240">
+        <v>1.8</v>
+      </c>
+      <c r="AN240">
+        <v>1.13</v>
+      </c>
+      <c r="AO240">
+        <v>1.24</v>
+      </c>
+      <c r="AP240">
+        <v>2.35</v>
+      </c>
+      <c r="AQ240">
+        <v>2.73</v>
+      </c>
+      <c r="AR240">
+        <v>0.92</v>
+      </c>
+      <c r="AS240">
+        <v>2.75</v>
+      </c>
+      <c r="AT240">
+        <v>0.85</v>
+      </c>
+      <c r="AU240">
+        <v>1.8</v>
+      </c>
+      <c r="AV240">
+        <v>1.44</v>
+      </c>
+      <c r="AW240">
+        <v>3.24</v>
+      </c>
+      <c r="AX240">
+        <v>1.4</v>
+      </c>
+      <c r="AY240">
+        <v>8.5</v>
+      </c>
+      <c r="AZ240">
+        <v>3.65</v>
+      </c>
+      <c r="BA240">
+        <v>1.38</v>
+      </c>
+      <c r="BB240">
+        <v>1.63</v>
+      </c>
+      <c r="BC240">
+        <v>2.02</v>
+      </c>
+      <c r="BD240">
+        <v>2.63</v>
+      </c>
+      <c r="BE240">
+        <v>3.5</v>
+      </c>
+      <c r="BF240">
+        <v>9</v>
+      </c>
+      <c r="BG240">
+        <v>4</v>
+      </c>
+      <c r="BH240">
+        <v>15</v>
+      </c>
+      <c r="BI240">
+        <v>2</v>
+      </c>
+      <c r="BJ240">
+        <v>24</v>
+      </c>
+      <c r="BK240">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>2468158</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44976.69791666666</v>
+      </c>
+      <c r="F241">
+        <v>24</v>
+      </c>
+      <c r="G241" t="s">
+        <v>68</v>
+      </c>
+      <c r="H241" t="s">
+        <v>74</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>2</v>
+      </c>
+      <c r="M241">
+        <v>3</v>
+      </c>
+      <c r="N241">
+        <v>5</v>
+      </c>
+      <c r="O241" t="s">
+        <v>241</v>
+      </c>
+      <c r="P241" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q241">
+        <v>3</v>
+      </c>
+      <c r="R241">
+        <v>10</v>
+      </c>
+      <c r="S241">
+        <v>13</v>
+      </c>
+      <c r="T241">
+        <v>4</v>
+      </c>
+      <c r="U241">
+        <v>2.3</v>
+      </c>
+      <c r="V241">
+        <v>2.5</v>
+      </c>
+      <c r="W241">
+        <v>1.3</v>
+      </c>
+      <c r="X241">
+        <v>3.4</v>
+      </c>
+      <c r="Y241">
+        <v>2.5</v>
+      </c>
+      <c r="Z241">
+        <v>1.5</v>
+      </c>
+      <c r="AA241">
+        <v>6</v>
+      </c>
+      <c r="AB241">
+        <v>1.13</v>
+      </c>
+      <c r="AC241">
+        <v>3.15</v>
+      </c>
+      <c r="AD241">
+        <v>3.5</v>
+      </c>
+      <c r="AE241">
+        <v>2.02</v>
+      </c>
+      <c r="AF241">
+        <v>1.03</v>
+      </c>
+      <c r="AG241">
+        <v>15</v>
+      </c>
+      <c r="AH241">
+        <v>1.22</v>
+      </c>
+      <c r="AI241">
+        <v>4.33</v>
+      </c>
+      <c r="AJ241">
+        <v>1.65</v>
+      </c>
+      <c r="AK241">
+        <v>2.23</v>
+      </c>
+      <c r="AL241">
+        <v>1.62</v>
+      </c>
+      <c r="AM241">
+        <v>2.2</v>
+      </c>
+      <c r="AN241">
+        <v>1.78</v>
+      </c>
+      <c r="AO241">
+        <v>1.27</v>
+      </c>
+      <c r="AP241">
+        <v>1.29</v>
+      </c>
+      <c r="AQ241">
+        <v>1.83</v>
+      </c>
+      <c r="AR241">
+        <v>2.36</v>
+      </c>
+      <c r="AS241">
+        <v>1.69</v>
+      </c>
+      <c r="AT241">
+        <v>2.42</v>
+      </c>
+      <c r="AU241">
+        <v>1.7</v>
+      </c>
+      <c r="AV241">
+        <v>1.63</v>
+      </c>
+      <c r="AW241">
+        <v>3.33</v>
+      </c>
+      <c r="AX241">
+        <v>2.4</v>
+      </c>
+      <c r="AY241">
+        <v>7.5</v>
+      </c>
+      <c r="AZ241">
+        <v>1.76</v>
+      </c>
+      <c r="BA241">
+        <v>1.33</v>
+      </c>
+      <c r="BB241">
+        <v>1.55</v>
+      </c>
+      <c r="BC241">
+        <v>1.89</v>
+      </c>
+      <c r="BD241">
+        <v>2.4</v>
+      </c>
+      <c r="BE241">
+        <v>3.15</v>
+      </c>
+      <c r="BF241">
+        <v>7</v>
+      </c>
+      <c r="BG241">
+        <v>8</v>
+      </c>
+      <c r="BH241">
+        <v>4</v>
+      </c>
+      <c r="BI241">
+        <v>5</v>
+      </c>
+      <c r="BJ241">
+        <v>11</v>
+      </c>
+      <c r="BK241">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="357">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,9 @@
     <t>['3', '87']</t>
   </si>
   <si>
+    <t>['60', '80']</t>
+  </si>
+  <si>
     <t>['43', '53']</t>
   </si>
   <si>
@@ -1443,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK241"/>
+  <dimension ref="A1:BK242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1878,7 +1881,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2069,7 +2072,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2260,7 +2263,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2451,7 +2454,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2538,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT6">
         <v>0.42</v>
@@ -2833,7 +2836,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3024,7 +3027,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3114,7 +3117,7 @@
         <v>2.75</v>
       </c>
       <c r="AT9">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3979,7 +3982,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -4170,7 +4173,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4361,7 +4364,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4552,7 +4555,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4934,7 +4937,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -5125,7 +5128,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5507,7 +5510,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5698,7 +5701,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5889,7 +5892,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6080,7 +6083,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6462,7 +6465,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6552,7 +6555,7 @@
         <v>0.42</v>
       </c>
       <c r="AT27">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU27">
         <v>1.98</v>
@@ -6653,7 +6656,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6844,7 +6847,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7035,7 +7038,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7122,7 +7125,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT30">
         <v>2.08</v>
@@ -7226,7 +7229,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -8372,7 +8375,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8563,7 +8566,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -9327,7 +9330,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9518,7 +9521,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9709,7 +9712,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10091,7 +10094,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10181,7 +10184,7 @@
         <v>2.54</v>
       </c>
       <c r="AT46">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU46">
         <v>2.03</v>
@@ -10282,7 +10285,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10473,7 +10476,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10664,7 +10667,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10751,7 +10754,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT49">
         <v>1.58</v>
@@ -11046,7 +11049,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11428,7 +11431,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -11619,7 +11622,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12574,7 +12577,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12765,7 +12768,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -13428,7 +13431,7 @@
         <v>2.67</v>
       </c>
       <c r="AT63">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU63">
         <v>2.57</v>
@@ -13529,7 +13532,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14102,7 +14105,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14484,7 +14487,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14866,7 +14869,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -15057,7 +15060,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15248,7 +15251,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15439,7 +15442,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15526,7 +15529,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT74">
         <v>0.91</v>
@@ -15630,7 +15633,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16012,7 +16015,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16394,7 +16397,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16776,7 +16779,7 @@
         <v>87</v>
       </c>
       <c r="P81" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16967,7 +16970,7 @@
         <v>87</v>
       </c>
       <c r="P82" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17158,7 +17161,7 @@
         <v>94</v>
       </c>
       <c r="P83" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -17540,7 +17543,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -17731,7 +17734,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17922,7 +17925,7 @@
         <v>106</v>
       </c>
       <c r="P87" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18113,7 +18116,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -18203,7 +18206,7 @@
         <v>1.08</v>
       </c>
       <c r="AT88">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU88">
         <v>1.52</v>
@@ -18304,7 +18307,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q89">
         <v>10</v>
@@ -18495,7 +18498,7 @@
         <v>146</v>
       </c>
       <c r="P90" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19068,7 +19071,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q93">
         <v>11</v>
@@ -19450,7 +19453,7 @@
         <v>87</v>
       </c>
       <c r="P95" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19641,7 +19644,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19832,7 +19835,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -20023,7 +20026,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20214,7 +20217,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20683,7 +20686,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT101">
         <v>1.33</v>
@@ -20787,7 +20790,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21360,7 +21363,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21742,7 +21745,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21933,7 +21936,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -22214,7 +22217,7 @@
         <v>1.55</v>
       </c>
       <c r="AT109">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU109">
         <v>1.45</v>
@@ -22697,7 +22700,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22888,7 +22891,7 @@
         <v>106</v>
       </c>
       <c r="P113" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -23079,7 +23082,7 @@
         <v>87</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23270,7 +23273,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23461,7 +23464,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23652,7 +23655,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23742,7 +23745,7 @@
         <v>1.17</v>
       </c>
       <c r="AT117">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU117">
         <v>1.3</v>
@@ -23843,7 +23846,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -24034,7 +24037,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24416,7 +24419,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24503,7 +24506,7 @@
         <v>2.6</v>
       </c>
       <c r="AS121">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT121">
         <v>2.25</v>
@@ -24798,7 +24801,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24989,7 +24992,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26135,7 +26138,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26708,7 +26711,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26899,7 +26902,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27090,7 +27093,7 @@
         <v>163</v>
       </c>
       <c r="P135" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27562,7 +27565,7 @@
         <v>1.58</v>
       </c>
       <c r="AT137">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU137">
         <v>1.63</v>
@@ -27854,7 +27857,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28045,7 +28048,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28132,7 +28135,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT140">
         <v>0.91</v>
@@ -28427,7 +28430,7 @@
         <v>165</v>
       </c>
       <c r="P142" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28809,7 +28812,7 @@
         <v>185</v>
       </c>
       <c r="P144" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -29469,7 +29472,7 @@
         <v>0.67</v>
       </c>
       <c r="AS147">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT147">
         <v>0.42</v>
@@ -29573,7 +29576,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29955,7 +29958,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30146,7 +30149,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30719,7 +30722,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30910,7 +30913,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -31101,7 +31104,7 @@
         <v>117</v>
       </c>
       <c r="P156" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31483,7 +31486,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31674,7 +31677,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -32337,7 +32340,7 @@
         <v>1.92</v>
       </c>
       <c r="AT162">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU162">
         <v>1.35</v>
@@ -32820,7 +32823,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33393,7 +33396,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33584,7 +33587,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33671,7 +33674,7 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT169">
         <v>1.15</v>
@@ -33775,7 +33778,7 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33966,7 +33969,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34348,7 +34351,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -35112,7 +35115,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35685,7 +35688,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -35876,7 +35879,7 @@
         <v>87</v>
       </c>
       <c r="P181" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -36449,7 +36452,7 @@
         <v>162</v>
       </c>
       <c r="P184" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q184">
         <v>14</v>
@@ -36727,7 +36730,7 @@
         <v>1</v>
       </c>
       <c r="AS185">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT185">
         <v>0.75</v>
@@ -37112,7 +37115,7 @@
         <v>1.69</v>
       </c>
       <c r="AT187">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU187">
         <v>1.66</v>
@@ -37213,7 +37216,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -37404,7 +37407,7 @@
         <v>87</v>
       </c>
       <c r="P189" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37595,7 +37598,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -38168,7 +38171,7 @@
         <v>136</v>
       </c>
       <c r="P193" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -38741,7 +38744,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38932,7 +38935,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39505,7 +39508,7 @@
         <v>87</v>
       </c>
       <c r="P200" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39696,7 +39699,7 @@
         <v>217</v>
       </c>
       <c r="P201" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39887,7 +39890,7 @@
         <v>218</v>
       </c>
       <c r="P202" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40078,7 +40081,7 @@
         <v>219</v>
       </c>
       <c r="P203" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40269,7 +40272,7 @@
         <v>220</v>
       </c>
       <c r="P204" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q204">
         <v>8</v>
@@ -40460,7 +40463,7 @@
         <v>87</v>
       </c>
       <c r="P205" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q205">
         <v>5</v>
@@ -40738,7 +40741,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT206">
         <v>1.33</v>
@@ -40842,7 +40845,7 @@
         <v>87</v>
       </c>
       <c r="P207" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41224,7 +41227,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41415,7 +41418,7 @@
         <v>165</v>
       </c>
       <c r="P210" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q210">
         <v>1</v>
@@ -41696,7 +41699,7 @@
         <v>1.75</v>
       </c>
       <c r="AT211">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU211">
         <v>1.94</v>
@@ -41988,7 +41991,7 @@
         <v>181</v>
       </c>
       <c r="P213" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -42179,7 +42182,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q214">
         <v>2</v>
@@ -42370,7 +42373,7 @@
         <v>87</v>
       </c>
       <c r="P215" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42752,7 +42755,7 @@
         <v>87</v>
       </c>
       <c r="P217" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q217">
         <v>2</v>
@@ -43325,7 +43328,7 @@
         <v>109</v>
       </c>
       <c r="P220" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q220">
         <v>11</v>
@@ -43516,7 +43519,7 @@
         <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q221">
         <v>9</v>
@@ -44089,7 +44092,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -44280,7 +44283,7 @@
         <v>229</v>
       </c>
       <c r="P225" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q225">
         <v>2</v>
@@ -44662,7 +44665,7 @@
         <v>148</v>
       </c>
       <c r="P227" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q227">
         <v>6</v>
@@ -44940,7 +44943,7 @@
         <v>0.9</v>
       </c>
       <c r="AS228">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT228">
         <v>0.82</v>
@@ -45134,7 +45137,7 @@
         <v>1.08</v>
       </c>
       <c r="AT229">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU229">
         <v>1.39</v>
@@ -46190,7 +46193,7 @@
         <v>237</v>
       </c>
       <c r="P235" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -46572,7 +46575,7 @@
         <v>144</v>
       </c>
       <c r="P237" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -46954,7 +46957,7 @@
         <v>87</v>
       </c>
       <c r="P239" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q239">
         <v>2</v>
@@ -47336,7 +47339,7 @@
         <v>241</v>
       </c>
       <c r="P241" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -47478,6 +47481,197 @@
       </c>
       <c r="BK241">
         <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:63">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>2468166</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="2">
+        <v>44981.70833333334</v>
+      </c>
+      <c r="F242">
+        <v>25</v>
+      </c>
+      <c r="G242" t="s">
+        <v>69</v>
+      </c>
+      <c r="H242" t="s">
+        <v>83</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>2</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+      <c r="N242">
+        <v>3</v>
+      </c>
+      <c r="O242" t="s">
+        <v>242</v>
+      </c>
+      <c r="P242" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q242">
+        <v>11</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>13</v>
+      </c>
+      <c r="T242">
+        <v>1.83</v>
+      </c>
+      <c r="U242">
+        <v>2.5</v>
+      </c>
+      <c r="V242">
+        <v>7.5</v>
+      </c>
+      <c r="W242">
+        <v>1.3</v>
+      </c>
+      <c r="X242">
+        <v>3.4</v>
+      </c>
+      <c r="Y242">
+        <v>2.5</v>
+      </c>
+      <c r="Z242">
+        <v>1.5</v>
+      </c>
+      <c r="AA242">
+        <v>6</v>
+      </c>
+      <c r="AB242">
+        <v>1.13</v>
+      </c>
+      <c r="AC242">
+        <v>1.4</v>
+      </c>
+      <c r="AD242">
+        <v>4.2</v>
+      </c>
+      <c r="AE242">
+        <v>6</v>
+      </c>
+      <c r="AF242">
+        <v>1.03</v>
+      </c>
+      <c r="AG242">
+        <v>15</v>
+      </c>
+      <c r="AH242">
+        <v>1.22</v>
+      </c>
+      <c r="AI242">
+        <v>4.33</v>
+      </c>
+      <c r="AJ242">
+        <v>1.6</v>
+      </c>
+      <c r="AK242">
+        <v>2.3</v>
+      </c>
+      <c r="AL242">
+        <v>2</v>
+      </c>
+      <c r="AM242">
+        <v>1.75</v>
+      </c>
+      <c r="AN242">
+        <v>1.08</v>
+      </c>
+      <c r="AO242">
+        <v>1.16</v>
+      </c>
+      <c r="AP242">
+        <v>3.1</v>
+      </c>
+      <c r="AQ242">
+        <v>2</v>
+      </c>
+      <c r="AR242">
+        <v>0.75</v>
+      </c>
+      <c r="AS242">
+        <v>2.08</v>
+      </c>
+      <c r="AT242">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU242">
+        <v>1.96</v>
+      </c>
+      <c r="AV242">
+        <v>1.38</v>
+      </c>
+      <c r="AW242">
+        <v>3.34</v>
+      </c>
+      <c r="AX242">
+        <v>1.28</v>
+      </c>
+      <c r="AY242">
+        <v>10</v>
+      </c>
+      <c r="AZ242">
+        <v>4.8</v>
+      </c>
+      <c r="BA242">
+        <v>1.34</v>
+      </c>
+      <c r="BB242">
+        <v>1.57</v>
+      </c>
+      <c r="BC242">
+        <v>1.9</v>
+      </c>
+      <c r="BD242">
+        <v>2.4</v>
+      </c>
+      <c r="BE242">
+        <v>3.1</v>
+      </c>
+      <c r="BF242">
+        <v>6</v>
+      </c>
+      <c r="BG242">
+        <v>2</v>
+      </c>
+      <c r="BH242">
+        <v>14</v>
+      </c>
+      <c r="BI242">
+        <v>2</v>
+      </c>
+      <c r="BJ242">
+        <v>20</v>
+      </c>
+      <c r="BK242">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="359">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1086,6 +1086,12 @@
   <si>
     <t>['52', '59', '78']</t>
   </si>
+  <si>
+    <t>['38', '80', '90']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
 </sst>
 </file>
 
@@ -1446,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK242"/>
+  <dimension ref="A1:BK244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2732,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AT7">
         <v>0.85</v>
@@ -4836,7 +4842,7 @@
         <v>0.64</v>
       </c>
       <c r="AT18">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5600,7 +5606,7 @@
         <v>1.92</v>
       </c>
       <c r="AT22">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU22">
         <v>1.35</v>
@@ -6552,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AT27">
         <v>0.6899999999999999</v>
@@ -8847,7 +8853,7 @@
         <v>1.73</v>
       </c>
       <c r="AT39">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU39">
         <v>1.44</v>
@@ -9608,7 +9614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AT43">
         <v>1.15</v>
@@ -12285,7 +12291,7 @@
         <v>1.73</v>
       </c>
       <c r="AT57">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU57">
         <v>1.31</v>
@@ -13049,7 +13055,7 @@
         <v>1.75</v>
       </c>
       <c r="AT61">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU61">
         <v>2.44</v>
@@ -14192,7 +14198,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AT67">
         <v>1.08</v>
@@ -14959,7 +14965,7 @@
         <v>1.92</v>
       </c>
       <c r="AT71">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU71">
         <v>1.43</v>
@@ -16678,7 +16684,7 @@
         <v>1.55</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU80">
         <v>1.43</v>
@@ -17057,7 +17063,7 @@
         <v>2.33</v>
       </c>
       <c r="AS82">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AT82">
         <v>2.42</v>
@@ -18779,7 +18785,7 @@
         <v>2.75</v>
       </c>
       <c r="AT91">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU91">
         <v>1.81</v>
@@ -20113,7 +20119,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AT98">
         <v>0.82</v>
@@ -20689,7 +20695,7 @@
         <v>2.08</v>
       </c>
       <c r="AT101">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU101">
         <v>1.87</v>
@@ -21835,7 +21841,7 @@
         <v>2.54</v>
       </c>
       <c r="AT107">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU107">
         <v>1.98</v>
@@ -22981,7 +22987,7 @@
         <v>1.08</v>
       </c>
       <c r="AT113">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU113">
         <v>1.39</v>
@@ -23172,7 +23178,7 @@
         <v>1.92</v>
       </c>
       <c r="AT114">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU114">
         <v>1.96</v>
@@ -23360,7 +23366,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AT115">
         <v>0.91</v>
@@ -26989,10 +26995,10 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AT134">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU134">
         <v>1.47</v>
@@ -28329,7 +28335,7 @@
         <v>1.92</v>
       </c>
       <c r="AT141">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU141">
         <v>1.93</v>
@@ -31194,7 +31200,7 @@
         <v>0.92</v>
       </c>
       <c r="AT156">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU156">
         <v>1.65</v>
@@ -31958,7 +31964,7 @@
         <v>1.58</v>
       </c>
       <c r="AT160">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU160">
         <v>1.7</v>
@@ -32910,7 +32916,7 @@
         <v>1.88</v>
       </c>
       <c r="AS165">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AT165">
         <v>1.5</v>
@@ -34823,7 +34829,7 @@
         <v>1.55</v>
       </c>
       <c r="AT175">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU175">
         <v>1.57</v>
@@ -35778,7 +35784,7 @@
         <v>0.92</v>
       </c>
       <c r="AT180">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU180">
         <v>1.54</v>
@@ -37303,7 +37309,7 @@
         <v>1.33</v>
       </c>
       <c r="AS188">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AT188">
         <v>1.33</v>
@@ -38261,7 +38267,7 @@
         <v>0.83</v>
       </c>
       <c r="AT193">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU193">
         <v>1.64</v>
@@ -39598,7 +39604,7 @@
         <v>0.64</v>
       </c>
       <c r="AT200">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU200">
         <v>1.36</v>
@@ -39977,7 +39983,7 @@
         <v>0.8</v>
       </c>
       <c r="AS202">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AT202">
         <v>0.85</v>
@@ -42081,7 +42087,7 @@
         <v>0.83</v>
       </c>
       <c r="AT213">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU213">
         <v>1.55</v>
@@ -43418,7 +43424,7 @@
         <v>0.92</v>
       </c>
       <c r="AT220">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU220">
         <v>1.53</v>
@@ -44752,7 +44758,7 @@
         <v>0.36</v>
       </c>
       <c r="AS227">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AT227">
         <v>0.42</v>
@@ -45519,7 +45525,7 @@
         <v>1.75</v>
       </c>
       <c r="AT231">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU231">
         <v>2.05</v>
@@ -45710,7 +45716,7 @@
         <v>1.08</v>
       </c>
       <c r="AT232">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU232">
         <v>1.63</v>
@@ -47672,6 +47678,388 @@
       </c>
       <c r="BK242">
         <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:63">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>2468162</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E243" s="2">
+        <v>44982.54166666666</v>
+      </c>
+      <c r="F243">
+        <v>25</v>
+      </c>
+      <c r="G243" t="s">
+        <v>70</v>
+      </c>
+      <c r="H243" t="s">
+        <v>65</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <v>3</v>
+      </c>
+      <c r="N243">
+        <v>4</v>
+      </c>
+      <c r="O243" t="s">
+        <v>180</v>
+      </c>
+      <c r="P243" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q243">
+        <v>2</v>
+      </c>
+      <c r="R243">
+        <v>2</v>
+      </c>
+      <c r="S243">
+        <v>4</v>
+      </c>
+      <c r="T243">
+        <v>5</v>
+      </c>
+      <c r="U243">
+        <v>2.25</v>
+      </c>
+      <c r="V243">
+        <v>2.3</v>
+      </c>
+      <c r="W243">
+        <v>1.36</v>
+      </c>
+      <c r="X243">
+        <v>3</v>
+      </c>
+      <c r="Y243">
+        <v>2.63</v>
+      </c>
+      <c r="Z243">
+        <v>1.44</v>
+      </c>
+      <c r="AA243">
+        <v>7</v>
+      </c>
+      <c r="AB243">
+        <v>1.1</v>
+      </c>
+      <c r="AC243">
+        <v>3.95</v>
+      </c>
+      <c r="AD243">
+        <v>3.55</v>
+      </c>
+      <c r="AE243">
+        <v>1.68</v>
+      </c>
+      <c r="AF243">
+        <v>1.04</v>
+      </c>
+      <c r="AG243">
+        <v>13</v>
+      </c>
+      <c r="AH243">
+        <v>1.26</v>
+      </c>
+      <c r="AI243">
+        <v>4</v>
+      </c>
+      <c r="AJ243">
+        <v>1.7</v>
+      </c>
+      <c r="AK243">
+        <v>2.05</v>
+      </c>
+      <c r="AL243">
+        <v>1.8</v>
+      </c>
+      <c r="AM243">
+        <v>1.95</v>
+      </c>
+      <c r="AN243">
+        <v>2.1</v>
+      </c>
+      <c r="AO243">
+        <v>1.25</v>
+      </c>
+      <c r="AP243">
+        <v>1.19</v>
+      </c>
+      <c r="AQ243">
+        <v>0.42</v>
+      </c>
+      <c r="AR243">
+        <v>1.17</v>
+      </c>
+      <c r="AS243">
+        <v>0.38</v>
+      </c>
+      <c r="AT243">
+        <v>1.31</v>
+      </c>
+      <c r="AU243">
+        <v>1.38</v>
+      </c>
+      <c r="AV243">
+        <v>1.66</v>
+      </c>
+      <c r="AW243">
+        <v>3.04</v>
+      </c>
+      <c r="AX243">
+        <v>2.79</v>
+      </c>
+      <c r="AY243">
+        <v>7.9</v>
+      </c>
+      <c r="AZ243">
+        <v>1.66</v>
+      </c>
+      <c r="BA243">
+        <v>1.26</v>
+      </c>
+      <c r="BB243">
+        <v>1.51</v>
+      </c>
+      <c r="BC243">
+        <v>1.91</v>
+      </c>
+      <c r="BD243">
+        <v>2.47</v>
+      </c>
+      <c r="BE243">
+        <v>3.34</v>
+      </c>
+      <c r="BF243">
+        <v>5</v>
+      </c>
+      <c r="BG243">
+        <v>6</v>
+      </c>
+      <c r="BH243">
+        <v>9</v>
+      </c>
+      <c r="BI243">
+        <v>2</v>
+      </c>
+      <c r="BJ243">
+        <v>14</v>
+      </c>
+      <c r="BK243">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>2468167</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>44982.70833333334</v>
+      </c>
+      <c r="F244">
+        <v>25</v>
+      </c>
+      <c r="G244" t="s">
+        <v>71</v>
+      </c>
+      <c r="H244" t="s">
+        <v>72</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>1</v>
+      </c>
+      <c r="N244">
+        <v>2</v>
+      </c>
+      <c r="O244" t="s">
+        <v>208</v>
+      </c>
+      <c r="P244" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q244">
+        <v>4</v>
+      </c>
+      <c r="R244">
+        <v>6</v>
+      </c>
+      <c r="S244">
+        <v>10</v>
+      </c>
+      <c r="T244">
+        <v>4.75</v>
+      </c>
+      <c r="U244">
+        <v>2.2</v>
+      </c>
+      <c r="V244">
+        <v>2.4</v>
+      </c>
+      <c r="W244">
+        <v>1.4</v>
+      </c>
+      <c r="X244">
+        <v>2.75</v>
+      </c>
+      <c r="Y244">
+        <v>2.75</v>
+      </c>
+      <c r="Z244">
+        <v>1.4</v>
+      </c>
+      <c r="AA244">
+        <v>8</v>
+      </c>
+      <c r="AB244">
+        <v>1.08</v>
+      </c>
+      <c r="AC244">
+        <v>4.3</v>
+      </c>
+      <c r="AD244">
+        <v>3.7</v>
+      </c>
+      <c r="AE244">
+        <v>1.83</v>
+      </c>
+      <c r="AF244">
+        <v>1.05</v>
+      </c>
+      <c r="AG244">
+        <v>12</v>
+      </c>
+      <c r="AH244">
+        <v>1.3</v>
+      </c>
+      <c r="AI244">
+        <v>3.6</v>
+      </c>
+      <c r="AJ244">
+        <v>1.73</v>
+      </c>
+      <c r="AK244">
+        <v>1.95</v>
+      </c>
+      <c r="AL244">
+        <v>1.8</v>
+      </c>
+      <c r="AM244">
+        <v>1.95</v>
+      </c>
+      <c r="AN244">
+        <v>1.95</v>
+      </c>
+      <c r="AO244">
+        <v>1.27</v>
+      </c>
+      <c r="AP244">
+        <v>1.21</v>
+      </c>
+      <c r="AQ244">
+        <v>1.08</v>
+      </c>
+      <c r="AR244">
+        <v>1.33</v>
+      </c>
+      <c r="AS244">
+        <v>1.08</v>
+      </c>
+      <c r="AT244">
+        <v>1.31</v>
+      </c>
+      <c r="AU244">
+        <v>1.46</v>
+      </c>
+      <c r="AV244">
+        <v>1.72</v>
+      </c>
+      <c r="AW244">
+        <v>3.18</v>
+      </c>
+      <c r="AX244">
+        <v>2.89</v>
+      </c>
+      <c r="AY244">
+        <v>7.8</v>
+      </c>
+      <c r="AZ244">
+        <v>1.63</v>
+      </c>
+      <c r="BA244">
+        <v>1.28</v>
+      </c>
+      <c r="BB244">
+        <v>1.54</v>
+      </c>
+      <c r="BC244">
+        <v>1.97</v>
+      </c>
+      <c r="BD244">
+        <v>2.56</v>
+      </c>
+      <c r="BE244">
+        <v>3.48</v>
+      </c>
+      <c r="BF244">
+        <v>4</v>
+      </c>
+      <c r="BG244">
+        <v>7</v>
+      </c>
+      <c r="BH244">
+        <v>6</v>
+      </c>
+      <c r="BI244">
+        <v>13</v>
+      </c>
+      <c r="BJ244">
+        <v>10</v>
+      </c>
+      <c r="BK244">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="365">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,6 +745,12 @@
     <t>['60', '80']</t>
   </si>
   <si>
+    <t>['4', '7', '68']</t>
+  </si>
+  <si>
+    <t>['62', '68']</t>
+  </si>
+  <si>
     <t>['43', '53']</t>
   </si>
   <si>
@@ -1091,6 +1097,18 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['8', '26', '43']</t>
+  </si>
+  <si>
+    <t>['25', '29', '55']</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK244"/>
+  <dimension ref="A1:BK251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1887,7 +1905,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2078,7 +2096,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2165,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT4">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2269,7 +2287,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2359,7 +2377,7 @@
         <v>1.69</v>
       </c>
       <c r="AT5">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2460,7 +2478,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2550,7 +2568,7 @@
         <v>2.08</v>
       </c>
       <c r="AT6">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2842,7 +2860,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2932,7 +2950,7 @@
         <v>1.08</v>
       </c>
       <c r="AT8">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3033,7 +3051,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3502,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT11">
         <v>1.15</v>
@@ -3693,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT12">
         <v>1.42</v>
@@ -3884,10 +3902,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT13">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3988,7 +4006,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -4179,7 +4197,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4269,7 +4287,7 @@
         <v>0.83</v>
       </c>
       <c r="AT15">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4370,7 +4388,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4457,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT16">
         <v>1.33</v>
@@ -4561,7 +4579,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4839,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT18">
         <v>1.31</v>
@@ -4943,7 +4961,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -5033,7 +5051,7 @@
         <v>1.58</v>
       </c>
       <c r="AT19">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5134,7 +5152,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5415,7 +5433,7 @@
         <v>1.75</v>
       </c>
       <c r="AT21">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU21">
         <v>1.29</v>
@@ -5516,7 +5534,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5603,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT22">
         <v>1.31</v>
@@ -5707,7 +5725,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5794,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT23">
         <v>0.85</v>
@@ -5898,7 +5916,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6089,7 +6107,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6367,10 +6385,10 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT26">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU26">
         <v>0.87</v>
@@ -6471,7 +6489,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6662,7 +6680,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6752,7 +6770,7 @@
         <v>1.08</v>
       </c>
       <c r="AT28">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU28">
         <v>1.63</v>
@@ -6853,7 +6871,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7044,7 +7062,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7134,7 +7152,7 @@
         <v>2.08</v>
       </c>
       <c r="AT30">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU30">
         <v>1.87</v>
@@ -7235,7 +7253,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7322,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT31">
         <v>1.42</v>
@@ -7516,7 +7534,7 @@
         <v>1.08</v>
       </c>
       <c r="AT32">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU32">
         <v>1.58</v>
@@ -7707,7 +7725,7 @@
         <v>2.75</v>
       </c>
       <c r="AT33">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU33">
         <v>1.79</v>
@@ -7895,10 +7913,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT34">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU34">
         <v>1</v>
@@ -8277,7 +8295,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT36">
         <v>1.33</v>
@@ -8381,7 +8399,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8572,7 +8590,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8850,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT39">
         <v>1.31</v>
@@ -9235,7 +9253,7 @@
         <v>1.75</v>
       </c>
       <c r="AT41">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU41">
         <v>1.62</v>
@@ -9336,7 +9354,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9423,10 +9441,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT42">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU42">
         <v>1.44</v>
@@ -9527,7 +9545,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9718,7 +9736,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10100,7 +10118,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10291,7 +10309,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10482,7 +10500,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10572,7 +10590,7 @@
         <v>1.69</v>
       </c>
       <c r="AT48">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU48">
         <v>1.44</v>
@@ -10673,7 +10691,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10763,7 +10781,7 @@
         <v>2.08</v>
       </c>
       <c r="AT49">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU49">
         <v>1.88</v>
@@ -10951,7 +10969,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT50">
         <v>1.33</v>
@@ -11055,7 +11073,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11437,7 +11455,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -11524,10 +11542,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT53">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU53">
         <v>1.62</v>
@@ -11628,7 +11646,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11906,7 +11924,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT55">
         <v>1.5</v>
@@ -12097,10 +12115,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT56">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU56">
         <v>0.92</v>
@@ -12288,7 +12306,7 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT57">
         <v>1.31</v>
@@ -12482,7 +12500,7 @@
         <v>0.92</v>
       </c>
       <c r="AT58">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU58">
         <v>1.53</v>
@@ -12583,7 +12601,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12673,7 +12691,7 @@
         <v>0.83</v>
       </c>
       <c r="AT59">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU59">
         <v>2.18</v>
@@ -12774,7 +12792,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -13052,7 +13070,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT61">
         <v>1.31</v>
@@ -13246,7 +13264,7 @@
         <v>2.75</v>
       </c>
       <c r="AT62">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU62">
         <v>1.89</v>
@@ -13538,7 +13556,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13625,7 +13643,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT64">
         <v>1.42</v>
@@ -14111,7 +14129,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14389,10 +14407,10 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT68">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU68">
         <v>1.29</v>
@@ -14493,7 +14511,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14580,7 +14598,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT69">
         <v>0.85</v>
@@ -14774,7 +14792,7 @@
         <v>2.54</v>
       </c>
       <c r="AT70">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU70">
         <v>2.14</v>
@@ -14875,7 +14893,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -14962,7 +14980,7 @@
         <v>0.5</v>
       </c>
       <c r="AS71">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT71">
         <v>1.31</v>
@@ -15066,7 +15084,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15257,7 +15275,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15347,7 +15365,7 @@
         <v>1.08</v>
       </c>
       <c r="AT73">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU73">
         <v>1.43</v>
@@ -15448,7 +15466,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15538,7 +15556,7 @@
         <v>2.08</v>
       </c>
       <c r="AT74">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU74">
         <v>2.06</v>
@@ -15639,7 +15657,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15726,7 +15744,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT75">
         <v>2.25</v>
@@ -16021,7 +16039,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16108,10 +16126,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT77">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU77">
         <v>1.06</v>
@@ -16403,7 +16421,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16490,10 +16508,10 @@
         <v>0.67</v>
       </c>
       <c r="AS79">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT79">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU79">
         <v>2.05</v>
@@ -16681,7 +16699,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT80">
         <v>1.31</v>
@@ -16785,7 +16803,7 @@
         <v>87</v>
       </c>
       <c r="P81" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16875,7 +16893,7 @@
         <v>1.75</v>
       </c>
       <c r="AT81">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU81">
         <v>2.16</v>
@@ -16976,7 +16994,7 @@
         <v>87</v>
       </c>
       <c r="P82" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17167,7 +17185,7 @@
         <v>94</v>
       </c>
       <c r="P83" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -17257,7 +17275,7 @@
         <v>0.92</v>
       </c>
       <c r="AT83">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU83">
         <v>1.41</v>
@@ -17448,7 +17466,7 @@
         <v>2.67</v>
       </c>
       <c r="AT84">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU84">
         <v>2.31</v>
@@ -17549,7 +17567,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -17636,7 +17654,7 @@
         <v>1.75</v>
       </c>
       <c r="AS85">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT85">
         <v>1.42</v>
@@ -17740,7 +17758,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17931,7 +17949,7 @@
         <v>106</v>
       </c>
       <c r="P87" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18018,7 +18036,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT87">
         <v>1.33</v>
@@ -18122,7 +18140,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -18313,7 +18331,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q89">
         <v>10</v>
@@ -18504,7 +18522,7 @@
         <v>146</v>
       </c>
       <c r="P90" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -18591,7 +18609,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT90">
         <v>0.85</v>
@@ -18976,7 +18994,7 @@
         <v>1.75</v>
       </c>
       <c r="AT92">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU92">
         <v>2.04</v>
@@ -19077,7 +19095,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q93">
         <v>11</v>
@@ -19164,7 +19182,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT93">
         <v>0.85</v>
@@ -19355,10 +19373,10 @@
         <v>3</v>
       </c>
       <c r="AS94">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT94">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU94">
         <v>1.39</v>
@@ -19459,7 +19477,7 @@
         <v>87</v>
       </c>
       <c r="P95" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19650,7 +19668,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19841,7 +19859,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19928,10 +19946,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT97">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU97">
         <v>1.19</v>
@@ -20032,7 +20050,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20122,7 +20140,7 @@
         <v>0.38</v>
       </c>
       <c r="AT98">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU98">
         <v>1.52</v>
@@ -20223,7 +20241,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20313,7 +20331,7 @@
         <v>1.58</v>
       </c>
       <c r="AT99">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU99">
         <v>1.56</v>
@@ -20796,7 +20814,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21074,7 +21092,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT103">
         <v>1.15</v>
@@ -21369,7 +21387,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21650,7 +21668,7 @@
         <v>1.08</v>
       </c>
       <c r="AT106">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU106">
         <v>1.48</v>
@@ -21751,7 +21769,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21942,7 +21960,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -22220,7 +22238,7 @@
         <v>0.8</v>
       </c>
       <c r="AS109">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT109">
         <v>0.6899999999999999</v>
@@ -22411,7 +22429,7 @@
         <v>1.4</v>
       </c>
       <c r="AS110">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT110">
         <v>1.33</v>
@@ -22706,7 +22724,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22793,10 +22811,10 @@
         <v>2.67</v>
       </c>
       <c r="AS112">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT112">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU112">
         <v>1.3</v>
@@ -22897,7 +22915,7 @@
         <v>106</v>
       </c>
       <c r="P113" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -23088,7 +23106,7 @@
         <v>87</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23175,7 +23193,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT114">
         <v>1.31</v>
@@ -23279,7 +23297,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23369,7 +23387,7 @@
         <v>0.38</v>
       </c>
       <c r="AT115">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU115">
         <v>1.56</v>
@@ -23470,7 +23488,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23557,10 +23575,10 @@
         <v>0.6</v>
       </c>
       <c r="AS116">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT116">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU116">
         <v>1.59</v>
@@ -23661,7 +23679,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23748,7 +23766,7 @@
         <v>0.67</v>
       </c>
       <c r="AS117">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT117">
         <v>0.6899999999999999</v>
@@ -23852,7 +23870,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -24043,7 +24061,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24133,7 +24151,7 @@
         <v>1.69</v>
       </c>
       <c r="AT119">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU119">
         <v>1.58</v>
@@ -24425,7 +24443,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24706,7 +24724,7 @@
         <v>2.75</v>
       </c>
       <c r="AT122">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU122">
         <v>1.97</v>
@@ -24807,7 +24825,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24897,7 +24915,7 @@
         <v>2.67</v>
       </c>
       <c r="AT123">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU123">
         <v>2.18</v>
@@ -24998,7 +25016,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25467,7 +25485,7 @@
         <v>0.8</v>
       </c>
       <c r="AS126">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT126">
         <v>0.42</v>
@@ -25849,7 +25867,7 @@
         <v>1.33</v>
       </c>
       <c r="AS128">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT128">
         <v>1.33</v>
@@ -26144,7 +26162,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26231,10 +26249,10 @@
         <v>1.33</v>
       </c>
       <c r="AS130">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT130">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU130">
         <v>1.62</v>
@@ -26616,7 +26634,7 @@
         <v>0.83</v>
       </c>
       <c r="AT132">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU132">
         <v>1.81</v>
@@ -26717,7 +26735,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26804,10 +26822,10 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT133">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU133">
         <v>1.28</v>
@@ -26908,7 +26926,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27099,7 +27117,7 @@
         <v>163</v>
       </c>
       <c r="P135" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27186,10 +27204,10 @@
         <v>2.71</v>
       </c>
       <c r="AS135">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT135">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU135">
         <v>1.67</v>
@@ -27377,7 +27395,7 @@
         <v>0.5</v>
       </c>
       <c r="AS136">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT136">
         <v>1.08</v>
@@ -27759,7 +27777,7 @@
         <v>0.43</v>
       </c>
       <c r="AS138">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT138">
         <v>0.85</v>
@@ -27863,7 +27881,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28054,7 +28072,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28144,7 +28162,7 @@
         <v>2.08</v>
       </c>
       <c r="AT140">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU140">
         <v>1.86</v>
@@ -28332,7 +28350,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT141">
         <v>1.31</v>
@@ -28436,7 +28454,7 @@
         <v>165</v>
       </c>
       <c r="P142" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28526,7 +28544,7 @@
         <v>1.75</v>
       </c>
       <c r="AT142">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU142">
         <v>1.92</v>
@@ -28818,7 +28836,7 @@
         <v>185</v>
       </c>
       <c r="P144" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -28908,7 +28926,7 @@
         <v>2.54</v>
       </c>
       <c r="AT144">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU144">
         <v>1.89</v>
@@ -29099,7 +29117,7 @@
         <v>2.67</v>
       </c>
       <c r="AT145">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU145">
         <v>2.27</v>
@@ -29290,7 +29308,7 @@
         <v>0.92</v>
       </c>
       <c r="AT146">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU146">
         <v>1.6</v>
@@ -29582,7 +29600,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29669,7 +29687,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT148">
         <v>0.85</v>
@@ -29964,7 +29982,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30155,7 +30173,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30242,7 +30260,7 @@
         <v>1.83</v>
       </c>
       <c r="AS151">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT151">
         <v>2.42</v>
@@ -30433,7 +30451,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT152">
         <v>0.42</v>
@@ -30728,7 +30746,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30919,7 +30937,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -31006,7 +31024,7 @@
         <v>1.43</v>
       </c>
       <c r="AS155">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT155">
         <v>1.42</v>
@@ -31110,7 +31128,7 @@
         <v>117</v>
       </c>
       <c r="P156" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31391,7 +31409,7 @@
         <v>2.67</v>
       </c>
       <c r="AT157">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU157">
         <v>2.18</v>
@@ -31492,7 +31510,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31579,7 +31597,7 @@
         <v>0.57</v>
       </c>
       <c r="AS158">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT158">
         <v>1.08</v>
@@ -31683,7 +31701,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31770,10 +31788,10 @@
         <v>1.43</v>
       </c>
       <c r="AS159">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT159">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU159">
         <v>1.91</v>
@@ -32152,10 +32170,10 @@
         <v>0.57</v>
       </c>
       <c r="AS161">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT161">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU161">
         <v>1.84</v>
@@ -32343,7 +32361,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT162">
         <v>0.6899999999999999</v>
@@ -32534,10 +32552,10 @@
         <v>0.5</v>
       </c>
       <c r="AS163">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT163">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU163">
         <v>1.62</v>
@@ -32829,7 +32847,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33301,7 +33319,7 @@
         <v>2.75</v>
       </c>
       <c r="AT167">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU167">
         <v>1.94</v>
@@ -33402,7 +33420,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33492,7 +33510,7 @@
         <v>0.92</v>
       </c>
       <c r="AT168">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU168">
         <v>1.45</v>
@@ -33593,7 +33611,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33784,7 +33802,7 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33975,7 +33993,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34065,7 +34083,7 @@
         <v>2.54</v>
       </c>
       <c r="AT171">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU171">
         <v>1.9</v>
@@ -34253,7 +34271,7 @@
         <v>1</v>
       </c>
       <c r="AS172">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT172">
         <v>1.15</v>
@@ -34357,7 +34375,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -34447,7 +34465,7 @@
         <v>1.08</v>
       </c>
       <c r="AT173">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU173">
         <v>1.54</v>
@@ -34635,10 +34653,10 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT174">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU174">
         <v>1.39</v>
@@ -34826,7 +34844,7 @@
         <v>0.88</v>
       </c>
       <c r="AS175">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT175">
         <v>1.31</v>
@@ -35121,7 +35139,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35208,7 +35226,7 @@
         <v>2.38</v>
       </c>
       <c r="AS177">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT177">
         <v>2.25</v>
@@ -35694,7 +35712,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -35885,7 +35903,7 @@
         <v>87</v>
       </c>
       <c r="P181" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -36166,7 +36184,7 @@
         <v>2.75</v>
       </c>
       <c r="AT182">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU182">
         <v>1.86</v>
@@ -36354,7 +36372,7 @@
         <v>2</v>
       </c>
       <c r="AS183">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT183">
         <v>1.5</v>
@@ -36458,7 +36476,7 @@
         <v>162</v>
       </c>
       <c r="P184" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q184">
         <v>14</v>
@@ -36548,7 +36566,7 @@
         <v>1.75</v>
       </c>
       <c r="AT184">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU184">
         <v>1.8</v>
@@ -36739,7 +36757,7 @@
         <v>2.08</v>
       </c>
       <c r="AT185">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU185">
         <v>1.83</v>
@@ -36927,10 +36945,10 @@
         <v>1.33</v>
       </c>
       <c r="AS186">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT186">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU186">
         <v>1.86</v>
@@ -37222,7 +37240,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -37413,7 +37431,7 @@
         <v>87</v>
       </c>
       <c r="P189" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37604,7 +37622,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37691,7 +37709,7 @@
         <v>0.89</v>
       </c>
       <c r="AS190">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT190">
         <v>0.85</v>
@@ -37885,7 +37903,7 @@
         <v>2.54</v>
       </c>
       <c r="AT191">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU191">
         <v>1.95</v>
@@ -38073,10 +38091,10 @@
         <v>1.11</v>
       </c>
       <c r="AS192">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT192">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU192">
         <v>1.58</v>
@@ -38177,7 +38195,7 @@
         <v>136</v>
       </c>
       <c r="P193" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -38455,7 +38473,7 @@
         <v>2.22</v>
       </c>
       <c r="AS194">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT194">
         <v>2.25</v>
@@ -38750,7 +38768,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38941,7 +38959,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39031,7 +39049,7 @@
         <v>0.92</v>
       </c>
       <c r="AT197">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU197">
         <v>1.52</v>
@@ -39410,7 +39428,7 @@
         <v>0.7</v>
       </c>
       <c r="AS199">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT199">
         <v>0.85</v>
@@ -39514,7 +39532,7 @@
         <v>87</v>
       </c>
       <c r="P200" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39601,7 +39619,7 @@
         <v>0.89</v>
       </c>
       <c r="AS200">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT200">
         <v>1.31</v>
@@ -39705,7 +39723,7 @@
         <v>217</v>
       </c>
       <c r="P201" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39896,7 +39914,7 @@
         <v>218</v>
       </c>
       <c r="P202" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40087,7 +40105,7 @@
         <v>219</v>
       </c>
       <c r="P203" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40174,7 +40192,7 @@
         <v>1.8</v>
       </c>
       <c r="AS203">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT203">
         <v>1.5</v>
@@ -40278,7 +40296,7 @@
         <v>220</v>
       </c>
       <c r="P204" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q204">
         <v>8</v>
@@ -40368,7 +40386,7 @@
         <v>1.69</v>
       </c>
       <c r="AT204">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU204">
         <v>1.72</v>
@@ -40469,7 +40487,7 @@
         <v>87</v>
       </c>
       <c r="P205" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q205">
         <v>5</v>
@@ -40556,7 +40574,7 @@
         <v>2.22</v>
       </c>
       <c r="AS205">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT205">
         <v>2.42</v>
@@ -40851,7 +40869,7 @@
         <v>87</v>
       </c>
       <c r="P207" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -40941,7 +40959,7 @@
         <v>2.75</v>
       </c>
       <c r="AT207">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU207">
         <v>1.84</v>
@@ -41132,7 +41150,7 @@
         <v>2.54</v>
       </c>
       <c r="AT208">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU208">
         <v>1.89</v>
@@ -41233,7 +41251,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41320,10 +41338,10 @@
         <v>0.4</v>
       </c>
       <c r="AS209">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT209">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU209">
         <v>1.42</v>
@@ -41424,7 +41442,7 @@
         <v>165</v>
       </c>
       <c r="P210" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q210">
         <v>1</v>
@@ -41514,7 +41532,7 @@
         <v>1.08</v>
       </c>
       <c r="AT210">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU210">
         <v>1.44</v>
@@ -41896,7 +41914,7 @@
         <v>2.67</v>
       </c>
       <c r="AT212">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU212">
         <v>2.04</v>
@@ -41997,7 +42015,7 @@
         <v>181</v>
       </c>
       <c r="P213" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -42188,7 +42206,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q214">
         <v>2</v>
@@ -42379,7 +42397,7 @@
         <v>87</v>
       </c>
       <c r="P215" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42466,7 +42484,7 @@
         <v>2.1</v>
       </c>
       <c r="AS215">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT215">
         <v>2.25</v>
@@ -42657,7 +42675,7 @@
         <v>0.4</v>
       </c>
       <c r="AS216">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT216">
         <v>0.42</v>
@@ -42761,7 +42779,7 @@
         <v>87</v>
       </c>
       <c r="P217" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q217">
         <v>2</v>
@@ -42848,7 +42866,7 @@
         <v>0.73</v>
       </c>
       <c r="AS217">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT217">
         <v>0.85</v>
@@ -43334,7 +43352,7 @@
         <v>109</v>
       </c>
       <c r="P220" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q220">
         <v>11</v>
@@ -43525,7 +43543,7 @@
         <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q221">
         <v>9</v>
@@ -43612,10 +43630,10 @@
         <v>1.45</v>
       </c>
       <c r="AS221">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT221">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU221">
         <v>1.91</v>
@@ -43994,10 +44012,10 @@
         <v>2.27</v>
       </c>
       <c r="AS223">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT223">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU223">
         <v>1.46</v>
@@ -44098,7 +44116,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -44185,7 +44203,7 @@
         <v>2.3</v>
       </c>
       <c r="AS224">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT224">
         <v>2.42</v>
@@ -44289,7 +44307,7 @@
         <v>229</v>
       </c>
       <c r="P225" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q225">
         <v>2</v>
@@ -44379,7 +44397,7 @@
         <v>1.69</v>
       </c>
       <c r="AT225">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU225">
         <v>1.71</v>
@@ -44567,10 +44585,10 @@
         <v>0.82</v>
       </c>
       <c r="AS226">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT226">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU226">
         <v>1.96</v>
@@ -44671,7 +44689,7 @@
         <v>148</v>
       </c>
       <c r="P227" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q227">
         <v>6</v>
@@ -44761,7 +44779,7 @@
         <v>0.38</v>
       </c>
       <c r="AT227">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU227">
         <v>1.36</v>
@@ -44952,7 +44970,7 @@
         <v>2.08</v>
       </c>
       <c r="AT228">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU228">
         <v>1.95</v>
@@ -45331,7 +45349,7 @@
         <v>1.64</v>
       </c>
       <c r="AS230">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT230">
         <v>1.5</v>
@@ -46199,7 +46217,7 @@
         <v>237</v>
       </c>
       <c r="P235" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -46477,7 +46495,7 @@
         <v>0.92</v>
       </c>
       <c r="AS236">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT236">
         <v>0.85</v>
@@ -46581,7 +46599,7 @@
         <v>144</v>
       </c>
       <c r="P237" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -46963,7 +46981,7 @@
         <v>87</v>
       </c>
       <c r="P239" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q239">
         <v>2</v>
@@ -47345,7 +47363,7 @@
         <v>241</v>
       </c>
       <c r="P241" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -47727,7 +47745,7 @@
         <v>180</v>
       </c>
       <c r="P243" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -47918,7 +47936,7 @@
         <v>208</v>
       </c>
       <c r="P244" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q244">
         <v>4</v>
@@ -48060,6 +48078,1343 @@
       </c>
       <c r="BK244">
         <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>2468164</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>44983.375</v>
+      </c>
+      <c r="F245">
+        <v>25</v>
+      </c>
+      <c r="G245" t="s">
+        <v>84</v>
+      </c>
+      <c r="H245" t="s">
+        <v>80</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
+        <v>87</v>
+      </c>
+      <c r="P245" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q245">
+        <v>10</v>
+      </c>
+      <c r="R245">
+        <v>0</v>
+      </c>
+      <c r="S245">
+        <v>10</v>
+      </c>
+      <c r="T245">
+        <v>2.75</v>
+      </c>
+      <c r="U245">
+        <v>2.2</v>
+      </c>
+      <c r="V245">
+        <v>3.75</v>
+      </c>
+      <c r="W245">
+        <v>1.36</v>
+      </c>
+      <c r="X245">
+        <v>3</v>
+      </c>
+      <c r="Y245">
+        <v>2.75</v>
+      </c>
+      <c r="Z245">
+        <v>1.4</v>
+      </c>
+      <c r="AA245">
+        <v>8</v>
+      </c>
+      <c r="AB245">
+        <v>1.08</v>
+      </c>
+      <c r="AC245">
+        <v>2.05</v>
+      </c>
+      <c r="AD245">
+        <v>3.4</v>
+      </c>
+      <c r="AE245">
+        <v>3.4</v>
+      </c>
+      <c r="AF245">
+        <v>1.04</v>
+      </c>
+      <c r="AG245">
+        <v>9.5</v>
+      </c>
+      <c r="AH245">
+        <v>1.27</v>
+      </c>
+      <c r="AI245">
+        <v>3.6</v>
+      </c>
+      <c r="AJ245">
+        <v>1.95</v>
+      </c>
+      <c r="AK245">
+        <v>1.85</v>
+      </c>
+      <c r="AL245">
+        <v>1.7</v>
+      </c>
+      <c r="AM245">
+        <v>2.05</v>
+      </c>
+      <c r="AN245">
+        <v>1.33</v>
+      </c>
+      <c r="AO245">
+        <v>1.26</v>
+      </c>
+      <c r="AP245">
+        <v>1.75</v>
+      </c>
+      <c r="AQ245">
+        <v>1.75</v>
+      </c>
+      <c r="AR245">
+        <v>0.42</v>
+      </c>
+      <c r="AS245">
+        <v>1.62</v>
+      </c>
+      <c r="AT245">
+        <v>0.62</v>
+      </c>
+      <c r="AU245">
+        <v>1.44</v>
+      </c>
+      <c r="AV245">
+        <v>1.32</v>
+      </c>
+      <c r="AW245">
+        <v>2.76</v>
+      </c>
+      <c r="AX245">
+        <v>1.77</v>
+      </c>
+      <c r="AY245">
+        <v>6.25</v>
+      </c>
+      <c r="AZ245">
+        <v>2.55</v>
+      </c>
+      <c r="BA245">
+        <v>1.26</v>
+      </c>
+      <c r="BB245">
+        <v>1.49</v>
+      </c>
+      <c r="BC245">
+        <v>1.85</v>
+      </c>
+      <c r="BD245">
+        <v>2.45</v>
+      </c>
+      <c r="BE245">
+        <v>3.4</v>
+      </c>
+      <c r="BF245">
+        <v>5</v>
+      </c>
+      <c r="BG245">
+        <v>2</v>
+      </c>
+      <c r="BH245">
+        <v>14</v>
+      </c>
+      <c r="BI245">
+        <v>8</v>
+      </c>
+      <c r="BJ245">
+        <v>19</v>
+      </c>
+      <c r="BK245">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>2468169</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>44983.45833333334</v>
+      </c>
+      <c r="F246">
+        <v>25</v>
+      </c>
+      <c r="G246" t="s">
+        <v>79</v>
+      </c>
+      <c r="H246" t="s">
+        <v>68</v>
+      </c>
+      <c r="I246">
+        <v>2</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>2</v>
+      </c>
+      <c r="L246">
+        <v>3</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>3</v>
+      </c>
+      <c r="O246" t="s">
+        <v>243</v>
+      </c>
+      <c r="P246" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q246">
+        <v>4</v>
+      </c>
+      <c r="R246">
+        <v>2</v>
+      </c>
+      <c r="S246">
+        <v>6</v>
+      </c>
+      <c r="T246">
+        <v>2.75</v>
+      </c>
+      <c r="U246">
+        <v>2.3</v>
+      </c>
+      <c r="V246">
+        <v>3.6</v>
+      </c>
+      <c r="W246">
+        <v>1.33</v>
+      </c>
+      <c r="X246">
+        <v>3.25</v>
+      </c>
+      <c r="Y246">
+        <v>2.5</v>
+      </c>
+      <c r="Z246">
+        <v>1.5</v>
+      </c>
+      <c r="AA246">
+        <v>6.5</v>
+      </c>
+      <c r="AB246">
+        <v>1.11</v>
+      </c>
+      <c r="AC246">
+        <v>2.1</v>
+      </c>
+      <c r="AD246">
+        <v>3.4</v>
+      </c>
+      <c r="AE246">
+        <v>3.3</v>
+      </c>
+      <c r="AF246">
+        <v>1.03</v>
+      </c>
+      <c r="AG246">
+        <v>11</v>
+      </c>
+      <c r="AH246">
+        <v>1.2</v>
+      </c>
+      <c r="AI246">
+        <v>4.3</v>
+      </c>
+      <c r="AJ246">
+        <v>1.81</v>
+      </c>
+      <c r="AK246">
+        <v>2</v>
+      </c>
+      <c r="AL246">
+        <v>1.57</v>
+      </c>
+      <c r="AM246">
+        <v>2.25</v>
+      </c>
+      <c r="AN246">
+        <v>1.33</v>
+      </c>
+      <c r="AO246">
+        <v>1.33</v>
+      </c>
+      <c r="AP246">
+        <v>1.78</v>
+      </c>
+      <c r="AQ246">
+        <v>1.73</v>
+      </c>
+      <c r="AR246">
+        <v>0.91</v>
+      </c>
+      <c r="AS246">
+        <v>1.83</v>
+      </c>
+      <c r="AT246">
+        <v>0.83</v>
+      </c>
+      <c r="AU246">
+        <v>2.02</v>
+      </c>
+      <c r="AV246">
+        <v>1.4</v>
+      </c>
+      <c r="AW246">
+        <v>3.42</v>
+      </c>
+      <c r="AX246">
+        <v>1.9</v>
+      </c>
+      <c r="AY246">
+        <v>6</v>
+      </c>
+      <c r="AZ246">
+        <v>2.35</v>
+      </c>
+      <c r="BA246">
+        <v>1.26</v>
+      </c>
+      <c r="BB246">
+        <v>1.49</v>
+      </c>
+      <c r="BC246">
+        <v>1.85</v>
+      </c>
+      <c r="BD246">
+        <v>2.45</v>
+      </c>
+      <c r="BE246">
+        <v>3.4</v>
+      </c>
+      <c r="BF246">
+        <v>7</v>
+      </c>
+      <c r="BG246">
+        <v>7</v>
+      </c>
+      <c r="BH246">
+        <v>12</v>
+      </c>
+      <c r="BI246">
+        <v>8</v>
+      </c>
+      <c r="BJ246">
+        <v>19</v>
+      </c>
+      <c r="BK246">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>2468163</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>44983.45833333334</v>
+      </c>
+      <c r="F247">
+        <v>25</v>
+      </c>
+      <c r="G247" t="s">
+        <v>67</v>
+      </c>
+      <c r="H247" t="s">
+        <v>66</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247">
+        <v>1</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="O247" t="s">
+        <v>86</v>
+      </c>
+      <c r="P247" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q247">
+        <v>7</v>
+      </c>
+      <c r="R247">
+        <v>2</v>
+      </c>
+      <c r="S247">
+        <v>9</v>
+      </c>
+      <c r="T247">
+        <v>3.2</v>
+      </c>
+      <c r="U247">
+        <v>2.05</v>
+      </c>
+      <c r="V247">
+        <v>3.6</v>
+      </c>
+      <c r="W247">
+        <v>1.5</v>
+      </c>
+      <c r="X247">
+        <v>2.5</v>
+      </c>
+      <c r="Y247">
+        <v>3.4</v>
+      </c>
+      <c r="Z247">
+        <v>1.3</v>
+      </c>
+      <c r="AA247">
+        <v>10</v>
+      </c>
+      <c r="AB247">
+        <v>1.06</v>
+      </c>
+      <c r="AC247">
+        <v>2.3</v>
+      </c>
+      <c r="AD247">
+        <v>3.2</v>
+      </c>
+      <c r="AE247">
+        <v>3.1</v>
+      </c>
+      <c r="AF247">
+        <v>1.07</v>
+      </c>
+      <c r="AG247">
+        <v>8</v>
+      </c>
+      <c r="AH247">
+        <v>1.38</v>
+      </c>
+      <c r="AI247">
+        <v>2.8</v>
+      </c>
+      <c r="AJ247">
+        <v>2.1</v>
+      </c>
+      <c r="AK247">
+        <v>1.73</v>
+      </c>
+      <c r="AL247">
+        <v>1.95</v>
+      </c>
+      <c r="AM247">
+        <v>1.8</v>
+      </c>
+      <c r="AN247">
+        <v>1.4</v>
+      </c>
+      <c r="AO247">
+        <v>1.37</v>
+      </c>
+      <c r="AP247">
+        <v>1.47</v>
+      </c>
+      <c r="AQ247">
+        <v>1.17</v>
+      </c>
+      <c r="AR247">
+        <v>0.82</v>
+      </c>
+      <c r="AS247">
+        <v>1.15</v>
+      </c>
+      <c r="AT247">
+        <v>0.83</v>
+      </c>
+      <c r="AU247">
+        <v>1.28</v>
+      </c>
+      <c r="AV247">
+        <v>1.3</v>
+      </c>
+      <c r="AW247">
+        <v>2.58</v>
+      </c>
+      <c r="AX247">
+        <v>1.55</v>
+      </c>
+      <c r="AY247">
+        <v>6.5</v>
+      </c>
+      <c r="AZ247">
+        <v>3.2</v>
+      </c>
+      <c r="BA247">
+        <v>1.33</v>
+      </c>
+      <c r="BB247">
+        <v>1.61</v>
+      </c>
+      <c r="BC247">
+        <v>2.05</v>
+      </c>
+      <c r="BD247">
+        <v>2.85</v>
+      </c>
+      <c r="BE247">
+        <v>4.1</v>
+      </c>
+      <c r="BF247">
+        <v>5</v>
+      </c>
+      <c r="BG247">
+        <v>7</v>
+      </c>
+      <c r="BH247">
+        <v>6</v>
+      </c>
+      <c r="BI247">
+        <v>6</v>
+      </c>
+      <c r="BJ247">
+        <v>11</v>
+      </c>
+      <c r="BK247">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>2468160</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>44983.45833333334</v>
+      </c>
+      <c r="F248">
+        <v>25</v>
+      </c>
+      <c r="G248" t="s">
+        <v>81</v>
+      </c>
+      <c r="H248" t="s">
+        <v>78</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>3</v>
+      </c>
+      <c r="O248" t="s">
+        <v>244</v>
+      </c>
+      <c r="P248" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q248">
+        <v>6</v>
+      </c>
+      <c r="R248">
+        <v>3</v>
+      </c>
+      <c r="S248">
+        <v>9</v>
+      </c>
+      <c r="T248">
+        <v>3</v>
+      </c>
+      <c r="U248">
+        <v>1.95</v>
+      </c>
+      <c r="V248">
+        <v>4</v>
+      </c>
+      <c r="W248">
+        <v>1.53</v>
+      </c>
+      <c r="X248">
+        <v>2.38</v>
+      </c>
+      <c r="Y248">
+        <v>3.5</v>
+      </c>
+      <c r="Z248">
+        <v>1.29</v>
+      </c>
+      <c r="AA248">
+        <v>11</v>
+      </c>
+      <c r="AB248">
+        <v>1.05</v>
+      </c>
+      <c r="AC248">
+        <v>2.1</v>
+      </c>
+      <c r="AD248">
+        <v>3.2</v>
+      </c>
+      <c r="AE248">
+        <v>3.5</v>
+      </c>
+      <c r="AF248">
+        <v>1.07</v>
+      </c>
+      <c r="AG248">
+        <v>7.5</v>
+      </c>
+      <c r="AH248">
+        <v>1.42</v>
+      </c>
+      <c r="AI248">
+        <v>2.75</v>
+      </c>
+      <c r="AJ248">
+        <v>2.23</v>
+      </c>
+      <c r="AK248">
+        <v>1.66</v>
+      </c>
+      <c r="AL248">
+        <v>2</v>
+      </c>
+      <c r="AM248">
+        <v>1.75</v>
+      </c>
+      <c r="AN248">
+        <v>1.32</v>
+      </c>
+      <c r="AO248">
+        <v>1.37</v>
+      </c>
+      <c r="AP248">
+        <v>1.57</v>
+      </c>
+      <c r="AQ248">
+        <v>0.64</v>
+      </c>
+      <c r="AR248">
+        <v>0.75</v>
+      </c>
+      <c r="AS248">
+        <v>0.83</v>
+      </c>
+      <c r="AT248">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU248">
+        <v>1.38</v>
+      </c>
+      <c r="AV248">
+        <v>1.4</v>
+      </c>
+      <c r="AW248">
+        <v>2.78</v>
+      </c>
+      <c r="AX248">
+        <v>1.65</v>
+      </c>
+      <c r="AY248">
+        <v>6</v>
+      </c>
+      <c r="AZ248">
+        <v>2.9</v>
+      </c>
+      <c r="BA248">
+        <v>1.44</v>
+      </c>
+      <c r="BB248">
+        <v>1.82</v>
+      </c>
+      <c r="BC248">
+        <v>2.45</v>
+      </c>
+      <c r="BD248">
+        <v>3.4</v>
+      </c>
+      <c r="BE248">
+        <v>5.3</v>
+      </c>
+      <c r="BF248">
+        <v>7</v>
+      </c>
+      <c r="BG248">
+        <v>6</v>
+      </c>
+      <c r="BH248">
+        <v>8</v>
+      </c>
+      <c r="BI248">
+        <v>6</v>
+      </c>
+      <c r="BJ248">
+        <v>15</v>
+      </c>
+      <c r="BK248">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>2468165</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>44983.45833333334</v>
+      </c>
+      <c r="F249">
+        <v>25</v>
+      </c>
+      <c r="G249" t="s">
+        <v>75</v>
+      </c>
+      <c r="H249" t="s">
+        <v>73</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>1</v>
+      </c>
+      <c r="O249" t="s">
+        <v>87</v>
+      </c>
+      <c r="P249" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q249">
+        <v>12</v>
+      </c>
+      <c r="R249">
+        <v>4</v>
+      </c>
+      <c r="S249">
+        <v>16</v>
+      </c>
+      <c r="T249">
+        <v>4</v>
+      </c>
+      <c r="U249">
+        <v>2.1</v>
+      </c>
+      <c r="V249">
+        <v>2.88</v>
+      </c>
+      <c r="W249">
+        <v>1.44</v>
+      </c>
+      <c r="X249">
+        <v>2.63</v>
+      </c>
+      <c r="Y249">
+        <v>3.25</v>
+      </c>
+      <c r="Z249">
+        <v>1.33</v>
+      </c>
+      <c r="AA249">
+        <v>9</v>
+      </c>
+      <c r="AB249">
+        <v>1.07</v>
+      </c>
+      <c r="AC249">
+        <v>3.3</v>
+      </c>
+      <c r="AD249">
+        <v>3.25</v>
+      </c>
+      <c r="AE249">
+        <v>2.15</v>
+      </c>
+      <c r="AF249">
+        <v>1.06</v>
+      </c>
+      <c r="AG249">
+        <v>8</v>
+      </c>
+      <c r="AH249">
+        <v>1.32</v>
+      </c>
+      <c r="AI249">
+        <v>3.3</v>
+      </c>
+      <c r="AJ249">
+        <v>1.98</v>
+      </c>
+      <c r="AK249">
+        <v>1.82</v>
+      </c>
+      <c r="AL249">
+        <v>1.91</v>
+      </c>
+      <c r="AM249">
+        <v>1.91</v>
+      </c>
+      <c r="AN249">
+        <v>1.75</v>
+      </c>
+      <c r="AO249">
+        <v>1.36</v>
+      </c>
+      <c r="AP249">
+        <v>1.33</v>
+      </c>
+      <c r="AQ249">
+        <v>1.55</v>
+      </c>
+      <c r="AR249">
+        <v>0.91</v>
+      </c>
+      <c r="AS249">
+        <v>1.42</v>
+      </c>
+      <c r="AT249">
+        <v>1.08</v>
+      </c>
+      <c r="AU249">
+        <v>1.55</v>
+      </c>
+      <c r="AV249">
+        <v>1.86</v>
+      </c>
+      <c r="AW249">
+        <v>3.41</v>
+      </c>
+      <c r="AX249">
+        <v>2.2</v>
+      </c>
+      <c r="AY249">
+        <v>6.25</v>
+      </c>
+      <c r="AZ249">
+        <v>1.98</v>
+      </c>
+      <c r="BA249">
+        <v>1.21</v>
+      </c>
+      <c r="BB249">
+        <v>1.41</v>
+      </c>
+      <c r="BC249">
+        <v>1.73</v>
+      </c>
+      <c r="BD249">
+        <v>2.25</v>
+      </c>
+      <c r="BE249">
+        <v>3.1</v>
+      </c>
+      <c r="BF249">
+        <v>8</v>
+      </c>
+      <c r="BG249">
+        <v>4</v>
+      </c>
+      <c r="BH249">
+        <v>13</v>
+      </c>
+      <c r="BI249">
+        <v>7</v>
+      </c>
+      <c r="BJ249">
+        <v>21</v>
+      </c>
+      <c r="BK249">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>2468161</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>44983.54513888889</v>
+      </c>
+      <c r="F250">
+        <v>25</v>
+      </c>
+      <c r="G250" t="s">
+        <v>76</v>
+      </c>
+      <c r="H250" t="s">
+        <v>82</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>3</v>
+      </c>
+      <c r="K250">
+        <v>3</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>3</v>
+      </c>
+      <c r="N250">
+        <v>3</v>
+      </c>
+      <c r="O250" t="s">
+        <v>87</v>
+      </c>
+      <c r="P250" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q250">
+        <v>5</v>
+      </c>
+      <c r="R250">
+        <v>3</v>
+      </c>
+      <c r="S250">
+        <v>8</v>
+      </c>
+      <c r="T250">
+        <v>2.5</v>
+      </c>
+      <c r="U250">
+        <v>2.2</v>
+      </c>
+      <c r="V250">
+        <v>4.33</v>
+      </c>
+      <c r="W250">
+        <v>1.36</v>
+      </c>
+      <c r="X250">
+        <v>3</v>
+      </c>
+      <c r="Y250">
+        <v>2.75</v>
+      </c>
+      <c r="Z250">
+        <v>1.4</v>
+      </c>
+      <c r="AA250">
+        <v>7</v>
+      </c>
+      <c r="AB250">
+        <v>1.1</v>
+      </c>
+      <c r="AC250">
+        <v>1.75</v>
+      </c>
+      <c r="AD250">
+        <v>3.8</v>
+      </c>
+      <c r="AE250">
+        <v>4.2</v>
+      </c>
+      <c r="AF250">
+        <v>1.01</v>
+      </c>
+      <c r="AG250">
+        <v>9.6</v>
+      </c>
+      <c r="AH250">
+        <v>1.26</v>
+      </c>
+      <c r="AI250">
+        <v>3.55</v>
+      </c>
+      <c r="AJ250">
+        <v>1.84</v>
+      </c>
+      <c r="AK250">
+        <v>1.96</v>
+      </c>
+      <c r="AL250">
+        <v>1.75</v>
+      </c>
+      <c r="AM250">
+        <v>2</v>
+      </c>
+      <c r="AN250">
+        <v>1.25</v>
+      </c>
+      <c r="AO250">
+        <v>1.26</v>
+      </c>
+      <c r="AP250">
+        <v>1.88</v>
+      </c>
+      <c r="AQ250">
+        <v>1.92</v>
+      </c>
+      <c r="AR250">
+        <v>1.58</v>
+      </c>
+      <c r="AS250">
+        <v>1.77</v>
+      </c>
+      <c r="AT250">
+        <v>1.69</v>
+      </c>
+      <c r="AU250">
+        <v>1.54</v>
+      </c>
+      <c r="AV250">
+        <v>1.32</v>
+      </c>
+      <c r="AW250">
+        <v>2.86</v>
+      </c>
+      <c r="AX250">
+        <v>1.53</v>
+      </c>
+      <c r="AY250">
+        <v>6.5</v>
+      </c>
+      <c r="AZ250">
+        <v>3.25</v>
+      </c>
+      <c r="BA250">
+        <v>1.29</v>
+      </c>
+      <c r="BB250">
+        <v>1.55</v>
+      </c>
+      <c r="BC250">
+        <v>1.98</v>
+      </c>
+      <c r="BD250">
+        <v>2.65</v>
+      </c>
+      <c r="BE250">
+        <v>3.75</v>
+      </c>
+      <c r="BF250">
+        <v>5</v>
+      </c>
+      <c r="BG250">
+        <v>8</v>
+      </c>
+      <c r="BH250">
+        <v>11</v>
+      </c>
+      <c r="BI250">
+        <v>5</v>
+      </c>
+      <c r="BJ250">
+        <v>16</v>
+      </c>
+      <c r="BK250">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:63">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>2468168</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>64</v>
+      </c>
+      <c r="E251" s="2">
+        <v>44983.69791666666</v>
+      </c>
+      <c r="F251">
+        <v>25</v>
+      </c>
+      <c r="G251" t="s">
+        <v>74</v>
+      </c>
+      <c r="H251" t="s">
+        <v>77</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>2</v>
+      </c>
+      <c r="K251">
+        <v>2</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>3</v>
+      </c>
+      <c r="N251">
+        <v>3</v>
+      </c>
+      <c r="O251" t="s">
+        <v>87</v>
+      </c>
+      <c r="P251" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q251">
+        <v>7</v>
+      </c>
+      <c r="R251">
+        <v>4</v>
+      </c>
+      <c r="S251">
+        <v>11</v>
+      </c>
+      <c r="T251">
+        <v>3.2</v>
+      </c>
+      <c r="U251">
+        <v>2.38</v>
+      </c>
+      <c r="V251">
+        <v>2.88</v>
+      </c>
+      <c r="W251">
+        <v>1.3</v>
+      </c>
+      <c r="X251">
+        <v>3.4</v>
+      </c>
+      <c r="Y251">
+        <v>2.38</v>
+      </c>
+      <c r="Z251">
+        <v>1.53</v>
+      </c>
+      <c r="AA251">
+        <v>6</v>
+      </c>
+      <c r="AB251">
+        <v>1.13</v>
+      </c>
+      <c r="AC251">
+        <v>2.63</v>
+      </c>
+      <c r="AD251">
+        <v>3.4</v>
+      </c>
+      <c r="AE251">
+        <v>2.55</v>
+      </c>
+      <c r="AF251">
+        <v>1.03</v>
+      </c>
+      <c r="AG251">
+        <v>17</v>
+      </c>
+      <c r="AH251">
+        <v>1.2</v>
+      </c>
+      <c r="AI251">
+        <v>4.68</v>
+      </c>
+      <c r="AJ251">
+        <v>1.7</v>
+      </c>
+      <c r="AK251">
+        <v>2.05</v>
+      </c>
+      <c r="AL251">
+        <v>1.53</v>
+      </c>
+      <c r="AM251">
+        <v>2.38</v>
+      </c>
+      <c r="AN251">
+        <v>1.58</v>
+      </c>
+      <c r="AO251">
+        <v>1.31</v>
+      </c>
+      <c r="AP251">
+        <v>1.5</v>
+      </c>
+      <c r="AQ251">
+        <v>1.92</v>
+      </c>
+      <c r="AR251">
+        <v>2.08</v>
+      </c>
+      <c r="AS251">
+        <v>1.77</v>
+      </c>
+      <c r="AT251">
+        <v>2.15</v>
+      </c>
+      <c r="AU251">
+        <v>1.95</v>
+      </c>
+      <c r="AV251">
+        <v>2</v>
+      </c>
+      <c r="AW251">
+        <v>3.95</v>
+      </c>
+      <c r="AX251">
+        <v>2.05</v>
+      </c>
+      <c r="AY251">
+        <v>6</v>
+      </c>
+      <c r="AZ251">
+        <v>2.15</v>
+      </c>
+      <c r="BA251">
+        <v>1.32</v>
+      </c>
+      <c r="BB251">
+        <v>1.6</v>
+      </c>
+      <c r="BC251">
+        <v>2.05</v>
+      </c>
+      <c r="BD251">
+        <v>2.75</v>
+      </c>
+      <c r="BE251">
+        <v>4</v>
+      </c>
+      <c r="BF251">
+        <v>8</v>
+      </c>
+      <c r="BG251">
+        <v>8</v>
+      </c>
+      <c r="BH251">
+        <v>13</v>
+      </c>
+      <c r="BI251">
+        <v>5</v>
+      </c>
+      <c r="BJ251">
+        <v>21</v>
+      </c>
+      <c r="BK251">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="365">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -751,6 +751,9 @@
     <t>['62', '68']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['43', '53']</t>
   </si>
   <si>
@@ -989,9 +992,6 @@
   </si>
   <si>
     <t>['3', '22']</t>
-  </si>
-  <si>
-    <t>['45+1']</t>
   </si>
   <si>
     <t>['79', '88']</t>
@@ -1470,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK251"/>
+  <dimension ref="A1:BK252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1905,7 +1905,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2096,7 +2096,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2478,7 +2478,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2568,7 +2568,7 @@
         <v>2.08</v>
       </c>
       <c r="AT6">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3051,7 +3051,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -4006,7 +4006,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -4197,7 +4197,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4388,7 +4388,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4579,7 +4579,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4961,7 +4961,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT19">
         <v>0.83</v>
@@ -5152,7 +5152,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5534,7 +5534,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5725,7 +5725,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5916,7 +5916,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6107,7 +6107,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6489,7 +6489,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6680,7 +6680,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6770,7 +6770,7 @@
         <v>1.08</v>
       </c>
       <c r="AT28">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU28">
         <v>1.63</v>
@@ -6871,7 +6871,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7062,7 +7062,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7253,7 +7253,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -8399,7 +8399,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8486,7 +8486,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT37">
         <v>2.42</v>
@@ -8590,7 +8590,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -9253,7 +9253,7 @@
         <v>1.75</v>
       </c>
       <c r="AT41">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU41">
         <v>1.62</v>
@@ -9354,7 +9354,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9545,7 +9545,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9736,7 +9736,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10118,7 +10118,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10309,7 +10309,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10500,7 +10500,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10691,7 +10691,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -11073,7 +11073,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11455,7 +11455,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -11646,7 +11646,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12601,7 +12601,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12792,7 +12792,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12879,7 +12879,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT60">
         <v>2.25</v>
@@ -13556,7 +13556,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14129,7 +14129,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14511,7 +14511,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14792,7 +14792,7 @@
         <v>2.54</v>
       </c>
       <c r="AT70">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU70">
         <v>2.14</v>
@@ -14893,7 +14893,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -15084,7 +15084,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15275,7 +15275,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15466,7 +15466,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15657,7 +15657,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16039,7 +16039,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16317,7 +16317,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT78">
         <v>0.42</v>
@@ -16421,7 +16421,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16803,7 +16803,7 @@
         <v>87</v>
       </c>
       <c r="P81" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16994,7 +16994,7 @@
         <v>87</v>
       </c>
       <c r="P82" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17185,7 +17185,7 @@
         <v>94</v>
       </c>
       <c r="P83" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -17567,7 +17567,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -17758,7 +17758,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17949,7 +17949,7 @@
         <v>106</v>
       </c>
       <c r="P87" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18140,7 +18140,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -18331,7 +18331,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q89">
         <v>10</v>
@@ -18522,7 +18522,7 @@
         <v>146</v>
       </c>
       <c r="P90" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19095,7 +19095,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q93">
         <v>11</v>
@@ -19477,7 +19477,7 @@
         <v>87</v>
       </c>
       <c r="P95" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19668,7 +19668,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19859,7 +19859,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19949,7 +19949,7 @@
         <v>1.15</v>
       </c>
       <c r="AT97">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU97">
         <v>1.19</v>
@@ -20050,7 +20050,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20241,7 +20241,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20328,7 +20328,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT99">
         <v>0.6899999999999999</v>
@@ -20814,7 +20814,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21387,7 +21387,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21769,7 +21769,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21960,7 +21960,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -22724,7 +22724,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22915,7 +22915,7 @@
         <v>106</v>
       </c>
       <c r="P113" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -23106,7 +23106,7 @@
         <v>87</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23297,7 +23297,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23488,7 +23488,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23578,7 +23578,7 @@
         <v>1.83</v>
       </c>
       <c r="AT116">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU116">
         <v>1.59</v>
@@ -23679,7 +23679,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23870,7 +23870,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -24061,7 +24061,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24339,7 +24339,7 @@
         <v>0.33</v>
       </c>
       <c r="AS120">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT120">
         <v>0.85</v>
@@ -24443,7 +24443,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24825,7 +24825,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25016,7 +25016,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26162,7 +26162,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26634,7 +26634,7 @@
         <v>0.83</v>
       </c>
       <c r="AT132">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU132">
         <v>1.81</v>
@@ -26735,7 +26735,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26926,7 +26926,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27117,7 +27117,7 @@
         <v>163</v>
       </c>
       <c r="P135" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27586,7 +27586,7 @@
         <v>1</v>
       </c>
       <c r="AS137">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT137">
         <v>0.6899999999999999</v>
@@ -27881,7 +27881,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28072,7 +28072,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28454,7 +28454,7 @@
         <v>165</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28836,7 +28836,7 @@
         <v>185</v>
       </c>
       <c r="P144" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -29117,7 +29117,7 @@
         <v>2.67</v>
       </c>
       <c r="AT145">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU145">
         <v>2.27</v>
@@ -29600,7 +29600,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29982,7 +29982,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30173,7 +30173,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30746,7 +30746,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30937,7 +30937,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -31128,7 +31128,7 @@
         <v>117</v>
       </c>
       <c r="P156" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31510,7 +31510,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31701,7 +31701,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>325</v>
+        <v>245</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31979,7 +31979,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT160">
         <v>1.31</v>
@@ -32555,7 +32555,7 @@
         <v>1.42</v>
       </c>
       <c r="AT163">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU163">
         <v>1.62</v>
@@ -33611,7 +33611,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -35417,7 +35417,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT178">
         <v>1.08</v>
@@ -36184,7 +36184,7 @@
         <v>2.75</v>
       </c>
       <c r="AT182">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU182">
         <v>1.86</v>
@@ -38195,7 +38195,7 @@
         <v>136</v>
       </c>
       <c r="P193" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -38664,7 +38664,7 @@
         <v>1.56</v>
       </c>
       <c r="AS195">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT195">
         <v>1.42</v>
@@ -40296,7 +40296,7 @@
         <v>220</v>
       </c>
       <c r="P204" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q204">
         <v>8</v>
@@ -40869,7 +40869,7 @@
         <v>87</v>
       </c>
       <c r="P207" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41341,7 +41341,7 @@
         <v>1.77</v>
       </c>
       <c r="AT209">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU209">
         <v>1.42</v>
@@ -43821,7 +43821,7 @@
         <v>1</v>
       </c>
       <c r="AS222">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT222">
         <v>0.85</v>
@@ -44307,7 +44307,7 @@
         <v>229</v>
       </c>
       <c r="P225" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q225">
         <v>2</v>
@@ -44779,7 +44779,7 @@
         <v>0.38</v>
       </c>
       <c r="AT227">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU227">
         <v>1.36</v>
@@ -45922,7 +45922,7 @@
         <v>1.17</v>
       </c>
       <c r="AS233">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT233">
         <v>1.15</v>
@@ -48127,7 +48127,7 @@
         <v>87</v>
       </c>
       <c r="P245" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q245">
         <v>10</v>
@@ -48217,7 +48217,7 @@
         <v>1.62</v>
       </c>
       <c r="AT245">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU245">
         <v>1.44</v>
@@ -49415,6 +49415,197 @@
       </c>
       <c r="BK251">
         <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:63">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>2468171</v>
+      </c>
+      <c r="C252" t="s">
+        <v>63</v>
+      </c>
+      <c r="D252" t="s">
+        <v>64</v>
+      </c>
+      <c r="E252" s="2">
+        <v>44988.70833333334</v>
+      </c>
+      <c r="F252">
+        <v>26</v>
+      </c>
+      <c r="G252" t="s">
+        <v>82</v>
+      </c>
+      <c r="H252" t="s">
+        <v>80</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>2</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>2</v>
+      </c>
+      <c r="O252" t="s">
+        <v>245</v>
+      </c>
+      <c r="P252" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q252">
+        <v>8</v>
+      </c>
+      <c r="R252">
+        <v>0</v>
+      </c>
+      <c r="S252">
+        <v>8</v>
+      </c>
+      <c r="T252">
+        <v>2.2</v>
+      </c>
+      <c r="U252">
+        <v>2.25</v>
+      </c>
+      <c r="V252">
+        <v>5.5</v>
+      </c>
+      <c r="W252">
+        <v>1.4</v>
+      </c>
+      <c r="X252">
+        <v>2.75</v>
+      </c>
+      <c r="Y252">
+        <v>2.75</v>
+      </c>
+      <c r="Z252">
+        <v>1.4</v>
+      </c>
+      <c r="AA252">
+        <v>8</v>
+      </c>
+      <c r="AB252">
+        <v>1.08</v>
+      </c>
+      <c r="AC252">
+        <v>1.64</v>
+      </c>
+      <c r="AD252">
+        <v>3.9</v>
+      </c>
+      <c r="AE252">
+        <v>5.35</v>
+      </c>
+      <c r="AF252">
+        <v>1.05</v>
+      </c>
+      <c r="AG252">
+        <v>11</v>
+      </c>
+      <c r="AH252">
+        <v>1.3</v>
+      </c>
+      <c r="AI252">
+        <v>3.6</v>
+      </c>
+      <c r="AJ252">
+        <v>1.96</v>
+      </c>
+      <c r="AK252">
+        <v>1.85</v>
+      </c>
+      <c r="AL252">
+        <v>1.95</v>
+      </c>
+      <c r="AM252">
+        <v>1.8</v>
+      </c>
+      <c r="AN252">
+        <v>1.15</v>
+      </c>
+      <c r="AO252">
+        <v>1.24</v>
+      </c>
+      <c r="AP252">
+        <v>2.25</v>
+      </c>
+      <c r="AQ252">
+        <v>1.58</v>
+      </c>
+      <c r="AR252">
+        <v>0.62</v>
+      </c>
+      <c r="AS252">
+        <v>1.54</v>
+      </c>
+      <c r="AT252">
+        <v>0.64</v>
+      </c>
+      <c r="AU252">
+        <v>1.63</v>
+      </c>
+      <c r="AV252">
+        <v>1.29</v>
+      </c>
+      <c r="AW252">
+        <v>2.92</v>
+      </c>
+      <c r="AX252">
+        <v>1.42</v>
+      </c>
+      <c r="AY252">
+        <v>8.5</v>
+      </c>
+      <c r="AZ252">
+        <v>3.55</v>
+      </c>
+      <c r="BA252">
+        <v>1.37</v>
+      </c>
+      <c r="BB252">
+        <v>1.61</v>
+      </c>
+      <c r="BC252">
+        <v>1.98</v>
+      </c>
+      <c r="BD252">
+        <v>2.55</v>
+      </c>
+      <c r="BE252">
+        <v>3.4</v>
+      </c>
+      <c r="BF252">
+        <v>6</v>
+      </c>
+      <c r="BG252">
+        <v>2</v>
+      </c>
+      <c r="BH252">
+        <v>6</v>
+      </c>
+      <c r="BI252">
+        <v>2</v>
+      </c>
+      <c r="BJ252">
+        <v>12</v>
+      </c>
+      <c r="BK252">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="381">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -769,6 +769,15 @@
     <t>['46', '61', '79']</t>
   </si>
   <si>
+    <t>['8', '90+2']</t>
+  </si>
+  <si>
+    <t>['31', '88']</t>
+  </si>
+  <si>
+    <t>['49', '76']</t>
+  </si>
+  <si>
     <t>['43', '53']</t>
   </si>
   <si>
@@ -1134,6 +1143,21 @@
   <si>
     <t>['64', '83', '89']</t>
   </si>
+  <si>
+    <t>['37', '90']</t>
+  </si>
+  <si>
+    <t>['30', '34', '35', '76']</t>
+  </si>
+  <si>
+    <t>['5', '71']</t>
+  </si>
+  <si>
+    <t>['37', '46']</t>
+  </si>
+  <si>
+    <t>['88', '89']</t>
+  </si>
 </sst>
 </file>
 
@@ -1494,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK262"/>
+  <dimension ref="A1:BK271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1929,7 +1953,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2120,7 +2144,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2207,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT4">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2311,7 +2335,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2401,7 +2425,7 @@
         <v>1.57</v>
       </c>
       <c r="AT5">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2502,7 +2526,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2780,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AT7">
         <v>0.79</v>
@@ -2884,7 +2908,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2974,7 +2998,7 @@
         <v>1.21</v>
       </c>
       <c r="AT8">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3075,7 +3099,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3544,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT11">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3735,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT12">
         <v>1.38</v>
@@ -3926,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT13">
         <v>1.08</v>
@@ -4030,7 +4054,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -4120,7 +4144,7 @@
         <v>2.69</v>
       </c>
       <c r="AT14">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4221,7 +4245,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4311,7 +4335,7 @@
         <v>0.85</v>
       </c>
       <c r="AT15">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4412,7 +4436,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4603,7 +4627,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4881,10 +4905,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT18">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4985,7 +5009,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -5075,7 +5099,7 @@
         <v>1.54</v>
       </c>
       <c r="AT19">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5176,7 +5200,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5263,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT20">
         <v>2.46</v>
@@ -5457,7 +5481,7 @@
         <v>1.69</v>
       </c>
       <c r="AT21">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU21">
         <v>1.29</v>
@@ -5558,7 +5582,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5645,10 +5669,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT22">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU22">
         <v>1.35</v>
@@ -5749,7 +5773,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5836,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT23">
         <v>0.79</v>
@@ -5940,7 +5964,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6030,7 +6054,7 @@
         <v>0.86</v>
       </c>
       <c r="AT24">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU24">
         <v>1.77</v>
@@ -6131,7 +6155,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6409,10 +6433,10 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT26">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU26">
         <v>0.87</v>
@@ -6513,7 +6537,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6600,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AT27">
         <v>0.86</v>
@@ -6704,7 +6728,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6895,7 +6919,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7086,7 +7110,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7176,7 +7200,7 @@
         <v>2</v>
       </c>
       <c r="AT30">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU30">
         <v>1.87</v>
@@ -7277,7 +7301,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7364,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT31">
         <v>1.38</v>
@@ -7558,7 +7582,7 @@
         <v>1.08</v>
       </c>
       <c r="AT32">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU32">
         <v>1.58</v>
@@ -7937,10 +7961,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT34">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>1</v>
@@ -8319,7 +8343,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT36">
         <v>1.46</v>
@@ -8423,7 +8447,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8614,7 +8638,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8701,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT38">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -9378,7 +9402,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9465,10 +9489,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT42">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU42">
         <v>1.44</v>
@@ -9569,7 +9593,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9656,10 +9680,10 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AT43">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU43">
         <v>1.59</v>
@@ -9760,7 +9784,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10142,7 +10166,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10333,7 +10357,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10524,7 +10548,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10614,7 +10638,7 @@
         <v>1.57</v>
       </c>
       <c r="AT48">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU48">
         <v>1.44</v>
@@ -10715,7 +10739,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10805,7 +10829,7 @@
         <v>2</v>
       </c>
       <c r="AT49">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU49">
         <v>1.88</v>
@@ -10993,7 +11017,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT50">
         <v>1.46</v>
@@ -11097,7 +11121,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11479,7 +11503,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -11566,10 +11590,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT53">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU53">
         <v>1.62</v>
@@ -11670,7 +11694,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11948,7 +11972,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT55">
         <v>1.46</v>
@@ -12139,10 +12163,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT56">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU56">
         <v>0.92</v>
@@ -12333,7 +12357,7 @@
         <v>1.92</v>
       </c>
       <c r="AT57">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU57">
         <v>1.31</v>
@@ -12521,10 +12545,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU58">
         <v>1.53</v>
@@ -12625,7 +12649,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12816,7 +12840,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -13094,7 +13118,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT61">
         <v>1.29</v>
@@ -13288,7 +13312,7 @@
         <v>2.62</v>
       </c>
       <c r="AT62">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU62">
         <v>1.89</v>
@@ -13580,7 +13604,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13667,7 +13691,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT64">
         <v>1.38</v>
@@ -14052,7 +14076,7 @@
         <v>1.57</v>
       </c>
       <c r="AT66">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU66">
         <v>1.56</v>
@@ -14153,7 +14177,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14240,10 +14264,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AT67">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU67">
         <v>1.52</v>
@@ -14431,10 +14455,10 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT68">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU68">
         <v>1.29</v>
@@ -14535,7 +14559,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14622,7 +14646,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT69">
         <v>0.79</v>
@@ -14917,7 +14941,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -15004,7 +15028,7 @@
         <v>0.5</v>
       </c>
       <c r="AS71">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT71">
         <v>1.29</v>
@@ -15108,7 +15132,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15299,7 +15323,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15389,7 +15413,7 @@
         <v>1.21</v>
       </c>
       <c r="AT73">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU73">
         <v>1.43</v>
@@ -15490,7 +15514,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15580,7 +15604,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>2.06</v>
@@ -15681,7 +15705,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15959,7 +15983,7 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT76">
         <v>0.79</v>
@@ -16063,7 +16087,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16150,10 +16174,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT77">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU77">
         <v>1.06</v>
@@ -16445,7 +16469,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16532,7 +16556,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT79">
         <v>1.08</v>
@@ -16723,10 +16747,10 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT80">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU80">
         <v>1.43</v>
@@ -16827,7 +16851,7 @@
         <v>87</v>
       </c>
       <c r="P81" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16917,7 +16941,7 @@
         <v>1.69</v>
       </c>
       <c r="AT81">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU81">
         <v>2.16</v>
@@ -17018,7 +17042,7 @@
         <v>87</v>
       </c>
       <c r="P82" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17105,7 +17129,7 @@
         <v>2.33</v>
       </c>
       <c r="AS82">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AT82">
         <v>2.46</v>
@@ -17209,7 +17233,7 @@
         <v>94</v>
       </c>
       <c r="P83" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -17490,7 +17514,7 @@
         <v>2.69</v>
       </c>
       <c r="AT84">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU84">
         <v>2.31</v>
@@ -17591,7 +17615,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -17678,7 +17702,7 @@
         <v>1.75</v>
       </c>
       <c r="AS85">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT85">
         <v>1.38</v>
@@ -17782,7 +17806,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17872,7 +17896,7 @@
         <v>1.57</v>
       </c>
       <c r="AT86">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU86">
         <v>1.53</v>
@@ -17973,7 +17997,7 @@
         <v>106</v>
       </c>
       <c r="P87" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18060,7 +18084,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT87">
         <v>1.46</v>
@@ -18164,7 +18188,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -18355,7 +18379,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q89">
         <v>10</v>
@@ -18445,7 +18469,7 @@
         <v>0.85</v>
       </c>
       <c r="AT89">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU89">
         <v>1.73</v>
@@ -18546,7 +18570,7 @@
         <v>146</v>
       </c>
       <c r="P90" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -18633,7 +18657,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT90">
         <v>0.79</v>
@@ -19018,7 +19042,7 @@
         <v>1.69</v>
       </c>
       <c r="AT92">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU92">
         <v>2.04</v>
@@ -19119,7 +19143,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q93">
         <v>11</v>
@@ -19206,7 +19230,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT93">
         <v>0.79</v>
@@ -19400,7 +19424,7 @@
         <v>1.92</v>
       </c>
       <c r="AT94">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU94">
         <v>1.39</v>
@@ -19501,7 +19525,7 @@
         <v>87</v>
       </c>
       <c r="P95" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19692,7 +19716,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19779,7 +19803,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT96">
         <v>1.46</v>
@@ -19883,7 +19907,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19970,7 +19994,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT97">
         <v>0.64</v>
@@ -20074,7 +20098,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20161,10 +20185,10 @@
         <v>0.5</v>
       </c>
       <c r="AS98">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AT98">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU98">
         <v>1.52</v>
@@ -20265,7 +20289,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20355,7 +20379,7 @@
         <v>1.54</v>
       </c>
       <c r="AT99">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU99">
         <v>1.56</v>
@@ -20737,7 +20761,7 @@
         <v>2</v>
       </c>
       <c r="AT101">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU101">
         <v>1.87</v>
@@ -20838,7 +20862,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21116,10 +21140,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT103">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU103">
         <v>1.64</v>
@@ -21310,7 +21334,7 @@
         <v>2.62</v>
       </c>
       <c r="AT104">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU104">
         <v>1.94</v>
@@ -21411,7 +21435,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21692,7 +21716,7 @@
         <v>1.08</v>
       </c>
       <c r="AT106">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU106">
         <v>1.48</v>
@@ -21793,7 +21817,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21984,7 +22008,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -22262,7 +22286,7 @@
         <v>0.8</v>
       </c>
       <c r="AS109">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT109">
         <v>0.86</v>
@@ -22453,7 +22477,7 @@
         <v>1.4</v>
       </c>
       <c r="AS110">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT110">
         <v>1.46</v>
@@ -22748,7 +22772,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22835,10 +22859,10 @@
         <v>2.67</v>
       </c>
       <c r="AS112">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT112">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU112">
         <v>1.3</v>
@@ -22939,7 +22963,7 @@
         <v>106</v>
       </c>
       <c r="P113" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -23130,7 +23154,7 @@
         <v>87</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23217,10 +23241,10 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT114">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU114">
         <v>1.96</v>
@@ -23321,7 +23345,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23408,7 +23432,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AT115">
         <v>1.08</v>
@@ -23512,7 +23536,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23703,7 +23727,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23790,7 +23814,7 @@
         <v>0.67</v>
       </c>
       <c r="AS117">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT117">
         <v>0.86</v>
@@ -23894,7 +23918,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -24085,7 +24109,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24175,7 +24199,7 @@
         <v>1.57</v>
       </c>
       <c r="AT119">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU119">
         <v>1.58</v>
@@ -24467,7 +24491,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24748,7 +24772,7 @@
         <v>2.62</v>
       </c>
       <c r="AT122">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU122">
         <v>1.97</v>
@@ -24849,7 +24873,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24939,7 +24963,7 @@
         <v>2.69</v>
       </c>
       <c r="AT123">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU123">
         <v>2.18</v>
@@ -25040,7 +25064,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25509,7 +25533,7 @@
         <v>0.8</v>
       </c>
       <c r="AS126">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT126">
         <v>0.38</v>
@@ -25703,7 +25727,7 @@
         <v>2.36</v>
       </c>
       <c r="AT127">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU127">
         <v>1.91</v>
@@ -25891,7 +25915,7 @@
         <v>1.33</v>
       </c>
       <c r="AS128">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT128">
         <v>1.46</v>
@@ -26082,10 +26106,10 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT129">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU129">
         <v>1.56</v>
@@ -26186,7 +26210,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26273,10 +26297,10 @@
         <v>1.33</v>
       </c>
       <c r="AS130">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT130">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU130">
         <v>1.62</v>
@@ -26759,7 +26783,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26846,10 +26870,10 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT133">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU133">
         <v>1.28</v>
@@ -26950,7 +26974,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27037,10 +27061,10 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AT134">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU134">
         <v>1.47</v>
@@ -27141,7 +27165,7 @@
         <v>163</v>
       </c>
       <c r="P135" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27228,10 +27252,10 @@
         <v>2.71</v>
       </c>
       <c r="AS135">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT135">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU135">
         <v>1.67</v>
@@ -27419,10 +27443,10 @@
         <v>0.5</v>
       </c>
       <c r="AS136">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT136">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU136">
         <v>1.38</v>
@@ -27905,7 +27929,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28096,7 +28120,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28374,7 +28398,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT141">
         <v>1.29</v>
@@ -28478,7 +28502,7 @@
         <v>165</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28568,7 +28592,7 @@
         <v>1.69</v>
       </c>
       <c r="AT142">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU142">
         <v>1.92</v>
@@ -28860,7 +28884,7 @@
         <v>185</v>
       </c>
       <c r="P144" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -28950,7 +28974,7 @@
         <v>2.36</v>
       </c>
       <c r="AT144">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU144">
         <v>1.89</v>
@@ -29329,10 +29353,10 @@
         <v>0.86</v>
       </c>
       <c r="AS146">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT146">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU146">
         <v>1.6</v>
@@ -29624,7 +29648,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29711,7 +29735,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT148">
         <v>0.79</v>
@@ -29905,7 +29929,7 @@
         <v>1.21</v>
       </c>
       <c r="AT149">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU149">
         <v>1.37</v>
@@ -30006,7 +30030,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30197,7 +30221,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30284,7 +30308,7 @@
         <v>1.83</v>
       </c>
       <c r="AS151">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT151">
         <v>2.46</v>
@@ -30475,7 +30499,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT152">
         <v>0.38</v>
@@ -30770,7 +30794,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30961,7 +30985,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -31048,7 +31072,7 @@
         <v>1.43</v>
       </c>
       <c r="AS155">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT155">
         <v>1.38</v>
@@ -31152,7 +31176,7 @@
         <v>117</v>
       </c>
       <c r="P156" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31239,7 +31263,7 @@
         <v>0.57</v>
       </c>
       <c r="AS156">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT156">
         <v>1.29</v>
@@ -31433,7 +31457,7 @@
         <v>2.69</v>
       </c>
       <c r="AT157">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU157">
         <v>2.18</v>
@@ -31534,7 +31558,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31621,10 +31645,10 @@
         <v>0.57</v>
       </c>
       <c r="AS158">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT158">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU158">
         <v>1.59</v>
@@ -32006,7 +32030,7 @@
         <v>1.54</v>
       </c>
       <c r="AT160">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU160">
         <v>1.7</v>
@@ -32194,10 +32218,10 @@
         <v>0.57</v>
       </c>
       <c r="AS161">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT161">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU161">
         <v>1.84</v>
@@ -32385,7 +32409,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT162">
         <v>0.86</v>
@@ -32576,7 +32600,7 @@
         <v>0.5</v>
       </c>
       <c r="AS163">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT163">
         <v>0.64</v>
@@ -32871,7 +32895,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32958,7 +32982,7 @@
         <v>1.88</v>
       </c>
       <c r="AS165">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AT165">
         <v>1.46</v>
@@ -33343,7 +33367,7 @@
         <v>2.62</v>
       </c>
       <c r="AT167">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU167">
         <v>1.94</v>
@@ -33444,7 +33468,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33534,7 +33558,7 @@
         <v>0.86</v>
       </c>
       <c r="AT168">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU168">
         <v>1.45</v>
@@ -33635,7 +33659,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33725,7 +33749,7 @@
         <v>2</v>
       </c>
       <c r="AT169">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU169">
         <v>1.84</v>
@@ -33826,7 +33850,7 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -34017,7 +34041,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34107,7 +34131,7 @@
         <v>2.36</v>
       </c>
       <c r="AT171">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU171">
         <v>1.9</v>
@@ -34295,10 +34319,10 @@
         <v>1</v>
       </c>
       <c r="AS172">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT172">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU172">
         <v>1.35</v>
@@ -34399,7 +34423,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -34489,7 +34513,7 @@
         <v>1.08</v>
       </c>
       <c r="AT173">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU173">
         <v>1.54</v>
@@ -34677,7 +34701,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT174">
         <v>1.08</v>
@@ -34868,7 +34892,7 @@
         <v>0.88</v>
       </c>
       <c r="AS175">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT175">
         <v>1.29</v>
@@ -35059,7 +35083,7 @@
         <v>1.63</v>
       </c>
       <c r="AS176">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT176">
         <v>1.38</v>
@@ -35163,7 +35187,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35250,7 +35274,7 @@
         <v>2.38</v>
       </c>
       <c r="AS177">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT177">
         <v>2.15</v>
@@ -35444,7 +35468,7 @@
         <v>1.54</v>
       </c>
       <c r="AT178">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU178">
         <v>1.66</v>
@@ -35736,7 +35760,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -35826,7 +35850,7 @@
         <v>0.86</v>
       </c>
       <c r="AT180">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU180">
         <v>1.54</v>
@@ -35927,7 +35951,7 @@
         <v>87</v>
       </c>
       <c r="P181" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -36396,7 +36420,7 @@
         <v>2</v>
       </c>
       <c r="AS183">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT183">
         <v>1.46</v>
@@ -36500,7 +36524,7 @@
         <v>162</v>
       </c>
       <c r="P184" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q184">
         <v>14</v>
@@ -36590,7 +36614,7 @@
         <v>1.69</v>
       </c>
       <c r="AT184">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU184">
         <v>1.8</v>
@@ -36781,7 +36805,7 @@
         <v>2</v>
       </c>
       <c r="AT185">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU185">
         <v>1.83</v>
@@ -36972,7 +36996,7 @@
         <v>1.92</v>
       </c>
       <c r="AT186">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU186">
         <v>1.86</v>
@@ -37264,7 +37288,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -37351,7 +37375,7 @@
         <v>1.33</v>
       </c>
       <c r="AS188">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AT188">
         <v>1.46</v>
@@ -37455,7 +37479,7 @@
         <v>87</v>
       </c>
       <c r="P189" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37646,7 +37670,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37733,7 +37757,7 @@
         <v>0.89</v>
       </c>
       <c r="AS190">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT190">
         <v>0.79</v>
@@ -37927,7 +37951,7 @@
         <v>2.36</v>
       </c>
       <c r="AT191">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU191">
         <v>1.95</v>
@@ -38115,7 +38139,7 @@
         <v>1.11</v>
       </c>
       <c r="AS192">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT192">
         <v>1.08</v>
@@ -38219,7 +38243,7 @@
         <v>136</v>
       </c>
       <c r="P193" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -38309,7 +38333,7 @@
         <v>0.85</v>
       </c>
       <c r="AT193">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU193">
         <v>1.64</v>
@@ -38497,7 +38521,7 @@
         <v>2.22</v>
       </c>
       <c r="AS194">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT194">
         <v>2.15</v>
@@ -38792,7 +38816,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38882,7 +38906,7 @@
         <v>1.08</v>
       </c>
       <c r="AT196">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU196">
         <v>1.6</v>
@@ -38983,7 +39007,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39073,7 +39097,7 @@
         <v>0.86</v>
       </c>
       <c r="AT197">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU197">
         <v>1.52</v>
@@ -39261,7 +39285,7 @@
         <v>0.44</v>
       </c>
       <c r="AS198">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT198">
         <v>0.38</v>
@@ -39452,7 +39476,7 @@
         <v>0.7</v>
       </c>
       <c r="AS199">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT199">
         <v>0.79</v>
@@ -39556,7 +39580,7 @@
         <v>87</v>
       </c>
       <c r="P200" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39643,7 +39667,7 @@
         <v>0.89</v>
       </c>
       <c r="AS200">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT200">
         <v>1.29</v>
@@ -39747,7 +39771,7 @@
         <v>217</v>
       </c>
       <c r="P201" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39837,7 +39861,7 @@
         <v>2.69</v>
       </c>
       <c r="AT201">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU201">
         <v>2.08</v>
@@ -39938,7 +39962,7 @@
         <v>218</v>
       </c>
       <c r="P202" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40025,7 +40049,7 @@
         <v>0.8</v>
       </c>
       <c r="AS202">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AT202">
         <v>0.79</v>
@@ -40129,7 +40153,7 @@
         <v>219</v>
       </c>
       <c r="P203" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40320,7 +40344,7 @@
         <v>220</v>
       </c>
       <c r="P204" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q204">
         <v>8</v>
@@ -40410,7 +40434,7 @@
         <v>1.57</v>
       </c>
       <c r="AT204">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU204">
         <v>1.72</v>
@@ -40511,7 +40535,7 @@
         <v>87</v>
       </c>
       <c r="P205" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q205">
         <v>5</v>
@@ -40598,7 +40622,7 @@
         <v>2.22</v>
       </c>
       <c r="AS205">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT205">
         <v>2.46</v>
@@ -40893,7 +40917,7 @@
         <v>87</v>
       </c>
       <c r="P207" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -40983,7 +41007,7 @@
         <v>2.62</v>
       </c>
       <c r="AT207">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU207">
         <v>1.84</v>
@@ -41174,7 +41198,7 @@
         <v>2.36</v>
       </c>
       <c r="AT208">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU208">
         <v>1.89</v>
@@ -41275,7 +41299,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41362,7 +41386,7 @@
         <v>0.4</v>
       </c>
       <c r="AS209">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT209">
         <v>0.64</v>
@@ -41466,7 +41490,7 @@
         <v>165</v>
       </c>
       <c r="P210" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q210">
         <v>1</v>
@@ -41556,7 +41580,7 @@
         <v>1.21</v>
       </c>
       <c r="AT210">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU210">
         <v>1.44</v>
@@ -41938,7 +41962,7 @@
         <v>2.69</v>
       </c>
       <c r="AT212">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU212">
         <v>2.04</v>
@@ -42039,7 +42063,7 @@
         <v>181</v>
       </c>
       <c r="P213" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -42230,7 +42254,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q214">
         <v>2</v>
@@ -42421,7 +42445,7 @@
         <v>87</v>
       </c>
       <c r="P215" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42508,7 +42532,7 @@
         <v>2.1</v>
       </c>
       <c r="AS215">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT215">
         <v>2.15</v>
@@ -42699,7 +42723,7 @@
         <v>0.4</v>
       </c>
       <c r="AS216">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT216">
         <v>0.38</v>
@@ -42803,7 +42827,7 @@
         <v>87</v>
       </c>
       <c r="P217" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q217">
         <v>2</v>
@@ -42890,7 +42914,7 @@
         <v>0.73</v>
       </c>
       <c r="AS217">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT217">
         <v>0.79</v>
@@ -43084,7 +43108,7 @@
         <v>0.86</v>
       </c>
       <c r="AT218">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU218">
         <v>1.5</v>
@@ -43275,7 +43299,7 @@
         <v>1.08</v>
       </c>
       <c r="AT219">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU219">
         <v>1.62</v>
@@ -43376,7 +43400,7 @@
         <v>109</v>
       </c>
       <c r="P220" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q220">
         <v>11</v>
@@ -43463,10 +43487,10 @@
         <v>1.5</v>
       </c>
       <c r="AS220">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT220">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU220">
         <v>1.53</v>
@@ -43567,7 +43591,7 @@
         <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q221">
         <v>9</v>
@@ -43654,10 +43678,10 @@
         <v>1.45</v>
       </c>
       <c r="AS221">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT221">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU221">
         <v>1.91</v>
@@ -44036,10 +44060,10 @@
         <v>2.27</v>
       </c>
       <c r="AS223">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT223">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU223">
         <v>1.46</v>
@@ -44140,7 +44164,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -44227,7 +44251,7 @@
         <v>2.3</v>
       </c>
       <c r="AS224">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT224">
         <v>2.46</v>
@@ -44331,7 +44355,7 @@
         <v>229</v>
       </c>
       <c r="P225" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q225">
         <v>2</v>
@@ -44612,7 +44636,7 @@
         <v>1.92</v>
       </c>
       <c r="AT226">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU226">
         <v>1.96</v>
@@ -44713,7 +44737,7 @@
         <v>148</v>
       </c>
       <c r="P227" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q227">
         <v>6</v>
@@ -44800,7 +44824,7 @@
         <v>0.36</v>
       </c>
       <c r="AS227">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AT227">
         <v>0.64</v>
@@ -44994,7 +45018,7 @@
         <v>2</v>
       </c>
       <c r="AT228">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU228">
         <v>1.95</v>
@@ -45373,7 +45397,7 @@
         <v>1.64</v>
       </c>
       <c r="AS230">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT230">
         <v>1.46</v>
@@ -45567,7 +45591,7 @@
         <v>1.69</v>
       </c>
       <c r="AT231">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU231">
         <v>2.05</v>
@@ -45949,7 +45973,7 @@
         <v>1.54</v>
       </c>
       <c r="AT233">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU233">
         <v>1.66</v>
@@ -46241,7 +46265,7 @@
         <v>237</v>
       </c>
       <c r="P235" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -46519,7 +46543,7 @@
         <v>0.92</v>
       </c>
       <c r="AS236">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT236">
         <v>0.79</v>
@@ -46623,7 +46647,7 @@
         <v>144</v>
       </c>
       <c r="P237" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -46710,7 +46734,7 @@
         <v>2.18</v>
       </c>
       <c r="AS237">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT237">
         <v>2.15</v>
@@ -47005,7 +47029,7 @@
         <v>87</v>
       </c>
       <c r="P239" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q239">
         <v>2</v>
@@ -47095,7 +47119,7 @@
         <v>0.85</v>
       </c>
       <c r="AT239">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU239">
         <v>1.51</v>
@@ -47387,7 +47411,7 @@
         <v>241</v>
       </c>
       <c r="P241" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -47769,7 +47793,7 @@
         <v>180</v>
       </c>
       <c r="P243" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -47856,7 +47880,7 @@
         <v>1.17</v>
       </c>
       <c r="AS243">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AT243">
         <v>1.29</v>
@@ -47960,7 +47984,7 @@
         <v>208</v>
       </c>
       <c r="P244" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q244">
         <v>4</v>
@@ -48050,7 +48074,7 @@
         <v>1.21</v>
       </c>
       <c r="AT244">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU244">
         <v>1.46</v>
@@ -48151,7 +48175,7 @@
         <v>87</v>
       </c>
       <c r="P245" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q245">
         <v>10</v>
@@ -48238,7 +48262,7 @@
         <v>0.42</v>
       </c>
       <c r="AS245">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT245">
         <v>0.64</v>
@@ -48432,7 +48456,7 @@
         <v>1.92</v>
       </c>
       <c r="AT246">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU246">
         <v>2.02</v>
@@ -48620,10 +48644,10 @@
         <v>0.82</v>
       </c>
       <c r="AS247">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT247">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU247">
         <v>1.28</v>
@@ -48724,7 +48748,7 @@
         <v>244</v>
       </c>
       <c r="P248" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q248">
         <v>6</v>
@@ -48811,10 +48835,10 @@
         <v>0.75</v>
       </c>
       <c r="AS248">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT248">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU248">
         <v>1.38</v>
@@ -48915,7 +48939,7 @@
         <v>87</v>
       </c>
       <c r="P249" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q249">
         <v>12</v>
@@ -49002,7 +49026,7 @@
         <v>0.91</v>
       </c>
       <c r="AS249">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT249">
         <v>1.08</v>
@@ -49106,7 +49130,7 @@
         <v>87</v>
       </c>
       <c r="P250" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -49193,10 +49217,10 @@
         <v>1.58</v>
       </c>
       <c r="AS250">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT250">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU250">
         <v>1.54</v>
@@ -49297,7 +49321,7 @@
         <v>87</v>
       </c>
       <c r="P251" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q251">
         <v>7</v>
@@ -49384,10 +49408,10 @@
         <v>2.08</v>
       </c>
       <c r="AS251">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT251">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU251">
         <v>1.95</v>
@@ -49679,7 +49703,7 @@
         <v>101</v>
       </c>
       <c r="P253" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q253">
         <v>10</v>
@@ -49870,7 +49894,7 @@
         <v>246</v>
       </c>
       <c r="P254" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q254">
         <v>4</v>
@@ -50061,7 +50085,7 @@
         <v>247</v>
       </c>
       <c r="P255" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q255">
         <v>3</v>
@@ -51207,7 +51231,7 @@
         <v>87</v>
       </c>
       <c r="P261" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q261">
         <v>4</v>
@@ -51398,7 +51422,7 @@
         <v>250</v>
       </c>
       <c r="P262" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q262">
         <v>4</v>
@@ -51540,6 +51564,1725 @@
       </c>
       <c r="BK262">
         <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:63">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>2468181</v>
+      </c>
+      <c r="C263" t="s">
+        <v>63</v>
+      </c>
+      <c r="D263" t="s">
+        <v>64</v>
+      </c>
+      <c r="E263" s="2">
+        <v>44996.54166666666</v>
+      </c>
+      <c r="F263">
+        <v>27</v>
+      </c>
+      <c r="G263" t="s">
+        <v>80</v>
+      </c>
+      <c r="H263" t="s">
+        <v>73</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+      <c r="O263" t="s">
+        <v>87</v>
+      </c>
+      <c r="P263" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q263">
+        <v>8</v>
+      </c>
+      <c r="R263">
+        <v>0</v>
+      </c>
+      <c r="S263">
+        <v>8</v>
+      </c>
+      <c r="T263">
+        <v>4.33</v>
+      </c>
+      <c r="U263">
+        <v>2.1</v>
+      </c>
+      <c r="V263">
+        <v>2.63</v>
+      </c>
+      <c r="W263">
+        <v>1.44</v>
+      </c>
+      <c r="X263">
+        <v>2.63</v>
+      </c>
+      <c r="Y263">
+        <v>3</v>
+      </c>
+      <c r="Z263">
+        <v>1.36</v>
+      </c>
+      <c r="AA263">
+        <v>9</v>
+      </c>
+      <c r="AB263">
+        <v>1.07</v>
+      </c>
+      <c r="AC263">
+        <v>4</v>
+      </c>
+      <c r="AD263">
+        <v>3.5</v>
+      </c>
+      <c r="AE263">
+        <v>1.94</v>
+      </c>
+      <c r="AF263">
+        <v>1.06</v>
+      </c>
+      <c r="AG263">
+        <v>10.5</v>
+      </c>
+      <c r="AH263">
+        <v>1.33</v>
+      </c>
+      <c r="AI263">
+        <v>3.35</v>
+      </c>
+      <c r="AJ263">
+        <v>2</v>
+      </c>
+      <c r="AK263">
+        <v>1.82</v>
+      </c>
+      <c r="AL263">
+        <v>1.91</v>
+      </c>
+      <c r="AM263">
+        <v>1.91</v>
+      </c>
+      <c r="AN263">
+        <v>1.73</v>
+      </c>
+      <c r="AO263">
+        <v>1.28</v>
+      </c>
+      <c r="AP263">
+        <v>1.23</v>
+      </c>
+      <c r="AQ263">
+        <v>1.08</v>
+      </c>
+      <c r="AR263">
+        <v>1.08</v>
+      </c>
+      <c r="AS263">
+        <v>1.08</v>
+      </c>
+      <c r="AT263">
+        <v>1.08</v>
+      </c>
+      <c r="AU263">
+        <v>1.56</v>
+      </c>
+      <c r="AV263">
+        <v>1.8</v>
+      </c>
+      <c r="AW263">
+        <v>3.36</v>
+      </c>
+      <c r="AX263">
+        <v>2.5</v>
+      </c>
+      <c r="AY263">
+        <v>8</v>
+      </c>
+      <c r="AZ263">
+        <v>1.73</v>
+      </c>
+      <c r="BA263">
+        <v>1.38</v>
+      </c>
+      <c r="BB263">
+        <v>1.65</v>
+      </c>
+      <c r="BC263">
+        <v>2.04</v>
+      </c>
+      <c r="BD263">
+        <v>2.63</v>
+      </c>
+      <c r="BE263">
+        <v>3.5</v>
+      </c>
+      <c r="BF263">
+        <v>0</v>
+      </c>
+      <c r="BG263">
+        <v>3</v>
+      </c>
+      <c r="BH263">
+        <v>10</v>
+      </c>
+      <c r="BI263">
+        <v>3</v>
+      </c>
+      <c r="BJ263">
+        <v>10</v>
+      </c>
+      <c r="BK263">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:63">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>2468189</v>
+      </c>
+      <c r="C264" t="s">
+        <v>63</v>
+      </c>
+      <c r="D264" t="s">
+        <v>64</v>
+      </c>
+      <c r="E264" s="2">
+        <v>44996.70833333334</v>
+      </c>
+      <c r="F264">
+        <v>27</v>
+      </c>
+      <c r="G264" t="s">
+        <v>83</v>
+      </c>
+      <c r="H264" t="s">
+        <v>77</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="K264">
+        <v>2</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264">
+        <v>2</v>
+      </c>
+      <c r="N264">
+        <v>3</v>
+      </c>
+      <c r="O264" t="s">
+        <v>183</v>
+      </c>
+      <c r="P264" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q264">
+        <v>6</v>
+      </c>
+      <c r="R264">
+        <v>3</v>
+      </c>
+      <c r="S264">
+        <v>9</v>
+      </c>
+      <c r="T264">
+        <v>6.5</v>
+      </c>
+      <c r="U264">
+        <v>2.5</v>
+      </c>
+      <c r="V264">
+        <v>1.91</v>
+      </c>
+      <c r="W264">
+        <v>1.29</v>
+      </c>
+      <c r="X264">
+        <v>3.5</v>
+      </c>
+      <c r="Y264">
+        <v>2.38</v>
+      </c>
+      <c r="Z264">
+        <v>1.53</v>
+      </c>
+      <c r="AA264">
+        <v>5.5</v>
+      </c>
+      <c r="AB264">
+        <v>1.14</v>
+      </c>
+      <c r="AC264">
+        <v>7.5</v>
+      </c>
+      <c r="AD264">
+        <v>4.6</v>
+      </c>
+      <c r="AE264">
+        <v>1.4</v>
+      </c>
+      <c r="AF264">
+        <v>1.03</v>
+      </c>
+      <c r="AG264">
+        <v>18.75</v>
+      </c>
+      <c r="AH264">
+        <v>1.19</v>
+      </c>
+      <c r="AI264">
+        <v>4.75</v>
+      </c>
+      <c r="AJ264">
+        <v>1.57</v>
+      </c>
+      <c r="AK264">
+        <v>2.25</v>
+      </c>
+      <c r="AL264">
+        <v>1.8</v>
+      </c>
+      <c r="AM264">
+        <v>1.95</v>
+      </c>
+      <c r="AN264">
+        <v>2.9</v>
+      </c>
+      <c r="AO264">
+        <v>1.18</v>
+      </c>
+      <c r="AP264">
+        <v>1.12</v>
+      </c>
+      <c r="AQ264">
+        <v>0.92</v>
+      </c>
+      <c r="AR264">
+        <v>2.15</v>
+      </c>
+      <c r="AS264">
+        <v>0.85</v>
+      </c>
+      <c r="AT264">
+        <v>2.21</v>
+      </c>
+      <c r="AU264">
+        <v>1.47</v>
+      </c>
+      <c r="AV264">
+        <v>1.97</v>
+      </c>
+      <c r="AW264">
+        <v>3.44</v>
+      </c>
+      <c r="AX264">
+        <v>3.5</v>
+      </c>
+      <c r="AY264">
+        <v>9</v>
+      </c>
+      <c r="AZ264">
+        <v>1.4</v>
+      </c>
+      <c r="BA264">
+        <v>1.25</v>
+      </c>
+      <c r="BB264">
+        <v>1.5</v>
+      </c>
+      <c r="BC264">
+        <v>1.89</v>
+      </c>
+      <c r="BD264">
+        <v>2.45</v>
+      </c>
+      <c r="BE264">
+        <v>3.28</v>
+      </c>
+      <c r="BF264">
+        <v>3</v>
+      </c>
+      <c r="BG264">
+        <v>8</v>
+      </c>
+      <c r="BH264">
+        <v>6</v>
+      </c>
+      <c r="BI264">
+        <v>10</v>
+      </c>
+      <c r="BJ264">
+        <v>9</v>
+      </c>
+      <c r="BK264">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="1:63">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>2468184</v>
+      </c>
+      <c r="C265" t="s">
+        <v>63</v>
+      </c>
+      <c r="D265" t="s">
+        <v>64</v>
+      </c>
+      <c r="E265" s="2">
+        <v>44997.375</v>
+      </c>
+      <c r="F265">
+        <v>27</v>
+      </c>
+      <c r="G265" t="s">
+        <v>67</v>
+      </c>
+      <c r="H265" t="s">
+        <v>72</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>3</v>
+      </c>
+      <c r="K265">
+        <v>3</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>4</v>
+      </c>
+      <c r="N265">
+        <v>4</v>
+      </c>
+      <c r="O265" t="s">
+        <v>87</v>
+      </c>
+      <c r="P265" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q265">
+        <v>6</v>
+      </c>
+      <c r="R265">
+        <v>4</v>
+      </c>
+      <c r="S265">
+        <v>10</v>
+      </c>
+      <c r="T265">
+        <v>5</v>
+      </c>
+      <c r="U265">
+        <v>2.05</v>
+      </c>
+      <c r="V265">
+        <v>2.5</v>
+      </c>
+      <c r="W265">
+        <v>1.44</v>
+      </c>
+      <c r="X265">
+        <v>2.63</v>
+      </c>
+      <c r="Y265">
+        <v>3.25</v>
+      </c>
+      <c r="Z265">
+        <v>1.33</v>
+      </c>
+      <c r="AA265">
+        <v>10</v>
+      </c>
+      <c r="AB265">
+        <v>1.06</v>
+      </c>
+      <c r="AC265">
+        <v>4.3</v>
+      </c>
+      <c r="AD265">
+        <v>3.2</v>
+      </c>
+      <c r="AE265">
+        <v>1.71</v>
+      </c>
+      <c r="AF265">
+        <v>1.08</v>
+      </c>
+      <c r="AG265">
+        <v>7.5</v>
+      </c>
+      <c r="AH265">
+        <v>1.39</v>
+      </c>
+      <c r="AI265">
+        <v>2.8</v>
+      </c>
+      <c r="AJ265">
+        <v>2.15</v>
+      </c>
+      <c r="AK265">
+        <v>1.62</v>
+      </c>
+      <c r="AL265">
+        <v>2</v>
+      </c>
+      <c r="AM265">
+        <v>1.75</v>
+      </c>
+      <c r="AN265">
+        <v>1.9</v>
+      </c>
+      <c r="AO265">
+        <v>1.3</v>
+      </c>
+      <c r="AP265">
+        <v>1.21</v>
+      </c>
+      <c r="AQ265">
+        <v>1.15</v>
+      </c>
+      <c r="AR265">
+        <v>1.31</v>
+      </c>
+      <c r="AS265">
+        <v>1.07</v>
+      </c>
+      <c r="AT265">
+        <v>1.43</v>
+      </c>
+      <c r="AU265">
+        <v>1.28</v>
+      </c>
+      <c r="AV265">
+        <v>1.75</v>
+      </c>
+      <c r="AW265">
+        <v>3.03</v>
+      </c>
+      <c r="AX265">
+        <v>3.06</v>
+      </c>
+      <c r="AY265">
+        <v>7.8</v>
+      </c>
+      <c r="AZ265">
+        <v>1.58</v>
+      </c>
+      <c r="BA265">
+        <v>1.4</v>
+      </c>
+      <c r="BB265">
+        <v>1.67</v>
+      </c>
+      <c r="BC265">
+        <v>2.1</v>
+      </c>
+      <c r="BD265">
+        <v>2.63</v>
+      </c>
+      <c r="BE265">
+        <v>3.4</v>
+      </c>
+      <c r="BF265">
+        <v>7</v>
+      </c>
+      <c r="BG265">
+        <v>7</v>
+      </c>
+      <c r="BH265">
+        <v>2</v>
+      </c>
+      <c r="BI265">
+        <v>7</v>
+      </c>
+      <c r="BJ265">
+        <v>9</v>
+      </c>
+      <c r="BK265">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:63">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>2468185</v>
+      </c>
+      <c r="C266" t="s">
+        <v>63</v>
+      </c>
+      <c r="D266" t="s">
+        <v>64</v>
+      </c>
+      <c r="E266" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F266">
+        <v>27</v>
+      </c>
+      <c r="G266" t="s">
+        <v>84</v>
+      </c>
+      <c r="H266" t="s">
+        <v>78</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="L266">
+        <v>2</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>2</v>
+      </c>
+      <c r="O266" t="s">
+        <v>251</v>
+      </c>
+      <c r="P266" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q266">
+        <v>1</v>
+      </c>
+      <c r="R266">
+        <v>4</v>
+      </c>
+      <c r="S266">
+        <v>5</v>
+      </c>
+      <c r="T266">
+        <v>2.38</v>
+      </c>
+      <c r="U266">
+        <v>2.25</v>
+      </c>
+      <c r="V266">
+        <v>4.75</v>
+      </c>
+      <c r="W266">
+        <v>1.36</v>
+      </c>
+      <c r="X266">
+        <v>3</v>
+      </c>
+      <c r="Y266">
+        <v>2.75</v>
+      </c>
+      <c r="Z266">
+        <v>1.4</v>
+      </c>
+      <c r="AA266">
+        <v>7</v>
+      </c>
+      <c r="AB266">
+        <v>1.1</v>
+      </c>
+      <c r="AC266">
+        <v>1.69</v>
+      </c>
+      <c r="AD266">
+        <v>3.45</v>
+      </c>
+      <c r="AE266">
+        <v>4.05</v>
+      </c>
+      <c r="AF266">
+        <v>1.03</v>
+      </c>
+      <c r="AG266">
+        <v>11</v>
+      </c>
+      <c r="AH266">
+        <v>1.25</v>
+      </c>
+      <c r="AI266">
+        <v>3.8</v>
+      </c>
+      <c r="AJ266">
+        <v>1.84</v>
+      </c>
+      <c r="AK266">
+        <v>1.86</v>
+      </c>
+      <c r="AL266">
+        <v>1.75</v>
+      </c>
+      <c r="AM266">
+        <v>2</v>
+      </c>
+      <c r="AN266">
+        <v>1.23</v>
+      </c>
+      <c r="AO266">
+        <v>1.29</v>
+      </c>
+      <c r="AP266">
+        <v>2.09</v>
+      </c>
+      <c r="AQ266">
+        <v>1.62</v>
+      </c>
+      <c r="AR266">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS266">
+        <v>1.71</v>
+      </c>
+      <c r="AT266">
+        <v>0.64</v>
+      </c>
+      <c r="AU266">
+        <v>1.48</v>
+      </c>
+      <c r="AV266">
+        <v>1.4</v>
+      </c>
+      <c r="AW266">
+        <v>2.88</v>
+      </c>
+      <c r="AX266">
+        <v>1.46</v>
+      </c>
+      <c r="AY266">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ266">
+        <v>3.54</v>
+      </c>
+      <c r="BA266">
+        <v>1.36</v>
+      </c>
+      <c r="BB266">
+        <v>1.62</v>
+      </c>
+      <c r="BC266">
+        <v>2</v>
+      </c>
+      <c r="BD266">
+        <v>2.5</v>
+      </c>
+      <c r="BE266">
+        <v>3.3</v>
+      </c>
+      <c r="BF266">
+        <v>7</v>
+      </c>
+      <c r="BG266">
+        <v>3</v>
+      </c>
+      <c r="BH266">
+        <v>4</v>
+      </c>
+      <c r="BI266">
+        <v>4</v>
+      </c>
+      <c r="BJ266">
+        <v>11</v>
+      </c>
+      <c r="BK266">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:63">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>2468186</v>
+      </c>
+      <c r="C267" t="s">
+        <v>63</v>
+      </c>
+      <c r="D267" t="s">
+        <v>64</v>
+      </c>
+      <c r="E267" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F267">
+        <v>27</v>
+      </c>
+      <c r="G267" t="s">
+        <v>75</v>
+      </c>
+      <c r="H267" t="s">
+        <v>82</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267">
+        <v>2</v>
+      </c>
+      <c r="L267">
+        <v>2</v>
+      </c>
+      <c r="M267">
+        <v>2</v>
+      </c>
+      <c r="N267">
+        <v>4</v>
+      </c>
+      <c r="O267" t="s">
+        <v>252</v>
+      </c>
+      <c r="P267" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q267">
+        <v>1</v>
+      </c>
+      <c r="R267">
+        <v>10</v>
+      </c>
+      <c r="S267">
+        <v>11</v>
+      </c>
+      <c r="T267">
+        <v>3.75</v>
+      </c>
+      <c r="U267">
+        <v>2</v>
+      </c>
+      <c r="V267">
+        <v>3.2</v>
+      </c>
+      <c r="W267">
+        <v>1.5</v>
+      </c>
+      <c r="X267">
+        <v>2.5</v>
+      </c>
+      <c r="Y267">
+        <v>3.4</v>
+      </c>
+      <c r="Z267">
+        <v>1.3</v>
+      </c>
+      <c r="AA267">
+        <v>10</v>
+      </c>
+      <c r="AB267">
+        <v>1.06</v>
+      </c>
+      <c r="AC267">
+        <v>2.73</v>
+      </c>
+      <c r="AD267">
+        <v>2.88</v>
+      </c>
+      <c r="AE267">
+        <v>2.41</v>
+      </c>
+      <c r="AF267">
+        <v>1.08</v>
+      </c>
+      <c r="AG267">
+        <v>7</v>
+      </c>
+      <c r="AH267">
+        <v>1.4</v>
+      </c>
+      <c r="AI267">
+        <v>2.85</v>
+      </c>
+      <c r="AJ267">
+        <v>2.27</v>
+      </c>
+      <c r="AK267">
+        <v>1.56</v>
+      </c>
+      <c r="AL267">
+        <v>1.95</v>
+      </c>
+      <c r="AM267">
+        <v>1.8</v>
+      </c>
+      <c r="AN267">
+        <v>1.55</v>
+      </c>
+      <c r="AO267">
+        <v>1.34</v>
+      </c>
+      <c r="AP267">
+        <v>1.37</v>
+      </c>
+      <c r="AQ267">
+        <v>1.42</v>
+      </c>
+      <c r="AR267">
+        <v>1.69</v>
+      </c>
+      <c r="AS267">
+        <v>1.38</v>
+      </c>
+      <c r="AT267">
+        <v>1.64</v>
+      </c>
+      <c r="AU267">
+        <v>1.63</v>
+      </c>
+      <c r="AV267">
+        <v>1.34</v>
+      </c>
+      <c r="AW267">
+        <v>2.97</v>
+      </c>
+      <c r="AX267">
+        <v>1.93</v>
+      </c>
+      <c r="AY267">
+        <v>7.6</v>
+      </c>
+      <c r="AZ267">
+        <v>2.29</v>
+      </c>
+      <c r="BA267">
+        <v>1.3</v>
+      </c>
+      <c r="BB267">
+        <v>1.55</v>
+      </c>
+      <c r="BC267">
+        <v>1.85</v>
+      </c>
+      <c r="BD267">
+        <v>2.3</v>
+      </c>
+      <c r="BE267">
+        <v>3</v>
+      </c>
+      <c r="BF267">
+        <v>4</v>
+      </c>
+      <c r="BG267">
+        <v>7</v>
+      </c>
+      <c r="BH267">
+        <v>2</v>
+      </c>
+      <c r="BI267">
+        <v>9</v>
+      </c>
+      <c r="BJ267">
+        <v>6</v>
+      </c>
+      <c r="BK267">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:63">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>2468180</v>
+      </c>
+      <c r="C268" t="s">
+        <v>63</v>
+      </c>
+      <c r="D268" t="s">
+        <v>64</v>
+      </c>
+      <c r="E268" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F268">
+        <v>27</v>
+      </c>
+      <c r="G268" t="s">
+        <v>81</v>
+      </c>
+      <c r="H268" t="s">
+        <v>71</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268">
+        <v>1</v>
+      </c>
+      <c r="N268">
+        <v>1</v>
+      </c>
+      <c r="O268" t="s">
+        <v>87</v>
+      </c>
+      <c r="P268" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q268">
+        <v>1</v>
+      </c>
+      <c r="R268">
+        <v>3</v>
+      </c>
+      <c r="S268">
+        <v>4</v>
+      </c>
+      <c r="T268">
+        <v>3.6</v>
+      </c>
+      <c r="U268">
+        <v>2</v>
+      </c>
+      <c r="V268">
+        <v>3.25</v>
+      </c>
+      <c r="W268">
+        <v>1.5</v>
+      </c>
+      <c r="X268">
+        <v>2.5</v>
+      </c>
+      <c r="Y268">
+        <v>3.4</v>
+      </c>
+      <c r="Z268">
+        <v>1.3</v>
+      </c>
+      <c r="AA268">
+        <v>10</v>
+      </c>
+      <c r="AB268">
+        <v>1.06</v>
+      </c>
+      <c r="AC268">
+        <v>2.78</v>
+      </c>
+      <c r="AD268">
+        <v>2.87</v>
+      </c>
+      <c r="AE268">
+        <v>2.38</v>
+      </c>
+      <c r="AF268">
+        <v>1.09</v>
+      </c>
+      <c r="AG268">
+        <v>7.25</v>
+      </c>
+      <c r="AH268">
+        <v>1.41</v>
+      </c>
+      <c r="AI268">
+        <v>2.7</v>
+      </c>
+      <c r="AJ268">
+        <v>2.35</v>
+      </c>
+      <c r="AK268">
+        <v>1.52</v>
+      </c>
+      <c r="AL268">
+        <v>1.95</v>
+      </c>
+      <c r="AM268">
+        <v>1.8</v>
+      </c>
+      <c r="AN268">
+        <v>1.54</v>
+      </c>
+      <c r="AO268">
+        <v>1.37</v>
+      </c>
+      <c r="AP268">
+        <v>1.44</v>
+      </c>
+      <c r="AQ268">
+        <v>0.83</v>
+      </c>
+      <c r="AR268">
+        <v>1.08</v>
+      </c>
+      <c r="AS268">
+        <v>0.77</v>
+      </c>
+      <c r="AT268">
+        <v>1.23</v>
+      </c>
+      <c r="AU268">
+        <v>1.41</v>
+      </c>
+      <c r="AV268">
+        <v>1.32</v>
+      </c>
+      <c r="AW268">
+        <v>2.73</v>
+      </c>
+      <c r="AX268">
+        <v>1.86</v>
+      </c>
+      <c r="AY268">
+        <v>7.4</v>
+      </c>
+      <c r="AZ268">
+        <v>2.41</v>
+      </c>
+      <c r="BA268">
+        <v>1.44</v>
+      </c>
+      <c r="BB268">
+        <v>1.73</v>
+      </c>
+      <c r="BC268">
+        <v>2.2</v>
+      </c>
+      <c r="BD268">
+        <v>2.8</v>
+      </c>
+      <c r="BE268">
+        <v>4.55</v>
+      </c>
+      <c r="BF268">
+        <v>2</v>
+      </c>
+      <c r="BG268">
+        <v>5</v>
+      </c>
+      <c r="BH268">
+        <v>3</v>
+      </c>
+      <c r="BI268">
+        <v>5</v>
+      </c>
+      <c r="BJ268">
+        <v>5</v>
+      </c>
+      <c r="BK268">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:63">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>2468183</v>
+      </c>
+      <c r="C269" t="s">
+        <v>63</v>
+      </c>
+      <c r="D269" t="s">
+        <v>64</v>
+      </c>
+      <c r="E269" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F269">
+        <v>27</v>
+      </c>
+      <c r="G269" t="s">
+        <v>70</v>
+      </c>
+      <c r="H269" t="s">
+        <v>68</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>2</v>
+      </c>
+      <c r="N269">
+        <v>2</v>
+      </c>
+      <c r="O269" t="s">
+        <v>87</v>
+      </c>
+      <c r="P269" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q269">
+        <v>6</v>
+      </c>
+      <c r="R269">
+        <v>8</v>
+      </c>
+      <c r="S269">
+        <v>14</v>
+      </c>
+      <c r="T269">
+        <v>4</v>
+      </c>
+      <c r="U269">
+        <v>2.3</v>
+      </c>
+      <c r="V269">
+        <v>2.6</v>
+      </c>
+      <c r="W269">
+        <v>1.33</v>
+      </c>
+      <c r="X269">
+        <v>3.25</v>
+      </c>
+      <c r="Y269">
+        <v>2.63</v>
+      </c>
+      <c r="Z269">
+        <v>1.44</v>
+      </c>
+      <c r="AA269">
+        <v>6.5</v>
+      </c>
+      <c r="AB269">
+        <v>1.11</v>
+      </c>
+      <c r="AC269">
+        <v>3.55</v>
+      </c>
+      <c r="AD269">
+        <v>3.55</v>
+      </c>
+      <c r="AE269">
+        <v>1.77</v>
+      </c>
+      <c r="AF269">
+        <v>1.04</v>
+      </c>
+      <c r="AG269">
+        <v>11</v>
+      </c>
+      <c r="AH269">
+        <v>1.23</v>
+      </c>
+      <c r="AI269">
+        <v>3.9</v>
+      </c>
+      <c r="AJ269">
+        <v>1.63</v>
+      </c>
+      <c r="AK269">
+        <v>2.13</v>
+      </c>
+      <c r="AL269">
+        <v>1.62</v>
+      </c>
+      <c r="AM269">
+        <v>2.2</v>
+      </c>
+      <c r="AN269">
+        <v>1.83</v>
+      </c>
+      <c r="AO269">
+        <v>1.24</v>
+      </c>
+      <c r="AP269">
+        <v>1.3</v>
+      </c>
+      <c r="AQ269">
+        <v>0.38</v>
+      </c>
+      <c r="AR269">
+        <v>0.83</v>
+      </c>
+      <c r="AS269">
+        <v>0.36</v>
+      </c>
+      <c r="AT269">
+        <v>1</v>
+      </c>
+      <c r="AU269">
+        <v>1.39</v>
+      </c>
+      <c r="AV269">
+        <v>1.43</v>
+      </c>
+      <c r="AW269">
+        <v>2.82</v>
+      </c>
+      <c r="AX269">
+        <v>2.32</v>
+      </c>
+      <c r="AY269">
+        <v>7.6</v>
+      </c>
+      <c r="AZ269">
+        <v>1.91</v>
+      </c>
+      <c r="BA269">
+        <v>1.36</v>
+      </c>
+      <c r="BB269">
+        <v>1.62</v>
+      </c>
+      <c r="BC269">
+        <v>2</v>
+      </c>
+      <c r="BD269">
+        <v>2.5</v>
+      </c>
+      <c r="BE269">
+        <v>3.3</v>
+      </c>
+      <c r="BF269">
+        <v>3</v>
+      </c>
+      <c r="BG269">
+        <v>6</v>
+      </c>
+      <c r="BH269">
+        <v>8</v>
+      </c>
+      <c r="BI269">
+        <v>1</v>
+      </c>
+      <c r="BJ269">
+        <v>11</v>
+      </c>
+      <c r="BK269">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:63">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>2468182</v>
+      </c>
+      <c r="C270" t="s">
+        <v>63</v>
+      </c>
+      <c r="D270" t="s">
+        <v>64</v>
+      </c>
+      <c r="E270" s="2">
+        <v>44997.54513888889</v>
+      </c>
+      <c r="F270">
+        <v>27</v>
+      </c>
+      <c r="G270" t="s">
+        <v>76</v>
+      </c>
+      <c r="H270" t="s">
+        <v>79</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+      <c r="N270">
+        <v>1</v>
+      </c>
+      <c r="O270" t="s">
+        <v>87</v>
+      </c>
+      <c r="P270" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q270">
+        <v>3</v>
+      </c>
+      <c r="R270">
+        <v>3</v>
+      </c>
+      <c r="S270">
+        <v>6</v>
+      </c>
+      <c r="T270">
+        <v>2.38</v>
+      </c>
+      <c r="U270">
+        <v>2.3</v>
+      </c>
+      <c r="V270">
+        <v>4.5</v>
+      </c>
+      <c r="W270">
+        <v>1.33</v>
+      </c>
+      <c r="X270">
+        <v>3.25</v>
+      </c>
+      <c r="Y270">
+        <v>2.63</v>
+      </c>
+      <c r="Z270">
+        <v>1.44</v>
+      </c>
+      <c r="AA270">
+        <v>6.5</v>
+      </c>
+      <c r="AB270">
+        <v>1.11</v>
+      </c>
+      <c r="AC270">
+        <v>1.69</v>
+      </c>
+      <c r="AD270">
+        <v>3.5</v>
+      </c>
+      <c r="AE270">
+        <v>3.95</v>
+      </c>
+      <c r="AF270">
+        <v>1.04</v>
+      </c>
+      <c r="AG270">
+        <v>11</v>
+      </c>
+      <c r="AH270">
+        <v>1.24</v>
+      </c>
+      <c r="AI270">
+        <v>3.8</v>
+      </c>
+      <c r="AJ270">
+        <v>1.73</v>
+      </c>
+      <c r="AK270">
+        <v>1.98</v>
+      </c>
+      <c r="AL270">
+        <v>1.7</v>
+      </c>
+      <c r="AM270">
+        <v>2.05</v>
+      </c>
+      <c r="AN270">
+        <v>1.21</v>
+      </c>
+      <c r="AO270">
+        <v>1.25</v>
+      </c>
+      <c r="AP270">
+        <v>2</v>
+      </c>
+      <c r="AQ270">
+        <v>1.77</v>
+      </c>
+      <c r="AR270">
+        <v>1.15</v>
+      </c>
+      <c r="AS270">
+        <v>1.64</v>
+      </c>
+      <c r="AT270">
+        <v>1.29</v>
+      </c>
+      <c r="AU270">
+        <v>1.58</v>
+      </c>
+      <c r="AV270">
+        <v>1.41</v>
+      </c>
+      <c r="AW270">
+        <v>2.99</v>
+      </c>
+      <c r="AX270">
+        <v>1.44</v>
+      </c>
+      <c r="AY270">
+        <v>8.5</v>
+      </c>
+      <c r="AZ270">
+        <v>3.64</v>
+      </c>
+      <c r="BA270">
+        <v>1.28</v>
+      </c>
+      <c r="BB270">
+        <v>1.53</v>
+      </c>
+      <c r="BC270">
+        <v>1.95</v>
+      </c>
+      <c r="BD270">
+        <v>2.53</v>
+      </c>
+      <c r="BE270">
+        <v>3.48</v>
+      </c>
+      <c r="BF270">
+        <v>4</v>
+      </c>
+      <c r="BG270">
+        <v>9</v>
+      </c>
+      <c r="BH270">
+        <v>7</v>
+      </c>
+      <c r="BI270">
+        <v>5</v>
+      </c>
+      <c r="BJ270">
+        <v>11</v>
+      </c>
+      <c r="BK270">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:63">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>2468188</v>
+      </c>
+      <c r="C271" t="s">
+        <v>63</v>
+      </c>
+      <c r="D271" t="s">
+        <v>64</v>
+      </c>
+      <c r="E271" s="2">
+        <v>44997.69791666666</v>
+      </c>
+      <c r="F271">
+        <v>27</v>
+      </c>
+      <c r="G271" t="s">
+        <v>74</v>
+      </c>
+      <c r="H271" t="s">
+        <v>66</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>2</v>
+      </c>
+      <c r="M271">
+        <v>2</v>
+      </c>
+      <c r="N271">
+        <v>4</v>
+      </c>
+      <c r="O271" t="s">
+        <v>253</v>
+      </c>
+      <c r="P271" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q271">
+        <v>1</v>
+      </c>
+      <c r="R271">
+        <v>8</v>
+      </c>
+      <c r="S271">
+        <v>9</v>
+      </c>
+      <c r="T271">
+        <v>1.91</v>
+      </c>
+      <c r="U271">
+        <v>2.5</v>
+      </c>
+      <c r="V271">
+        <v>7</v>
+      </c>
+      <c r="W271">
+        <v>1.33</v>
+      </c>
+      <c r="X271">
+        <v>3.25</v>
+      </c>
+      <c r="Y271">
+        <v>2.5</v>
+      </c>
+      <c r="Z271">
+        <v>1.5</v>
+      </c>
+      <c r="AA271">
+        <v>6</v>
+      </c>
+      <c r="AB271">
+        <v>1.13</v>
+      </c>
+      <c r="AC271">
+        <v>1.33</v>
+      </c>
+      <c r="AD271">
+        <v>4.65</v>
+      </c>
+      <c r="AE271">
+        <v>6.9</v>
+      </c>
+      <c r="AF271">
+        <v>1.04</v>
+      </c>
+      <c r="AG271">
+        <v>12</v>
+      </c>
+      <c r="AH271">
+        <v>1.22</v>
+      </c>
+      <c r="AI271">
+        <v>3.9</v>
+      </c>
+      <c r="AJ271">
+        <v>1.72</v>
+      </c>
+      <c r="AK271">
+        <v>2.15</v>
+      </c>
+      <c r="AL271">
+        <v>1.95</v>
+      </c>
+      <c r="AM271">
+        <v>1.8</v>
+      </c>
+      <c r="AN271">
+        <v>1.09</v>
+      </c>
+      <c r="AO271">
+        <v>1.18</v>
+      </c>
+      <c r="AP271">
+        <v>2.85</v>
+      </c>
+      <c r="AQ271">
+        <v>1.77</v>
+      </c>
+      <c r="AR271">
+        <v>0.83</v>
+      </c>
+      <c r="AS271">
+        <v>1.71</v>
+      </c>
+      <c r="AT271">
+        <v>0.85</v>
+      </c>
+      <c r="AU271">
+        <v>1.97</v>
+      </c>
+      <c r="AV271">
+        <v>1.32</v>
+      </c>
+      <c r="AW271">
+        <v>3.29</v>
+      </c>
+      <c r="AX271">
+        <v>1.22</v>
+      </c>
+      <c r="AY271">
+        <v>13</v>
+      </c>
+      <c r="AZ271">
+        <v>5.2</v>
+      </c>
+      <c r="BA271">
+        <v>1.23</v>
+      </c>
+      <c r="BB271">
+        <v>1.47</v>
+      </c>
+      <c r="BC271">
+        <v>1.84</v>
+      </c>
+      <c r="BD271">
+        <v>2.36</v>
+      </c>
+      <c r="BE271">
+        <v>3.14</v>
+      </c>
+      <c r="BF271">
+        <v>2</v>
+      </c>
+      <c r="BG271">
+        <v>11</v>
+      </c>
+      <c r="BH271">
+        <v>3</v>
+      </c>
+      <c r="BI271">
+        <v>6</v>
+      </c>
+      <c r="BJ271">
+        <v>5</v>
+      </c>
+      <c r="BK271">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -53267,22 +53267,22 @@
         <v>3.14</v>
       </c>
       <c r="BF271">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG271">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BH271">
         <v>3</v>
       </c>
       <c r="BI271">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="BJ271">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BK271">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK271"/>
+  <dimension ref="A1:BK274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT2" t="n">
         <v>0.79</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT5" t="n">
         <v>1.64</v>
@@ -1918,7 +1918,7 @@
         <v>0.36</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT9" t="n">
         <v>0.86</v>
@@ -2933,7 +2933,7 @@
         <v>1.38</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.08</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT21" t="n">
         <v>0.64</v>
@@ -5166,7 +5166,7 @@
         <v>1.71</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT25" t="n">
         <v>1.46</v>
@@ -6790,7 +6790,7 @@
         <v>0.77</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU31" t="n">
         <v>1.08</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT33" t="n">
         <v>1.08</v>
@@ -7602,7 +7602,7 @@
         <v>0.85</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU35" t="n">
         <v>1.19</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT41" t="n">
         <v>0.64</v>
@@ -9429,7 +9429,7 @@
         <v>0.86</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU44" t="n">
         <v>1.58</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT47" t="n">
         <v>1.46</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT48" t="n">
         <v>2.21</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU52" t="n">
         <v>1.89</v>
@@ -11459,7 +11459,7 @@
         <v>1.21</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU54" t="n">
         <v>1.65</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT62" t="n">
         <v>0.64</v>
@@ -13489,7 +13489,7 @@
         <v>1.71</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU64" t="n">
         <v>2.14</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT66" t="n">
         <v>1.29</v>
@@ -14504,7 +14504,7 @@
         <v>1.71</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU69" t="n">
         <v>1.92</v>
@@ -16331,7 +16331,7 @@
         <v>1.54</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU78" t="n">
         <v>1.48</v>
@@ -16937,7 +16937,7 @@
         <v>3</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT81" t="n">
         <v>2.21</v>
@@ -17752,7 +17752,7 @@
         <v>1.71</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU85" t="n">
         <v>1.8</v>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT86" t="n">
         <v>1.23</v>
@@ -18767,7 +18767,7 @@
         <v>1.64</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -18967,7 +18967,7 @@
         <v>0.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT91" t="n">
         <v>1.29</v>
@@ -19170,7 +19170,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT92" t="n">
         <v>1</v>
@@ -20797,7 +20797,7 @@
         <v>2.36</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU100" t="n">
         <v>2.02</v>
@@ -21203,7 +21203,7 @@
         <v>0.86</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -21606,7 +21606,7 @@
         <v>0.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT104" t="n">
         <v>1.23</v>
@@ -21809,10 +21809,10 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU105" t="n">
         <v>1.52</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT119" t="n">
         <v>0.85</v>
@@ -24857,7 +24857,7 @@
         <v>1.54</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU120" t="n">
         <v>1.61</v>
@@ -25260,7 +25260,7 @@
         <v>0.8</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -26075,7 +26075,7 @@
         <v>1.64</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU126" t="n">
         <v>1.32</v>
@@ -27087,10 +27087,10 @@
         <v>1.67</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU131" t="n">
         <v>2.07</v>
@@ -28511,7 +28511,7 @@
         <v>1.92</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU138" t="n">
         <v>1.74</v>
@@ -28711,7 +28711,7 @@
         <v>2.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT139" t="n">
         <v>2.15</v>
@@ -29320,7 +29320,7 @@
         <v>1.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT142" t="n">
         <v>1.64</v>
@@ -29523,7 +29523,7 @@
         <v>1.29</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT143" t="n">
         <v>1.46</v>
@@ -30338,7 +30338,7 @@
         <v>2</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU147" t="n">
         <v>1.92</v>
@@ -31353,7 +31353,7 @@
         <v>0.77</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU152" t="n">
         <v>1.36</v>
@@ -31556,7 +31556,7 @@
         <v>0.85</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU153" t="n">
         <v>1.86</v>
@@ -31962,7 +31962,7 @@
         <v>1.07</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU155" t="n">
         <v>1.41</v>
@@ -33786,7 +33786,7 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT164" t="n">
         <v>0.79</v>
@@ -34192,7 +34192,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT166" t="n">
         <v>1.46</v>
@@ -34395,7 +34395,7 @@
         <v>2.75</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT167" t="n">
         <v>2.21</v>
@@ -36225,7 +36225,7 @@
         <v>0.85</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU176" t="n">
         <v>1.67</v>
@@ -36834,7 +36834,7 @@
         <v>2.69</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU179" t="n">
         <v>2.13</v>
@@ -37440,7 +37440,7 @@
         <v>0.44</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT182" t="n">
         <v>0.64</v>
@@ -37846,7 +37846,7 @@
         <v>0.75</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT184" t="n">
         <v>0.85</v>
@@ -38455,7 +38455,7 @@
         <v>0.78</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT187" t="n">
         <v>0.86</v>
@@ -38864,7 +38864,7 @@
         <v>1.21</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU189" t="n">
         <v>1.43</v>
@@ -40082,7 +40082,7 @@
         <v>1.54</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU195" t="n">
         <v>1.72</v>
@@ -40691,7 +40691,7 @@
         <v>0.85</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU198" t="n">
         <v>1.54</v>
@@ -40894,7 +40894,7 @@
         <v>1.07</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU199" t="n">
         <v>1.35</v>
@@ -41906,7 +41906,7 @@
         <v>0.9</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT204" t="n">
         <v>0.64</v>
@@ -42515,7 +42515,7 @@
         <v>1.3</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT207" t="n">
         <v>1.64</v>
@@ -43327,7 +43327,7 @@
         <v>0.8</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT211" t="n">
         <v>0.86</v>
@@ -43939,7 +43939,7 @@
         <v>2.36</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU214" t="n">
         <v>1.81</v>
@@ -44345,7 +44345,7 @@
         <v>1.71</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU216" t="n">
         <v>1.52</v>
@@ -44548,7 +44548,7 @@
         <v>0.77</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU217" t="n">
         <v>1.41</v>
@@ -46169,7 +46169,7 @@
         <v>1</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT225" t="n">
         <v>1.08</v>
@@ -47387,7 +47387,7 @@
         <v>1.45</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT231" t="n">
         <v>1.43</v>
@@ -47999,7 +47999,7 @@
         <v>0.86</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU234" t="n">
         <v>1.44</v>
@@ -48202,7 +48202,7 @@
         <v>2.69</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU235" t="n">
         <v>2.08</v>
@@ -49214,10 +49214,10 @@
         <v>0.92</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU240" t="n">
         <v>1.8</v>
@@ -49417,7 +49417,7 @@
         <v>2.36</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT241" t="n">
         <v>2.46</v>
@@ -51853,10 +51853,10 @@
         <v>1.42</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU253" t="n">
         <v>1.86</v>
@@ -52059,7 +52059,7 @@
         <v>2.69</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU254" t="n">
         <v>2.05</v>
@@ -52665,7 +52665,7 @@
         <v>1.33</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT257" t="n">
         <v>1.46</v>
@@ -52871,7 +52871,7 @@
         <v>1.21</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU258" t="n">
         <v>1.43</v>
@@ -53274,7 +53274,7 @@
         <v>1.5</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT260" t="n">
         <v>1.46</v>
@@ -55562,6 +55562,615 @@
       </c>
       <c r="BK271" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2468193</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45002.70833333334</v>
+      </c>
+      <c r="F272" t="n">
+        <v>28</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
+      <c r="K272" t="n">
+        <v>2</v>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>2</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>5</v>
+      </c>
+      <c r="R272" t="n">
+        <v>2</v>
+      </c>
+      <c r="S272" t="n">
+        <v>7</v>
+      </c>
+      <c r="T272" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V272" t="n">
+        <v>5</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X272" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2468198</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45003.54166666666</v>
+      </c>
+      <c r="F273" t="n">
+        <v>28</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>2</v>
+      </c>
+      <c r="N273" t="n">
+        <v>2</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['85', '90+11']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>12</v>
+      </c>
+      <c r="R273" t="n">
+        <v>8</v>
+      </c>
+      <c r="S273" t="n">
+        <v>20</v>
+      </c>
+      <c r="T273" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V273" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X273" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2468195</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45003.70833333334</v>
+      </c>
+      <c r="F274" t="n">
+        <v>28</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>2</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>2</v>
+      </c>
+      <c r="L274" t="n">
+        <v>3</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>3</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['26', '30', '46']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>4</v>
+      </c>
+      <c r="R274" t="n">
+        <v>4</v>
+      </c>
+      <c r="S274" t="n">
+        <v>8</v>
+      </c>
+      <c r="T274" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V274" t="n">
+        <v>9</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X274" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -55087,10 +55087,10 @@
         <v>6</v>
       </c>
       <c r="R281">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S281">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T281">
         <v>3.4</v>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK281"/>
+  <dimension ref="A1:BK291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.64</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT4" t="n">
         <v>2.21</v>
@@ -1512,7 +1512,7 @@
         <v>1.47</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT6" t="n">
         <v>0.6</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AT7" t="n">
         <v>0.8</v>
@@ -2121,7 +2121,7 @@
         <v>1.33</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT12" t="n">
         <v>1.5</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT13" t="n">
         <v>1.21</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0.86</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT17" t="n">
         <v>0.36</v>
@@ -4151,7 +4151,7 @@
         <v>0.71</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>2.5</v>
@@ -4760,7 +4760,7 @@
         <v>1.64</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU21" t="n">
         <v>1.29</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU22" t="n">
         <v>1.35</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT23" t="n">
         <v>0.8</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU24" t="n">
         <v>1.77</v>
@@ -5572,7 +5572,7 @@
         <v>1.47</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU25" t="n">
         <v>1.13</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU26" t="n">
         <v>0.87</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AT27" t="n">
         <v>0.87</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU29" t="n">
         <v>1.89</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT30" t="n">
         <v>2.21</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU32" t="n">
         <v>1.58</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU34" t="n">
         <v>1</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU38" t="n">
         <v>2</v>
@@ -8414,7 +8414,7 @@
         <v>1.79</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU39" t="n">
         <v>1.44</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT40" t="n">
         <v>2.21</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU42" t="n">
         <v>1.44</v>
@@ -9223,10 +9223,10 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU43" t="n">
         <v>1.59</v>
@@ -9632,7 +9632,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT46" t="n">
         <v>0.87</v>
@@ -10038,7 +10038,7 @@
         <v>2.64</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU49" t="n">
         <v>1.88</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT50" t="n">
         <v>1.36</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT51" t="n">
         <v>2.5</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT53" t="n">
         <v>2.21</v>
@@ -11662,7 +11662,7 @@
         <v>0.71</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU55" t="n">
         <v>0.97</v>
@@ -11862,10 +11862,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU56" t="n">
         <v>0.92</v>
@@ -12068,7 +12068,7 @@
         <v>1.79</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU57" t="n">
         <v>1.31</v>
@@ -12268,10 +12268,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -12880,7 +12880,7 @@
         <v>1.71</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU61" t="n">
         <v>2.44</v>
@@ -13083,7 +13083,7 @@
         <v>2.64</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU62" t="n">
         <v>1.89</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT63" t="n">
         <v>0.87</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT64" t="n">
         <v>1.5</v>
@@ -13895,7 +13895,7 @@
         <v>1.47</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU66" t="n">
         <v>1.56</v>
@@ -14095,10 +14095,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU67" t="n">
         <v>1.52</v>
@@ -14301,7 +14301,7 @@
         <v>0.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU68" t="n">
         <v>1.29</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT70" t="n">
         <v>0.6</v>
@@ -14907,10 +14907,10 @@
         <v>0.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU71" t="n">
         <v>1.43</v>
@@ -15110,10 +15110,10 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -15316,7 +15316,7 @@
         <v>1.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU73" t="n">
         <v>1.43</v>
@@ -15516,10 +15516,10 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU74" t="n">
         <v>2.06</v>
@@ -15922,10 +15922,10 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU76" t="n">
         <v>1.49</v>
@@ -16125,10 +16125,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU77" t="n">
         <v>1.06</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT79" t="n">
         <v>1.21</v>
@@ -16734,10 +16734,10 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU80" t="n">
         <v>1.43</v>
@@ -17140,7 +17140,7 @@
         <v>2.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AT82" t="n">
         <v>2.5</v>
@@ -17546,10 +17546,10 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU84" t="n">
         <v>2.31</v>
@@ -17955,7 +17955,7 @@
         <v>1.47</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU86" t="n">
         <v>1.53</v>
@@ -18358,7 +18358,7 @@
         <v>0.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT88" t="n">
         <v>0.87</v>
@@ -18564,7 +18564,7 @@
         <v>0.86</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU89" t="n">
         <v>1.73</v>
@@ -18764,7 +18764,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT90" t="n">
         <v>0.8</v>
@@ -18970,7 +18970,7 @@
         <v>2.64</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU91" t="n">
         <v>1.81</v>
@@ -19173,7 +19173,7 @@
         <v>1.64</v>
       </c>
       <c r="AT92" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU92" t="n">
         <v>2.04</v>
@@ -19373,10 +19373,10 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU93" t="n">
         <v>2.04</v>
@@ -19982,10 +19982,10 @@
         <v>2</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU96" t="n">
         <v>1.47</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT97" t="n">
         <v>0.6</v>
@@ -20388,10 +20388,10 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU98" t="n">
         <v>1.52</v>
@@ -20594,7 +20594,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU99" t="n">
         <v>1.56</v>
@@ -20794,7 +20794,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT100" t="n">
         <v>0.8</v>
@@ -20997,10 +20997,10 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU101" t="n">
         <v>1.87</v>
@@ -21406,7 +21406,7 @@
         <v>1.71</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU103" t="n">
         <v>1.64</v>
@@ -21609,7 +21609,7 @@
         <v>2.64</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU104" t="n">
         <v>1.94</v>
@@ -22012,10 +22012,10 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU106" t="n">
         <v>1.48</v>
@@ -22215,10 +22215,10 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU107" t="n">
         <v>1.98</v>
@@ -22421,7 +22421,7 @@
         <v>0.86</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22621,7 +22621,7 @@
         <v>0.8</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT109" t="n">
         <v>0.87</v>
@@ -22824,7 +22824,7 @@
         <v>1.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT110" t="n">
         <v>1.36</v>
@@ -23027,7 +23027,7 @@
         <v>2.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT111" t="n">
         <v>2.5</v>
@@ -23436,7 +23436,7 @@
         <v>1.33</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU113" t="n">
         <v>1.39</v>
@@ -23636,10 +23636,10 @@
         <v>1.2</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU114" t="n">
         <v>1.96</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AT115" t="n">
         <v>1.21</v>
@@ -24245,7 +24245,7 @@
         <v>0.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT117" t="n">
         <v>0.87</v>
@@ -24451,7 +24451,7 @@
         <v>0.86</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU118" t="n">
         <v>1.81</v>
@@ -24654,7 +24654,7 @@
         <v>1.47</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU119" t="n">
         <v>1.58</v>
@@ -25057,7 +25057,7 @@
         <v>2.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT121" t="n">
         <v>2.21</v>
@@ -25263,7 +25263,7 @@
         <v>2.64</v>
       </c>
       <c r="AT122" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU122" t="n">
         <v>1.97</v>
@@ -25463,10 +25463,10 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU123" t="n">
         <v>2.18</v>
@@ -25869,10 +25869,10 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26072,7 +26072,7 @@
         <v>0.8</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT126" t="n">
         <v>0.36</v>
@@ -26275,10 +26275,10 @@
         <v>0.6</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU127" t="n">
         <v>1.91</v>
@@ -26478,7 +26478,7 @@
         <v>1.33</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT128" t="n">
         <v>1.36</v>
@@ -26681,10 +26681,10 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU129" t="n">
         <v>1.56</v>
@@ -26887,7 +26887,7 @@
         <v>1.71</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU130" t="n">
         <v>1.62</v>
@@ -27496,7 +27496,7 @@
         <v>0.71</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU133" t="n">
         <v>1.28</v>
@@ -27696,10 +27696,10 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -28102,10 +28102,10 @@
         <v>0.5</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU136" t="n">
         <v>1.38</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT140" t="n">
         <v>1.21</v>
@@ -29117,10 +29117,10 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU141" t="n">
         <v>1.93</v>
@@ -29323,7 +29323,7 @@
         <v>1.64</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU142" t="n">
         <v>1.92</v>
@@ -29726,10 +29726,10 @@
         <v>0.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT144" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU144" t="n">
         <v>1.89</v>
@@ -29929,7 +29929,7 @@
         <v>0.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT145" t="n">
         <v>0.6</v>
@@ -30132,10 +30132,10 @@
         <v>0.86</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU146" t="n">
         <v>1.6</v>
@@ -30335,7 +30335,7 @@
         <v>0.67</v>
       </c>
       <c r="AS147" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT147" t="n">
         <v>0.36</v>
@@ -30538,10 +30538,10 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU148" t="n">
         <v>1.6</v>
@@ -30744,7 +30744,7 @@
         <v>1.33</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU149" t="n">
         <v>1.37</v>
@@ -30947,7 +30947,7 @@
         <v>1</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU150" t="n">
         <v>1.33</v>
@@ -31147,7 +31147,7 @@
         <v>1.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT151" t="n">
         <v>2.5</v>
@@ -31756,7 +31756,7 @@
         <v>2.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT154" t="n">
         <v>2.21</v>
@@ -31959,7 +31959,7 @@
         <v>1.43</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT155" t="n">
         <v>1.5</v>
@@ -32162,10 +32162,10 @@
         <v>0.57</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU156" t="n">
         <v>1.65</v>
@@ -32365,10 +32365,10 @@
         <v>0.86</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU157" t="n">
         <v>2.18</v>
@@ -32571,7 +32571,7 @@
         <v>1.71</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU158" t="n">
         <v>1.59</v>
@@ -32977,7 +32977,7 @@
         <v>1.5</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU160" t="n">
         <v>1.7</v>
@@ -33177,10 +33177,10 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT161" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU161" t="n">
         <v>1.84</v>
@@ -33380,7 +33380,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT162" t="n">
         <v>0.87</v>
@@ -33583,7 +33583,7 @@
         <v>0.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT163" t="n">
         <v>0.6</v>
@@ -33789,7 +33789,7 @@
         <v>1.47</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU164" t="n">
         <v>1.65</v>
@@ -33989,10 +33989,10 @@
         <v>1.88</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU165" t="n">
         <v>1.4</v>
@@ -34601,7 +34601,7 @@
         <v>1</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU168" t="n">
         <v>1.45</v>
@@ -34801,10 +34801,10 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU169" t="n">
         <v>1.84</v>
@@ -35207,10 +35207,10 @@
         <v>1.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU171" t="n">
         <v>1.9</v>
@@ -35413,7 +35413,7 @@
         <v>0.71</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU172" t="n">
         <v>1.35</v>
@@ -35613,10 +35613,10 @@
         <v>0.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT173" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU173" t="n">
         <v>1.54</v>
@@ -35816,7 +35816,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT174" t="n">
         <v>1.21</v>
@@ -36019,10 +36019,10 @@
         <v>0.88</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU175" t="n">
         <v>1.57</v>
@@ -36222,7 +36222,7 @@
         <v>1.63</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT176" t="n">
         <v>1.5</v>
@@ -36631,7 +36631,7 @@
         <v>1.5</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU178" t="n">
         <v>1.66</v>
@@ -36831,7 +36831,7 @@
         <v>0.5</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT179" t="n">
         <v>0.36</v>
@@ -37037,7 +37037,7 @@
         <v>1</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU180" t="n">
         <v>1.54</v>
@@ -37643,10 +37643,10 @@
         <v>2</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU183" t="n">
         <v>1.86</v>
@@ -37849,7 +37849,7 @@
         <v>1.64</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU184" t="n">
         <v>1.8</v>
@@ -38049,10 +38049,10 @@
         <v>1</v>
       </c>
       <c r="AS185" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU185" t="n">
         <v>1.83</v>
@@ -38255,7 +38255,7 @@
         <v>1.79</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU186" t="n">
         <v>1.86</v>
@@ -38658,7 +38658,7 @@
         <v>1.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AT188" t="n">
         <v>1.36</v>
@@ -39064,10 +39064,10 @@
         <v>0.89</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU190" t="n">
         <v>1.4</v>
@@ -39267,7 +39267,7 @@
         <v>2.44</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT191" t="n">
         <v>2.21</v>
@@ -39676,7 +39676,7 @@
         <v>0.86</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU193" t="n">
         <v>1.64</v>
@@ -39876,7 +39876,7 @@
         <v>2.22</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT194" t="n">
         <v>2.21</v>
@@ -40282,10 +40282,10 @@
         <v>0.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU196" t="n">
         <v>1.6</v>
@@ -40488,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="AT197" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU197" t="n">
         <v>1.52</v>
@@ -40688,7 +40688,7 @@
         <v>0.44</v>
       </c>
       <c r="AS198" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT198" t="n">
         <v>0.36</v>
@@ -40891,7 +40891,7 @@
         <v>0.7</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT199" t="n">
         <v>0.8</v>
@@ -41097,7 +41097,7 @@
         <v>0.71</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU200" t="n">
         <v>1.36</v>
@@ -41297,10 +41297,10 @@
         <v>1.2</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU201" t="n">
         <v>2.08</v>
@@ -41500,10 +41500,10 @@
         <v>0.8</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU202" t="n">
         <v>1.42</v>
@@ -41706,7 +41706,7 @@
         <v>1.79</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU203" t="n">
         <v>1.82</v>
@@ -41909,7 +41909,7 @@
         <v>1.47</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU204" t="n">
         <v>1.72</v>
@@ -42109,7 +42109,7 @@
         <v>2.22</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT205" t="n">
         <v>2.5</v>
@@ -42312,7 +42312,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT206" t="n">
         <v>1.36</v>
@@ -42518,7 +42518,7 @@
         <v>2.64</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU207" t="n">
         <v>1.84</v>
@@ -42718,10 +42718,10 @@
         <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU208" t="n">
         <v>1.89</v>
@@ -42921,7 +42921,7 @@
         <v>0.4</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT209" t="n">
         <v>0.6</v>
@@ -43530,10 +43530,10 @@
         <v>1</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT212" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU212" t="n">
         <v>2.04</v>
@@ -43736,7 +43736,7 @@
         <v>0.86</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU213" t="n">
         <v>1.55</v>
@@ -43936,7 +43936,7 @@
         <v>1.4</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT214" t="n">
         <v>1.5</v>
@@ -44139,7 +44139,7 @@
         <v>2.1</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT215" t="n">
         <v>2.21</v>
@@ -44751,7 +44751,7 @@
         <v>1</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU218" t="n">
         <v>1.5</v>
@@ -44951,10 +44951,10 @@
         <v>1.18</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU219" t="n">
         <v>1.62</v>
@@ -45154,10 +45154,10 @@
         <v>1.5</v>
       </c>
       <c r="AS220" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU220" t="n">
         <v>1.53</v>
@@ -45357,10 +45357,10 @@
         <v>1.45</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU221" t="n">
         <v>1.91</v>
@@ -45563,7 +45563,7 @@
         <v>1.5</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU222" t="n">
         <v>1.71</v>
@@ -45763,7 +45763,7 @@
         <v>2.27</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT223" t="n">
         <v>2.21</v>
@@ -45966,7 +45966,7 @@
         <v>2.3</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT224" t="n">
         <v>2.5</v>
@@ -46375,7 +46375,7 @@
         <v>1.79</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU226" t="n">
         <v>1.96</v>
@@ -46575,7 +46575,7 @@
         <v>0.36</v>
       </c>
       <c r="AS227" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AT227" t="n">
         <v>0.6</v>
@@ -46778,10 +46778,10 @@
         <v>0.9</v>
       </c>
       <c r="AS228" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU228" t="n">
         <v>1.95</v>
@@ -47184,10 +47184,10 @@
         <v>1.64</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU230" t="n">
         <v>1.53</v>
@@ -47390,7 +47390,7 @@
         <v>1.64</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU231" t="n">
         <v>2.05</v>
@@ -47590,10 +47590,10 @@
         <v>1.27</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU232" t="n">
         <v>1.63</v>
@@ -47796,7 +47796,7 @@
         <v>1.5</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU233" t="n">
         <v>1.66</v>
@@ -48199,7 +48199,7 @@
         <v>1.55</v>
       </c>
       <c r="AS235" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT235" t="n">
         <v>1.5</v>
@@ -48405,7 +48405,7 @@
         <v>1.71</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU236" t="n">
         <v>1.52</v>
@@ -48605,7 +48605,7 @@
         <v>2.18</v>
       </c>
       <c r="AS237" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT237" t="n">
         <v>2.21</v>
@@ -48808,7 +48808,7 @@
         <v>1.45</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT238" t="n">
         <v>1.36</v>
@@ -49014,7 +49014,7 @@
         <v>0.86</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU239" t="n">
         <v>1.51</v>
@@ -49620,7 +49620,7 @@
         <v>0.75</v>
       </c>
       <c r="AS242" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT242" t="n">
         <v>0.87</v>
@@ -49823,10 +49823,10 @@
         <v>1.17</v>
       </c>
       <c r="AS243" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU243" t="n">
         <v>1.38</v>
@@ -50029,7 +50029,7 @@
         <v>1.33</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU244" t="n">
         <v>1.46</v>
@@ -50435,7 +50435,7 @@
         <v>1.79</v>
       </c>
       <c r="AT246" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU246" t="n">
         <v>2.02</v>
@@ -50635,10 +50635,10 @@
         <v>0.82</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU247" t="n">
         <v>1.28</v>
@@ -50841,7 +50841,7 @@
         <v>0.71</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU248" t="n">
         <v>1.38</v>
@@ -51041,7 +51041,7 @@
         <v>0.91</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT249" t="n">
         <v>1.21</v>
@@ -51244,10 +51244,10 @@
         <v>1.58</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU250" t="n">
         <v>1.54</v>
@@ -51447,7 +51447,7 @@
         <v>2.08</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT251" t="n">
         <v>2.21</v>
@@ -52056,7 +52056,7 @@
         <v>0.85</v>
       </c>
       <c r="AS254" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT254" t="n">
         <v>0.8</v>
@@ -52465,7 +52465,7 @@
         <v>1.79</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU256" t="n">
         <v>2.03</v>
@@ -53277,7 +53277,7 @@
         <v>1.64</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU260" t="n">
         <v>2</v>
@@ -53477,7 +53477,7 @@
         <v>2.42</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT261" t="n">
         <v>2.5</v>
@@ -53680,10 +53680,10 @@
         <v>1.31</v>
       </c>
       <c r="AS262" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU262" t="n">
         <v>1.98</v>
@@ -53883,7 +53883,7 @@
         <v>1.08</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT263" t="n">
         <v>1.21</v>
@@ -54086,7 +54086,7 @@
         <v>2.15</v>
       </c>
       <c r="AS264" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT264" t="n">
         <v>2.21</v>
@@ -54289,10 +54289,10 @@
         <v>1.31</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU265" t="n">
         <v>1.28</v>
@@ -54495,7 +54495,7 @@
         <v>1.71</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU266" t="n">
         <v>1.48</v>
@@ -54695,10 +54695,10 @@
         <v>1.69</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU267" t="n">
         <v>1.63</v>
@@ -54901,7 +54901,7 @@
         <v>0.71</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU268" t="n">
         <v>1.41</v>
@@ -55101,10 +55101,10 @@
         <v>0.83</v>
       </c>
       <c r="AS269" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AT269" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU269" t="n">
         <v>1.39</v>
@@ -55304,10 +55304,10 @@
         <v>1.15</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU270" t="n">
         <v>1.58</v>
@@ -55507,10 +55507,10 @@
         <v>0.83</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT271" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU271" t="n">
         <v>1.97</v>
@@ -57134,7 +57134,7 @@
         <v>1.5</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU279" t="n">
         <v>1.63</v>
@@ -57334,7 +57334,7 @@
         <v>1.08</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT280" t="n">
         <v>1.21</v>
@@ -57592,6 +57592,2036 @@
       </c>
       <c r="BK281" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2468206</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45016.66666666666</v>
+      </c>
+      <c r="F282" t="n">
+        <v>29</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1</v>
+      </c>
+      <c r="K282" t="n">
+        <v>2</v>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="n">
+        <v>2</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>1</v>
+      </c>
+      <c r="R282" t="n">
+        <v>3</v>
+      </c>
+      <c r="S282" t="n">
+        <v>4</v>
+      </c>
+      <c r="T282" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U282" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V282" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X282" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>2468200</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45017.5</v>
+      </c>
+      <c r="F283" t="n">
+        <v>29</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>1</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>4</v>
+      </c>
+      <c r="R283" t="n">
+        <v>5</v>
+      </c>
+      <c r="S283" t="n">
+        <v>9</v>
+      </c>
+      <c r="T283" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V283" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X283" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2468209</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45017.66666666666</v>
+      </c>
+      <c r="F284" t="n">
+        <v>29</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1</v>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>1</v>
+      </c>
+      <c r="N284" t="n">
+        <v>1</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>5</v>
+      </c>
+      <c r="R284" t="n">
+        <v>5</v>
+      </c>
+      <c r="S284" t="n">
+        <v>10</v>
+      </c>
+      <c r="T284" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U284" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V284" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X284" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2468205</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45018.33333333334</v>
+      </c>
+      <c r="F285" t="n">
+        <v>29</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>1</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="n">
+        <v>3</v>
+      </c>
+      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+      <c r="N285" t="n">
+        <v>4</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>['13', '89', '90+1']</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>5</v>
+      </c>
+      <c r="R285" t="n">
+        <v>1</v>
+      </c>
+      <c r="S285" t="n">
+        <v>6</v>
+      </c>
+      <c r="T285" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V285" t="n">
+        <v>7</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X285" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2468208</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F286" t="n">
+        <v>29</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>1</v>
+      </c>
+      <c r="K286" t="n">
+        <v>2</v>
+      </c>
+      <c r="L286" t="n">
+        <v>3</v>
+      </c>
+      <c r="M286" t="n">
+        <v>1</v>
+      </c>
+      <c r="N286" t="n">
+        <v>4</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>['33', '63', '84']</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>4</v>
+      </c>
+      <c r="R286" t="n">
+        <v>2</v>
+      </c>
+      <c r="S286" t="n">
+        <v>6</v>
+      </c>
+      <c r="T286" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U286" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V286" t="n">
+        <v>3</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X286" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2468202</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F287" t="n">
+        <v>29</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>1</v>
+      </c>
+      <c r="K287" t="n">
+        <v>2</v>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="n">
+        <v>1</v>
+      </c>
+      <c r="N287" t="n">
+        <v>2</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>5</v>
+      </c>
+      <c r="R287" t="n">
+        <v>2</v>
+      </c>
+      <c r="S287" t="n">
+        <v>7</v>
+      </c>
+      <c r="T287" t="n">
+        <v>7</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V287" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X287" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2468203</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F288" t="n">
+        <v>29</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>1</v>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="n">
+        <v>2</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+      <c r="N288" t="n">
+        <v>3</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>['60', '90+3']</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>5</v>
+      </c>
+      <c r="R288" t="n">
+        <v>1</v>
+      </c>
+      <c r="S288" t="n">
+        <v>6</v>
+      </c>
+      <c r="T288" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U288" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V288" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X288" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2468204</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F289" t="n">
+        <v>29</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>2</v>
+      </c>
+      <c r="K289" t="n">
+        <v>2</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>3</v>
+      </c>
+      <c r="N289" t="n">
+        <v>3</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>['38', '39', '58']</t>
+        </is>
+      </c>
+      <c r="Q289" t="n">
+        <v>3</v>
+      </c>
+      <c r="R289" t="n">
+        <v>4</v>
+      </c>
+      <c r="S289" t="n">
+        <v>7</v>
+      </c>
+      <c r="T289" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V289" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X289" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF289" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG289" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH289" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK289" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>2468201</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>45018.50347222222</v>
+      </c>
+      <c r="F290" t="n">
+        <v>29</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>1</v>
+      </c>
+      <c r="J290" t="n">
+        <v>2</v>
+      </c>
+      <c r="K290" t="n">
+        <v>3</v>
+      </c>
+      <c r="L290" t="n">
+        <v>4</v>
+      </c>
+      <c r="M290" t="n">
+        <v>3</v>
+      </c>
+      <c r="N290" t="n">
+        <v>7</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['19', '54', '58', '65']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>['32', '41', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>3</v>
+      </c>
+      <c r="R290" t="n">
+        <v>3</v>
+      </c>
+      <c r="S290" t="n">
+        <v>6</v>
+      </c>
+      <c r="T290" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V290" t="n">
+        <v>6</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X290" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2468207</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45018.65625</v>
+      </c>
+      <c r="F291" t="n">
+        <v>29</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>1</v>
+      </c>
+      <c r="N291" t="n">
+        <v>1</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>7</v>
+      </c>
+      <c r="R291" t="n">
+        <v>1</v>
+      </c>
+      <c r="S291" t="n">
+        <v>8</v>
+      </c>
+      <c r="T291" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U291" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V291" t="n">
+        <v>6</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X291" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK291"/>
+  <dimension ref="A1:BK293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT7" t="n">
         <v>0.8</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT9" t="n">
         <v>0.87</v>
@@ -2933,7 +2933,7 @@
         <v>1.29</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT27" t="n">
         <v>0.87</v>
@@ -6790,7 +6790,7 @@
         <v>0.71</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU31" t="n">
         <v>1.08</v>
@@ -6993,7 +6993,7 @@
         <v>1.21</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU32" t="n">
         <v>1.58</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT33" t="n">
         <v>1.21</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT43" t="n">
         <v>1.4</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT47" t="n">
         <v>1.33</v>
@@ -11459,7 +11459,7 @@
         <v>1.33</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.65</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT62" t="n">
         <v>0.6</v>
@@ -13489,7 +13489,7 @@
         <v>1.67</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU64" t="n">
         <v>2.14</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT67" t="n">
         <v>1.21</v>
@@ -15316,7 +15316,7 @@
         <v>1.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU73" t="n">
         <v>1.43</v>
@@ -17140,7 +17140,7 @@
         <v>2.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT82" t="n">
         <v>2.5</v>
@@ -17752,7 +17752,7 @@
         <v>1.71</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU85" t="n">
         <v>1.8</v>
@@ -18967,7 +18967,7 @@
         <v>0.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT91" t="n">
         <v>1.4</v>
@@ -20388,10 +20388,10 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU98" t="n">
         <v>1.52</v>
@@ -21203,7 +21203,7 @@
         <v>1</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -21606,7 +21606,7 @@
         <v>0.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT104" t="n">
         <v>1.21</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT115" t="n">
         <v>1.21</v>
@@ -24654,7 +24654,7 @@
         <v>1.47</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU119" t="n">
         <v>1.58</v>
@@ -25260,7 +25260,7 @@
         <v>0.8</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT122" t="n">
         <v>0.93</v>
@@ -27090,7 +27090,7 @@
         <v>1.64</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU131" t="n">
         <v>2.07</v>
@@ -27496,7 +27496,7 @@
         <v>0.71</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU133" t="n">
         <v>1.28</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT134" t="n">
         <v>1.53</v>
@@ -29523,7 +29523,7 @@
         <v>1.29</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT143" t="n">
         <v>1.36</v>
@@ -31962,7 +31962,7 @@
         <v>1.2</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU155" t="n">
         <v>1.41</v>
@@ -32368,7 +32368,7 @@
         <v>2.33</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU157" t="n">
         <v>2.18</v>
@@ -33989,7 +33989,7 @@
         <v>1.88</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT165" t="n">
         <v>1.33</v>
@@ -34395,7 +34395,7 @@
         <v>2.75</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT167" t="n">
         <v>2.21</v>
@@ -36225,7 +36225,7 @@
         <v>1</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU176" t="n">
         <v>1.67</v>
@@ -37440,7 +37440,7 @@
         <v>0.44</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT182" t="n">
         <v>0.6</v>
@@ -37849,7 +37849,7 @@
         <v>1.64</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU184" t="n">
         <v>1.8</v>
@@ -38658,7 +38658,7 @@
         <v>1.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT188" t="n">
         <v>1.36</v>
@@ -40082,7 +40082,7 @@
         <v>1.5</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU195" t="n">
         <v>1.72</v>
@@ -41500,7 +41500,7 @@
         <v>0.8</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT202" t="n">
         <v>0.73</v>
@@ -42515,7 +42515,7 @@
         <v>1.3</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT207" t="n">
         <v>1.6</v>
@@ -42721,7 +42721,7 @@
         <v>2.2</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU208" t="n">
         <v>1.89</v>
@@ -43939,7 +43939,7 @@
         <v>2.2</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU214" t="n">
         <v>1.81</v>
@@ -46575,7 +46575,7 @@
         <v>0.36</v>
       </c>
       <c r="AS227" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT227" t="n">
         <v>0.6</v>
@@ -46781,7 +46781,7 @@
         <v>2.07</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU228" t="n">
         <v>1.95</v>
@@ -48202,7 +48202,7 @@
         <v>2.33</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU235" t="n">
         <v>2.08</v>
@@ -49214,7 +49214,7 @@
         <v>0.92</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT240" t="n">
         <v>0.8</v>
@@ -49823,7 +49823,7 @@
         <v>1.17</v>
       </c>
       <c r="AS243" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT243" t="n">
         <v>1.4</v>
@@ -50638,7 +50638,7 @@
         <v>1.2</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU247" t="n">
         <v>1.28</v>
@@ -51853,10 +51853,10 @@
         <v>1.42</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU253" t="n">
         <v>1.86</v>
@@ -55101,7 +55101,7 @@
         <v>0.83</v>
       </c>
       <c r="AS269" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT269" t="n">
         <v>0.93</v>
@@ -55510,7 +55510,7 @@
         <v>1.67</v>
       </c>
       <c r="AT271" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU271" t="n">
         <v>1.97</v>
@@ -55916,7 +55916,7 @@
         <v>1.47</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU273" t="n">
         <v>1.62</v>
@@ -56116,7 +56116,7 @@
         <v>0.38</v>
       </c>
       <c r="AS274" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT274" t="n">
         <v>0.36</v>
@@ -58755,7 +58755,7 @@
         <v>1.64</v>
       </c>
       <c r="AS287" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT287" t="n">
         <v>1.6</v>
@@ -59367,7 +59367,7 @@
         <v>1.73</v>
       </c>
       <c r="AT290" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU290" t="n">
         <v>1.56</v>
@@ -59622,6 +59622,412 @@
       </c>
       <c r="BK291" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2468217</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45023.66666666666</v>
+      </c>
+      <c r="F292" t="n">
+        <v>30</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="n">
+        <v>2</v>
+      </c>
+      <c r="M292" t="n">
+        <v>1</v>
+      </c>
+      <c r="N292" t="n">
+        <v>3</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['11', '65']</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>5</v>
+      </c>
+      <c r="R292" t="n">
+        <v>1</v>
+      </c>
+      <c r="S292" t="n">
+        <v>6</v>
+      </c>
+      <c r="T292" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U292" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V292" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X292" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2468211</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45024.5</v>
+      </c>
+      <c r="F293" t="n">
+        <v>30</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>1</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>3</v>
+      </c>
+      <c r="R293" t="n">
+        <v>6</v>
+      </c>
+      <c r="S293" t="n">
+        <v>9</v>
+      </c>
+      <c r="T293" t="n">
+        <v>7</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V293" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X293" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK293"/>
+  <dimension ref="A1:BK301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT2" t="n">
         <v>0.73</v>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.2</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.07</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
         <v>0.6</v>
@@ -2324,7 +2324,7 @@
         <v>2.67</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT12" t="n">
         <v>1.4</v>
@@ -3136,7 +3136,7 @@
         <v>1.73</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT18" t="n">
         <v>1.53</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT19" t="n">
         <v>0.73</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT21" t="n">
         <v>0.6</v>
@@ -5978,7 +5978,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU27" t="n">
         <v>1.98</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU28" t="n">
         <v>1.63</v>
@@ -6587,7 +6587,7 @@
         <v>2.07</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU30" t="n">
         <v>1.87</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT31" t="n">
         <v>1.4</v>
@@ -7196,7 +7196,7 @@
         <v>2.67</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU33" t="n">
         <v>1.79</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU34" t="n">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT35" t="n">
         <v>0.36</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU37" t="n">
         <v>1.4</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT39" t="n">
         <v>1.4</v>
@@ -8617,7 +8617,7 @@
         <v>2.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU40" t="n">
         <v>3.14</v>
@@ -8817,10 +8817,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU41" t="n">
         <v>1.62</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT45" t="n">
         <v>0.73</v>
@@ -9835,7 +9835,7 @@
         <v>2.2</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU46" t="n">
         <v>2.03</v>
@@ -10241,7 +10241,7 @@
         <v>1.47</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU48" t="n">
         <v>1.44</v>
@@ -10647,7 +10647,7 @@
         <v>1.67</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU50" t="n">
         <v>1.98</v>
@@ -10850,7 +10850,7 @@
         <v>1.21</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU51" t="n">
         <v>1.36</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT52" t="n">
         <v>0.36</v>
@@ -11253,10 +11253,10 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU53" t="n">
         <v>1.62</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT54" t="n">
         <v>1.4</v>
@@ -11659,7 +11659,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT55" t="n">
         <v>1.33</v>
@@ -11865,7 +11865,7 @@
         <v>1.2</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU56" t="n">
         <v>0.92</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT57" t="n">
         <v>1.53</v>
@@ -12471,10 +12471,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU59" t="n">
         <v>2.18</v>
@@ -12674,10 +12674,10 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU60" t="n">
         <v>1.49</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT61" t="n">
         <v>1.4</v>
@@ -13286,7 +13286,7 @@
         <v>2.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU63" t="n">
         <v>2.57</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU65" t="n">
         <v>1.41</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT68" t="n">
         <v>1.6</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT69" t="n">
         <v>0.8</v>
@@ -14707,7 +14707,7 @@
         <v>2.2</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU70" t="n">
         <v>2.14</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT73" t="n">
         <v>0.73</v>
@@ -15519,7 +15519,7 @@
         <v>2.07</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU74" t="n">
         <v>2.06</v>
@@ -15719,10 +15719,10 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -16328,7 +16328,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT78" t="n">
         <v>0.36</v>
@@ -16534,7 +16534,7 @@
         <v>1.67</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU79" t="n">
         <v>2.05</v>
@@ -16734,7 +16734,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT80" t="n">
         <v>1.53</v>
@@ -16937,10 +16937,10 @@
         <v>3</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU81" t="n">
         <v>2.16</v>
@@ -17143,7 +17143,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU82" t="n">
         <v>1.5</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU83" t="n">
         <v>1.41</v>
@@ -17749,7 +17749,7 @@
         <v>1.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT85" t="n">
         <v>1.4</v>
@@ -18155,10 +18155,10 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -18361,7 +18361,7 @@
         <v>1.21</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU88" t="n">
         <v>1.52</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT89" t="n">
         <v>1.4</v>
@@ -19170,10 +19170,10 @@
         <v>0.75</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU92" t="n">
         <v>2.04</v>
@@ -19576,10 +19576,10 @@
         <v>3</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU94" t="n">
         <v>1.39</v>
@@ -19779,10 +19779,10 @@
         <v>2.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU95" t="n">
         <v>1.4</v>
@@ -20188,7 +20188,7 @@
         <v>1.2</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU97" t="n">
         <v>1.19</v>
@@ -20591,7 +20591,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT99" t="n">
         <v>0.6</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT103" t="n">
         <v>1.4</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT108" t="n">
         <v>0.73</v>
@@ -22621,10 +22621,10 @@
         <v>0.8</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU109" t="n">
         <v>1.45</v>
@@ -22827,7 +22827,7 @@
         <v>1.73</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU110" t="n">
         <v>1.38</v>
@@ -23030,7 +23030,7 @@
         <v>2.33</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU111" t="n">
         <v>2.1</v>
@@ -23230,10 +23230,10 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -23433,7 +23433,7 @@
         <v>0.2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT113" t="n">
         <v>1.4</v>
@@ -23842,7 +23842,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU115" t="n">
         <v>1.56</v>
@@ -24042,10 +24042,10 @@
         <v>0.6</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU116" t="n">
         <v>1.59</v>
@@ -24248,7 +24248,7 @@
         <v>1.2</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU117" t="n">
         <v>1.3</v>
@@ -24448,7 +24448,7 @@
         <v>2.17</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT118" t="n">
         <v>1.33</v>
@@ -24854,7 +24854,7 @@
         <v>0.33</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT120" t="n">
         <v>0.8</v>
@@ -25060,7 +25060,7 @@
         <v>2.07</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU121" t="n">
         <v>1.81</v>
@@ -25263,7 +25263,7 @@
         <v>2.67</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU122" t="n">
         <v>1.97</v>
@@ -25669,7 +25669,7 @@
         <v>1</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU124" t="n">
         <v>1.3</v>
@@ -26478,10 +26478,10 @@
         <v>1.33</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU128" t="n">
         <v>1.57</v>
@@ -26884,7 +26884,7 @@
         <v>1.33</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT130" t="n">
         <v>1.6</v>
@@ -27087,7 +27087,7 @@
         <v>1.67</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT131" t="n">
         <v>1.4</v>
@@ -27290,10 +27290,10 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU132" t="n">
         <v>1.81</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT133" t="n">
         <v>0.73</v>
@@ -27899,10 +27899,10 @@
         <v>2.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28305,10 +28305,10 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU137" t="n">
         <v>1.63</v>
@@ -28508,7 +28508,7 @@
         <v>0.43</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT138" t="n">
         <v>0.8</v>
@@ -28714,7 +28714,7 @@
         <v>1.47</v>
       </c>
       <c r="AT139" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU139" t="n">
         <v>1.67</v>
@@ -28917,7 +28917,7 @@
         <v>2.07</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU140" t="n">
         <v>1.86</v>
@@ -29320,7 +29320,7 @@
         <v>1.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT142" t="n">
         <v>1.6</v>
@@ -29526,7 +29526,7 @@
         <v>2.67</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU143" t="n">
         <v>1.94</v>
@@ -29729,7 +29729,7 @@
         <v>2.2</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU144" t="n">
         <v>1.89</v>
@@ -29932,7 +29932,7 @@
         <v>2.33</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU145" t="n">
         <v>2.27</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT148" t="n">
         <v>0.73</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT149" t="n">
         <v>1.4</v>
@@ -31150,7 +31150,7 @@
         <v>1.73</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU151" t="n">
         <v>1.31</v>
@@ -31350,7 +31350,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT152" t="n">
         <v>0.36</v>
@@ -31553,7 +31553,7 @@
         <v>0.38</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT153" t="n">
         <v>0.8</v>
@@ -31759,7 +31759,7 @@
         <v>1.21</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU154" t="n">
         <v>1.53</v>
@@ -32568,7 +32568,7 @@
         <v>0.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT158" t="n">
         <v>1.21</v>
@@ -32771,10 +32771,10 @@
         <v>1.43</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU159" t="n">
         <v>1.91</v>
@@ -32974,7 +32974,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT160" t="n">
         <v>1.53</v>
@@ -33180,7 +33180,7 @@
         <v>1.67</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU161" t="n">
         <v>1.84</v>
@@ -33383,7 +33383,7 @@
         <v>1.73</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU162" t="n">
         <v>1.35</v>
@@ -33583,10 +33583,10 @@
         <v>0.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -34192,10 +34192,10 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU166" t="n">
         <v>1.84</v>
@@ -34398,7 +34398,7 @@
         <v>2.67</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU167" t="n">
         <v>1.94</v>
@@ -35004,10 +35004,10 @@
         <v>2</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU170" t="n">
         <v>1.48</v>
@@ -35410,7 +35410,7 @@
         <v>1</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT172" t="n">
         <v>1.4</v>
@@ -35616,7 +35616,7 @@
         <v>1.21</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU173" t="n">
         <v>1.54</v>
@@ -35819,7 +35819,7 @@
         <v>1.2</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU174" t="n">
         <v>1.39</v>
@@ -36019,7 +36019,7 @@
         <v>0.88</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT175" t="n">
         <v>1.4</v>
@@ -36425,10 +36425,10 @@
         <v>2.38</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU177" t="n">
         <v>1.59</v>
@@ -36628,7 +36628,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT178" t="n">
         <v>1.21</v>
@@ -37237,10 +37237,10 @@
         <v>2.13</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU181" t="n">
         <v>1.76</v>
@@ -37443,7 +37443,7 @@
         <v>2.67</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU182" t="n">
         <v>1.86</v>
@@ -37846,7 +37846,7 @@
         <v>0.75</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT184" t="n">
         <v>0.73</v>
@@ -38252,7 +38252,7 @@
         <v>1.33</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT186" t="n">
         <v>1.6</v>
@@ -38458,7 +38458,7 @@
         <v>1.47</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU187" t="n">
         <v>1.66</v>
@@ -38661,7 +38661,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU188" t="n">
         <v>1.47</v>
@@ -38861,7 +38861,7 @@
         <v>0.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT189" t="n">
         <v>0.8</v>
@@ -39270,7 +39270,7 @@
         <v>2.2</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU191" t="n">
         <v>1.95</v>
@@ -39470,10 +39470,10 @@
         <v>1.11</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU192" t="n">
         <v>1.58</v>
@@ -39673,7 +39673,7 @@
         <v>1.56</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT193" t="n">
         <v>1.53</v>
@@ -39879,7 +39879,7 @@
         <v>1.67</v>
       </c>
       <c r="AT194" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU194" t="n">
         <v>1.89</v>
@@ -40079,7 +40079,7 @@
         <v>1.56</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT195" t="n">
         <v>1.4</v>
@@ -40488,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU197" t="n">
         <v>1.52</v>
@@ -41094,7 +41094,7 @@
         <v>0.89</v>
       </c>
       <c r="AS200" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT200" t="n">
         <v>1.4</v>
@@ -41703,7 +41703,7 @@
         <v>1.8</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT203" t="n">
         <v>1.33</v>
@@ -42109,10 +42109,10 @@
         <v>2.22</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT205" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU205" t="n">
         <v>1.56</v>
@@ -42315,7 +42315,7 @@
         <v>2.07</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU206" t="n">
         <v>1.89</v>
@@ -42924,7 +42924,7 @@
         <v>1.73</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU209" t="n">
         <v>1.42</v>
@@ -43124,10 +43124,10 @@
         <v>2.2</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT210" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU210" t="n">
         <v>1.44</v>
@@ -43327,10 +43327,10 @@
         <v>0.8</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU211" t="n">
         <v>1.94</v>
@@ -43533,7 +43533,7 @@
         <v>2.33</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU212" t="n">
         <v>2.04</v>
@@ -43733,7 +43733,7 @@
         <v>1.1</v>
       </c>
       <c r="AS213" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT213" t="n">
         <v>1.4</v>
@@ -44142,7 +44142,7 @@
         <v>1.2</v>
       </c>
       <c r="AT215" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU215" t="n">
         <v>1.33</v>
@@ -44342,7 +44342,7 @@
         <v>0.4</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT216" t="n">
         <v>0.36</v>
@@ -44545,7 +44545,7 @@
         <v>0.73</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT217" t="n">
         <v>0.8</v>
@@ -45560,7 +45560,7 @@
         <v>1</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT222" t="n">
         <v>0.73</v>
@@ -45766,7 +45766,7 @@
         <v>1.73</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU223" t="n">
         <v>1.46</v>
@@ -45969,7 +45969,7 @@
         <v>1.2</v>
       </c>
       <c r="AT224" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU224" t="n">
         <v>1.31</v>
@@ -46172,7 +46172,7 @@
         <v>1.47</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU225" t="n">
         <v>1.71</v>
@@ -46372,7 +46372,7 @@
         <v>0.82</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT226" t="n">
         <v>0.6</v>
@@ -46578,7 +46578,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU227" t="n">
         <v>1.36</v>
@@ -46981,10 +46981,10 @@
         <v>0.82</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU229" t="n">
         <v>1.39</v>
@@ -47184,7 +47184,7 @@
         <v>1.64</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT230" t="n">
         <v>1.33</v>
@@ -47387,7 +47387,7 @@
         <v>1.45</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT231" t="n">
         <v>1.53</v>
@@ -47793,7 +47793,7 @@
         <v>1.17</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT233" t="n">
         <v>1.4</v>
@@ -48402,7 +48402,7 @@
         <v>0.92</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT236" t="n">
         <v>0.73</v>
@@ -48608,7 +48608,7 @@
         <v>1</v>
       </c>
       <c r="AT237" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU237" t="n">
         <v>1.54</v>
@@ -48811,7 +48811,7 @@
         <v>2.2</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU238" t="n">
         <v>1.78</v>
@@ -49011,7 +49011,7 @@
         <v>0.91</v>
       </c>
       <c r="AS239" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT239" t="n">
         <v>1.21</v>
@@ -49420,7 +49420,7 @@
         <v>1.47</v>
       </c>
       <c r="AT241" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU241" t="n">
         <v>1.7</v>
@@ -49623,7 +49623,7 @@
         <v>2.07</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU242" t="n">
         <v>1.96</v>
@@ -50026,7 +50026,7 @@
         <v>1.33</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT244" t="n">
         <v>1.53</v>
@@ -50229,10 +50229,10 @@
         <v>0.42</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU245" t="n">
         <v>1.44</v>
@@ -50432,10 +50432,10 @@
         <v>0.91</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU246" t="n">
         <v>2.02</v>
@@ -50838,7 +50838,7 @@
         <v>0.75</v>
       </c>
       <c r="AS248" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT248" t="n">
         <v>0.6</v>
@@ -51041,10 +51041,10 @@
         <v>0.91</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU249" t="n">
         <v>1.55</v>
@@ -51450,7 +51450,7 @@
         <v>1.67</v>
       </c>
       <c r="AT251" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU251" t="n">
         <v>1.95</v>
@@ -51650,10 +51650,10 @@
         <v>0.62</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU252" t="n">
         <v>1.63</v>
@@ -52259,10 +52259,10 @@
         <v>2.25</v>
       </c>
       <c r="AS255" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT255" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU255" t="n">
         <v>1.45</v>
@@ -52462,7 +52462,7 @@
         <v>0.85</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT256" t="n">
         <v>0.73</v>
@@ -52668,7 +52668,7 @@
         <v>1.47</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU257" t="n">
         <v>1.69</v>
@@ -52868,7 +52868,7 @@
         <v>0.42</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT258" t="n">
         <v>0.36</v>
@@ -53074,7 +53074,7 @@
         <v>1</v>
       </c>
       <c r="AT259" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU259" t="n">
         <v>1.45</v>
@@ -53274,7 +53274,7 @@
         <v>1.5</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT260" t="n">
         <v>1.33</v>
@@ -53480,7 +53480,7 @@
         <v>2.2</v>
       </c>
       <c r="AT261" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU261" t="n">
         <v>1.71</v>
@@ -53886,7 +53886,7 @@
         <v>1.21</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU263" t="n">
         <v>1.56</v>
@@ -54089,7 +54089,7 @@
         <v>1</v>
       </c>
       <c r="AT264" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU264" t="n">
         <v>1.47</v>
@@ -54492,7 +54492,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT266" t="n">
         <v>0.6</v>
@@ -54695,7 +54695,7 @@
         <v>1.69</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT267" t="n">
         <v>1.6</v>
@@ -54898,7 +54898,7 @@
         <v>1.08</v>
       </c>
       <c r="AS268" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT268" t="n">
         <v>1.21</v>
@@ -55104,7 +55104,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU269" t="n">
         <v>1.39</v>
@@ -55710,7 +55710,7 @@
         <v>0.79</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT272" t="n">
         <v>0.8</v>
@@ -56319,10 +56319,10 @@
         <v>2.15</v>
       </c>
       <c r="AS275" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT275" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU275" t="n">
         <v>1.36</v>
@@ -56522,10 +56522,10 @@
         <v>1.46</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU276" t="n">
         <v>1.44</v>
@@ -56728,7 +56728,7 @@
         <v>1</v>
       </c>
       <c r="AT277" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU277" t="n">
         <v>1.44</v>
@@ -56928,10 +56928,10 @@
         <v>0.86</v>
       </c>
       <c r="AS278" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU278" t="n">
         <v>1.46</v>
@@ -57131,7 +57131,7 @@
         <v>1.46</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT279" t="n">
         <v>1.33</v>
@@ -57337,7 +57337,7 @@
         <v>2.33</v>
       </c>
       <c r="AT280" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU280" t="n">
         <v>2.09</v>
@@ -57537,10 +57537,10 @@
         <v>2.46</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT281" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU281" t="n">
         <v>1.96</v>
@@ -58555,7 +58555,7 @@
         <v>1</v>
       </c>
       <c r="AT286" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU286" t="n">
         <v>1.44</v>
@@ -59161,7 +59161,7 @@
         <v>1.29</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT289" t="n">
         <v>1.4</v>
@@ -60028,6 +60028,1630 @@
       </c>
       <c r="BK293" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2468215</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45024.66666666666</v>
+      </c>
+      <c r="F294" t="n">
+        <v>30</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>1</v>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>2</v>
+      </c>
+      <c r="N294" t="n">
+        <v>2</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['26', '76']</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>10</v>
+      </c>
+      <c r="R294" t="n">
+        <v>5</v>
+      </c>
+      <c r="S294" t="n">
+        <v>15</v>
+      </c>
+      <c r="T294" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V294" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X294" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>2468216</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45025.33333333334</v>
+      </c>
+      <c r="F295" t="n">
+        <v>30</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>1</v>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="n">
+        <v>3</v>
+      </c>
+      <c r="M295" t="n">
+        <v>1</v>
+      </c>
+      <c r="N295" t="n">
+        <v>4</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>['60', '68', '79']</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
+        <v>7</v>
+      </c>
+      <c r="R295" t="n">
+        <v>2</v>
+      </c>
+      <c r="S295" t="n">
+        <v>9</v>
+      </c>
+      <c r="T295" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V295" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X295" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ295" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK295" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2468210</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45025.41666666666</v>
+      </c>
+      <c r="F296" t="n">
+        <v>30</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>3</v>
+      </c>
+      <c r="K296" t="n">
+        <v>3</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>3</v>
+      </c>
+      <c r="N296" t="n">
+        <v>3</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['3', '6', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>7</v>
+      </c>
+      <c r="R296" t="n">
+        <v>5</v>
+      </c>
+      <c r="S296" t="n">
+        <v>12</v>
+      </c>
+      <c r="T296" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U296" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V296" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X296" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2468214</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45025.41666666666</v>
+      </c>
+      <c r="F297" t="n">
+        <v>30</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>1</v>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="n">
+        <v>2</v>
+      </c>
+      <c r="N297" t="n">
+        <v>3</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['31', '85']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>4</v>
+      </c>
+      <c r="R297" t="n">
+        <v>3</v>
+      </c>
+      <c r="S297" t="n">
+        <v>7</v>
+      </c>
+      <c r="T297" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V297" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X297" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2468218</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45025.41666666666</v>
+      </c>
+      <c r="F298" t="n">
+        <v>30</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>1</v>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="n">
+        <v>1</v>
+      </c>
+      <c r="N298" t="n">
+        <v>2</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>6</v>
+      </c>
+      <c r="R298" t="n">
+        <v>3</v>
+      </c>
+      <c r="S298" t="n">
+        <v>9</v>
+      </c>
+      <c r="T298" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U298" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V298" t="n">
+        <v>5</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X298" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF298" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG298" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ298" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK298" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2468219</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45025.41666666666</v>
+      </c>
+      <c r="F299" t="n">
+        <v>30</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>2</v>
+      </c>
+      <c r="K299" t="n">
+        <v>2</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>2</v>
+      </c>
+      <c r="N299" t="n">
+        <v>2</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>['27', '30']</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>3</v>
+      </c>
+      <c r="R299" t="n">
+        <v>2</v>
+      </c>
+      <c r="S299" t="n">
+        <v>5</v>
+      </c>
+      <c r="T299" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U299" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V299" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X299" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK299" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2468213</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45025.50347222222</v>
+      </c>
+      <c r="F300" t="n">
+        <v>30</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>2</v>
+      </c>
+      <c r="K300" t="n">
+        <v>2</v>
+      </c>
+      <c r="L300" t="n">
+        <v>2</v>
+      </c>
+      <c r="M300" t="n">
+        <v>2</v>
+      </c>
+      <c r="N300" t="n">
+        <v>4</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>['65', '78']</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>['21', '30']</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>6</v>
+      </c>
+      <c r="R300" t="n">
+        <v>8</v>
+      </c>
+      <c r="S300" t="n">
+        <v>14</v>
+      </c>
+      <c r="T300" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U300" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V300" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X300" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2468212</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>45025.65625</v>
+      </c>
+      <c r="F301" t="n">
+        <v>30</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>3</v>
+      </c>
+      <c r="R301" t="n">
+        <v>6</v>
+      </c>
+      <c r="S301" t="n">
+        <v>9</v>
+      </c>
+      <c r="T301" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U301" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V301" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X301" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE301" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF301" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG301" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH301" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI301" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ301" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK301" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK301"/>
+  <dimension ref="A1:BK302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT5" t="n">
         <v>1.6</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT25" t="n">
         <v>1.33</v>
@@ -8414,7 +8414,7 @@
         <v>1.73</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.44</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT48" t="n">
         <v>2.27</v>
@@ -12880,7 +12880,7 @@
         <v>1.67</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU61" t="n">
         <v>2.44</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT66" t="n">
         <v>1.4</v>
@@ -14910,7 +14910,7 @@
         <v>1.73</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU71" t="n">
         <v>1.43</v>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT86" t="n">
         <v>1.21</v>
@@ -18970,7 +18970,7 @@
         <v>2.67</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU91" t="n">
         <v>1.81</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT105" t="n">
         <v>0.36</v>
@@ -22218,7 +22218,7 @@
         <v>2.2</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.98</v>
@@ -23436,7 +23436,7 @@
         <v>1.25</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.39</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT119" t="n">
         <v>0.73</v>
@@ -28711,7 +28711,7 @@
         <v>2.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT139" t="n">
         <v>2.13</v>
@@ -29120,7 +29120,7 @@
         <v>1.67</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU141" t="n">
         <v>1.93</v>
@@ -32165,7 +32165,7 @@
         <v>1</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU156" t="n">
         <v>1.65</v>
@@ -33786,7 +33786,7 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT164" t="n">
         <v>0.73</v>
@@ -36022,7 +36022,7 @@
         <v>1.27</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU175" t="n">
         <v>1.57</v>
@@ -38455,7 +38455,7 @@
         <v>0.78</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT187" t="n">
         <v>0.88</v>
@@ -41097,7 +41097,7 @@
         <v>0.67</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU200" t="n">
         <v>1.36</v>
@@ -41906,7 +41906,7 @@
         <v>0.9</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT204" t="n">
         <v>0.6</v>
@@ -43736,7 +43736,7 @@
         <v>0.8</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU213" t="n">
         <v>1.55</v>
@@ -46169,7 +46169,7 @@
         <v>1</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT225" t="n">
         <v>1.13</v>
@@ -47593,7 +47593,7 @@
         <v>1.21</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU232" t="n">
         <v>1.63</v>
@@ -49417,7 +49417,7 @@
         <v>2.36</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT241" t="n">
         <v>2.4</v>
@@ -49826,7 +49826,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU243" t="n">
         <v>1.38</v>
@@ -52665,7 +52665,7 @@
         <v>1.33</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT257" t="n">
         <v>1.47</v>
@@ -53683,7 +53683,7 @@
         <v>2.07</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU262" t="n">
         <v>1.98</v>
@@ -55913,7 +55913,7 @@
         <v>1.38</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT273" t="n">
         <v>1.4</v>
@@ -59570,7 +59570,7 @@
         <v>2.33</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU291" t="n">
         <v>2.08</v>
@@ -61652,6 +61652,209 @@
       </c>
       <c r="BK301" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2468229</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>45030.66666666666</v>
+      </c>
+      <c r="F302" t="n">
+        <v>31</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>1</v>
+      </c>
+      <c r="J302" t="n">
+        <v>1</v>
+      </c>
+      <c r="K302" t="n">
+        <v>2</v>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="n">
+        <v>2</v>
+      </c>
+      <c r="N302" t="n">
+        <v>3</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>['34', '88']</t>
+        </is>
+      </c>
+      <c r="Q302" t="n">
+        <v>8</v>
+      </c>
+      <c r="R302" t="n">
+        <v>5</v>
+      </c>
+      <c r="S302" t="n">
+        <v>13</v>
+      </c>
+      <c r="T302" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U302" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V302" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W302" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X302" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL302" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ302" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA302" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB302" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC302" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD302" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE302" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF302" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG302" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH302" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI302" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ302" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK302" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
